--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -9914,7 +9914,9 @@
       <c r="E139" t="n">
         <v>1919</v>
       </c>
-      <c r="F139" t="inlineStr"/>
+      <c r="F139" t="n">
+        <v>845</v>
+      </c>
       <c r="G139" t="n">
         <v>983</v>
       </c>
@@ -9941,7 +9943,9 @@
       <c r="T139" t="n">
         <v>307</v>
       </c>
-      <c r="U139" t="inlineStr"/>
+      <c r="U139" t="n">
+        <v>384</v>
+      </c>
       <c r="V139" t="n">
         <v>3316</v>
       </c>
@@ -9951,7 +9955,9 @@
       <c r="Z139" t="n">
         <v>205</v>
       </c>
-      <c r="AA139" t="inlineStr"/>
+      <c r="AA139" t="n">
+        <v>3641</v>
+      </c>
       <c r="AB139" t="n">
         <v>30953</v>
       </c>
@@ -19143,7 +19149,9 @@
       <c r="E139" t="n">
         <v>97</v>
       </c>
-      <c r="F139" t="inlineStr"/>
+      <c r="F139" t="n">
+        <v>35</v>
+      </c>
       <c r="G139" t="n">
         <v>50</v>
       </c>
@@ -19170,7 +19178,9 @@
       <c r="T139" t="n">
         <v>23</v>
       </c>
-      <c r="U139" t="inlineStr"/>
+      <c r="U139" t="n">
+        <v>18</v>
+      </c>
       <c r="V139" t="n">
         <v>349</v>
       </c>
@@ -19180,7 +19190,9 @@
       <c r="Z139" t="n">
         <v>9</v>
       </c>
-      <c r="AA139" t="inlineStr"/>
+      <c r="AA139" t="n">
+        <v>130</v>
+      </c>
       <c r="AB139" t="n">
         <v>1923</v>
       </c>
@@ -27873,7 +27885,9 @@
       <c r="P138" t="n">
         <v>0</v>
       </c>
-      <c r="Q138" t="inlineStr"/>
+      <c r="Q138" t="n">
+        <v>9</v>
+      </c>
       <c r="R138" t="n">
         <v>5</v>
       </c>
@@ -27899,7 +27913,7 @@
         <v>7</v>
       </c>
       <c r="AB138" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="139">
@@ -27914,8 +27928,12 @@
       <c r="E139" t="n">
         <v>3</v>
       </c>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
@@ -27933,7 +27951,9 @@
       </c>
       <c r="S139" t="inlineStr"/>
       <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr"/>
+      <c r="U139" t="n">
+        <v>1</v>
+      </c>
       <c r="V139" t="n">
         <v>12</v>
       </c>
@@ -27943,9 +27963,11 @@
       <c r="Z139" t="n">
         <v>0</v>
       </c>
-      <c r="AA139" t="inlineStr"/>
+      <c r="AA139" t="n">
+        <v>6</v>
+      </c>
       <c r="AB139" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -35692,7 +35714,9 @@
       </c>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
+      <c r="Q138" t="n">
+        <v>2</v>
+      </c>
       <c r="R138" t="n">
         <v>1</v>
       </c>
@@ -35731,7 +35755,9 @@
       <c r="E139" t="n">
         <v>0</v>
       </c>
-      <c r="F139" t="inlineStr"/>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
@@ -35748,7 +35774,9 @@
       </c>
       <c r="S139" t="inlineStr"/>
       <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr"/>
+      <c r="U139" t="n">
+        <v>0</v>
+      </c>
       <c r="V139" t="n">
         <v>1</v>
       </c>
@@ -42234,7 +42262,9 @@
       <c r="E139" t="n">
         <v>0</v>
       </c>
-      <c r="F139" t="inlineStr"/>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
@@ -42257,7 +42287,9 @@
       <c r="X139" t="inlineStr"/>
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr"/>
-      <c r="AA139" t="inlineStr"/>
+      <c r="AA139" t="n">
+        <v>0</v>
+      </c>
       <c r="AB139" t="n">
         <v>5</v>
       </c>
@@ -48832,7 +48864,9 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
+      <c r="Q138" t="n">
+        <v>223</v>
+      </c>
       <c r="R138" t="inlineStr"/>
       <c r="S138" t="inlineStr"/>
       <c r="T138" t="n">
@@ -48863,7 +48897,9 @@
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
+      <c r="F139" t="n">
+        <v>805</v>
+      </c>
       <c r="G139" t="n">
         <v>928</v>
       </c>
@@ -48894,7 +48930,7 @@
       </c>
       <c r="AA139" t="inlineStr"/>
       <c r="AB139" t="n">
-        <v>5534</v>
+        <v>5535</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -9735,7 +9735,9 @@
       <c r="N136" t="n">
         <v>733</v>
       </c>
-      <c r="O136" t="inlineStr"/>
+      <c r="O136" t="n">
+        <v>124</v>
+      </c>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
@@ -9795,7 +9797,9 @@
         <v>736</v>
       </c>
       <c r="N137" t="inlineStr"/>
-      <c r="O137" t="inlineStr"/>
+      <c r="O137" t="n">
+        <v>124</v>
+      </c>
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr"/>
@@ -9863,7 +9867,9 @@
         <v>736</v>
       </c>
       <c r="N138" t="inlineStr"/>
-      <c r="O138" t="inlineStr"/>
+      <c r="O138" t="n">
+        <v>124</v>
+      </c>
       <c r="P138" t="n">
         <v>82</v>
       </c>
@@ -9931,8 +9937,12 @@
         <v>736</v>
       </c>
       <c r="N139" t="inlineStr"/>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
+      <c r="O139" t="n">
+        <v>124</v>
+      </c>
+      <c r="P139" t="n">
+        <v>82</v>
+      </c>
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="n">
         <v>79</v>
@@ -18970,7 +18980,9 @@
       </c>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr"/>
-      <c r="O136" t="inlineStr"/>
+      <c r="O136" t="n">
+        <v>3</v>
+      </c>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
@@ -19030,7 +19042,9 @@
         <v>20</v>
       </c>
       <c r="N137" t="inlineStr"/>
-      <c r="O137" t="inlineStr"/>
+      <c r="O137" t="n">
+        <v>3</v>
+      </c>
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr"/>
@@ -19098,7 +19112,9 @@
         <v>20</v>
       </c>
       <c r="N138" t="inlineStr"/>
-      <c r="O138" t="inlineStr"/>
+      <c r="O138" t="n">
+        <v>3</v>
+      </c>
       <c r="P138" t="n">
         <v>0</v>
       </c>
@@ -19166,8 +19182,12 @@
         <v>20</v>
       </c>
       <c r="N139" t="inlineStr"/>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
+      <c r="O139" t="n">
+        <v>3</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="n">
         <v>7</v>
@@ -27757,7 +27777,9 @@
       <c r="N136" t="n">
         <v>1</v>
       </c>
-      <c r="O136" t="inlineStr"/>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
@@ -27815,7 +27837,9 @@
       <c r="N137" t="n">
         <v>1</v>
       </c>
-      <c r="O137" t="inlineStr"/>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr"/>
@@ -27881,7 +27905,9 @@
       <c r="N138" t="n">
         <v>2</v>
       </c>
-      <c r="O138" t="inlineStr"/>
+      <c r="O138" t="n">
+        <v>0</v>
+      </c>
       <c r="P138" t="n">
         <v>0</v>
       </c>
@@ -27943,8 +27969,12 @@
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr"/>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="n">
         <v>7</v>
@@ -35594,7 +35624,9 @@
       <c r="N136" t="n">
         <v>0</v>
       </c>
-      <c r="O136" t="inlineStr"/>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
@@ -35650,7 +35682,9 @@
       <c r="N137" t="n">
         <v>0</v>
       </c>
-      <c r="O137" t="inlineStr"/>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr"/>
@@ -35712,7 +35746,9 @@
       <c r="N138" t="n">
         <v>0</v>
       </c>
-      <c r="O138" t="inlineStr"/>
+      <c r="O138" t="n">
+        <v>0</v>
+      </c>
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="n">
         <v>2</v>
@@ -35766,7 +35802,9 @@
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr"/>
-      <c r="O139" t="inlineStr"/>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="n">

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -9796,7 +9796,9 @@
       <c r="M137" t="n">
         <v>736</v>
       </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>733</v>
+      </c>
       <c r="O137" t="n">
         <v>124</v>
       </c>
@@ -9866,7 +9868,9 @@
       <c r="M138" t="n">
         <v>736</v>
       </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="N138" t="n">
+        <v>734</v>
+      </c>
       <c r="O138" t="n">
         <v>124</v>
       </c>
@@ -9903,7 +9907,7 @@
         <v>3641</v>
       </c>
       <c r="AB138" t="n">
-        <v>30949</v>
+        <v>30950</v>
       </c>
     </row>
     <row r="139">
@@ -9969,7 +9973,7 @@
         <v>3641</v>
       </c>
       <c r="AB139" t="n">
-        <v>30953</v>
+        <v>30954</v>
       </c>
     </row>
   </sheetData>
@@ -27968,7 +27972,9 @@
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
-      <c r="N139" t="inlineStr"/>
+      <c r="N139" t="n">
+        <v>2</v>
+      </c>
       <c r="O139" t="n">
         <v>0</v>
       </c>
@@ -35801,7 +35807,9 @@
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
-      <c r="N139" t="inlineStr"/>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
       <c r="O139" t="n">
         <v>0</v>
       </c>
@@ -42310,7 +42318,9 @@
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
-      <c r="N139" t="inlineStr"/>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -9404,7 +9404,7 @@
         <v>1161</v>
       </c>
       <c r="I132" t="n">
-        <v>5155</v>
+        <v>5158</v>
       </c>
       <c r="J132" t="n">
         <v>128</v>
@@ -9459,7 +9459,7 @@
         <v>3620</v>
       </c>
       <c r="AB132" t="n">
-        <v>30861</v>
+        <v>30864</v>
       </c>
     </row>
     <row r="133">
@@ -9490,7 +9490,7 @@
         <v>1162</v>
       </c>
       <c r="I133" t="n">
-        <v>5158</v>
+        <v>5160</v>
       </c>
       <c r="J133" t="n">
         <v>128</v>
@@ -9545,7 +9545,7 @@
         <v>3623</v>
       </c>
       <c r="AB133" t="n">
-        <v>30880</v>
+        <v>30882</v>
       </c>
     </row>
     <row r="134">
@@ -9573,7 +9573,9 @@
       <c r="H134" t="n">
         <v>1164</v>
       </c>
-      <c r="I134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>5161</v>
+      </c>
       <c r="J134" t="n">
         <v>128</v>
       </c>
@@ -9625,7 +9627,7 @@
         <v>3631</v>
       </c>
       <c r="AB134" t="n">
-        <v>30903</v>
+        <v>30906</v>
       </c>
     </row>
     <row r="135">
@@ -9653,7 +9655,9 @@
       <c r="H135" t="n">
         <v>1166</v>
       </c>
-      <c r="I135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>5162</v>
+      </c>
       <c r="J135" t="n">
         <v>128</v>
       </c>
@@ -9703,7 +9707,7 @@
         <v>3637</v>
       </c>
       <c r="AB135" t="n">
-        <v>30923</v>
+        <v>30927</v>
       </c>
     </row>
     <row r="136">
@@ -9725,7 +9729,9 @@
         <v>982</v>
       </c>
       <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>5164</v>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
@@ -9765,7 +9771,7 @@
         <v>3641</v>
       </c>
       <c r="AB136" t="n">
-        <v>30932</v>
+        <v>30938</v>
       </c>
     </row>
     <row r="137">
@@ -9787,7 +9793,9 @@
         <v>982</v>
       </c>
       <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>5164</v>
+      </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
@@ -9829,7 +9837,7 @@
         <v>3641</v>
       </c>
       <c r="AB137" t="n">
-        <v>30937</v>
+        <v>30943</v>
       </c>
     </row>
     <row r="138">
@@ -9857,7 +9865,9 @@
       <c r="H138" t="n">
         <v>1172</v>
       </c>
-      <c r="I138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>5165</v>
+      </c>
       <c r="J138" t="n">
         <v>128</v>
       </c>
@@ -9907,7 +9917,7 @@
         <v>3641</v>
       </c>
       <c r="AB138" t="n">
-        <v>30950</v>
+        <v>30957</v>
       </c>
     </row>
     <row r="139">
@@ -9931,7 +9941,9 @@
         <v>983</v>
       </c>
       <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>5165</v>
+      </c>
       <c r="J139" t="n">
         <v>128</v>
       </c>
@@ -9973,7 +9985,7 @@
         <v>3641</v>
       </c>
       <c r="AB139" t="n">
-        <v>30954</v>
+        <v>30961</v>
       </c>
     </row>
   </sheetData>
@@ -14329,7 +14341,7 @@
         <v>53</v>
       </c>
       <c r="I80" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J80" t="n">
         <v>2</v>
@@ -14384,7 +14396,7 @@
         <v>77</v>
       </c>
       <c r="AB80" t="n">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="81">
@@ -14411,7 +14423,7 @@
         <v>54</v>
       </c>
       <c r="I81" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J81" t="n">
         <v>2</v>
@@ -14466,7 +14478,7 @@
         <v>79</v>
       </c>
       <c r="AB81" t="n">
-        <v>1194</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="82">
@@ -14497,7 +14509,7 @@
         <v>55</v>
       </c>
       <c r="I82" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J82" t="n">
         <v>2</v>
@@ -14552,7 +14564,7 @@
         <v>83</v>
       </c>
       <c r="AB82" t="n">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="83">
@@ -14583,7 +14595,7 @@
         <v>57</v>
       </c>
       <c r="I83" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J83" t="n">
         <v>2</v>
@@ -14640,7 +14652,7 @@
         <v>87</v>
       </c>
       <c r="AB83" t="n">
-        <v>1264</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="84">
@@ -14671,7 +14683,7 @@
         <v>63</v>
       </c>
       <c r="I84" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J84" t="n">
         <v>2</v>
@@ -14728,7 +14740,7 @@
         <v>91</v>
       </c>
       <c r="AB84" t="n">
-        <v>1318</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="85">
@@ -14759,7 +14771,7 @@
         <v>65</v>
       </c>
       <c r="I85" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J85" t="n">
         <v>3</v>
@@ -14816,7 +14828,7 @@
         <v>95</v>
       </c>
       <c r="AB85" t="n">
-        <v>1366</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="86">
@@ -14847,7 +14859,7 @@
         <v>67</v>
       </c>
       <c r="I86" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J86" t="n">
         <v>3</v>
@@ -14904,7 +14916,7 @@
         <v>100</v>
       </c>
       <c r="AB86" t="n">
-        <v>1415</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="87">
@@ -14931,7 +14943,7 @@
         <v>69</v>
       </c>
       <c r="I87" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J87" t="n">
         <v>3</v>
@@ -14986,7 +14998,7 @@
         <v>105</v>
       </c>
       <c r="AB87" t="n">
-        <v>1456</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="88">
@@ -15015,7 +15027,7 @@
         <v>71</v>
       </c>
       <c r="I88" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J88" t="n">
         <v>3</v>
@@ -15070,7 +15082,7 @@
         <v>105</v>
       </c>
       <c r="AB88" t="n">
-        <v>1481</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="89">
@@ -15101,7 +15113,7 @@
         <v>72</v>
       </c>
       <c r="I89" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J89" t="n">
         <v>5</v>
@@ -15158,7 +15170,7 @@
         <v>107</v>
       </c>
       <c r="AB89" t="n">
-        <v>1524</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="90">
@@ -15189,7 +15201,7 @@
         <v>74</v>
       </c>
       <c r="I90" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="J90" t="n">
         <v>6</v>
@@ -15246,7 +15258,7 @@
         <v>109</v>
       </c>
       <c r="AB90" t="n">
-        <v>1565</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="91">
@@ -15277,7 +15289,7 @@
         <v>76</v>
       </c>
       <c r="I91" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="J91" t="n">
         <v>6</v>
@@ -15334,7 +15346,7 @@
         <v>110</v>
       </c>
       <c r="AB91" t="n">
-        <v>1594</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="92">
@@ -15365,7 +15377,7 @@
         <v>76</v>
       </c>
       <c r="I92" t="n">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J92" t="n">
         <v>6</v>
@@ -15422,7 +15434,7 @@
         <v>113</v>
       </c>
       <c r="AB92" t="n">
-        <v>1624</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="93">
@@ -15453,7 +15465,7 @@
         <v>76</v>
       </c>
       <c r="I93" t="n">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="J93" t="n">
         <v>7</v>
@@ -15510,7 +15522,7 @@
         <v>114</v>
       </c>
       <c r="AB93" t="n">
-        <v>1653</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="94">
@@ -15537,7 +15549,7 @@
         <v>76</v>
       </c>
       <c r="I94" t="n">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="J94" t="n">
         <v>7</v>
@@ -15592,7 +15604,7 @@
         <v>115</v>
       </c>
       <c r="AB94" t="n">
-        <v>1677</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="95">
@@ -15617,7 +15629,7 @@
         <v>77</v>
       </c>
       <c r="I95" t="n">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="J95" t="n">
         <v>7</v>
@@ -15672,7 +15684,7 @@
         <v>115</v>
       </c>
       <c r="AB95" t="n">
-        <v>1694</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="96">
@@ -15703,7 +15715,7 @@
         <v>78</v>
       </c>
       <c r="I96" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="J96" t="n">
         <v>7</v>
@@ -15760,7 +15772,7 @@
         <v>119</v>
       </c>
       <c r="AB96" t="n">
-        <v>1716</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="97">
@@ -15791,7 +15803,7 @@
         <v>78</v>
       </c>
       <c r="I97" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="J97" t="n">
         <v>8</v>
@@ -15848,7 +15860,7 @@
         <v>119</v>
       </c>
       <c r="AB97" t="n">
-        <v>1742</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="98">
@@ -15879,7 +15891,7 @@
         <v>78</v>
       </c>
       <c r="I98" t="n">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="J98" t="n">
         <v>9</v>
@@ -15936,7 +15948,7 @@
         <v>121</v>
       </c>
       <c r="AB98" t="n">
-        <v>1750</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="99">
@@ -15967,7 +15979,7 @@
         <v>78</v>
       </c>
       <c r="I99" t="n">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="J99" t="n">
         <v>10</v>
@@ -16024,7 +16036,7 @@
         <v>123</v>
       </c>
       <c r="AB99" t="n">
-        <v>1768</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="100">
@@ -16055,7 +16067,7 @@
         <v>78</v>
       </c>
       <c r="I100" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="J100" t="n">
         <v>11</v>
@@ -16112,7 +16124,7 @@
         <v>123</v>
       </c>
       <c r="AB100" t="n">
-        <v>1784</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="101">
@@ -16139,7 +16151,7 @@
         <v>79</v>
       </c>
       <c r="I101" t="n">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="J101" t="n">
         <v>11</v>
@@ -16192,7 +16204,7 @@
         <v>123</v>
       </c>
       <c r="AB101" t="n">
-        <v>1799</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="102">
@@ -16219,7 +16231,7 @@
         <v>79</v>
       </c>
       <c r="I102" t="n">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="J102" t="n">
         <v>11</v>
@@ -16272,7 +16284,7 @@
         <v>123</v>
       </c>
       <c r="AB102" t="n">
-        <v>1807</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="103">
@@ -16303,7 +16315,7 @@
         <v>79</v>
       </c>
       <c r="I103" t="n">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="J103" t="n">
         <v>12</v>
@@ -16360,7 +16372,7 @@
         <v>123</v>
       </c>
       <c r="AB103" t="n">
-        <v>1814</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="104">
@@ -16391,7 +16403,7 @@
         <v>80</v>
       </c>
       <c r="I104" t="n">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="J104" t="n">
         <v>12</v>
@@ -16448,7 +16460,7 @@
         <v>124</v>
       </c>
       <c r="AB104" t="n">
-        <v>1827</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="105">
@@ -16479,7 +16491,7 @@
         <v>80</v>
       </c>
       <c r="I105" t="n">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="J105" t="n">
         <v>12</v>
@@ -16536,7 +16548,7 @@
         <v>125</v>
       </c>
       <c r="AB105" t="n">
-        <v>1833</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="106">
@@ -16565,7 +16577,7 @@
         <v>80</v>
       </c>
       <c r="I106" t="n">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="J106" t="n">
         <v>12</v>
@@ -16622,7 +16634,7 @@
         <v>125</v>
       </c>
       <c r="AB106" t="n">
-        <v>1844</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="107">
@@ -16651,7 +16663,7 @@
         <v>81</v>
       </c>
       <c r="I107" t="n">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="J107" t="n">
         <v>12</v>
@@ -16708,7 +16720,7 @@
         <v>125</v>
       </c>
       <c r="AB107" t="n">
-        <v>1853</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="108">
@@ -16735,7 +16747,7 @@
         <v>82</v>
       </c>
       <c r="I108" t="n">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="J108" t="n">
         <v>12</v>
@@ -16786,7 +16798,7 @@
         <v>126</v>
       </c>
       <c r="AB108" t="n">
-        <v>1863</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="109">
@@ -16811,7 +16823,7 @@
         <v>83</v>
       </c>
       <c r="I109" t="n">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="J109" t="n">
         <v>12</v>
@@ -16860,7 +16872,7 @@
         <v>126</v>
       </c>
       <c r="AB109" t="n">
-        <v>1871</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="110">
@@ -16891,7 +16903,7 @@
         <v>83</v>
       </c>
       <c r="I110" t="n">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="J110" t="n">
         <v>12</v>
@@ -16948,7 +16960,7 @@
         <v>126</v>
       </c>
       <c r="AB110" t="n">
-        <v>1874</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="111">
@@ -16979,7 +16991,7 @@
         <v>83</v>
       </c>
       <c r="I111" t="n">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="J111" t="n">
         <v>12</v>
@@ -17036,7 +17048,7 @@
         <v>126</v>
       </c>
       <c r="AB111" t="n">
-        <v>1880</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="112">
@@ -17063,7 +17075,7 @@
         <v>84</v>
       </c>
       <c r="I112" t="n">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="J112" t="n">
         <v>12</v>
@@ -17120,7 +17132,7 @@
         <v>126</v>
       </c>
       <c r="AB112" t="n">
-        <v>1884</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="113">
@@ -17149,7 +17161,7 @@
         <v>84</v>
       </c>
       <c r="I113" t="n">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="J113" t="n">
         <v>12</v>
@@ -17206,7 +17218,7 @@
         <v>126</v>
       </c>
       <c r="AB113" t="n">
-        <v>1888</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="114">
@@ -17235,7 +17247,7 @@
         <v>84</v>
       </c>
       <c r="I114" t="n">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="J114" t="n">
         <v>12</v>
@@ -17290,7 +17302,7 @@
         <v>127</v>
       </c>
       <c r="AB114" t="n">
-        <v>1893</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="115">
@@ -17317,7 +17329,7 @@
         <v>84</v>
       </c>
       <c r="I115" t="n">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
@@ -17364,7 +17376,7 @@
         <v>127</v>
       </c>
       <c r="AB115" t="n">
-        <v>1893</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="116">
@@ -17389,7 +17401,7 @@
         <v>84</v>
       </c>
       <c r="I116" t="n">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
@@ -17436,7 +17448,7 @@
         <v>127</v>
       </c>
       <c r="AB116" t="n">
-        <v>1898</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="117">
@@ -17465,7 +17477,7 @@
         <v>84</v>
       </c>
       <c r="I117" t="n">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="J117" t="n">
         <v>12</v>
@@ -17522,7 +17534,7 @@
         <v>127</v>
       </c>
       <c r="AB117" t="n">
-        <v>1904</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="118">
@@ -17549,7 +17561,7 @@
         <v>84</v>
       </c>
       <c r="I118" t="n">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="J118" t="n">
         <v>12</v>
@@ -17606,7 +17618,7 @@
         <v>128</v>
       </c>
       <c r="AB118" t="n">
-        <v>1906</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="119">
@@ -17637,7 +17649,7 @@
         <v>84</v>
       </c>
       <c r="I119" t="n">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="J119" t="n">
         <v>12</v>
@@ -17694,7 +17706,7 @@
         <v>128</v>
       </c>
       <c r="AB119" t="n">
-        <v>1907</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="120">
@@ -17719,7 +17731,7 @@
         <v>84</v>
       </c>
       <c r="I120" t="n">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="J120" t="n">
         <v>12</v>
@@ -17768,7 +17780,7 @@
         <v>129</v>
       </c>
       <c r="AB120" t="n">
-        <v>1909</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="121">
@@ -17795,7 +17807,7 @@
         <v>84</v>
       </c>
       <c r="I121" t="n">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="J121" t="n">
         <v>12</v>
@@ -17846,7 +17858,7 @@
         <v>130</v>
       </c>
       <c r="AB121" t="n">
-        <v>1911</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="122">
@@ -17871,7 +17883,7 @@
         <v>84</v>
       </c>
       <c r="I122" t="n">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
@@ -17918,7 +17930,7 @@
         <v>130</v>
       </c>
       <c r="AB122" t="n">
-        <v>1912</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="123">
@@ -17945,7 +17957,7 @@
         <v>84</v>
       </c>
       <c r="I123" t="n">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
@@ -17992,7 +18004,7 @@
         <v>130</v>
       </c>
       <c r="AB123" t="n">
-        <v>1913</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="124">
@@ -18023,7 +18035,7 @@
         <v>84</v>
       </c>
       <c r="I124" t="n">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="J124" t="n">
         <v>12</v>
@@ -18080,7 +18092,7 @@
         <v>130</v>
       </c>
       <c r="AB124" t="n">
-        <v>1917</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="125">
@@ -18105,7 +18117,7 @@
         <v>84</v>
       </c>
       <c r="I125" t="n">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="J125" t="n">
         <v>12</v>
@@ -18162,7 +18174,7 @@
         <v>130</v>
       </c>
       <c r="AB125" t="n">
-        <v>1917</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="126">
@@ -18191,7 +18203,7 @@
         <v>84</v>
       </c>
       <c r="I126" t="n">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="J126" t="n">
         <v>12</v>
@@ -18248,7 +18260,7 @@
         <v>130</v>
       </c>
       <c r="AB126" t="n">
-        <v>1919</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="127">
@@ -18277,7 +18289,7 @@
         <v>84</v>
       </c>
       <c r="I127" t="n">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="J127" t="n">
         <v>12</v>
@@ -18334,7 +18346,7 @@
         <v>130</v>
       </c>
       <c r="AB127" t="n">
-        <v>1920</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="128">
@@ -18363,7 +18375,7 @@
         <v>84</v>
       </c>
       <c r="I128" t="n">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="J128" t="n">
         <v>12</v>
@@ -18420,7 +18432,7 @@
         <v>130</v>
       </c>
       <c r="AB128" t="n">
-        <v>1920</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="129">
@@ -18445,7 +18457,7 @@
         <v>84</v>
       </c>
       <c r="I129" t="n">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
@@ -18492,7 +18504,7 @@
         <v>130</v>
       </c>
       <c r="AB129" t="n">
-        <v>1921</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="130">
@@ -18517,7 +18529,7 @@
         <v>84</v>
       </c>
       <c r="I130" t="n">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
@@ -18564,7 +18576,7 @@
         <v>130</v>
       </c>
       <c r="AB130" t="n">
-        <v>1921</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="131">
@@ -18589,7 +18601,7 @@
         <v>84</v>
       </c>
       <c r="I131" t="n">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
@@ -18636,7 +18648,7 @@
         <v>130</v>
       </c>
       <c r="AB131" t="n">
-        <v>1921</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="132">
@@ -18665,7 +18677,7 @@
         <v>84</v>
       </c>
       <c r="I132" t="n">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="J132" t="n">
         <v>12</v>
@@ -18718,7 +18730,7 @@
         <v>130</v>
       </c>
       <c r="AB132" t="n">
-        <v>1921</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="133">
@@ -18747,7 +18759,7 @@
         <v>84</v>
       </c>
       <c r="I133" t="n">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="J133" t="n">
         <v>12</v>
@@ -18800,7 +18812,7 @@
         <v>130</v>
       </c>
       <c r="AB133" t="n">
-        <v>1921</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="134">
@@ -18828,7 +18840,9 @@
       <c r="H134" t="n">
         <v>84</v>
       </c>
-      <c r="I134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>292</v>
+      </c>
       <c r="J134" t="n">
         <v>12</v>
       </c>
@@ -18878,7 +18892,7 @@
         <v>130</v>
       </c>
       <c r="AB134" t="n">
-        <v>1921</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="135">
@@ -18906,7 +18920,9 @@
       <c r="H135" t="n">
         <v>84</v>
       </c>
-      <c r="I135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>292</v>
+      </c>
       <c r="J135" t="n">
         <v>12</v>
       </c>
@@ -18954,7 +18970,7 @@
         <v>130</v>
       </c>
       <c r="AB135" t="n">
-        <v>1921</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="136">
@@ -18976,7 +18992,9 @@
         <v>50</v>
       </c>
       <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>292</v>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
@@ -19014,7 +19032,7 @@
         <v>130</v>
       </c>
       <c r="AB136" t="n">
-        <v>1921</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="137">
@@ -19036,7 +19054,9 @@
         <v>50</v>
       </c>
       <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>292</v>
+      </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
@@ -19076,7 +19096,7 @@
         <v>130</v>
       </c>
       <c r="AB137" t="n">
-        <v>1922</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="138">
@@ -19152,7 +19172,7 @@
         <v>130</v>
       </c>
       <c r="AB138" t="n">
-        <v>1923</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="139">
@@ -19218,7 +19238,7 @@
         <v>130</v>
       </c>
       <c r="AB139" t="n">
-        <v>1923</v>
+        <v>1934</v>
       </c>
     </row>
   </sheetData>
@@ -27705,7 +27725,9 @@
       <c r="H135" t="n">
         <v>5</v>
       </c>
-      <c r="I135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>118</v>
+      </c>
       <c r="J135" t="n">
         <v>0</v>
       </c>
@@ -27749,7 +27771,7 @@
         <v>8</v>
       </c>
       <c r="AB135" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="136">
@@ -27809,7 +27831,7 @@
         <v>7</v>
       </c>
       <c r="AB136" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="137">
@@ -27869,7 +27891,7 @@
         <v>7</v>
       </c>
       <c r="AB137" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="138">
@@ -27895,7 +27917,9 @@
       <c r="H138" t="n">
         <v>5</v>
       </c>
-      <c r="I138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>115</v>
+      </c>
       <c r="J138" t="n">
         <v>0</v>
       </c>
@@ -27943,7 +27967,7 @@
         <v>7</v>
       </c>
       <c r="AB138" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="139">
@@ -27965,7 +27989,9 @@
         <v>1</v>
       </c>
       <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>118</v>
+      </c>
       <c r="J139" t="n">
         <v>0</v>
       </c>
@@ -28003,7 +28029,7 @@
         <v>6</v>
       </c>
       <c r="AB139" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -35560,7 +35586,9 @@
       <c r="H135" t="n">
         <v>2</v>
       </c>
-      <c r="I135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
@@ -35740,7 +35768,9 @@
       <c r="H138" t="n">
         <v>2</v>
       </c>
-      <c r="I138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
@@ -35802,7 +35832,9 @@
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
@@ -42119,7 +42151,9 @@
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
@@ -42265,7 +42299,9 @@
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
@@ -42313,7 +42349,9 @@
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
@@ -45692,9 +45730,7 @@
       <c r="H78" t="n">
         <v>84</v>
       </c>
-      <c r="I78" t="n">
-        <v>435</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
@@ -45724,7 +45760,7 @@
       </c>
       <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="n">
-        <v>2593</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="79">
@@ -48758,7 +48794,9 @@
       <c r="H135" t="n">
         <v>150</v>
       </c>
-      <c r="I135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>821</v>
+      </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
@@ -48784,7 +48822,7 @@
       </c>
       <c r="AA135" t="inlineStr"/>
       <c r="AB135" t="n">
-        <v>5519</v>
+        <v>5523</v>
       </c>
     </row>
     <row r="136">
@@ -48832,7 +48870,7 @@
       </c>
       <c r="AA136" t="inlineStr"/>
       <c r="AB136" t="n">
-        <v>5523</v>
+        <v>5527</v>
       </c>
     </row>
     <row r="137">
@@ -48880,7 +48918,7 @@
       </c>
       <c r="AA137" t="inlineStr"/>
       <c r="AB137" t="n">
-        <v>5525</v>
+        <v>5529</v>
       </c>
     </row>
     <row r="138">
@@ -48932,7 +48970,7 @@
       </c>
       <c r="AA138" t="inlineStr"/>
       <c r="AB138" t="n">
-        <v>5533</v>
+        <v>5537</v>
       </c>
     </row>
     <row r="139">
@@ -48952,7 +48990,9 @@
         <v>928</v>
       </c>
       <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>826</v>
+      </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
@@ -48978,7 +49018,7 @@
       </c>
       <c r="AA139" t="inlineStr"/>
       <c r="AB139" t="n">
-        <v>5535</v>
+        <v>5544</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB139"/>
+  <dimension ref="A1:AB140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4402,7 +4402,7 @@
         <v>4186</v>
       </c>
       <c r="Y72" t="n">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="Z72" t="n">
         <v>138</v>
@@ -4411,7 +4411,7 @@
         <v>2428</v>
       </c>
       <c r="AB72" t="n">
-        <v>20959</v>
+        <v>20961</v>
       </c>
     </row>
     <row r="73">
@@ -4486,7 +4486,7 @@
         <v>4258</v>
       </c>
       <c r="Y73" t="n">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="Z73" t="n">
         <v>146</v>
@@ -4495,7 +4495,7 @@
         <v>2461</v>
       </c>
       <c r="AB73" t="n">
-        <v>21529</v>
+        <v>21531</v>
       </c>
     </row>
     <row r="74">
@@ -4568,7 +4568,7 @@
         <v>4297</v>
       </c>
       <c r="Y74" t="n">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="Z74" t="n">
         <v>146</v>
@@ -4577,7 +4577,7 @@
         <v>2491</v>
       </c>
       <c r="AB74" t="n">
-        <v>21931</v>
+        <v>21933</v>
       </c>
     </row>
     <row r="75">
@@ -4656,7 +4656,7 @@
         <v>4415</v>
       </c>
       <c r="Y75" t="n">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="Z75" t="n">
         <v>152</v>
@@ -4665,7 +4665,7 @@
         <v>2605</v>
       </c>
       <c r="AB75" t="n">
-        <v>22671</v>
+        <v>22673</v>
       </c>
     </row>
     <row r="76">
@@ -4744,7 +4744,7 @@
         <v>4496</v>
       </c>
       <c r="Y76" t="n">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="Z76" t="n">
         <v>157</v>
@@ -4753,7 +4753,7 @@
         <v>2688</v>
       </c>
       <c r="AB76" t="n">
-        <v>23328</v>
+        <v>23330</v>
       </c>
     </row>
     <row r="77">
@@ -4832,7 +4832,7 @@
         <v>4587</v>
       </c>
       <c r="Y77" t="n">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="Z77" t="n">
         <v>162</v>
@@ -4841,7 +4841,7 @@
         <v>2783</v>
       </c>
       <c r="AB77" t="n">
-        <v>23997</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="78">
@@ -4920,7 +4920,7 @@
         <v>4684</v>
       </c>
       <c r="Y78" t="n">
-        <v>1598</v>
+        <v>1602</v>
       </c>
       <c r="Z78" t="n">
         <v>165</v>
@@ -4929,7 +4929,7 @@
         <v>2880</v>
       </c>
       <c r="AB78" t="n">
-        <v>24661</v>
+        <v>24665</v>
       </c>
     </row>
     <row r="79">
@@ -5004,7 +5004,7 @@
         <v>4732</v>
       </c>
       <c r="Y79" t="n">
-        <v>1627</v>
+        <v>1631</v>
       </c>
       <c r="Z79" t="n">
         <v>168</v>
@@ -5013,7 +5013,7 @@
         <v>2920</v>
       </c>
       <c r="AB79" t="n">
-        <v>25111</v>
+        <v>25115</v>
       </c>
     </row>
     <row r="80">
@@ -5090,7 +5090,7 @@
         <v>4772</v>
       </c>
       <c r="Y80" t="n">
-        <v>1653</v>
+        <v>1657</v>
       </c>
       <c r="Z80" t="n">
         <v>168</v>
@@ -5099,7 +5099,7 @@
         <v>2978</v>
       </c>
       <c r="AB80" t="n">
-        <v>25574</v>
+        <v>25578</v>
       </c>
     </row>
     <row r="81">
@@ -5172,7 +5172,7 @@
         <v>4809</v>
       </c>
       <c r="Y81" t="n">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="Z81" t="n">
         <v>168</v>
@@ -5181,7 +5181,7 @@
         <v>2995</v>
       </c>
       <c r="AB81" t="n">
-        <v>25846</v>
+        <v>25850</v>
       </c>
     </row>
     <row r="82">
@@ -5258,7 +5258,7 @@
         <v>4853</v>
       </c>
       <c r="Y82" t="n">
-        <v>1680</v>
+        <v>1684</v>
       </c>
       <c r="Z82" t="n">
         <v>170</v>
@@ -5267,7 +5267,7 @@
         <v>3012</v>
       </c>
       <c r="AB82" t="n">
-        <v>26089</v>
+        <v>26093</v>
       </c>
     </row>
     <row r="83">
@@ -5346,7 +5346,7 @@
         <v>4920</v>
       </c>
       <c r="Y83" t="n">
-        <v>1707</v>
+        <v>1711</v>
       </c>
       <c r="Z83" t="n">
         <v>171</v>
@@ -5355,7 +5355,7 @@
         <v>3059</v>
       </c>
       <c r="AB83" t="n">
-        <v>26414</v>
+        <v>26418</v>
       </c>
     </row>
     <row r="84">
@@ -5434,7 +5434,7 @@
         <v>4970</v>
       </c>
       <c r="Y84" t="n">
-        <v>1723</v>
+        <v>1727</v>
       </c>
       <c r="Z84" t="n">
         <v>171</v>
@@ -5443,7 +5443,7 @@
         <v>3106</v>
       </c>
       <c r="AB84" t="n">
-        <v>26730</v>
+        <v>26734</v>
       </c>
     </row>
     <row r="85">
@@ -5522,7 +5522,7 @@
         <v>4999</v>
       </c>
       <c r="Y85" t="n">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="Z85" t="n">
         <v>171</v>
@@ -5531,7 +5531,7 @@
         <v>3141</v>
       </c>
       <c r="AB85" t="n">
-        <v>27032</v>
+        <v>27036</v>
       </c>
     </row>
     <row r="86">
@@ -5610,7 +5610,7 @@
         <v>5031</v>
       </c>
       <c r="Y86" t="n">
-        <v>1760</v>
+        <v>1764</v>
       </c>
       <c r="Z86" t="n">
         <v>172</v>
@@ -5619,7 +5619,7 @@
         <v>3164</v>
       </c>
       <c r="AB86" t="n">
-        <v>27339</v>
+        <v>27343</v>
       </c>
     </row>
     <row r="87">
@@ -5692,7 +5692,7 @@
         <v>5049</v>
       </c>
       <c r="Y87" t="n">
-        <v>1769</v>
+        <v>1773</v>
       </c>
       <c r="Z87" t="n">
         <v>174</v>
@@ -5701,7 +5701,7 @@
         <v>3203</v>
       </c>
       <c r="AB87" t="n">
-        <v>27613</v>
+        <v>27617</v>
       </c>
     </row>
     <row r="88">
@@ -5776,7 +5776,7 @@
         <v>5060</v>
       </c>
       <c r="Y88" t="n">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="Z88" t="n">
         <v>175</v>
@@ -5785,7 +5785,7 @@
         <v>3230</v>
       </c>
       <c r="AB88" t="n">
-        <v>27789</v>
+        <v>27793</v>
       </c>
     </row>
     <row r="89">
@@ -5864,7 +5864,7 @@
         <v>5092</v>
       </c>
       <c r="Y89" t="n">
-        <v>1793</v>
+        <v>1797</v>
       </c>
       <c r="Z89" t="n">
         <v>175</v>
@@ -5873,7 +5873,7 @@
         <v>3246</v>
       </c>
       <c r="AB89" t="n">
-        <v>27990</v>
+        <v>27994</v>
       </c>
     </row>
     <row r="90">
@@ -5952,7 +5952,7 @@
         <v>5124</v>
       </c>
       <c r="Y90" t="n">
-        <v>1800</v>
+        <v>1804</v>
       </c>
       <c r="Z90" t="n">
         <v>176</v>
@@ -5961,7 +5961,7 @@
         <v>3271</v>
       </c>
       <c r="AB90" t="n">
-        <v>28156</v>
+        <v>28160</v>
       </c>
     </row>
     <row r="91">
@@ -6040,7 +6040,7 @@
         <v>5145</v>
       </c>
       <c r="Y91" t="n">
-        <v>1806</v>
+        <v>1810</v>
       </c>
       <c r="Z91" t="n">
         <v>176</v>
@@ -6049,7 +6049,7 @@
         <v>3311</v>
       </c>
       <c r="AB91" t="n">
-        <v>28362</v>
+        <v>28366</v>
       </c>
     </row>
     <row r="92">
@@ -6128,7 +6128,7 @@
         <v>5176</v>
       </c>
       <c r="Y92" t="n">
-        <v>1822</v>
+        <v>1826</v>
       </c>
       <c r="Z92" t="n">
         <v>178</v>
@@ -6137,7 +6137,7 @@
         <v>3328</v>
       </c>
       <c r="AB92" t="n">
-        <v>28581</v>
+        <v>28585</v>
       </c>
     </row>
     <row r="93">
@@ -6216,7 +6216,7 @@
         <v>5199</v>
       </c>
       <c r="Y93" t="n">
-        <v>1831</v>
+        <v>1835</v>
       </c>
       <c r="Z93" t="n">
         <v>180</v>
@@ -6225,7 +6225,7 @@
         <v>3357</v>
       </c>
       <c r="AB93" t="n">
-        <v>28770</v>
+        <v>28774</v>
       </c>
     </row>
     <row r="94">
@@ -6298,7 +6298,7 @@
         <v>5212</v>
       </c>
       <c r="Y94" t="n">
-        <v>1836</v>
+        <v>1840</v>
       </c>
       <c r="Z94" t="n">
         <v>181</v>
@@ -6307,7 +6307,7 @@
         <v>3388</v>
       </c>
       <c r="AB94" t="n">
-        <v>28913</v>
+        <v>28917</v>
       </c>
     </row>
     <row r="95">
@@ -6378,7 +6378,7 @@
         <v>5220</v>
       </c>
       <c r="Y95" t="n">
-        <v>1838</v>
+        <v>1842</v>
       </c>
       <c r="Z95" t="n">
         <v>181</v>
@@ -6387,7 +6387,7 @@
         <v>3391</v>
       </c>
       <c r="AB95" t="n">
-        <v>28989</v>
+        <v>28993</v>
       </c>
     </row>
     <row r="96">
@@ -6466,7 +6466,7 @@
         <v>5238</v>
       </c>
       <c r="Y96" t="n">
-        <v>1853</v>
+        <v>1857</v>
       </c>
       <c r="Z96" t="n">
         <v>185</v>
@@ -6475,7 +6475,7 @@
         <v>3409</v>
       </c>
       <c r="AB96" t="n">
-        <v>29157</v>
+        <v>29161</v>
       </c>
     </row>
     <row r="97">
@@ -6554,7 +6554,7 @@
         <v>5260</v>
       </c>
       <c r="Y97" t="n">
-        <v>1864</v>
+        <v>1868</v>
       </c>
       <c r="Z97" t="n">
         <v>185</v>
@@ -6563,7 +6563,7 @@
         <v>3424</v>
       </c>
       <c r="AB97" t="n">
-        <v>29284</v>
+        <v>29288</v>
       </c>
     </row>
     <row r="98">
@@ -6642,7 +6642,7 @@
         <v>5274</v>
       </c>
       <c r="Y98" t="n">
-        <v>1876</v>
+        <v>1880</v>
       </c>
       <c r="Z98" t="n">
         <v>185</v>
@@ -6651,7 +6651,7 @@
         <v>3453</v>
       </c>
       <c r="AB98" t="n">
-        <v>29425</v>
+        <v>29429</v>
       </c>
     </row>
     <row r="99">
@@ -6730,7 +6730,7 @@
         <v>5286</v>
       </c>
       <c r="Y99" t="n">
-        <v>1883</v>
+        <v>1887</v>
       </c>
       <c r="Z99" t="n">
         <v>189</v>
@@ -6739,7 +6739,7 @@
         <v>3464</v>
       </c>
       <c r="AB99" t="n">
-        <v>29570</v>
+        <v>29574</v>
       </c>
     </row>
     <row r="100">
@@ -6818,7 +6818,7 @@
         <v>5300</v>
       </c>
       <c r="Y100" t="n">
-        <v>1888</v>
+        <v>1892</v>
       </c>
       <c r="Z100" t="n">
         <v>189</v>
@@ -6827,7 +6827,7 @@
         <v>3477</v>
       </c>
       <c r="AB100" t="n">
-        <v>29680</v>
+        <v>29684</v>
       </c>
     </row>
     <row r="101">
@@ -6900,7 +6900,7 @@
         <v>5309</v>
       </c>
       <c r="Y101" t="n">
-        <v>1891</v>
+        <v>1895</v>
       </c>
       <c r="Z101" t="n">
         <v>189</v>
@@ -6909,7 +6909,7 @@
         <v>3480</v>
       </c>
       <c r="AB101" t="n">
-        <v>29760</v>
+        <v>29764</v>
       </c>
     </row>
     <row r="102">
@@ -6982,7 +6982,7 @@
         <v>5314</v>
       </c>
       <c r="Y102" t="n">
-        <v>1893</v>
+        <v>1897</v>
       </c>
       <c r="Z102" t="n">
         <v>189</v>
@@ -6991,7 +6991,7 @@
         <v>3484</v>
       </c>
       <c r="AB102" t="n">
-        <v>29820</v>
+        <v>29824</v>
       </c>
     </row>
     <row r="103">
@@ -7070,7 +7070,7 @@
         <v>5322</v>
       </c>
       <c r="Y103" t="n">
-        <v>1901</v>
+        <v>1905</v>
       </c>
       <c r="Z103" t="n">
         <v>190</v>
@@ -7079,7 +7079,7 @@
         <v>3486</v>
       </c>
       <c r="AB103" t="n">
-        <v>29880</v>
+        <v>29884</v>
       </c>
     </row>
     <row r="104">
@@ -7158,7 +7158,7 @@
         <v>5333</v>
       </c>
       <c r="Y104" t="n">
-        <v>1903</v>
+        <v>1907</v>
       </c>
       <c r="Z104" t="n">
         <v>191</v>
@@ -7167,7 +7167,7 @@
         <v>3502</v>
       </c>
       <c r="AB104" t="n">
-        <v>29939</v>
+        <v>29943</v>
       </c>
     </row>
     <row r="105">
@@ -7246,7 +7246,7 @@
         <v>5351</v>
       </c>
       <c r="Y105" t="n">
-        <v>1906</v>
+        <v>1910</v>
       </c>
       <c r="Z105" t="n">
         <v>191</v>
@@ -7255,7 +7255,7 @@
         <v>3517</v>
       </c>
       <c r="AB105" t="n">
-        <v>30023</v>
+        <v>30027</v>
       </c>
     </row>
     <row r="106">
@@ -7332,7 +7332,7 @@
         <v>5356</v>
       </c>
       <c r="Y106" t="n">
-        <v>1908</v>
+        <v>1912</v>
       </c>
       <c r="Z106" t="n">
         <v>192</v>
@@ -7341,7 +7341,7 @@
         <v>3527</v>
       </c>
       <c r="AB106" t="n">
-        <v>30093</v>
+        <v>30097</v>
       </c>
     </row>
     <row r="107">
@@ -7418,7 +7418,7 @@
         <v>5367</v>
       </c>
       <c r="Y107" t="n">
-        <v>1911</v>
+        <v>1915</v>
       </c>
       <c r="Z107" t="n">
         <v>192</v>
@@ -7427,7 +7427,7 @@
         <v>3537</v>
       </c>
       <c r="AB107" t="n">
-        <v>30159</v>
+        <v>30163</v>
       </c>
     </row>
     <row r="108">
@@ -7498,7 +7498,7 @@
         <v>5374</v>
       </c>
       <c r="Y108" t="n">
-        <v>1912</v>
+        <v>1916</v>
       </c>
       <c r="Z108" t="n">
         <v>193</v>
@@ -7507,7 +7507,7 @@
         <v>3542</v>
       </c>
       <c r="AB108" t="n">
-        <v>30207</v>
+        <v>30211</v>
       </c>
     </row>
     <row r="109">
@@ -7574,7 +7574,7 @@
         <v>5374</v>
       </c>
       <c r="Y109" t="n">
-        <v>1913</v>
+        <v>1917</v>
       </c>
       <c r="Z109" t="n">
         <v>193</v>
@@ -7583,7 +7583,7 @@
         <v>3545</v>
       </c>
       <c r="AB109" t="n">
-        <v>30238</v>
+        <v>30242</v>
       </c>
     </row>
     <row r="110">
@@ -7662,7 +7662,7 @@
         <v>5381</v>
       </c>
       <c r="Y110" t="n">
-        <v>1917</v>
+        <v>1921</v>
       </c>
       <c r="Z110" t="n">
         <v>193</v>
@@ -7671,7 +7671,7 @@
         <v>3550</v>
       </c>
       <c r="AB110" t="n">
-        <v>30299</v>
+        <v>30303</v>
       </c>
     </row>
     <row r="111">
@@ -7750,7 +7750,7 @@
         <v>5390</v>
       </c>
       <c r="Y111" t="n">
-        <v>1917</v>
+        <v>1921</v>
       </c>
       <c r="Z111" t="n">
         <v>194</v>
@@ -7759,7 +7759,7 @@
         <v>3552</v>
       </c>
       <c r="AB111" t="n">
-        <v>30348</v>
+        <v>30352</v>
       </c>
     </row>
     <row r="112">
@@ -7834,7 +7834,7 @@
         <v>5398</v>
       </c>
       <c r="Y112" t="n">
-        <v>1918</v>
+        <v>1922</v>
       </c>
       <c r="Z112" t="n">
         <v>195</v>
@@ -7843,7 +7843,7 @@
         <v>3558</v>
       </c>
       <c r="AB112" t="n">
-        <v>30385</v>
+        <v>30389</v>
       </c>
     </row>
     <row r="113">
@@ -7920,7 +7920,7 @@
         <v>5403</v>
       </c>
       <c r="Y113" t="n">
-        <v>1920</v>
+        <v>1924</v>
       </c>
       <c r="Z113" t="n">
         <v>197</v>
@@ -7929,7 +7929,7 @@
         <v>3563</v>
       </c>
       <c r="AB113" t="n">
-        <v>30427</v>
+        <v>30431</v>
       </c>
     </row>
     <row r="114">
@@ -8004,7 +8004,7 @@
         <v>5407</v>
       </c>
       <c r="Y114" t="n">
-        <v>1929</v>
+        <v>1933</v>
       </c>
       <c r="Z114" t="n">
         <v>198</v>
@@ -8013,7 +8013,7 @@
         <v>3565</v>
       </c>
       <c r="AB114" t="n">
-        <v>30471</v>
+        <v>30475</v>
       </c>
     </row>
     <row r="115">
@@ -8080,7 +8080,7 @@
         <v>5407</v>
       </c>
       <c r="Y115" t="n">
-        <v>1932</v>
+        <v>1936</v>
       </c>
       <c r="Z115" t="n">
         <v>199</v>
@@ -8089,7 +8089,7 @@
         <v>3570</v>
       </c>
       <c r="AB115" t="n">
-        <v>30501</v>
+        <v>30505</v>
       </c>
     </row>
     <row r="116">
@@ -8154,7 +8154,7 @@
         <v>5409</v>
       </c>
       <c r="Y116" t="n">
-        <v>1932</v>
+        <v>1936</v>
       </c>
       <c r="Z116" t="n">
         <v>199</v>
@@ -8163,7 +8163,7 @@
         <v>3572</v>
       </c>
       <c r="AB116" t="n">
-        <v>30517</v>
+        <v>30521</v>
       </c>
     </row>
     <row r="117">
@@ -8240,7 +8240,7 @@
         <v>5414</v>
       </c>
       <c r="Y117" t="n">
-        <v>1933</v>
+        <v>1937</v>
       </c>
       <c r="Z117" t="n">
         <v>199</v>
@@ -8249,7 +8249,7 @@
         <v>3576</v>
       </c>
       <c r="AB117" t="n">
-        <v>30553</v>
+        <v>30557</v>
       </c>
     </row>
     <row r="118">
@@ -8324,7 +8324,7 @@
         <v>5418</v>
       </c>
       <c r="Y118" t="n">
-        <v>1934</v>
+        <v>1938</v>
       </c>
       <c r="Z118" t="n">
         <v>199</v>
@@ -8333,7 +8333,7 @@
         <v>3580</v>
       </c>
       <c r="AB118" t="n">
-        <v>30576</v>
+        <v>30580</v>
       </c>
     </row>
     <row r="119">
@@ -8412,7 +8412,7 @@
         <v>5422</v>
       </c>
       <c r="Y119" t="n">
-        <v>1934</v>
+        <v>1938</v>
       </c>
       <c r="Z119" t="n">
         <v>199</v>
@@ -8421,7 +8421,7 @@
         <v>3583</v>
       </c>
       <c r="AB119" t="n">
-        <v>30620</v>
+        <v>30624</v>
       </c>
     </row>
     <row r="120">
@@ -8490,7 +8490,7 @@
         <v>5422</v>
       </c>
       <c r="Y120" t="n">
-        <v>1935</v>
+        <v>1939</v>
       </c>
       <c r="Z120" t="n">
         <v>199</v>
@@ -8499,7 +8499,7 @@
         <v>3584</v>
       </c>
       <c r="AB120" t="n">
-        <v>30648</v>
+        <v>30652</v>
       </c>
     </row>
     <row r="121">
@@ -8570,7 +8570,7 @@
         <v>5426</v>
       </c>
       <c r="Y121" t="n">
-        <v>1935</v>
+        <v>1939</v>
       </c>
       <c r="Z121" t="n">
         <v>199</v>
@@ -8579,7 +8579,7 @@
         <v>3586</v>
       </c>
       <c r="AB121" t="n">
-        <v>30666</v>
+        <v>30670</v>
       </c>
     </row>
     <row r="122">
@@ -8642,7 +8642,7 @@
         <v>5432</v>
       </c>
       <c r="Y122" t="n">
-        <v>1935</v>
+        <v>1939</v>
       </c>
       <c r="Z122" t="n">
         <v>201</v>
@@ -8651,7 +8651,7 @@
         <v>3588</v>
       </c>
       <c r="AB122" t="n">
-        <v>30686</v>
+        <v>30690</v>
       </c>
     </row>
     <row r="123">
@@ -8716,7 +8716,7 @@
         <v>5434</v>
       </c>
       <c r="Y123" t="n">
-        <v>1936</v>
+        <v>1940</v>
       </c>
       <c r="Z123" t="n">
         <v>202</v>
@@ -8725,7 +8725,7 @@
         <v>3589</v>
       </c>
       <c r="AB123" t="n">
-        <v>30696</v>
+        <v>30700</v>
       </c>
     </row>
     <row r="124">
@@ -8804,7 +8804,7 @@
         <v>5434</v>
       </c>
       <c r="Y124" t="n">
-        <v>1938</v>
+        <v>1942</v>
       </c>
       <c r="Z124" t="n">
         <v>202</v>
@@ -8813,7 +8813,7 @@
         <v>3591</v>
       </c>
       <c r="AB124" t="n">
-        <v>30705</v>
+        <v>30709</v>
       </c>
     </row>
     <row r="125">
@@ -8888,7 +8888,7 @@
         <v>5437</v>
       </c>
       <c r="Y125" t="n">
-        <v>1941</v>
+        <v>1945</v>
       </c>
       <c r="Z125" t="n">
         <v>202</v>
@@ -8897,7 +8897,7 @@
         <v>3597</v>
       </c>
       <c r="AB125" t="n">
-        <v>30727</v>
+        <v>30731</v>
       </c>
     </row>
     <row r="126">
@@ -8976,7 +8976,7 @@
         <v>5439</v>
       </c>
       <c r="Y126" t="n">
-        <v>1942</v>
+        <v>1946</v>
       </c>
       <c r="Z126" t="n">
         <v>202</v>
@@ -8985,7 +8985,7 @@
         <v>3600</v>
       </c>
       <c r="AB126" t="n">
-        <v>30741</v>
+        <v>30745</v>
       </c>
     </row>
     <row r="127">
@@ -9062,7 +9062,7 @@
         <v>5441</v>
       </c>
       <c r="Y127" t="n">
-        <v>1943</v>
+        <v>1947</v>
       </c>
       <c r="Z127" t="n">
         <v>202</v>
@@ -9071,7 +9071,7 @@
         <v>3605</v>
       </c>
       <c r="AB127" t="n">
-        <v>30759</v>
+        <v>30763</v>
       </c>
     </row>
     <row r="128">
@@ -9148,7 +9148,7 @@
         <v>5444</v>
       </c>
       <c r="Y128" t="n">
-        <v>1943</v>
+        <v>1947</v>
       </c>
       <c r="Z128" t="n">
         <v>202</v>
@@ -9157,7 +9157,7 @@
         <v>3612</v>
       </c>
       <c r="AB128" t="n">
-        <v>30783</v>
+        <v>30787</v>
       </c>
     </row>
     <row r="129">
@@ -9220,7 +9220,7 @@
         <v>5445</v>
       </c>
       <c r="Y129" t="n">
-        <v>1943</v>
+        <v>1947</v>
       </c>
       <c r="Z129" t="n">
         <v>202</v>
@@ -9229,7 +9229,7 @@
         <v>3618</v>
       </c>
       <c r="AB129" t="n">
-        <v>30824</v>
+        <v>30828</v>
       </c>
     </row>
     <row r="130">
@@ -9292,7 +9292,7 @@
         <v>5446</v>
       </c>
       <c r="Y130" t="n">
-        <v>1945</v>
+        <v>1949</v>
       </c>
       <c r="Z130" t="n">
         <v>202</v>
@@ -9301,7 +9301,7 @@
         <v>3618</v>
       </c>
       <c r="AB130" t="n">
-        <v>30831</v>
+        <v>30835</v>
       </c>
     </row>
     <row r="131">
@@ -9366,7 +9366,7 @@
         <v>5446</v>
       </c>
       <c r="Y131" t="n">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="Z131" t="n">
         <v>202</v>
@@ -9375,7 +9375,7 @@
         <v>3618</v>
       </c>
       <c r="AB131" t="n">
-        <v>30844</v>
+        <v>30848</v>
       </c>
     </row>
     <row r="132">
@@ -9450,7 +9450,7 @@
         <v>5450</v>
       </c>
       <c r="Y132" t="n">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="Z132" t="n">
         <v>202</v>
@@ -9459,7 +9459,7 @@
         <v>3620</v>
       </c>
       <c r="AB132" t="n">
-        <v>30864</v>
+        <v>30868</v>
       </c>
     </row>
     <row r="133">
@@ -9536,7 +9536,7 @@
         <v>5452</v>
       </c>
       <c r="Y133" t="n">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="Z133" t="n">
         <v>202</v>
@@ -9545,7 +9545,7 @@
         <v>3623</v>
       </c>
       <c r="AB133" t="n">
-        <v>30882</v>
+        <v>30886</v>
       </c>
     </row>
     <row r="134">
@@ -9618,7 +9618,7 @@
         <v>5455</v>
       </c>
       <c r="Y134" t="n">
-        <v>1950</v>
+        <v>1954</v>
       </c>
       <c r="Z134" t="n">
         <v>202</v>
@@ -9627,7 +9627,7 @@
         <v>3631</v>
       </c>
       <c r="AB134" t="n">
-        <v>30906</v>
+        <v>30910</v>
       </c>
     </row>
     <row r="135">
@@ -9698,7 +9698,7 @@
         <v>5457</v>
       </c>
       <c r="Y135" t="n">
-        <v>1953</v>
+        <v>1957</v>
       </c>
       <c r="Z135" t="n">
         <v>202</v>
@@ -9707,7 +9707,7 @@
         <v>3637</v>
       </c>
       <c r="AB135" t="n">
-        <v>30927</v>
+        <v>30931</v>
       </c>
     </row>
     <row r="136">
@@ -9762,7 +9762,7 @@
         <v>5459</v>
       </c>
       <c r="Y136" t="n">
-        <v>1953</v>
+        <v>1957</v>
       </c>
       <c r="Z136" t="n">
         <v>202</v>
@@ -9771,7 +9771,7 @@
         <v>3641</v>
       </c>
       <c r="AB136" t="n">
-        <v>30938</v>
+        <v>30942</v>
       </c>
     </row>
     <row r="137">
@@ -9828,7 +9828,7 @@
         <v>5460</v>
       </c>
       <c r="Y137" t="n">
-        <v>1956</v>
+        <v>1960</v>
       </c>
       <c r="Z137" t="n">
         <v>202</v>
@@ -9837,7 +9837,7 @@
         <v>3641</v>
       </c>
       <c r="AB137" t="n">
-        <v>30943</v>
+        <v>30947</v>
       </c>
     </row>
     <row r="138">
@@ -9908,7 +9908,7 @@
         <v>5460</v>
       </c>
       <c r="Y138" t="n">
-        <v>1957</v>
+        <v>1965</v>
       </c>
       <c r="Z138" t="n">
         <v>203</v>
@@ -9917,7 +9917,7 @@
         <v>3641</v>
       </c>
       <c r="AB138" t="n">
-        <v>30957</v>
+        <v>30965</v>
       </c>
     </row>
     <row r="139">
@@ -9977,7 +9977,9 @@
       </c>
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
+      <c r="Y139" t="n">
+        <v>1965</v>
+      </c>
       <c r="Z139" t="n">
         <v>205</v>
       </c>
@@ -9985,7 +9987,45 @@
         <v>3641</v>
       </c>
       <c r="AB139" t="n">
-        <v>30961</v>
+        <v>30969</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="n">
+        <v>307</v>
+      </c>
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr"/>
+      <c r="AA140" t="inlineStr"/>
+      <c r="AB140" t="n">
+        <v>30969</v>
       </c>
     </row>
   </sheetData>
@@ -9999,7 +10039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB139"/>
+  <dimension ref="A1:AB140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19230,7 +19270,9 @@
       </c>
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
+      <c r="Y139" t="n">
+        <v>151</v>
+      </c>
       <c r="Z139" t="n">
         <v>9</v>
       </c>
@@ -19238,6 +19280,44 @@
         <v>130</v>
       </c>
       <c r="AB139" t="n">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="n">
+        <v>23</v>
+      </c>
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr"/>
+      <c r="AA140" t="inlineStr"/>
+      <c r="AB140" t="n">
         <v>1934</v>
       </c>
     </row>
@@ -19252,7 +19332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB139"/>
+  <dimension ref="A1:AB140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24314,7 +24394,7 @@
         <v>188</v>
       </c>
       <c r="Y90" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z90" t="n">
         <v>9</v>
@@ -24323,7 +24403,7 @@
         <v>110</v>
       </c>
       <c r="AB90" t="n">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="91">
@@ -24394,7 +24474,7 @@
         <v>175</v>
       </c>
       <c r="Y91" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z91" t="n">
         <v>6</v>
@@ -24403,7 +24483,7 @@
         <v>110</v>
       </c>
       <c r="AB91" t="n">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="92">
@@ -24478,7 +24558,7 @@
         <v>173</v>
       </c>
       <c r="Y92" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z92" t="n">
         <v>6</v>
@@ -24487,7 +24567,7 @@
         <v>96</v>
       </c>
       <c r="AB92" t="n">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="93">
@@ -24560,7 +24640,7 @@
         <v>160</v>
       </c>
       <c r="Y93" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z93" t="n">
         <v>6</v>
@@ -24569,7 +24649,7 @@
         <v>83</v>
       </c>
       <c r="AB93" t="n">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="94">
@@ -24634,7 +24714,7 @@
         <v>165</v>
       </c>
       <c r="Y94" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z94" t="n">
         <v>6</v>
@@ -24643,7 +24723,7 @@
         <v>77</v>
       </c>
       <c r="AB94" t="n">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="95">
@@ -24710,7 +24790,7 @@
         <v>172</v>
       </c>
       <c r="Y95" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z95" t="n">
         <v>6</v>
@@ -24719,7 +24799,7 @@
         <v>75</v>
       </c>
       <c r="AB95" t="n">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="96">
@@ -24792,7 +24872,7 @@
         <v>159</v>
       </c>
       <c r="Y96" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z96" t="n">
         <v>7</v>
@@ -24801,7 +24881,7 @@
         <v>73</v>
       </c>
       <c r="AB96" t="n">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="97">
@@ -24876,7 +24956,7 @@
         <v>145</v>
       </c>
       <c r="Y97" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z97" t="n">
         <v>7</v>
@@ -24885,7 +24965,7 @@
         <v>84</v>
       </c>
       <c r="AB97" t="n">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="98">
@@ -24960,7 +25040,7 @@
         <v>136</v>
       </c>
       <c r="Y98" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z98" t="n">
         <v>6</v>
@@ -24969,7 +25049,7 @@
         <v>82</v>
       </c>
       <c r="AB98" t="n">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="99">
@@ -25044,7 +25124,7 @@
         <v>127</v>
       </c>
       <c r="Y99" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z99" t="n">
         <v>6</v>
@@ -25053,7 +25133,7 @@
         <v>61</v>
       </c>
       <c r="AB99" t="n">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="100">
@@ -25126,7 +25206,7 @@
         <v>114</v>
       </c>
       <c r="Y100" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z100" t="n">
         <v>4</v>
@@ -25135,7 +25215,7 @@
         <v>43</v>
       </c>
       <c r="AB100" t="n">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="101">
@@ -25202,7 +25282,7 @@
         <v>93</v>
       </c>
       <c r="Y101" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z101" t="n">
         <v>3</v>
@@ -25211,7 +25291,7 @@
         <v>41</v>
       </c>
       <c r="AB101" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="102">
@@ -25278,7 +25358,7 @@
         <v>94</v>
       </c>
       <c r="Y102" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z102" t="n">
         <v>3</v>
@@ -25287,7 +25367,7 @@
         <v>42</v>
       </c>
       <c r="AB102" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="103">
@@ -25360,7 +25440,7 @@
         <v>93</v>
       </c>
       <c r="Y103" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z103" t="n">
         <v>3</v>
@@ -25369,7 +25449,7 @@
         <v>43</v>
       </c>
       <c r="AB103" t="n">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="104">
@@ -25442,7 +25522,7 @@
         <v>82</v>
       </c>
       <c r="Y104" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z104" t="n">
         <v>4</v>
@@ -25451,7 +25531,7 @@
         <v>54</v>
       </c>
       <c r="AB104" t="n">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="105">
@@ -25526,7 +25606,7 @@
         <v>74</v>
       </c>
       <c r="Y105" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z105" t="n">
         <v>3</v>
@@ -25535,7 +25615,7 @@
         <v>53</v>
       </c>
       <c r="AB105" t="n">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="106">
@@ -25608,7 +25688,7 @@
         <v>68</v>
       </c>
       <c r="Y106" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z106" t="n">
         <v>2</v>
@@ -25617,7 +25697,7 @@
         <v>50</v>
       </c>
       <c r="AB106" t="n">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="107">
@@ -25690,7 +25770,7 @@
         <v>65</v>
       </c>
       <c r="Y107" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z107" t="n">
         <v>2</v>
@@ -25699,7 +25779,7 @@
         <v>47</v>
       </c>
       <c r="AB107" t="n">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="108">
@@ -25760,7 +25840,7 @@
         <v>68</v>
       </c>
       <c r="Y108" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z108" t="n">
         <v>2</v>
@@ -25769,7 +25849,7 @@
         <v>37</v>
       </c>
       <c r="AB108" t="n">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="109">
@@ -25830,7 +25910,7 @@
         <v>67</v>
       </c>
       <c r="Y109" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z109" t="n">
         <v>1</v>
@@ -25839,7 +25919,7 @@
         <v>40</v>
       </c>
       <c r="AB109" t="n">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="110">
@@ -25912,7 +25992,7 @@
         <v>69</v>
       </c>
       <c r="Y110" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z110" t="n">
         <v>1</v>
@@ -25921,7 +26001,7 @@
         <v>44</v>
       </c>
       <c r="AB110" t="n">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="111">
@@ -25994,7 +26074,7 @@
         <v>70</v>
       </c>
       <c r="Y111" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z111" t="n">
         <v>1</v>
@@ -26003,7 +26083,7 @@
         <v>44</v>
       </c>
       <c r="AB111" t="n">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="112">
@@ -26074,7 +26154,7 @@
         <v>67</v>
       </c>
       <c r="Y112" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z112" t="n">
         <v>0</v>
@@ -26083,7 +26163,7 @@
         <v>38</v>
       </c>
       <c r="AB112" t="n">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="113">
@@ -26152,7 +26232,7 @@
         <v>60</v>
       </c>
       <c r="Y113" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z113" t="n">
         <v>0</v>
@@ -26161,7 +26241,7 @@
         <v>36</v>
       </c>
       <c r="AB113" t="n">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="114">
@@ -26234,7 +26314,7 @@
         <v>54</v>
       </c>
       <c r="Y114" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z114" t="n">
         <v>0</v>
@@ -26243,7 +26323,7 @@
         <v>33</v>
       </c>
       <c r="AB114" t="n">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="115">
@@ -26300,7 +26380,7 @@
         <v>53</v>
       </c>
       <c r="Y115" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z115" t="n">
         <v>0</v>
@@ -26309,7 +26389,7 @@
         <v>32</v>
       </c>
       <c r="AB115" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="116">
@@ -26366,7 +26446,7 @@
         <v>53</v>
       </c>
       <c r="Y116" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z116" t="n">
         <v>0</v>
@@ -26375,7 +26455,7 @@
         <v>33</v>
       </c>
       <c r="AB116" t="n">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="117">
@@ -26446,7 +26526,7 @@
         <v>51</v>
       </c>
       <c r="Y117" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z117" t="n">
         <v>0</v>
@@ -26455,7 +26535,7 @@
         <v>33</v>
       </c>
       <c r="AB117" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="118">
@@ -26524,7 +26604,7 @@
         <v>50</v>
       </c>
       <c r="Y118" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z118" t="n">
         <v>0</v>
@@ -26533,7 +26613,7 @@
         <v>30</v>
       </c>
       <c r="AB118" t="n">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="119">
@@ -26604,7 +26684,7 @@
         <v>45</v>
       </c>
       <c r="Y119" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z119" t="n">
         <v>0</v>
@@ -26613,7 +26693,7 @@
         <v>29</v>
       </c>
       <c r="AB119" t="n">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="120">
@@ -26672,7 +26752,7 @@
         <v>42</v>
       </c>
       <c r="Y120" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z120" t="n">
         <v>0</v>
@@ -26681,7 +26761,7 @@
         <v>25</v>
       </c>
       <c r="AB120" t="n">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="121">
@@ -26744,7 +26824,7 @@
         <v>39</v>
       </c>
       <c r="Y121" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z121" t="n">
         <v>0</v>
@@ -26753,7 +26833,7 @@
         <v>31</v>
       </c>
       <c r="AB121" t="n">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="122">
@@ -26810,7 +26890,7 @@
         <v>37</v>
       </c>
       <c r="Y122" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z122" t="n">
         <v>0</v>
@@ -26819,7 +26899,7 @@
         <v>26</v>
       </c>
       <c r="AB122" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="123">
@@ -26876,7 +26956,7 @@
         <v>38</v>
       </c>
       <c r="Y123" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z123" t="n">
         <v>0</v>
@@ -26885,7 +26965,7 @@
         <v>28</v>
       </c>
       <c r="AB123" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="124">
@@ -26954,7 +27034,7 @@
         <v>39</v>
       </c>
       <c r="Y124" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z124" t="n">
         <v>1</v>
@@ -26963,7 +27043,7 @@
         <v>23</v>
       </c>
       <c r="AB124" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="125">
@@ -27030,7 +27110,7 @@
         <v>38</v>
       </c>
       <c r="Y125" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z125" t="n">
         <v>1</v>
@@ -27039,7 +27119,7 @@
         <v>19</v>
       </c>
       <c r="AB125" t="n">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="126">
@@ -27108,7 +27188,7 @@
         <v>39</v>
       </c>
       <c r="Y126" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z126" t="n">
         <v>0</v>
@@ -27117,7 +27197,7 @@
         <v>18</v>
       </c>
       <c r="AB126" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="127">
@@ -27186,7 +27266,7 @@
         <v>36</v>
       </c>
       <c r="Y127" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z127" t="n">
         <v>0</v>
@@ -27195,7 +27275,7 @@
         <v>20</v>
       </c>
       <c r="AB127" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="128">
@@ -27264,7 +27344,7 @@
         <v>32</v>
       </c>
       <c r="Y128" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z128" t="n">
         <v>0</v>
@@ -27273,7 +27353,7 @@
         <v>15</v>
       </c>
       <c r="AB128" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="129">
@@ -27330,7 +27410,7 @@
         <v>32</v>
       </c>
       <c r="Y129" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z129" t="n">
         <v>0</v>
@@ -27339,7 +27419,7 @@
         <v>12</v>
       </c>
       <c r="AB129" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="130">
@@ -27396,7 +27476,7 @@
         <v>33</v>
       </c>
       <c r="Y130" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z130" t="n">
         <v>0</v>
@@ -27405,7 +27485,7 @@
         <v>11</v>
       </c>
       <c r="AB130" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="131">
@@ -27462,7 +27542,7 @@
         <v>33</v>
       </c>
       <c r="Y131" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z131" t="n">
         <v>0</v>
@@ -27471,7 +27551,7 @@
         <v>11</v>
       </c>
       <c r="AB131" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="132">
@@ -27540,7 +27620,7 @@
         <v>33</v>
       </c>
       <c r="Y132" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z132" t="n">
         <v>0</v>
@@ -27549,7 +27629,7 @@
         <v>11</v>
       </c>
       <c r="AB132" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="133">
@@ -27616,7 +27696,7 @@
         <v>33</v>
       </c>
       <c r="Y133" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z133" t="n">
         <v>0</v>
@@ -27625,7 +27705,7 @@
         <v>9</v>
       </c>
       <c r="AB133" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="134">
@@ -27690,7 +27770,7 @@
         <v>34</v>
       </c>
       <c r="Y134" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z134" t="n">
         <v>0</v>
@@ -27699,7 +27779,7 @@
         <v>9</v>
       </c>
       <c r="AB134" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="135">
@@ -27762,7 +27842,7 @@
         <v>33</v>
       </c>
       <c r="Y135" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z135" t="n">
         <v>0</v>
@@ -27771,7 +27851,7 @@
         <v>8</v>
       </c>
       <c r="AB135" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="136">
@@ -27822,7 +27902,7 @@
         <v>30</v>
       </c>
       <c r="Y136" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z136" t="n">
         <v>0</v>
@@ -27831,7 +27911,7 @@
         <v>7</v>
       </c>
       <c r="AB136" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="137">
@@ -27882,7 +27962,7 @@
         <v>31</v>
       </c>
       <c r="Y137" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z137" t="n">
         <v>0</v>
@@ -27891,7 +27971,7 @@
         <v>7</v>
       </c>
       <c r="AB137" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="138">
@@ -27958,7 +28038,7 @@
         <v>32</v>
       </c>
       <c r="Y138" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z138" t="n">
         <v>0</v>
@@ -27967,7 +28047,7 @@
         <v>7</v>
       </c>
       <c r="AB138" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="139">
@@ -28021,7 +28101,9 @@
       </c>
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
+      <c r="Y139" t="n">
+        <v>15</v>
+      </c>
       <c r="Z139" t="n">
         <v>0</v>
       </c>
@@ -28029,7 +28111,43 @@
         <v>6</v>
       </c>
       <c r="AB139" t="n">
-        <v>232</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr"/>
+      <c r="AA140" t="inlineStr"/>
+      <c r="AB140" t="n">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -28043,7 +28161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB139"/>
+  <dimension ref="A1:AB140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35860,12 +35978,50 @@
       </c>
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
+      <c r="Y139" t="n">
+        <v>4</v>
+      </c>
       <c r="Z139" t="n">
         <v>0</v>
       </c>
       <c r="AA139" t="inlineStr"/>
       <c r="AB139" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr"/>
+      <c r="AA140" t="inlineStr"/>
+      <c r="AB140" t="n">
         <v>24</v>
       </c>
     </row>
@@ -35880,7 +36036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB139"/>
+  <dimension ref="A1:AB140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42371,12 +42527,50 @@
       </c>
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
+      <c r="Y139" t="n">
+        <v>3</v>
+      </c>
       <c r="Z139" t="inlineStr"/>
       <c r="AA139" t="n">
         <v>0</v>
       </c>
       <c r="AB139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr"/>
+      <c r="AA140" t="inlineStr"/>
+      <c r="AB140" t="n">
         <v>5</v>
       </c>
     </row>
@@ -42391,7 +42585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB139"/>
+  <dimension ref="A1:AB140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49021,6 +49215,44 @@
         <v>5544</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="n">
+        <v>284</v>
+      </c>
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr"/>
+      <c r="AA140" t="inlineStr"/>
+      <c r="AB140" t="n">
+        <v>5544</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -49032,7 +49264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB139"/>
+  <dimension ref="A1:AB140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54434,6 +54666,42 @@
         <v>37875</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr"/>
+      <c r="AA140" t="inlineStr"/>
+      <c r="AB140" t="n">
+        <v>37875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10012,20 +10012,26 @@
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
+      <c r="R140" t="n">
+        <v>79</v>
+      </c>
       <c r="S140" t="inlineStr"/>
       <c r="T140" t="n">
         <v>307</v>
       </c>
       <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr"/>
+      <c r="V140" t="n">
+        <v>3316</v>
+      </c>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr"/>
       <c r="Y140" t="inlineStr"/>
-      <c r="Z140" t="inlineStr"/>
+      <c r="Z140" t="n">
+        <v>207</v>
+      </c>
       <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="n">
-        <v>30969</v>
+        <v>30971</v>
       </c>
     </row>
   </sheetData>
@@ -19305,17 +19311,23 @@
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
+      <c r="R140" t="n">
+        <v>7</v>
+      </c>
       <c r="S140" t="inlineStr"/>
       <c r="T140" t="n">
         <v>23</v>
       </c>
       <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr"/>
+      <c r="V140" t="n">
+        <v>349</v>
+      </c>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr"/>
       <c r="Y140" t="inlineStr"/>
-      <c r="Z140" t="inlineStr"/>
+      <c r="Z140" t="n">
+        <v>9</v>
+      </c>
       <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="n">
         <v>1934</v>
@@ -28136,18 +28148,24 @@
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
+      <c r="R140" t="n">
+        <v>3</v>
+      </c>
       <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr"/>
+      <c r="V140" t="n">
+        <v>10</v>
+      </c>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr"/>
       <c r="Y140" t="inlineStr"/>
-      <c r="Z140" t="inlineStr"/>
+      <c r="Z140" t="n">
+        <v>1</v>
+      </c>
       <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="n">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -36011,18 +36029,24 @@
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
+      <c r="R140" t="n">
+        <v>1</v>
+      </c>
       <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr"/>
+      <c r="V140" t="n">
+        <v>0</v>
+      </c>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr"/>
       <c r="Y140" t="inlineStr"/>
-      <c r="Z140" t="inlineStr"/>
+      <c r="Z140" t="n">
+        <v>0</v>
+      </c>
       <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -42564,7 +42588,9 @@
       <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr"/>
+      <c r="V140" t="n">
+        <v>0</v>
+      </c>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr"/>
       <c r="Y140" t="inlineStr"/>
@@ -49243,14 +49269,18 @@
         <v>284</v>
       </c>
       <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr"/>
+      <c r="V140" t="n">
+        <v>907</v>
+      </c>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr"/>
       <c r="Y140" t="inlineStr"/>
-      <c r="Z140" t="inlineStr"/>
+      <c r="Z140" t="n">
+        <v>186</v>
+      </c>
       <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="n">
-        <v>5544</v>
+        <v>5546</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -9997,17 +9997,25 @@
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr"/>
+      <c r="C140" t="n">
+        <v>25</v>
+      </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
+      <c r="G140" t="n">
+        <v>983</v>
+      </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>128</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>736</v>
+      </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
@@ -19296,17 +19304,25 @@
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr"/>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
+      <c r="G140" t="n">
+        <v>50</v>
+      </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>12</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>20</v>
+      </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
@@ -28140,7 +28156,9 @@
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
@@ -44058,7 +44076,9 @@
       </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
@@ -44096,7 +44116,9 @@
       </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="n">
@@ -44134,7 +44156,9 @@
       </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
       <c r="Z39" t="n">
         <v>0</v>
       </c>
@@ -44174,7 +44198,9 @@
       </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
       <c r="Z40" t="n">
         <v>0</v>
       </c>
@@ -44214,7 +44240,9 @@
       </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
       <c r="Z41" t="n">
         <v>0</v>
       </c>
@@ -44254,7 +44282,9 @@
       </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
       <c r="Z42" t="n">
         <v>0</v>
       </c>
@@ -44294,13 +44324,15 @@
       </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
+      <c r="Y43" t="n">
+        <v>2</v>
+      </c>
       <c r="Z43" t="n">
         <v>0</v>
       </c>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -44336,13 +44368,15 @@
       </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
+      <c r="Y44" t="n">
+        <v>2</v>
+      </c>
       <c r="Z44" t="n">
         <v>0</v>
       </c>
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -44376,13 +44410,15 @@
       </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
+      <c r="Y45" t="n">
+        <v>2</v>
+      </c>
       <c r="Z45" t="n">
         <v>0</v>
       </c>
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -44416,13 +44452,15 @@
       </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
+      <c r="Y46" t="n">
+        <v>2</v>
+      </c>
       <c r="Z46" t="n">
         <v>0</v>
       </c>
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -44460,13 +44498,15 @@
       </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
+      <c r="Y47" t="n">
+        <v>2</v>
+      </c>
       <c r="Z47" t="n">
         <v>0</v>
       </c>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -44504,13 +44544,15 @@
       </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
+      <c r="Y48" t="n">
+        <v>2</v>
+      </c>
       <c r="Z48" t="n">
         <v>0</v>
       </c>
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -44550,13 +44592,15 @@
       </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
+      <c r="Y49" t="n">
+        <v>3</v>
+      </c>
       <c r="Z49" t="n">
         <v>0</v>
       </c>
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
@@ -44596,13 +44640,15 @@
       </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
+      <c r="Y50" t="n">
+        <v>3</v>
+      </c>
       <c r="Z50" t="n">
         <v>0</v>
       </c>
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
@@ -44642,13 +44688,15 @@
       </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
+      <c r="Y51" t="n">
+        <v>5</v>
+      </c>
       <c r="Z51" t="n">
         <v>0</v>
       </c>
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
@@ -44686,13 +44734,15 @@
       </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
+      <c r="Y52" t="n">
+        <v>6</v>
+      </c>
       <c r="Z52" t="n">
         <v>0</v>
       </c>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53">
@@ -44728,13 +44778,15 @@
       </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
+      <c r="Y53" t="n">
+        <v>6</v>
+      </c>
       <c r="Z53" t="n">
         <v>0</v>
       </c>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54">
@@ -44774,13 +44826,15 @@
       </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
+      <c r="Y54" t="n">
+        <v>8</v>
+      </c>
       <c r="Z54" t="n">
         <v>0</v>
       </c>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55">
@@ -44820,13 +44874,15 @@
       </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
+      <c r="Y55" t="n">
+        <v>11</v>
+      </c>
       <c r="Z55" t="n">
         <v>1</v>
       </c>
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="n">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56">
@@ -44866,13 +44922,15 @@
       </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
+      <c r="Y56" t="n">
+        <v>11</v>
+      </c>
       <c r="Z56" t="n">
         <v>5</v>
       </c>
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="n">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
@@ -44910,13 +44968,15 @@
       </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
+      <c r="Y57" t="n">
+        <v>12</v>
+      </c>
       <c r="Z57" t="n">
         <v>5</v>
       </c>
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="n">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58">
@@ -44954,13 +45014,15 @@
       </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
+      <c r="Y58" t="n">
+        <v>15</v>
+      </c>
       <c r="Z58" t="n">
         <v>5</v>
       </c>
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="n">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59">
@@ -44998,13 +45060,15 @@
       </c>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
+      <c r="Y59" t="n">
+        <v>17</v>
+      </c>
       <c r="Z59" t="n">
         <v>5</v>
       </c>
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="n">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60">
@@ -45042,13 +45106,15 @@
       </c>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
+      <c r="Y60" t="n">
+        <v>19</v>
+      </c>
       <c r="Z60" t="n">
         <v>5</v>
       </c>
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="n">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61">
@@ -45088,13 +45154,15 @@
         <v>1</v>
       </c>
       <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
+      <c r="Y61" t="n">
+        <v>24</v>
+      </c>
       <c r="Z61" t="n">
         <v>5</v>
       </c>
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="n">
-        <v>194</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62">
@@ -45138,13 +45206,15 @@
         <v>1</v>
       </c>
       <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
+      <c r="Y62" t="n">
+        <v>25</v>
+      </c>
       <c r="Z62" t="n">
         <v>12</v>
       </c>
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="n">
-        <v>355</v>
+        <v>380</v>
       </c>
     </row>
     <row r="63">
@@ -45186,13 +45256,15 @@
       </c>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
+      <c r="Y63" t="n">
+        <v>35</v>
+      </c>
       <c r="Z63" t="n">
         <v>18</v>
       </c>
       <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="n">
-        <v>414</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64">
@@ -45236,13 +45308,15 @@
         <v>2</v>
       </c>
       <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
+      <c r="Y64" t="n">
+        <v>41</v>
+      </c>
       <c r="Z64" t="n">
         <v>18</v>
       </c>
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="n">
-        <v>499</v>
+        <v>540</v>
       </c>
     </row>
     <row r="65">
@@ -45286,13 +45360,15 @@
         <v>3</v>
       </c>
       <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
+      <c r="Y65" t="n">
+        <v>50</v>
+      </c>
       <c r="Z65" t="n">
         <v>18</v>
       </c>
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="n">
-        <v>584</v>
+        <v>634</v>
       </c>
     </row>
     <row r="66">
@@ -45336,13 +45412,15 @@
         <v>3</v>
       </c>
       <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
+      <c r="Y66" t="n">
+        <v>53</v>
+      </c>
       <c r="Z66" t="n">
         <v>21</v>
       </c>
       <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="n">
-        <v>683</v>
+        <v>736</v>
       </c>
     </row>
     <row r="67">
@@ -45386,13 +45464,15 @@
         <v>3</v>
       </c>
       <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
+      <c r="Y67" t="n">
+        <v>54</v>
+      </c>
       <c r="Z67" t="n">
         <v>21</v>
       </c>
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="n">
-        <v>752</v>
+        <v>806</v>
       </c>
     </row>
     <row r="68">
@@ -45436,13 +45516,15 @@
         <v>9</v>
       </c>
       <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
+      <c r="Y68" t="n">
+        <v>71</v>
+      </c>
       <c r="Z68" t="n">
         <v>29</v>
       </c>
       <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="n">
-        <v>877</v>
+        <v>948</v>
       </c>
     </row>
     <row r="69">
@@ -45486,13 +45568,15 @@
         <v>11</v>
       </c>
       <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
+      <c r="Y69" t="n">
+        <v>81</v>
+      </c>
       <c r="Z69" t="n">
         <v>39</v>
       </c>
       <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="n">
-        <v>1079</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="70">
@@ -45536,13 +45620,15 @@
         <v>13</v>
       </c>
       <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
+      <c r="Y70" t="n">
+        <v>96</v>
+      </c>
       <c r="Z70" t="n">
         <v>40</v>
       </c>
       <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="n">
-        <v>1183</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="71">
@@ -45590,13 +45676,15 @@
         <v>13</v>
       </c>
       <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
+      <c r="Y71" t="n">
+        <v>104</v>
+      </c>
       <c r="Z71" t="n">
         <v>41</v>
       </c>
       <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="n">
-        <v>1376</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="72">
@@ -45644,13 +45732,15 @@
         <v>26</v>
       </c>
       <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
+      <c r="Y72" t="n">
+        <v>109</v>
+      </c>
       <c r="Z72" t="n">
         <v>44</v>
       </c>
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="n">
-        <v>1479</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="73">
@@ -45698,13 +45788,15 @@
         <v>26</v>
       </c>
       <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
+      <c r="Y73" t="n">
+        <v>112</v>
+      </c>
       <c r="Z73" t="n">
         <v>46</v>
       </c>
       <c r="AA73" t="inlineStr"/>
       <c r="AB73" t="n">
-        <v>1630</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="74">
@@ -45752,13 +45844,15 @@
         <v>26</v>
       </c>
       <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
+      <c r="Y74" t="n">
+        <v>115</v>
+      </c>
       <c r="Z74" t="n">
         <v>46</v>
       </c>
       <c r="AA74" t="inlineStr"/>
       <c r="AB74" t="n">
-        <v>1790</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="75">
@@ -45808,13 +45902,15 @@
         <v>34</v>
       </c>
       <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
+      <c r="Y75" t="n">
+        <v>134</v>
+      </c>
       <c r="Z75" t="n">
         <v>52</v>
       </c>
       <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="n">
-        <v>1903</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="76">
@@ -45864,13 +45960,15 @@
         <v>42</v>
       </c>
       <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
+      <c r="Y76" t="n">
+        <v>143</v>
+      </c>
       <c r="Z76" t="n">
         <v>54</v>
       </c>
       <c r="AA76" t="inlineStr"/>
       <c r="AB76" t="n">
-        <v>2246</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="77">
@@ -45920,13 +46018,15 @@
         <v>42</v>
       </c>
       <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
+      <c r="Y77" t="n">
+        <v>152</v>
+      </c>
       <c r="Z77" t="n">
         <v>61</v>
       </c>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="n">
-        <v>2456</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="78">
@@ -45974,13 +46074,15 @@
         <v>45</v>
       </c>
       <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
+      <c r="Y78" t="n">
+        <v>160</v>
+      </c>
       <c r="Z78" t="n">
         <v>69</v>
       </c>
       <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="n">
-        <v>2600</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="79">
@@ -46028,13 +46130,15 @@
         <v>49</v>
       </c>
       <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
+      <c r="Y79" t="n">
+        <v>166</v>
+      </c>
       <c r="Z79" t="n">
         <v>76</v>
       </c>
       <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="n">
-        <v>2684</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="80">
@@ -46084,13 +46188,15 @@
         <v>50</v>
       </c>
       <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
+      <c r="Y80" t="n">
+        <v>169</v>
+      </c>
       <c r="Z80" t="n">
         <v>79</v>
       </c>
       <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="n">
-        <v>2838</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="81">
@@ -46138,13 +46244,15 @@
         <v>52</v>
       </c>
       <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
+      <c r="Y81" t="n">
+        <v>173</v>
+      </c>
       <c r="Z81" t="n">
         <v>80</v>
       </c>
       <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="n">
-        <v>2931</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="82">
@@ -46192,13 +46300,15 @@
         <v>52</v>
       </c>
       <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
+      <c r="Y82" t="n">
+        <v>176</v>
+      </c>
       <c r="Z82" t="n">
         <v>84</v>
       </c>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="n">
-        <v>3011</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="83">
@@ -46248,13 +46358,15 @@
         <v>56</v>
       </c>
       <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
+      <c r="Y83" t="n">
+        <v>187</v>
+      </c>
       <c r="Z83" t="n">
         <v>88</v>
       </c>
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="n">
-        <v>3165</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="84">
@@ -46304,13 +46416,15 @@
         <v>62</v>
       </c>
       <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
+      <c r="Y84" t="n">
+        <v>195</v>
+      </c>
       <c r="Z84" t="n">
         <v>92</v>
       </c>
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="n">
-        <v>3319</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="85">
@@ -46360,13 +46474,15 @@
         <v>62</v>
       </c>
       <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
+      <c r="Y85" t="n">
+        <v>198</v>
+      </c>
       <c r="Z85" t="n">
         <v>94</v>
       </c>
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="n">
-        <v>3476</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="86">
@@ -46416,13 +46532,15 @@
         <v>66</v>
       </c>
       <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
+      <c r="Y86" t="n">
+        <v>204</v>
+      </c>
       <c r="Z86" t="n">
         <v>96</v>
       </c>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="n">
-        <v>3578</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="87">
@@ -46470,13 +46588,15 @@
         <v>69</v>
       </c>
       <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
+      <c r="Y87" t="n">
+        <v>204</v>
+      </c>
       <c r="Z87" t="n">
         <v>99</v>
       </c>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="n">
-        <v>3692</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="88">
@@ -46524,13 +46644,15 @@
         <v>69</v>
       </c>
       <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
+      <c r="Y88" t="n">
+        <v>205</v>
+      </c>
       <c r="Z88" t="n">
         <v>99</v>
       </c>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="n">
-        <v>3743</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="89">
@@ -46580,13 +46702,15 @@
         <v>69</v>
       </c>
       <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
+      <c r="Y89" t="n">
+        <v>211</v>
+      </c>
       <c r="Z89" t="n">
         <v>99</v>
       </c>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="n">
-        <v>3877</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="90">
@@ -46636,13 +46760,15 @@
         <v>69</v>
       </c>
       <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
+      <c r="Y90" t="n">
+        <v>213</v>
+      </c>
       <c r="Z90" t="n">
         <v>99</v>
       </c>
       <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="n">
-        <v>3995</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="91">
@@ -46692,13 +46818,15 @@
         <v>69</v>
       </c>
       <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
+      <c r="Y91" t="n">
+        <v>216</v>
+      </c>
       <c r="Z91" t="n">
         <v>131</v>
       </c>
       <c r="AA91" t="inlineStr"/>
       <c r="AB91" t="n">
-        <v>4102</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="92">
@@ -46748,13 +46876,15 @@
         <v>69</v>
       </c>
       <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
+      <c r="Y92" t="n">
+        <v>219</v>
+      </c>
       <c r="Z92" t="n">
         <v>133</v>
       </c>
       <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="n">
-        <v>4192</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="93">
@@ -46804,13 +46934,15 @@
         <v>69</v>
       </c>
       <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
+      <c r="Y93" t="n">
+        <v>223</v>
+      </c>
       <c r="Z93" t="n">
         <v>133</v>
       </c>
       <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="n">
-        <v>4263</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="94">
@@ -46854,13 +46986,15 @@
         <v>69</v>
       </c>
       <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
+      <c r="Y94" t="n">
+        <v>224</v>
+      </c>
       <c r="Z94" t="n">
         <v>133</v>
       </c>
       <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="n">
-        <v>4309</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="95">
@@ -46906,13 +47040,15 @@
         <v>69</v>
       </c>
       <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
+      <c r="Y95" t="n">
+        <v>224</v>
+      </c>
       <c r="Z95" t="n">
         <v>133</v>
       </c>
       <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="n">
-        <v>4333</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="96">
@@ -46960,13 +47096,15 @@
         <v>69</v>
       </c>
       <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
+      <c r="Y96" t="n">
+        <v>232</v>
+      </c>
       <c r="Z96" t="n">
         <v>134</v>
       </c>
       <c r="AA96" t="inlineStr"/>
       <c r="AB96" t="n">
-        <v>4403</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="97">
@@ -47014,13 +47152,15 @@
         <v>71</v>
       </c>
       <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
+      <c r="Y97" t="n">
+        <v>236</v>
+      </c>
       <c r="Z97" t="n">
         <v>134</v>
       </c>
       <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="n">
-        <v>4442</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="98">
@@ -47070,13 +47210,15 @@
         <v>71</v>
       </c>
       <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
+      <c r="Y98" t="n">
+        <v>238</v>
+      </c>
       <c r="Z98" t="n">
         <v>135</v>
       </c>
       <c r="AA98" t="inlineStr"/>
       <c r="AB98" t="n">
-        <v>4504</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="99">
@@ -47126,13 +47268,15 @@
         <v>71</v>
       </c>
       <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
+      <c r="Y99" t="n">
+        <v>239</v>
+      </c>
       <c r="Z99" t="n">
         <v>135</v>
       </c>
       <c r="AA99" t="inlineStr"/>
       <c r="AB99" t="n">
-        <v>4586</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="100">
@@ -47182,13 +47326,15 @@
         <v>72</v>
       </c>
       <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
+      <c r="Y100" t="n">
+        <v>241</v>
+      </c>
       <c r="Z100" t="n">
         <v>136</v>
       </c>
       <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="n">
-        <v>4664</v>
+        <v>4905</v>
       </c>
     </row>
     <row r="101">
@@ -47234,13 +47380,15 @@
         <v>72</v>
       </c>
       <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
+      <c r="Y101" t="n">
+        <v>241</v>
+      </c>
       <c r="Z101" t="n">
         <v>136</v>
       </c>
       <c r="AA101" t="inlineStr"/>
       <c r="AB101" t="n">
-        <v>4692</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="102">
@@ -47286,13 +47434,15 @@
         <v>72</v>
       </c>
       <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
+      <c r="Y102" t="n">
+        <v>241</v>
+      </c>
       <c r="Z102" t="n">
         <v>137</v>
       </c>
       <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="n">
-        <v>4710</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="103">
@@ -47342,13 +47492,15 @@
         <v>72</v>
       </c>
       <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
+      <c r="Y103" t="n">
+        <v>246</v>
+      </c>
       <c r="Z103" t="n">
         <v>138</v>
       </c>
       <c r="AA103" t="inlineStr"/>
       <c r="AB103" t="n">
-        <v>4770</v>
+        <v>5016</v>
       </c>
     </row>
     <row r="104">
@@ -47396,13 +47548,15 @@
         <v>74</v>
       </c>
       <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
+      <c r="Y104" t="n">
+        <v>248</v>
+      </c>
       <c r="Z104" t="n">
         <v>138</v>
       </c>
       <c r="AA104" t="inlineStr"/>
       <c r="AB104" t="n">
-        <v>4798</v>
+        <v>5046</v>
       </c>
     </row>
     <row r="105">
@@ -47452,13 +47606,15 @@
         <v>74</v>
       </c>
       <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
+      <c r="Y105" t="n">
+        <v>251</v>
+      </c>
       <c r="Z105" t="n">
         <v>142</v>
       </c>
       <c r="AA105" t="inlineStr"/>
       <c r="AB105" t="n">
-        <v>4884</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="106">
@@ -47506,13 +47662,15 @@
         <v>75</v>
       </c>
       <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
+      <c r="Y106" t="n">
+        <v>256</v>
+      </c>
       <c r="Z106" t="n">
         <v>143</v>
       </c>
       <c r="AA106" t="inlineStr"/>
       <c r="AB106" t="n">
-        <v>4930</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="107">
@@ -47560,13 +47718,15 @@
         <v>75</v>
       </c>
       <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
+      <c r="Y107" t="n">
+        <v>258</v>
+      </c>
       <c r="Z107" t="n">
         <v>144</v>
       </c>
       <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="n">
-        <v>4989</v>
+        <v>5247</v>
       </c>
     </row>
     <row r="108">
@@ -47612,13 +47772,15 @@
         <v>75</v>
       </c>
       <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
+      <c r="Y108" t="n">
+        <v>259</v>
+      </c>
       <c r="Z108" t="n">
         <v>152</v>
       </c>
       <c r="AA108" t="inlineStr"/>
       <c r="AB108" t="n">
-        <v>5030</v>
+        <v>5289</v>
       </c>
     </row>
     <row r="109">
@@ -47662,13 +47824,15 @@
         <v>75</v>
       </c>
       <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
+      <c r="Y109" t="n">
+        <v>259</v>
+      </c>
       <c r="Z109" t="n">
         <v>152</v>
       </c>
       <c r="AA109" t="inlineStr"/>
       <c r="AB109" t="n">
-        <v>5047</v>
+        <v>5306</v>
       </c>
     </row>
     <row r="110">
@@ -47718,13 +47882,15 @@
         <v>75</v>
       </c>
       <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
+      <c r="Y110" t="n">
+        <v>259</v>
+      </c>
       <c r="Z110" t="n">
         <v>152</v>
       </c>
       <c r="AA110" t="inlineStr"/>
       <c r="AB110" t="n">
-        <v>5102</v>
+        <v>5361</v>
       </c>
     </row>
     <row r="111">
@@ -47772,13 +47938,15 @@
         <v>75</v>
       </c>
       <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr"/>
+      <c r="Y111" t="n">
+        <v>262</v>
+      </c>
       <c r="Z111" t="n">
         <v>159</v>
       </c>
       <c r="AA111" t="inlineStr"/>
       <c r="AB111" t="n">
-        <v>5141</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="112">
@@ -47828,13 +47996,15 @@
         <v>78</v>
       </c>
       <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
+      <c r="Y112" t="n">
+        <v>265</v>
+      </c>
       <c r="Z112" t="n">
         <v>161</v>
       </c>
       <c r="AA112" t="inlineStr"/>
       <c r="AB112" t="n">
-        <v>5172</v>
+        <v>5437</v>
       </c>
     </row>
     <row r="113">
@@ -47882,13 +48052,15 @@
         <v>78</v>
       </c>
       <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
+      <c r="Y113" t="n">
+        <v>267</v>
+      </c>
       <c r="Z113" t="n">
         <v>161</v>
       </c>
       <c r="AA113" t="inlineStr"/>
       <c r="AB113" t="n">
-        <v>5213</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="114">
@@ -47936,13 +48108,15 @@
       </c>
       <c r="W114" t="inlineStr"/>
       <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
+      <c r="Y114" t="n">
+        <v>270</v>
+      </c>
       <c r="Z114" t="n">
         <v>163</v>
       </c>
       <c r="AA114" t="inlineStr"/>
       <c r="AB114" t="n">
-        <v>5229</v>
+        <v>5499</v>
       </c>
     </row>
     <row r="115">
@@ -47988,13 +48162,15 @@
         <v>79</v>
       </c>
       <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr"/>
+      <c r="Y115" t="n">
+        <v>270</v>
+      </c>
       <c r="Z115" t="n">
         <v>168</v>
       </c>
       <c r="AA115" t="inlineStr"/>
       <c r="AB115" t="n">
-        <v>5250</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="116">
@@ -48040,13 +48216,15 @@
         <v>79</v>
       </c>
       <c r="X116" t="inlineStr"/>
-      <c r="Y116" t="inlineStr"/>
+      <c r="Y116" t="n">
+        <v>270</v>
+      </c>
       <c r="Z116" t="n">
         <v>168</v>
       </c>
       <c r="AA116" t="inlineStr"/>
       <c r="AB116" t="n">
-        <v>5259</v>
+        <v>5529</v>
       </c>
     </row>
     <row r="117">
@@ -48096,13 +48274,15 @@
         <v>79</v>
       </c>
       <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr"/>
+      <c r="Y117" t="n">
+        <v>272</v>
+      </c>
       <c r="Z117" t="n">
         <v>169</v>
       </c>
       <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="n">
-        <v>5278</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="118">
@@ -48150,13 +48330,15 @@
         <v>79</v>
       </c>
       <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
+      <c r="Y118" t="n">
+        <v>274</v>
+      </c>
       <c r="Z118" t="n">
         <v>171</v>
       </c>
       <c r="AA118" t="inlineStr"/>
       <c r="AB118" t="n">
-        <v>5311</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="119">
@@ -48206,13 +48388,15 @@
         <v>82</v>
       </c>
       <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
+      <c r="Y119" t="n">
+        <v>276</v>
+      </c>
       <c r="Z119" t="n">
         <v>171</v>
       </c>
       <c r="AA119" t="inlineStr"/>
       <c r="AB119" t="n">
-        <v>5328</v>
+        <v>5604</v>
       </c>
     </row>
     <row r="120">
@@ -48258,13 +48442,15 @@
         <v>82</v>
       </c>
       <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
+      <c r="Y120" t="n">
+        <v>276</v>
+      </c>
       <c r="Z120" t="n">
         <v>173</v>
       </c>
       <c r="AA120" t="inlineStr"/>
       <c r="AB120" t="n">
-        <v>5354</v>
+        <v>5630</v>
       </c>
     </row>
     <row r="121">
@@ -48310,13 +48496,15 @@
         <v>84</v>
       </c>
       <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
+      <c r="Y121" t="n">
+        <v>277</v>
+      </c>
       <c r="Z121" t="n">
         <v>173</v>
       </c>
       <c r="AA121" t="inlineStr"/>
       <c r="AB121" t="n">
-        <v>5362</v>
+        <v>5639</v>
       </c>
     </row>
     <row r="122">
@@ -48362,13 +48550,15 @@
         <v>84</v>
       </c>
       <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
+      <c r="Y122" t="n">
+        <v>277</v>
+      </c>
       <c r="Z122" t="n">
         <v>174</v>
       </c>
       <c r="AA122" t="inlineStr"/>
       <c r="AB122" t="n">
-        <v>5373</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="123">
@@ -48414,13 +48604,15 @@
         <v>84</v>
       </c>
       <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr"/>
+      <c r="Y123" t="n">
+        <v>277</v>
+      </c>
       <c r="Z123" t="n">
         <v>174</v>
       </c>
       <c r="AA123" t="inlineStr"/>
       <c r="AB123" t="n">
-        <v>5375</v>
+        <v>5652</v>
       </c>
     </row>
     <row r="124">
@@ -48468,13 +48660,15 @@
         <v>84</v>
       </c>
       <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
+      <c r="Y124" t="n">
+        <v>278</v>
+      </c>
       <c r="Z124" t="n">
         <v>175</v>
       </c>
       <c r="AA124" t="inlineStr"/>
       <c r="AB124" t="n">
-        <v>5403</v>
+        <v>5681</v>
       </c>
     </row>
     <row r="125">
@@ -48520,13 +48714,15 @@
         <v>86</v>
       </c>
       <c r="X125" t="inlineStr"/>
-      <c r="Y125" t="inlineStr"/>
+      <c r="Y125" t="n">
+        <v>279</v>
+      </c>
       <c r="Z125" t="n">
         <v>176</v>
       </c>
       <c r="AA125" t="inlineStr"/>
       <c r="AB125" t="n">
-        <v>5414</v>
+        <v>5693</v>
       </c>
     </row>
     <row r="126">
@@ -48572,13 +48768,15 @@
         <v>86</v>
       </c>
       <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr"/>
+      <c r="Y126" t="n">
+        <v>280</v>
+      </c>
       <c r="Z126" t="n">
         <v>179</v>
       </c>
       <c r="AA126" t="inlineStr"/>
       <c r="AB126" t="n">
-        <v>5427</v>
+        <v>5707</v>
       </c>
     </row>
     <row r="127">
@@ -48626,13 +48824,15 @@
         <v>86</v>
       </c>
       <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
+      <c r="Y127" t="n">
+        <v>281</v>
+      </c>
       <c r="Z127" t="n">
         <v>180</v>
       </c>
       <c r="AA127" t="inlineStr"/>
       <c r="AB127" t="n">
-        <v>5445</v>
+        <v>5726</v>
       </c>
     </row>
     <row r="128">
@@ -48678,13 +48878,15 @@
         <v>86</v>
       </c>
       <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
+      <c r="Y128" t="n">
+        <v>282</v>
+      </c>
       <c r="Z128" t="n">
         <v>180</v>
       </c>
       <c r="AA128" t="inlineStr"/>
       <c r="AB128" t="n">
-        <v>5451</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="129">
@@ -48728,13 +48930,15 @@
         <v>86</v>
       </c>
       <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
+      <c r="Y129" t="n">
+        <v>283</v>
+      </c>
       <c r="Z129" t="n">
         <v>180</v>
       </c>
       <c r="AA129" t="inlineStr"/>
       <c r="AB129" t="n">
-        <v>5454</v>
+        <v>5737</v>
       </c>
     </row>
     <row r="130">
@@ -48778,13 +48982,15 @@
         <v>86</v>
       </c>
       <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr"/>
+      <c r="Y130" t="n">
+        <v>284</v>
+      </c>
       <c r="Z130" t="n">
         <v>180</v>
       </c>
       <c r="AA130" t="inlineStr"/>
       <c r="AB130" t="n">
-        <v>5455</v>
+        <v>5739</v>
       </c>
     </row>
     <row r="131">
@@ -48828,13 +49034,15 @@
         <v>86</v>
       </c>
       <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
+      <c r="Y131" t="n">
+        <v>285</v>
+      </c>
       <c r="Z131" t="n">
         <v>180</v>
       </c>
       <c r="AA131" t="inlineStr"/>
       <c r="AB131" t="n">
-        <v>5455</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="132">
@@ -48882,13 +49090,15 @@
         <v>86</v>
       </c>
       <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="inlineStr"/>
+      <c r="Y132" t="n">
+        <v>285</v>
+      </c>
       <c r="Z132" t="n">
         <v>185</v>
       </c>
       <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="n">
-        <v>5492</v>
+        <v>5777</v>
       </c>
     </row>
     <row r="133">
@@ -48934,13 +49144,15 @@
       </c>
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr"/>
+      <c r="Y133" t="n">
+        <v>286</v>
+      </c>
       <c r="Z133" t="n">
         <v>185</v>
       </c>
       <c r="AA133" t="inlineStr"/>
       <c r="AB133" t="n">
-        <v>5504</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="134">
@@ -48986,13 +49198,15 @@
       </c>
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="inlineStr"/>
-      <c r="Y134" t="inlineStr"/>
+      <c r="Y134" t="n">
+        <v>286</v>
+      </c>
       <c r="Z134" t="n">
         <v>185</v>
       </c>
       <c r="AA134" t="inlineStr"/>
       <c r="AB134" t="n">
-        <v>5519</v>
+        <v>5805</v>
       </c>
     </row>
     <row r="135">
@@ -49036,13 +49250,15 @@
       </c>
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="inlineStr"/>
-      <c r="Y135" t="inlineStr"/>
+      <c r="Y135" t="n">
+        <v>286</v>
+      </c>
       <c r="Z135" t="n">
         <v>185</v>
       </c>
       <c r="AA135" t="inlineStr"/>
       <c r="AB135" t="n">
-        <v>5523</v>
+        <v>5809</v>
       </c>
     </row>
     <row r="136">
@@ -49084,13 +49300,15 @@
       </c>
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr"/>
+      <c r="Y136" t="n">
+        <v>286</v>
+      </c>
       <c r="Z136" t="n">
         <v>185</v>
       </c>
       <c r="AA136" t="inlineStr"/>
       <c r="AB136" t="n">
-        <v>5527</v>
+        <v>5813</v>
       </c>
     </row>
     <row r="137">
@@ -49132,13 +49350,15 @@
       </c>
       <c r="W137" t="inlineStr"/>
       <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
+      <c r="Y137" t="n">
+        <v>286</v>
+      </c>
       <c r="Z137" t="n">
         <v>185</v>
       </c>
       <c r="AA137" t="inlineStr"/>
       <c r="AB137" t="n">
-        <v>5529</v>
+        <v>5815</v>
       </c>
     </row>
     <row r="138">
@@ -49184,13 +49404,15 @@
       </c>
       <c r="W138" t="inlineStr"/>
       <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
+      <c r="Y138" t="n">
+        <v>286</v>
+      </c>
       <c r="Z138" t="n">
         <v>185</v>
       </c>
       <c r="AA138" t="inlineStr"/>
       <c r="AB138" t="n">
-        <v>5537</v>
+        <v>5823</v>
       </c>
     </row>
     <row r="139">
@@ -49232,13 +49454,15 @@
       </c>
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
+      <c r="Y139" t="n">
+        <v>286</v>
+      </c>
       <c r="Z139" t="n">
         <v>185</v>
       </c>
       <c r="AA139" t="inlineStr"/>
       <c r="AB139" t="n">
-        <v>5544</v>
+        <v>5830</v>
       </c>
     </row>
     <row r="140">
@@ -49252,7 +49476,9 @@
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
+      <c r="G140" t="n">
+        <v>928</v>
+      </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -49280,7 +49506,7 @@
       </c>
       <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="n">
-        <v>5546</v>
+        <v>5832</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -4399,7 +4399,7 @@
         <v>62</v>
       </c>
       <c r="X72" t="n">
-        <v>4186</v>
+        <v>4185</v>
       </c>
       <c r="Y72" t="n">
         <v>1385</v>
@@ -4411,7 +4411,7 @@
         <v>2428</v>
       </c>
       <c r="AB72" t="n">
-        <v>20961</v>
+        <v>20960</v>
       </c>
     </row>
     <row r="73">
@@ -4483,7 +4483,7 @@
         <v>66</v>
       </c>
       <c r="X73" t="n">
-        <v>4258</v>
+        <v>4257</v>
       </c>
       <c r="Y73" t="n">
         <v>1418</v>
@@ -4495,7 +4495,7 @@
         <v>2461</v>
       </c>
       <c r="AB73" t="n">
-        <v>21531</v>
+        <v>21530</v>
       </c>
     </row>
     <row r="74">
@@ -4565,7 +4565,7 @@
         <v>67</v>
       </c>
       <c r="X74" t="n">
-        <v>4297</v>
+        <v>4296</v>
       </c>
       <c r="Y74" t="n">
         <v>1433</v>
@@ -4577,7 +4577,7 @@
         <v>2491</v>
       </c>
       <c r="AB74" t="n">
-        <v>21933</v>
+        <v>21932</v>
       </c>
     </row>
     <row r="75">
@@ -4653,7 +4653,7 @@
         <v>67</v>
       </c>
       <c r="X75" t="n">
-        <v>4415</v>
+        <v>4414</v>
       </c>
       <c r="Y75" t="n">
         <v>1499</v>
@@ -4665,7 +4665,7 @@
         <v>2605</v>
       </c>
       <c r="AB75" t="n">
-        <v>22673</v>
+        <v>22672</v>
       </c>
     </row>
     <row r="76">
@@ -4741,7 +4741,7 @@
         <v>68</v>
       </c>
       <c r="X76" t="n">
-        <v>4496</v>
+        <v>4495</v>
       </c>
       <c r="Y76" t="n">
         <v>1538</v>
@@ -4753,7 +4753,7 @@
         <v>2688</v>
       </c>
       <c r="AB76" t="n">
-        <v>23330</v>
+        <v>23329</v>
       </c>
     </row>
     <row r="77">
@@ -4829,7 +4829,7 @@
         <v>72</v>
       </c>
       <c r="X77" t="n">
-        <v>4587</v>
+        <v>4586</v>
       </c>
       <c r="Y77" t="n">
         <v>1573</v>
@@ -4841,7 +4841,7 @@
         <v>2783</v>
       </c>
       <c r="AB77" t="n">
-        <v>24000</v>
+        <v>23999</v>
       </c>
     </row>
     <row r="78">
@@ -4917,7 +4917,7 @@
         <v>72</v>
       </c>
       <c r="X78" t="n">
-        <v>4684</v>
+        <v>4683</v>
       </c>
       <c r="Y78" t="n">
         <v>1602</v>
@@ -4929,7 +4929,7 @@
         <v>2880</v>
       </c>
       <c r="AB78" t="n">
-        <v>24665</v>
+        <v>24664</v>
       </c>
     </row>
     <row r="79">
@@ -5001,7 +5001,7 @@
         <v>74</v>
       </c>
       <c r="X79" t="n">
-        <v>4732</v>
+        <v>4731</v>
       </c>
       <c r="Y79" t="n">
         <v>1631</v>
@@ -5013,7 +5013,7 @@
         <v>2920</v>
       </c>
       <c r="AB79" t="n">
-        <v>25115</v>
+        <v>25114</v>
       </c>
     </row>
     <row r="80">
@@ -5087,7 +5087,7 @@
         <v>75</v>
       </c>
       <c r="X80" t="n">
-        <v>4772</v>
+        <v>4771</v>
       </c>
       <c r="Y80" t="n">
         <v>1657</v>
@@ -5099,7 +5099,7 @@
         <v>2978</v>
       </c>
       <c r="AB80" t="n">
-        <v>25578</v>
+        <v>25577</v>
       </c>
     </row>
     <row r="81">
@@ -5169,7 +5169,7 @@
         <v>77</v>
       </c>
       <c r="X81" t="n">
-        <v>4809</v>
+        <v>4808</v>
       </c>
       <c r="Y81" t="n">
         <v>1670</v>
@@ -5181,7 +5181,7 @@
         <v>2995</v>
       </c>
       <c r="AB81" t="n">
-        <v>25850</v>
+        <v>25849</v>
       </c>
     </row>
     <row r="82">
@@ -5255,7 +5255,7 @@
         <v>78</v>
       </c>
       <c r="X82" t="n">
-        <v>4853</v>
+        <v>4852</v>
       </c>
       <c r="Y82" t="n">
         <v>1684</v>
@@ -5267,7 +5267,7 @@
         <v>3012</v>
       </c>
       <c r="AB82" t="n">
-        <v>26093</v>
+        <v>26092</v>
       </c>
     </row>
     <row r="83">
@@ -5343,7 +5343,7 @@
         <v>78</v>
       </c>
       <c r="X83" t="n">
-        <v>4920</v>
+        <v>4919</v>
       </c>
       <c r="Y83" t="n">
         <v>1711</v>
@@ -5355,7 +5355,7 @@
         <v>3059</v>
       </c>
       <c r="AB83" t="n">
-        <v>26418</v>
+        <v>26417</v>
       </c>
     </row>
     <row r="84">
@@ -5431,7 +5431,7 @@
         <v>78</v>
       </c>
       <c r="X84" t="n">
-        <v>4970</v>
+        <v>4969</v>
       </c>
       <c r="Y84" t="n">
         <v>1727</v>
@@ -5443,7 +5443,7 @@
         <v>3106</v>
       </c>
       <c r="AB84" t="n">
-        <v>26734</v>
+        <v>26733</v>
       </c>
     </row>
     <row r="85">
@@ -5519,7 +5519,7 @@
         <v>78</v>
       </c>
       <c r="X85" t="n">
-        <v>4999</v>
+        <v>4998</v>
       </c>
       <c r="Y85" t="n">
         <v>1744</v>
@@ -5531,7 +5531,7 @@
         <v>3141</v>
       </c>
       <c r="AB85" t="n">
-        <v>27036</v>
+        <v>27035</v>
       </c>
     </row>
     <row r="86">
@@ -5607,7 +5607,7 @@
         <v>78</v>
       </c>
       <c r="X86" t="n">
-        <v>5031</v>
+        <v>5030</v>
       </c>
       <c r="Y86" t="n">
         <v>1764</v>
@@ -5619,7 +5619,7 @@
         <v>3164</v>
       </c>
       <c r="AB86" t="n">
-        <v>27343</v>
+        <v>27342</v>
       </c>
     </row>
     <row r="87">
@@ -5689,7 +5689,7 @@
         <v>78</v>
       </c>
       <c r="X87" t="n">
-        <v>5049</v>
+        <v>5048</v>
       </c>
       <c r="Y87" t="n">
         <v>1773</v>
@@ -5701,7 +5701,7 @@
         <v>3203</v>
       </c>
       <c r="AB87" t="n">
-        <v>27617</v>
+        <v>27616</v>
       </c>
     </row>
     <row r="88">
@@ -5773,7 +5773,7 @@
         <v>78</v>
       </c>
       <c r="X88" t="n">
-        <v>5060</v>
+        <v>5059</v>
       </c>
       <c r="Y88" t="n">
         <v>1780</v>
@@ -5785,7 +5785,7 @@
         <v>3230</v>
       </c>
       <c r="AB88" t="n">
-        <v>27793</v>
+        <v>27792</v>
       </c>
     </row>
     <row r="89">
@@ -5861,7 +5861,7 @@
         <v>78</v>
       </c>
       <c r="X89" t="n">
-        <v>5092</v>
+        <v>5091</v>
       </c>
       <c r="Y89" t="n">
         <v>1797</v>
@@ -5873,7 +5873,7 @@
         <v>3246</v>
       </c>
       <c r="AB89" t="n">
-        <v>27994</v>
+        <v>27993</v>
       </c>
     </row>
     <row r="90">
@@ -5949,7 +5949,7 @@
         <v>78</v>
       </c>
       <c r="X90" t="n">
-        <v>5124</v>
+        <v>5123</v>
       </c>
       <c r="Y90" t="n">
         <v>1804</v>
@@ -5961,7 +5961,7 @@
         <v>3271</v>
       </c>
       <c r="AB90" t="n">
-        <v>28160</v>
+        <v>28159</v>
       </c>
     </row>
     <row r="91">
@@ -6037,7 +6037,7 @@
         <v>78</v>
       </c>
       <c r="X91" t="n">
-        <v>5145</v>
+        <v>5144</v>
       </c>
       <c r="Y91" t="n">
         <v>1810</v>
@@ -6049,7 +6049,7 @@
         <v>3311</v>
       </c>
       <c r="AB91" t="n">
-        <v>28366</v>
+        <v>28365</v>
       </c>
     </row>
     <row r="92">
@@ -6125,7 +6125,7 @@
         <v>78</v>
       </c>
       <c r="X92" t="n">
-        <v>5176</v>
+        <v>5175</v>
       </c>
       <c r="Y92" t="n">
         <v>1826</v>
@@ -6137,7 +6137,7 @@
         <v>3328</v>
       </c>
       <c r="AB92" t="n">
-        <v>28585</v>
+        <v>28584</v>
       </c>
     </row>
     <row r="93">
@@ -6213,7 +6213,7 @@
         <v>78</v>
       </c>
       <c r="X93" t="n">
-        <v>5199</v>
+        <v>5198</v>
       </c>
       <c r="Y93" t="n">
         <v>1835</v>
@@ -6225,7 +6225,7 @@
         <v>3357</v>
       </c>
       <c r="AB93" t="n">
-        <v>28774</v>
+        <v>28773</v>
       </c>
     </row>
     <row r="94">
@@ -6295,7 +6295,7 @@
         <v>78</v>
       </c>
       <c r="X94" t="n">
-        <v>5212</v>
+        <v>5211</v>
       </c>
       <c r="Y94" t="n">
         <v>1840</v>
@@ -6307,7 +6307,7 @@
         <v>3388</v>
       </c>
       <c r="AB94" t="n">
-        <v>28917</v>
+        <v>28916</v>
       </c>
     </row>
     <row r="95">
@@ -6375,7 +6375,7 @@
         <v>80</v>
       </c>
       <c r="X95" t="n">
-        <v>5220</v>
+        <v>5219</v>
       </c>
       <c r="Y95" t="n">
         <v>1842</v>
@@ -6387,7 +6387,7 @@
         <v>3391</v>
       </c>
       <c r="AB95" t="n">
-        <v>28993</v>
+        <v>28992</v>
       </c>
     </row>
     <row r="96">
@@ -6463,7 +6463,7 @@
         <v>83</v>
       </c>
       <c r="X96" t="n">
-        <v>5238</v>
+        <v>5237</v>
       </c>
       <c r="Y96" t="n">
         <v>1857</v>
@@ -6475,7 +6475,7 @@
         <v>3409</v>
       </c>
       <c r="AB96" t="n">
-        <v>29161</v>
+        <v>29160</v>
       </c>
     </row>
     <row r="97">
@@ -6551,7 +6551,7 @@
         <v>85</v>
       </c>
       <c r="X97" t="n">
-        <v>5260</v>
+        <v>5259</v>
       </c>
       <c r="Y97" t="n">
         <v>1868</v>
@@ -6563,7 +6563,7 @@
         <v>3424</v>
       </c>
       <c r="AB97" t="n">
-        <v>29288</v>
+        <v>29287</v>
       </c>
     </row>
     <row r="98">
@@ -6639,7 +6639,7 @@
         <v>85</v>
       </c>
       <c r="X98" t="n">
-        <v>5274</v>
+        <v>5273</v>
       </c>
       <c r="Y98" t="n">
         <v>1880</v>
@@ -6651,7 +6651,7 @@
         <v>3453</v>
       </c>
       <c r="AB98" t="n">
-        <v>29429</v>
+        <v>29428</v>
       </c>
     </row>
     <row r="99">
@@ -6727,7 +6727,7 @@
         <v>86</v>
       </c>
       <c r="X99" t="n">
-        <v>5286</v>
+        <v>5285</v>
       </c>
       <c r="Y99" t="n">
         <v>1887</v>
@@ -6739,7 +6739,7 @@
         <v>3464</v>
       </c>
       <c r="AB99" t="n">
-        <v>29574</v>
+        <v>29573</v>
       </c>
     </row>
     <row r="100">
@@ -6815,7 +6815,7 @@
         <v>87</v>
       </c>
       <c r="X100" t="n">
-        <v>5300</v>
+        <v>5299</v>
       </c>
       <c r="Y100" t="n">
         <v>1892</v>
@@ -6827,7 +6827,7 @@
         <v>3477</v>
       </c>
       <c r="AB100" t="n">
-        <v>29684</v>
+        <v>29683</v>
       </c>
     </row>
     <row r="101">
@@ -6897,7 +6897,7 @@
         <v>89</v>
       </c>
       <c r="X101" t="n">
-        <v>5309</v>
+        <v>5308</v>
       </c>
       <c r="Y101" t="n">
         <v>1895</v>
@@ -6909,7 +6909,7 @@
         <v>3480</v>
       </c>
       <c r="AB101" t="n">
-        <v>29764</v>
+        <v>29763</v>
       </c>
     </row>
     <row r="102">
@@ -6979,7 +6979,7 @@
         <v>90</v>
       </c>
       <c r="X102" t="n">
-        <v>5314</v>
+        <v>5313</v>
       </c>
       <c r="Y102" t="n">
         <v>1897</v>
@@ -6991,7 +6991,7 @@
         <v>3484</v>
       </c>
       <c r="AB102" t="n">
-        <v>29824</v>
+        <v>29823</v>
       </c>
     </row>
     <row r="103">
@@ -7067,7 +7067,7 @@
         <v>91</v>
       </c>
       <c r="X103" t="n">
-        <v>5322</v>
+        <v>5321</v>
       </c>
       <c r="Y103" t="n">
         <v>1905</v>
@@ -7079,7 +7079,7 @@
         <v>3486</v>
       </c>
       <c r="AB103" t="n">
-        <v>29884</v>
+        <v>29883</v>
       </c>
     </row>
     <row r="104">
@@ -7155,7 +7155,7 @@
         <v>91</v>
       </c>
       <c r="X104" t="n">
-        <v>5333</v>
+        <v>5332</v>
       </c>
       <c r="Y104" t="n">
         <v>1907</v>
@@ -7167,7 +7167,7 @@
         <v>3502</v>
       </c>
       <c r="AB104" t="n">
-        <v>29943</v>
+        <v>29942</v>
       </c>
     </row>
     <row r="105">
@@ -7243,7 +7243,7 @@
         <v>91</v>
       </c>
       <c r="X105" t="n">
-        <v>5351</v>
+        <v>5350</v>
       </c>
       <c r="Y105" t="n">
         <v>1910</v>
@@ -7255,7 +7255,7 @@
         <v>3517</v>
       </c>
       <c r="AB105" t="n">
-        <v>30027</v>
+        <v>30026</v>
       </c>
     </row>
     <row r="106">
@@ -7329,7 +7329,7 @@
         <v>92</v>
       </c>
       <c r="X106" t="n">
-        <v>5356</v>
+        <v>5355</v>
       </c>
       <c r="Y106" t="n">
         <v>1912</v>
@@ -7341,7 +7341,7 @@
         <v>3527</v>
       </c>
       <c r="AB106" t="n">
-        <v>30097</v>
+        <v>30096</v>
       </c>
     </row>
     <row r="107">
@@ -7415,7 +7415,7 @@
         <v>92</v>
       </c>
       <c r="X107" t="n">
-        <v>5367</v>
+        <v>5366</v>
       </c>
       <c r="Y107" t="n">
         <v>1915</v>
@@ -7427,7 +7427,7 @@
         <v>3537</v>
       </c>
       <c r="AB107" t="n">
-        <v>30163</v>
+        <v>30162</v>
       </c>
     </row>
     <row r="108">
@@ -7495,7 +7495,7 @@
         <v>92</v>
       </c>
       <c r="X108" t="n">
-        <v>5374</v>
+        <v>5373</v>
       </c>
       <c r="Y108" t="n">
         <v>1916</v>
@@ -7507,7 +7507,7 @@
         <v>3542</v>
       </c>
       <c r="AB108" t="n">
-        <v>30211</v>
+        <v>30210</v>
       </c>
     </row>
     <row r="109">
@@ -7571,7 +7571,7 @@
         <v>92</v>
       </c>
       <c r="X109" t="n">
-        <v>5374</v>
+        <v>5373</v>
       </c>
       <c r="Y109" t="n">
         <v>1917</v>
@@ -7583,7 +7583,7 @@
         <v>3545</v>
       </c>
       <c r="AB109" t="n">
-        <v>30242</v>
+        <v>30241</v>
       </c>
     </row>
     <row r="110">
@@ -7659,7 +7659,7 @@
         <v>92</v>
       </c>
       <c r="X110" t="n">
-        <v>5381</v>
+        <v>5380</v>
       </c>
       <c r="Y110" t="n">
         <v>1921</v>
@@ -7671,7 +7671,7 @@
         <v>3550</v>
       </c>
       <c r="AB110" t="n">
-        <v>30303</v>
+        <v>30302</v>
       </c>
     </row>
     <row r="111">
@@ -7747,7 +7747,7 @@
         <v>92</v>
       </c>
       <c r="X111" t="n">
-        <v>5390</v>
+        <v>5389</v>
       </c>
       <c r="Y111" t="n">
         <v>1921</v>
@@ -7759,7 +7759,7 @@
         <v>3552</v>
       </c>
       <c r="AB111" t="n">
-        <v>30352</v>
+        <v>30351</v>
       </c>
     </row>
     <row r="112">
@@ -7831,7 +7831,7 @@
         <v>92</v>
       </c>
       <c r="X112" t="n">
-        <v>5398</v>
+        <v>5397</v>
       </c>
       <c r="Y112" t="n">
         <v>1922</v>
@@ -7843,7 +7843,7 @@
         <v>3558</v>
       </c>
       <c r="AB112" t="n">
-        <v>30389</v>
+        <v>30388</v>
       </c>
     </row>
     <row r="113">
@@ -7917,7 +7917,7 @@
         <v>92</v>
       </c>
       <c r="X113" t="n">
-        <v>5403</v>
+        <v>5402</v>
       </c>
       <c r="Y113" t="n">
         <v>1924</v>
@@ -7929,7 +7929,7 @@
         <v>3563</v>
       </c>
       <c r="AB113" t="n">
-        <v>30431</v>
+        <v>30430</v>
       </c>
     </row>
     <row r="114">
@@ -8001,7 +8001,7 @@
       </c>
       <c r="W114" t="inlineStr"/>
       <c r="X114" t="n">
-        <v>5407</v>
+        <v>5406</v>
       </c>
       <c r="Y114" t="n">
         <v>1933</v>
@@ -8013,7 +8013,7 @@
         <v>3565</v>
       </c>
       <c r="AB114" t="n">
-        <v>30475</v>
+        <v>30474</v>
       </c>
     </row>
     <row r="115">
@@ -8077,7 +8077,7 @@
         <v>93</v>
       </c>
       <c r="X115" t="n">
-        <v>5407</v>
+        <v>5406</v>
       </c>
       <c r="Y115" t="n">
         <v>1936</v>
@@ -8089,7 +8089,7 @@
         <v>3570</v>
       </c>
       <c r="AB115" t="n">
-        <v>30505</v>
+        <v>30504</v>
       </c>
     </row>
     <row r="116">
@@ -8151,7 +8151,7 @@
         <v>93</v>
       </c>
       <c r="X116" t="n">
-        <v>5409</v>
+        <v>5408</v>
       </c>
       <c r="Y116" t="n">
         <v>1936</v>
@@ -8163,7 +8163,7 @@
         <v>3572</v>
       </c>
       <c r="AB116" t="n">
-        <v>30521</v>
+        <v>30520</v>
       </c>
     </row>
     <row r="117">
@@ -8237,7 +8237,7 @@
         <v>93</v>
       </c>
       <c r="X117" t="n">
-        <v>5414</v>
+        <v>5413</v>
       </c>
       <c r="Y117" t="n">
         <v>1937</v>
@@ -8249,7 +8249,7 @@
         <v>3576</v>
       </c>
       <c r="AB117" t="n">
-        <v>30557</v>
+        <v>30556</v>
       </c>
     </row>
     <row r="118">
@@ -8321,7 +8321,7 @@
         <v>93</v>
       </c>
       <c r="X118" t="n">
-        <v>5418</v>
+        <v>5417</v>
       </c>
       <c r="Y118" t="n">
         <v>1938</v>
@@ -8333,7 +8333,7 @@
         <v>3580</v>
       </c>
       <c r="AB118" t="n">
-        <v>30580</v>
+        <v>30579</v>
       </c>
     </row>
     <row r="119">
@@ -8409,7 +8409,7 @@
         <v>93</v>
       </c>
       <c r="X119" t="n">
-        <v>5422</v>
+        <v>5421</v>
       </c>
       <c r="Y119" t="n">
         <v>1938</v>
@@ -8421,7 +8421,7 @@
         <v>3583</v>
       </c>
       <c r="AB119" t="n">
-        <v>30624</v>
+        <v>30623</v>
       </c>
     </row>
     <row r="120">
@@ -8487,7 +8487,7 @@
         <v>93</v>
       </c>
       <c r="X120" t="n">
-        <v>5422</v>
+        <v>5421</v>
       </c>
       <c r="Y120" t="n">
         <v>1939</v>
@@ -8499,7 +8499,7 @@
         <v>3584</v>
       </c>
       <c r="AB120" t="n">
-        <v>30652</v>
+        <v>30651</v>
       </c>
     </row>
     <row r="121">
@@ -8567,7 +8567,7 @@
         <v>93</v>
       </c>
       <c r="X121" t="n">
-        <v>5426</v>
+        <v>5425</v>
       </c>
       <c r="Y121" t="n">
         <v>1939</v>
@@ -8579,7 +8579,7 @@
         <v>3586</v>
       </c>
       <c r="AB121" t="n">
-        <v>30670</v>
+        <v>30669</v>
       </c>
     </row>
     <row r="122">
@@ -8639,7 +8639,7 @@
         <v>93</v>
       </c>
       <c r="X122" t="n">
-        <v>5432</v>
+        <v>5431</v>
       </c>
       <c r="Y122" t="n">
         <v>1939</v>
@@ -8651,7 +8651,7 @@
         <v>3588</v>
       </c>
       <c r="AB122" t="n">
-        <v>30690</v>
+        <v>30689</v>
       </c>
     </row>
     <row r="123">
@@ -8713,7 +8713,7 @@
         <v>93</v>
       </c>
       <c r="X123" t="n">
-        <v>5434</v>
+        <v>5433</v>
       </c>
       <c r="Y123" t="n">
         <v>1940</v>
@@ -8725,7 +8725,7 @@
         <v>3589</v>
       </c>
       <c r="AB123" t="n">
-        <v>30700</v>
+        <v>30699</v>
       </c>
     </row>
     <row r="124">
@@ -8801,7 +8801,7 @@
         <v>93</v>
       </c>
       <c r="X124" t="n">
-        <v>5434</v>
+        <v>5433</v>
       </c>
       <c r="Y124" t="n">
         <v>1942</v>
@@ -8813,7 +8813,7 @@
         <v>3591</v>
       </c>
       <c r="AB124" t="n">
-        <v>30709</v>
+        <v>30708</v>
       </c>
     </row>
     <row r="125">
@@ -8885,7 +8885,7 @@
         <v>93</v>
       </c>
       <c r="X125" t="n">
-        <v>5437</v>
+        <v>5436</v>
       </c>
       <c r="Y125" t="n">
         <v>1945</v>
@@ -8897,7 +8897,7 @@
         <v>3597</v>
       </c>
       <c r="AB125" t="n">
-        <v>30731</v>
+        <v>30730</v>
       </c>
     </row>
     <row r="126">
@@ -8973,7 +8973,7 @@
         <v>93</v>
       </c>
       <c r="X126" t="n">
-        <v>5439</v>
+        <v>5438</v>
       </c>
       <c r="Y126" t="n">
         <v>1946</v>
@@ -8985,7 +8985,7 @@
         <v>3600</v>
       </c>
       <c r="AB126" t="n">
-        <v>30745</v>
+        <v>30744</v>
       </c>
     </row>
     <row r="127">
@@ -9059,7 +9059,7 @@
         <v>93</v>
       </c>
       <c r="X127" t="n">
-        <v>5441</v>
+        <v>5440</v>
       </c>
       <c r="Y127" t="n">
         <v>1947</v>
@@ -9071,7 +9071,7 @@
         <v>3605</v>
       </c>
       <c r="AB127" t="n">
-        <v>30763</v>
+        <v>30762</v>
       </c>
     </row>
     <row r="128">
@@ -9145,7 +9145,7 @@
         <v>93</v>
       </c>
       <c r="X128" t="n">
-        <v>5444</v>
+        <v>5443</v>
       </c>
       <c r="Y128" t="n">
         <v>1947</v>
@@ -9157,7 +9157,7 @@
         <v>3612</v>
       </c>
       <c r="AB128" t="n">
-        <v>30787</v>
+        <v>30786</v>
       </c>
     </row>
     <row r="129">
@@ -9217,7 +9217,7 @@
         <v>93</v>
       </c>
       <c r="X129" t="n">
-        <v>5445</v>
+        <v>5444</v>
       </c>
       <c r="Y129" t="n">
         <v>1947</v>
@@ -9229,7 +9229,7 @@
         <v>3618</v>
       </c>
       <c r="AB129" t="n">
-        <v>30828</v>
+        <v>30827</v>
       </c>
     </row>
     <row r="130">
@@ -9289,7 +9289,7 @@
         <v>93</v>
       </c>
       <c r="X130" t="n">
-        <v>5446</v>
+        <v>5445</v>
       </c>
       <c r="Y130" t="n">
         <v>1949</v>
@@ -9301,7 +9301,7 @@
         <v>3618</v>
       </c>
       <c r="AB130" t="n">
-        <v>30835</v>
+        <v>30834</v>
       </c>
     </row>
     <row r="131">
@@ -9363,7 +9363,7 @@
         <v>93</v>
       </c>
       <c r="X131" t="n">
-        <v>5446</v>
+        <v>5445</v>
       </c>
       <c r="Y131" t="n">
         <v>1951</v>
@@ -9375,7 +9375,7 @@
         <v>3618</v>
       </c>
       <c r="AB131" t="n">
-        <v>30848</v>
+        <v>30847</v>
       </c>
     </row>
     <row r="132">
@@ -9447,7 +9447,7 @@
         <v>93</v>
       </c>
       <c r="X132" t="n">
-        <v>5450</v>
+        <v>5449</v>
       </c>
       <c r="Y132" t="n">
         <v>1952</v>
@@ -9459,7 +9459,7 @@
         <v>3620</v>
       </c>
       <c r="AB132" t="n">
-        <v>30868</v>
+        <v>30867</v>
       </c>
     </row>
     <row r="133">
@@ -9533,7 +9533,7 @@
       </c>
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="n">
-        <v>5452</v>
+        <v>5451</v>
       </c>
       <c r="Y133" t="n">
         <v>1952</v>
@@ -9545,7 +9545,7 @@
         <v>3623</v>
       </c>
       <c r="AB133" t="n">
-        <v>30886</v>
+        <v>30885</v>
       </c>
     </row>
     <row r="134">
@@ -9615,7 +9615,7 @@
       </c>
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="n">
-        <v>5455</v>
+        <v>5454</v>
       </c>
       <c r="Y134" t="n">
         <v>1954</v>
@@ -9627,7 +9627,7 @@
         <v>3631</v>
       </c>
       <c r="AB134" t="n">
-        <v>30910</v>
+        <v>30909</v>
       </c>
     </row>
     <row r="135">
@@ -9695,7 +9695,7 @@
       </c>
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="n">
-        <v>5457</v>
+        <v>5456</v>
       </c>
       <c r="Y135" t="n">
         <v>1957</v>
@@ -9707,7 +9707,7 @@
         <v>3637</v>
       </c>
       <c r="AB135" t="n">
-        <v>30931</v>
+        <v>30930</v>
       </c>
     </row>
     <row r="136">
@@ -9759,7 +9759,7 @@
       </c>
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="n">
-        <v>5459</v>
+        <v>5458</v>
       </c>
       <c r="Y136" t="n">
         <v>1957</v>
@@ -9771,7 +9771,7 @@
         <v>3641</v>
       </c>
       <c r="AB136" t="n">
-        <v>30942</v>
+        <v>30941</v>
       </c>
     </row>
     <row r="137">
@@ -9825,7 +9825,7 @@
       </c>
       <c r="W137" t="inlineStr"/>
       <c r="X137" t="n">
-        <v>5460</v>
+        <v>5459</v>
       </c>
       <c r="Y137" t="n">
         <v>1960</v>
@@ -9837,7 +9837,7 @@
         <v>3641</v>
       </c>
       <c r="AB137" t="n">
-        <v>30947</v>
+        <v>30946</v>
       </c>
     </row>
     <row r="138">
@@ -9976,7 +9976,9 @@
         <v>3316</v>
       </c>
       <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr"/>
+      <c r="X139" t="n">
+        <v>5462</v>
+      </c>
       <c r="Y139" t="n">
         <v>1965</v>
       </c>
@@ -9987,7 +9989,7 @@
         <v>3641</v>
       </c>
       <c r="AB139" t="n">
-        <v>30969</v>
+        <v>30971</v>
       </c>
     </row>
     <row r="140">
@@ -10001,7 +10003,9 @@
         <v>25</v>
       </c>
       <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
+      <c r="E140" t="n">
+        <v>1919</v>
+      </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="n">
         <v>983</v>
@@ -10027,7 +10031,9 @@
       <c r="T140" t="n">
         <v>307</v>
       </c>
-      <c r="U140" t="inlineStr"/>
+      <c r="U140" t="n">
+        <v>384</v>
+      </c>
       <c r="V140" t="n">
         <v>3316</v>
       </c>
@@ -10039,7 +10045,7 @@
       </c>
       <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="n">
-        <v>30971</v>
+        <v>30973</v>
       </c>
     </row>
   </sheetData>
@@ -19283,7 +19289,9 @@
         <v>349</v>
       </c>
       <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr"/>
+      <c r="X139" t="n">
+        <v>406</v>
+      </c>
       <c r="Y139" t="n">
         <v>151</v>
       </c>
@@ -19308,7 +19316,9 @@
         <v>0</v>
       </c>
       <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
+      <c r="E140" t="n">
+        <v>97</v>
+      </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="n">
         <v>50</v>
@@ -19334,7 +19344,9 @@
       <c r="T140" t="n">
         <v>23</v>
       </c>
-      <c r="U140" t="inlineStr"/>
+      <c r="U140" t="n">
+        <v>18</v>
+      </c>
       <c r="V140" t="n">
         <v>349</v>
       </c>
@@ -27135,7 +27147,7 @@
         <v>0</v>
       </c>
       <c r="X125" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y125" t="n">
         <v>18</v>
@@ -27147,7 +27159,7 @@
         <v>19</v>
       </c>
       <c r="AB125" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="126">
@@ -27213,7 +27225,7 @@
         <v>0</v>
       </c>
       <c r="X126" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y126" t="n">
         <v>17</v>
@@ -27225,7 +27237,7 @@
         <v>18</v>
       </c>
       <c r="AB126" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="127">
@@ -27291,7 +27303,7 @@
         <v>0</v>
       </c>
       <c r="X127" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y127" t="n">
         <v>16</v>
@@ -27303,7 +27315,7 @@
         <v>20</v>
       </c>
       <c r="AB127" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="128">
@@ -27369,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="X128" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y128" t="n">
         <v>15</v>
@@ -27381,7 +27393,7 @@
         <v>15</v>
       </c>
       <c r="AB128" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="129">
@@ -27435,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="X129" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y129" t="n">
         <v>14</v>
@@ -27447,7 +27459,7 @@
         <v>12</v>
       </c>
       <c r="AB129" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="130">
@@ -27501,7 +27513,7 @@
         <v>0</v>
       </c>
       <c r="X130" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y130" t="n">
         <v>15</v>
@@ -27513,7 +27525,7 @@
         <v>11</v>
       </c>
       <c r="AB130" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="131">
@@ -27567,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="X131" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y131" t="n">
         <v>15</v>
@@ -27579,7 +27591,7 @@
         <v>11</v>
       </c>
       <c r="AB131" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="132">
@@ -27645,7 +27657,7 @@
         <v>0</v>
       </c>
       <c r="X132" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y132" t="n">
         <v>15</v>
@@ -27657,7 +27669,7 @@
         <v>11</v>
       </c>
       <c r="AB132" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="133">
@@ -27721,7 +27733,7 @@
       </c>
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y133" t="n">
         <v>14</v>
@@ -27733,7 +27745,7 @@
         <v>9</v>
       </c>
       <c r="AB133" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="134">
@@ -27795,7 +27807,7 @@
       </c>
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y134" t="n">
         <v>15</v>
@@ -27807,7 +27819,7 @@
         <v>9</v>
       </c>
       <c r="AB134" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135">
@@ -27867,7 +27879,7 @@
       </c>
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y135" t="n">
         <v>15</v>
@@ -27879,7 +27891,7 @@
         <v>8</v>
       </c>
       <c r="AB135" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="136">
@@ -27927,7 +27939,7 @@
       </c>
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y136" t="n">
         <v>15</v>
@@ -27939,7 +27951,7 @@
         <v>7</v>
       </c>
       <c r="AB136" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="137">
@@ -27987,7 +27999,7 @@
       </c>
       <c r="W137" t="inlineStr"/>
       <c r="X137" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y137" t="n">
         <v>15</v>
@@ -27999,7 +28011,7 @@
         <v>7</v>
       </c>
       <c r="AB137" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="138">
@@ -28063,7 +28075,7 @@
       </c>
       <c r="W138" t="inlineStr"/>
       <c r="X138" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y138" t="n">
         <v>15</v>
@@ -28075,7 +28087,7 @@
         <v>7</v>
       </c>
       <c r="AB138" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="139">
@@ -28128,7 +28140,9 @@
         <v>12</v>
       </c>
       <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr"/>
+      <c r="X139" t="n">
+        <v>31</v>
+      </c>
       <c r="Y139" t="n">
         <v>15</v>
       </c>
@@ -28139,7 +28153,7 @@
         <v>6</v>
       </c>
       <c r="AB139" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="140">
@@ -28151,7 +28165,9 @@
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
+      <c r="E140" t="n">
+        <v>4</v>
+      </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
@@ -28171,7 +28187,9 @@
       </c>
       <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr"/>
-      <c r="U140" t="inlineStr"/>
+      <c r="U140" t="n">
+        <v>1</v>
+      </c>
       <c r="V140" t="n">
         <v>10</v>
       </c>
@@ -36013,7 +36031,9 @@
         <v>1</v>
       </c>
       <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr"/>
+      <c r="X139" t="n">
+        <v>7</v>
+      </c>
       <c r="Y139" t="n">
         <v>4</v>
       </c>
@@ -36034,7 +36054,9 @@
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
@@ -36052,7 +36074,9 @@
       </c>
       <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr"/>
-      <c r="U140" t="inlineStr"/>
+      <c r="U140" t="n">
+        <v>0</v>
+      </c>
       <c r="V140" t="n">
         <v>0</v>
       </c>
@@ -42589,7 +42613,9 @@
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10006,7 +10006,9 @@
       <c r="E140" t="n">
         <v>1919</v>
       </c>
-      <c r="F140" t="inlineStr"/>
+      <c r="F140" t="n">
+        <v>846</v>
+      </c>
       <c r="G140" t="n">
         <v>983</v>
       </c>
@@ -10045,7 +10047,7 @@
       </c>
       <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="n">
-        <v>30973</v>
+        <v>30974</v>
       </c>
     </row>
   </sheetData>
@@ -19319,7 +19321,9 @@
       <c r="E140" t="n">
         <v>97</v>
       </c>
-      <c r="F140" t="inlineStr"/>
+      <c r="F140" t="n">
+        <v>35</v>
+      </c>
       <c r="G140" t="n">
         <v>50</v>
       </c>
@@ -28168,7 +28172,9 @@
       <c r="E140" t="n">
         <v>4</v>
       </c>
-      <c r="F140" t="inlineStr"/>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
@@ -36057,7 +36063,9 @@
       <c r="E140" t="n">
         <v>0</v>
       </c>
-      <c r="F140" t="inlineStr"/>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
@@ -42616,7 +42624,9 @@
       <c r="E140" t="n">
         <v>0</v>
       </c>
-      <c r="F140" t="inlineStr"/>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
@@ -49501,7 +49511,9 @@
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
+      <c r="F140" t="n">
+        <v>806</v>
+      </c>
       <c r="G140" t="n">
         <v>928</v>
       </c>
@@ -49532,7 +49544,7 @@
       </c>
       <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="n">
-        <v>5832</v>
+        <v>5833</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -3302,10 +3302,10 @@
         <v>53</v>
       </c>
       <c r="AA59" t="n">
-        <v>711</v>
+        <v>925</v>
       </c>
       <c r="AB59" t="n">
-        <v>7683</v>
+        <v>7897</v>
       </c>
     </row>
     <row r="60">
@@ -3374,10 +3374,10 @@
         <v>53</v>
       </c>
       <c r="AA60" t="n">
-        <v>711</v>
+        <v>984</v>
       </c>
       <c r="AB60" t="n">
-        <v>8215</v>
+        <v>8488</v>
       </c>
     </row>
     <row r="61">
@@ -10045,9 +10045,11 @@
       <c r="Z140" t="n">
         <v>207</v>
       </c>
-      <c r="AA140" t="inlineStr"/>
+      <c r="AA140" t="n">
+        <v>3644</v>
+      </c>
       <c r="AB140" t="n">
-        <v>30974</v>
+        <v>30977</v>
       </c>
     </row>
   </sheetData>
@@ -19360,7 +19362,9 @@
       <c r="Z140" t="n">
         <v>9</v>
       </c>
-      <c r="AA140" t="inlineStr"/>
+      <c r="AA140" t="n">
+        <v>130</v>
+      </c>
       <c r="AB140" t="n">
         <v>1934</v>
       </c>
@@ -28205,9 +28209,11 @@
       <c r="Z140" t="n">
         <v>1</v>
       </c>
-      <c r="AA140" t="inlineStr"/>
+      <c r="AA140" t="n">
+        <v>7</v>
+      </c>
       <c r="AB140" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -42649,7 +42655,9 @@
       <c r="X140" t="inlineStr"/>
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr"/>
-      <c r="AA140" t="inlineStr"/>
+      <c r="AA140" t="n">
+        <v>0</v>
+      </c>
       <c r="AB140" t="n">
         <v>5</v>
       </c>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -2952,7 +2952,7 @@
         <v>12</v>
       </c>
       <c r="K55" t="n">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="L55" t="n">
         <v>29</v>
@@ -2993,7 +2993,7 @@
         <v>429</v>
       </c>
       <c r="AB55" t="n">
-        <v>3709</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="56">
@@ -3028,7 +3028,7 @@
         <v>14</v>
       </c>
       <c r="K56" t="n">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="L56" t="n">
         <v>32</v>
@@ -3073,7 +3073,7 @@
         <v>568</v>
       </c>
       <c r="AB56" t="n">
-        <v>4791</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="57">
@@ -3108,7 +3108,7 @@
         <v>16</v>
       </c>
       <c r="K57" t="n">
-        <v>182</v>
+        <v>252</v>
       </c>
       <c r="L57" t="n">
         <v>36</v>
@@ -3151,7 +3151,7 @@
         <v>679</v>
       </c>
       <c r="AB57" t="n">
-        <v>5778</v>
+        <v>5848</v>
       </c>
     </row>
     <row r="58">
@@ -3184,7 +3184,7 @@
         <v>20</v>
       </c>
       <c r="K58" t="n">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="L58" t="n">
         <v>44</v>
@@ -3231,7 +3231,7 @@
         <v>711</v>
       </c>
       <c r="AB58" t="n">
-        <v>7002</v>
+        <v>7059</v>
       </c>
     </row>
     <row r="59">
@@ -3262,7 +3262,7 @@
         <v>25</v>
       </c>
       <c r="K59" t="n">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="L59" t="n">
         <v>54</v>
@@ -3305,7 +3305,7 @@
         <v>925</v>
       </c>
       <c r="AB59" t="n">
-        <v>7897</v>
+        <v>7950</v>
       </c>
     </row>
     <row r="60">
@@ -3336,7 +3336,7 @@
         <v>29</v>
       </c>
       <c r="K60" t="n">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="L60" t="n">
         <v>61</v>
@@ -3377,7 +3377,7 @@
         <v>984</v>
       </c>
       <c r="AB60" t="n">
-        <v>8488</v>
+        <v>8531</v>
       </c>
     </row>
     <row r="61">
@@ -3412,7 +3412,7 @@
         <v>31</v>
       </c>
       <c r="K61" t="n">
-        <v>300</v>
+        <v>386</v>
       </c>
       <c r="L61" t="n">
         <v>69</v>
@@ -3461,7 +3461,7 @@
         <v>1073</v>
       </c>
       <c r="AB61" t="n">
-        <v>9723</v>
+        <v>9809</v>
       </c>
     </row>
     <row r="62">
@@ -3498,7 +3498,7 @@
         <v>33</v>
       </c>
       <c r="K62" t="n">
-        <v>343</v>
+        <v>419</v>
       </c>
       <c r="L62" t="n">
         <v>82</v>
@@ -3549,7 +3549,7 @@
         <v>1221</v>
       </c>
       <c r="AB62" t="n">
-        <v>10828</v>
+        <v>10904</v>
       </c>
     </row>
     <row r="63">
@@ -3586,7 +3586,7 @@
         <v>40</v>
       </c>
       <c r="K63" t="n">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="L63" t="n">
         <v>92</v>
@@ -3633,7 +3633,7 @@
         <v>1368</v>
       </c>
       <c r="AB63" t="n">
-        <v>11967</v>
+        <v>12032</v>
       </c>
     </row>
     <row r="64">
@@ -3670,7 +3670,7 @@
         <v>43</v>
       </c>
       <c r="K64" t="n">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="L64" t="n">
         <v>100</v>
@@ -3721,7 +3721,7 @@
         <v>1500</v>
       </c>
       <c r="AB64" t="n">
-        <v>13053</v>
+        <v>13107</v>
       </c>
     </row>
     <row r="65">
@@ -3758,7 +3758,7 @@
         <v>47</v>
       </c>
       <c r="K65" t="n">
-        <v>474</v>
+        <v>513</v>
       </c>
       <c r="L65" t="n">
         <v>114</v>
@@ -3809,7 +3809,7 @@
         <v>1627</v>
       </c>
       <c r="AB65" t="n">
-        <v>14355</v>
+        <v>14394</v>
       </c>
     </row>
     <row r="66">
@@ -3844,7 +3844,7 @@
         <v>47</v>
       </c>
       <c r="K66" t="n">
-        <v>495</v>
+        <v>527</v>
       </c>
       <c r="L66" t="n">
         <v>119</v>
@@ -3893,7 +3893,7 @@
         <v>1701</v>
       </c>
       <c r="AB66" t="n">
-        <v>15194</v>
+        <v>15226</v>
       </c>
     </row>
     <row r="67">
@@ -3926,7 +3926,7 @@
         <v>50</v>
       </c>
       <c r="K67" t="n">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="L67" t="n">
         <v>127</v>
@@ -3975,7 +3975,7 @@
         <v>1733</v>
       </c>
       <c r="AB67" t="n">
-        <v>15796</v>
+        <v>15819</v>
       </c>
     </row>
     <row r="68">
@@ -4012,7 +4012,7 @@
         <v>51</v>
       </c>
       <c r="K68" t="n">
-        <v>535</v>
+        <v>591</v>
       </c>
       <c r="L68" t="n">
         <v>128</v>
@@ -4061,7 +4061,7 @@
         <v>1859</v>
       </c>
       <c r="AB68" t="n">
-        <v>16918</v>
+        <v>16974</v>
       </c>
     </row>
     <row r="69">
@@ -4098,7 +4098,7 @@
         <v>53</v>
       </c>
       <c r="K69" t="n">
-        <v>547</v>
+        <v>617</v>
       </c>
       <c r="L69" t="n">
         <v>140</v>
@@ -4149,7 +4149,7 @@
         <v>1947</v>
       </c>
       <c r="AB69" t="n">
-        <v>17836</v>
+        <v>17906</v>
       </c>
     </row>
     <row r="70">
@@ -4184,7 +4184,7 @@
         <v>56</v>
       </c>
       <c r="K70" t="n">
-        <v>592</v>
+        <v>635</v>
       </c>
       <c r="L70" t="n">
         <v>145</v>
@@ -4235,7 +4235,7 @@
         <v>2136</v>
       </c>
       <c r="AB70" t="n">
-        <v>18902</v>
+        <v>18945</v>
       </c>
     </row>
     <row r="71">
@@ -4272,7 +4272,7 @@
         <v>58</v>
       </c>
       <c r="K71" t="n">
-        <v>622</v>
+        <v>655</v>
       </c>
       <c r="L71" t="n">
         <v>149</v>
@@ -4323,7 +4323,7 @@
         <v>2300</v>
       </c>
       <c r="AB71" t="n">
-        <v>19991</v>
+        <v>20024</v>
       </c>
     </row>
     <row r="72">
@@ -4360,7 +4360,7 @@
         <v>59</v>
       </c>
       <c r="K72" t="n">
-        <v>649</v>
+        <v>678</v>
       </c>
       <c r="L72" t="n">
         <v>149</v>
@@ -4411,7 +4411,7 @@
         <v>2428</v>
       </c>
       <c r="AB72" t="n">
-        <v>20960</v>
+        <v>20989</v>
       </c>
     </row>
     <row r="73">
@@ -4446,7 +4446,7 @@
         <v>61</v>
       </c>
       <c r="K73" t="n">
-        <v>657</v>
+        <v>680</v>
       </c>
       <c r="L73" t="n">
         <v>154</v>
@@ -4495,7 +4495,7 @@
         <v>2461</v>
       </c>
       <c r="AB73" t="n">
-        <v>21530</v>
+        <v>21553</v>
       </c>
     </row>
     <row r="74">
@@ -4528,7 +4528,7 @@
         <v>63</v>
       </c>
       <c r="K74" t="n">
-        <v>668</v>
+        <v>682</v>
       </c>
       <c r="L74" t="n">
         <v>160</v>
@@ -4577,7 +4577,7 @@
         <v>2491</v>
       </c>
       <c r="AB74" t="n">
-        <v>21932</v>
+        <v>21946</v>
       </c>
     </row>
     <row r="75">
@@ -4614,7 +4614,7 @@
         <v>63</v>
       </c>
       <c r="K75" t="n">
-        <v>679</v>
+        <v>699</v>
       </c>
       <c r="L75" t="n">
         <v>164</v>
@@ -4665,7 +4665,7 @@
         <v>2605</v>
       </c>
       <c r="AB75" t="n">
-        <v>22672</v>
+        <v>22692</v>
       </c>
     </row>
     <row r="76">
@@ -4702,7 +4702,7 @@
         <v>63</v>
       </c>
       <c r="K76" t="n">
-        <v>684</v>
+        <v>715</v>
       </c>
       <c r="L76" t="n">
         <v>171</v>
@@ -4753,7 +4753,7 @@
         <v>2688</v>
       </c>
       <c r="AB76" t="n">
-        <v>23329</v>
+        <v>23360</v>
       </c>
     </row>
     <row r="77">
@@ -4790,7 +4790,7 @@
         <v>64</v>
       </c>
       <c r="K77" t="n">
-        <v>698</v>
+        <v>734</v>
       </c>
       <c r="L77" t="n">
         <v>174</v>
@@ -4841,7 +4841,7 @@
         <v>2783</v>
       </c>
       <c r="AB77" t="n">
-        <v>23999</v>
+        <v>24035</v>
       </c>
     </row>
     <row r="78">
@@ -4878,7 +4878,7 @@
         <v>67</v>
       </c>
       <c r="K78" t="n">
-        <v>719</v>
+        <v>740</v>
       </c>
       <c r="L78" t="n">
         <v>179</v>
@@ -4929,7 +4929,7 @@
         <v>2880</v>
       </c>
       <c r="AB78" t="n">
-        <v>24664</v>
+        <v>24685</v>
       </c>
     </row>
     <row r="79">
@@ -4964,7 +4964,7 @@
         <v>76</v>
       </c>
       <c r="K79" t="n">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="L79" t="n">
         <v>182</v>
@@ -5013,7 +5013,7 @@
         <v>2920</v>
       </c>
       <c r="AB79" t="n">
-        <v>25114</v>
+        <v>25133</v>
       </c>
     </row>
     <row r="80">
@@ -5050,7 +5050,7 @@
         <v>91</v>
       </c>
       <c r="K80" t="n">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="L80" t="n">
         <v>183</v>
@@ -5099,7 +5099,7 @@
         <v>2978</v>
       </c>
       <c r="AB80" t="n">
-        <v>25577</v>
+        <v>25586</v>
       </c>
     </row>
     <row r="81">
@@ -5132,7 +5132,7 @@
         <v>91</v>
       </c>
       <c r="K81" t="n">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="L81" t="n">
         <v>183</v>
@@ -5181,7 +5181,7 @@
         <v>2995</v>
       </c>
       <c r="AB81" t="n">
-        <v>25849</v>
+        <v>25854</v>
       </c>
     </row>
     <row r="82">
@@ -5218,7 +5218,7 @@
         <v>92</v>
       </c>
       <c r="K82" t="n">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="L82" t="n">
         <v>184</v>
@@ -5267,7 +5267,7 @@
         <v>3012</v>
       </c>
       <c r="AB82" t="n">
-        <v>26092</v>
+        <v>26097</v>
       </c>
     </row>
     <row r="83">
@@ -5304,7 +5304,7 @@
         <v>105</v>
       </c>
       <c r="K83" t="n">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="L83" t="n">
         <v>185</v>
@@ -5355,7 +5355,7 @@
         <v>3059</v>
       </c>
       <c r="AB83" t="n">
-        <v>26417</v>
+        <v>26426</v>
       </c>
     </row>
     <row r="84">
@@ -5392,7 +5392,7 @@
         <v>105</v>
       </c>
       <c r="K84" t="n">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="L84" t="n">
         <v>188</v>
@@ -5443,7 +5443,7 @@
         <v>3106</v>
       </c>
       <c r="AB84" t="n">
-        <v>26733</v>
+        <v>26743</v>
       </c>
     </row>
     <row r="85">
@@ -5480,7 +5480,7 @@
         <v>106</v>
       </c>
       <c r="K85" t="n">
-        <v>764</v>
+        <v>775</v>
       </c>
       <c r="L85" t="n">
         <v>189</v>
@@ -5531,7 +5531,7 @@
         <v>3141</v>
       </c>
       <c r="AB85" t="n">
-        <v>27035</v>
+        <v>27046</v>
       </c>
     </row>
     <row r="86">
@@ -5568,7 +5568,7 @@
         <v>108</v>
       </c>
       <c r="K86" t="n">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="L86" t="n">
         <v>191</v>
@@ -5619,7 +5619,7 @@
         <v>3164</v>
       </c>
       <c r="AB86" t="n">
-        <v>27342</v>
+        <v>27349</v>
       </c>
     </row>
     <row r="87">
@@ -5652,7 +5652,7 @@
         <v>111</v>
       </c>
       <c r="K87" t="n">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="L87" t="n">
         <v>192</v>
@@ -5701,7 +5701,7 @@
         <v>3203</v>
       </c>
       <c r="AB87" t="n">
-        <v>27616</v>
+        <v>27627</v>
       </c>
     </row>
     <row r="88">
@@ -5736,7 +5736,7 @@
         <v>111</v>
       </c>
       <c r="K88" t="n">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="L88" t="n">
         <v>192</v>
@@ -5785,7 +5785,7 @@
         <v>3230</v>
       </c>
       <c r="AB88" t="n">
-        <v>27792</v>
+        <v>27801</v>
       </c>
     </row>
     <row r="89">
@@ -5822,7 +5822,7 @@
         <v>114</v>
       </c>
       <c r="K89" t="n">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="L89" t="n">
         <v>195</v>
@@ -5873,7 +5873,7 @@
         <v>3246</v>
       </c>
       <c r="AB89" t="n">
-        <v>27993</v>
+        <v>28002</v>
       </c>
     </row>
     <row r="90">
@@ -5910,7 +5910,7 @@
         <v>115</v>
       </c>
       <c r="K90" t="n">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="L90" t="n">
         <v>195</v>
@@ -5961,7 +5961,7 @@
         <v>3271</v>
       </c>
       <c r="AB90" t="n">
-        <v>28159</v>
+        <v>28169</v>
       </c>
     </row>
     <row r="91">
@@ -5998,7 +5998,7 @@
         <v>117</v>
       </c>
       <c r="K91" t="n">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="L91" t="n">
         <v>196</v>
@@ -6049,7 +6049,7 @@
         <v>3311</v>
       </c>
       <c r="AB91" t="n">
-        <v>28365</v>
+        <v>28372</v>
       </c>
     </row>
     <row r="92">
@@ -6086,7 +6086,7 @@
         <v>117</v>
       </c>
       <c r="K92" t="n">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="L92" t="n">
         <v>196</v>
@@ -6137,7 +6137,7 @@
         <v>3328</v>
       </c>
       <c r="AB92" t="n">
-        <v>28584</v>
+        <v>28592</v>
       </c>
     </row>
     <row r="93">
@@ -6174,7 +6174,7 @@
         <v>117</v>
       </c>
       <c r="K93" t="n">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="L93" t="n">
         <v>196</v>
@@ -6225,7 +6225,7 @@
         <v>3357</v>
       </c>
       <c r="AB93" t="n">
-        <v>28773</v>
+        <v>28777</v>
       </c>
     </row>
     <row r="94">
@@ -6258,7 +6258,7 @@
         <v>120</v>
       </c>
       <c r="K94" t="n">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="L94" t="n">
         <v>196</v>
@@ -6307,7 +6307,7 @@
         <v>3388</v>
       </c>
       <c r="AB94" t="n">
-        <v>28916</v>
+        <v>28922</v>
       </c>
     </row>
     <row r="95">
@@ -6338,7 +6338,7 @@
         <v>120</v>
       </c>
       <c r="K95" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="L95" t="n">
         <v>196</v>
@@ -6387,7 +6387,7 @@
         <v>3391</v>
       </c>
       <c r="AB95" t="n">
-        <v>28992</v>
+        <v>28997</v>
       </c>
     </row>
     <row r="96">
@@ -6424,7 +6424,7 @@
         <v>121</v>
       </c>
       <c r="K96" t="n">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="L96" t="n">
         <v>196</v>
@@ -6475,7 +6475,7 @@
         <v>3409</v>
       </c>
       <c r="AB96" t="n">
-        <v>29160</v>
+        <v>29162</v>
       </c>
     </row>
     <row r="97">
@@ -6512,7 +6512,7 @@
         <v>121</v>
       </c>
       <c r="K97" t="n">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="L97" t="n">
         <v>197</v>
@@ -6563,7 +6563,7 @@
         <v>3424</v>
       </c>
       <c r="AB97" t="n">
-        <v>29287</v>
+        <v>29292</v>
       </c>
     </row>
     <row r="98">
@@ -6600,7 +6600,7 @@
         <v>122</v>
       </c>
       <c r="K98" t="n">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="L98" t="n">
         <v>197</v>
@@ -6651,7 +6651,7 @@
         <v>3453</v>
       </c>
       <c r="AB98" t="n">
-        <v>29428</v>
+        <v>29431</v>
       </c>
     </row>
     <row r="99">
@@ -6688,7 +6688,7 @@
         <v>122</v>
       </c>
       <c r="K99" t="n">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="L99" t="n">
         <v>198</v>
@@ -6739,7 +6739,7 @@
         <v>3464</v>
       </c>
       <c r="AB99" t="n">
-        <v>29573</v>
+        <v>29575</v>
       </c>
     </row>
     <row r="100">
@@ -6776,7 +6776,7 @@
         <v>122</v>
       </c>
       <c r="K100" t="n">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="L100" t="n">
         <v>198</v>
@@ -6827,7 +6827,7 @@
         <v>3477</v>
       </c>
       <c r="AB100" t="n">
-        <v>29683</v>
+        <v>29685</v>
       </c>
     </row>
     <row r="101">
@@ -7028,7 +7028,7 @@
         <v>122</v>
       </c>
       <c r="K103" t="n">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="L103" t="n">
         <v>198</v>
@@ -7079,7 +7079,7 @@
         <v>3486</v>
       </c>
       <c r="AB103" t="n">
-        <v>29883</v>
+        <v>29884</v>
       </c>
     </row>
     <row r="104">
@@ -7116,7 +7116,7 @@
         <v>122</v>
       </c>
       <c r="K104" t="n">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="L104" t="n">
         <v>201</v>
@@ -7167,7 +7167,7 @@
         <v>3502</v>
       </c>
       <c r="AB104" t="n">
-        <v>29942</v>
+        <v>29943</v>
       </c>
     </row>
     <row r="105">
@@ -7204,7 +7204,7 @@
         <v>125</v>
       </c>
       <c r="K105" t="n">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="L105" t="n">
         <v>201</v>
@@ -7255,7 +7255,7 @@
         <v>3517</v>
       </c>
       <c r="AB105" t="n">
-        <v>30026</v>
+        <v>30027</v>
       </c>
     </row>
     <row r="106">
@@ -7290,7 +7290,7 @@
         <v>125</v>
       </c>
       <c r="K106" t="n">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="L106" t="n">
         <v>201</v>
@@ -7341,7 +7341,7 @@
         <v>3527</v>
       </c>
       <c r="AB106" t="n">
-        <v>30096</v>
+        <v>30098</v>
       </c>
     </row>
     <row r="107">
@@ -7376,7 +7376,7 @@
         <v>125</v>
       </c>
       <c r="K107" t="n">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="L107" t="n">
         <v>202</v>
@@ -7427,7 +7427,7 @@
         <v>3537</v>
       </c>
       <c r="AB107" t="n">
-        <v>30162</v>
+        <v>30163</v>
       </c>
     </row>
     <row r="108">
@@ -7620,7 +7620,7 @@
         <v>127</v>
       </c>
       <c r="K110" t="n">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L110" t="n">
         <v>202</v>
@@ -7671,7 +7671,7 @@
         <v>3550</v>
       </c>
       <c r="AB110" t="n">
-        <v>30302</v>
+        <v>30303</v>
       </c>
     </row>
     <row r="111">
@@ -7708,7 +7708,7 @@
         <v>127</v>
       </c>
       <c r="K111" t="n">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="L111" t="n">
         <v>202</v>
@@ -7759,7 +7759,7 @@
         <v>3552</v>
       </c>
       <c r="AB111" t="n">
-        <v>30351</v>
+        <v>30353</v>
       </c>
     </row>
     <row r="112">
@@ -7792,7 +7792,7 @@
         <v>127</v>
       </c>
       <c r="K112" t="n">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="L112" t="n">
         <v>202</v>
@@ -7843,7 +7843,7 @@
         <v>3558</v>
       </c>
       <c r="AB112" t="n">
-        <v>30388</v>
+        <v>30389</v>
       </c>
     </row>
     <row r="113">
@@ -8282,7 +8282,7 @@
         <v>128</v>
       </c>
       <c r="K118" t="n">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="L118" t="n">
         <v>203</v>
@@ -8333,7 +8333,7 @@
         <v>3580</v>
       </c>
       <c r="AB118" t="n">
-        <v>30579</v>
+        <v>30580</v>
       </c>
     </row>
     <row r="119">
@@ -9410,7 +9410,7 @@
         <v>128</v>
       </c>
       <c r="K132" t="n">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="L132" t="n">
         <v>205</v>
@@ -9459,7 +9459,7 @@
         <v>3620</v>
       </c>
       <c r="AB132" t="n">
-        <v>30867</v>
+        <v>30868</v>
       </c>
     </row>
     <row r="133">
@@ -9661,7 +9661,9 @@
       <c r="J135" t="n">
         <v>128</v>
       </c>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>828</v>
+      </c>
       <c r="L135" t="n">
         <v>205</v>
       </c>
@@ -9733,7 +9735,9 @@
         <v>5164</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>828</v>
+      </c>
       <c r="L136" t="n">
         <v>205</v>
       </c>
@@ -9797,7 +9801,9 @@
         <v>5164</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>828</v>
+      </c>
       <c r="L137" t="n">
         <v>205</v>
       </c>
@@ -9871,7 +9877,9 @@
       <c r="J138" t="n">
         <v>128</v>
       </c>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>828</v>
+      </c>
       <c r="L138" t="n">
         <v>205</v>
       </c>
@@ -9947,7 +9955,9 @@
       <c r="J139" t="n">
         <v>128</v>
       </c>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>828</v>
+      </c>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>736</v>
@@ -16893,7 +16903,7 @@
         <v>12</v>
       </c>
       <c r="K109" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L109" t="n">
         <v>7</v>
@@ -16936,7 +16946,7 @@
         <v>126</v>
       </c>
       <c r="AB109" t="n">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="110">
@@ -16973,7 +16983,7 @@
         <v>12</v>
       </c>
       <c r="K110" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L110" t="n">
         <v>7</v>
@@ -17024,7 +17034,7 @@
         <v>126</v>
       </c>
       <c r="AB110" t="n">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="111">
@@ -17061,7 +17071,7 @@
         <v>12</v>
       </c>
       <c r="K111" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L111" t="n">
         <v>7</v>
@@ -17112,7 +17122,7 @@
         <v>126</v>
       </c>
       <c r="AB111" t="n">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="112">
@@ -17145,7 +17155,7 @@
         <v>12</v>
       </c>
       <c r="K112" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L112" t="n">
         <v>7</v>
@@ -17196,7 +17206,7 @@
         <v>126</v>
       </c>
       <c r="AB112" t="n">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="113">
@@ -17231,7 +17241,7 @@
         <v>12</v>
       </c>
       <c r="K113" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L113" t="n">
         <v>7</v>
@@ -17282,7 +17292,7 @@
         <v>126</v>
       </c>
       <c r="AB113" t="n">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="114">
@@ -17317,7 +17327,7 @@
         <v>12</v>
       </c>
       <c r="K114" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L114" t="n">
         <v>7</v>
@@ -17366,7 +17376,7 @@
         <v>127</v>
       </c>
       <c r="AB114" t="n">
-        <v>1902</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="115">
@@ -17397,7 +17407,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L115" t="n">
         <v>7</v>
@@ -17440,7 +17450,7 @@
         <v>127</v>
       </c>
       <c r="AB115" t="n">
-        <v>1902</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="116">
@@ -17469,7 +17479,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L116" t="n">
         <v>7</v>
@@ -17512,7 +17522,7 @@
         <v>127</v>
       </c>
       <c r="AB116" t="n">
-        <v>1907</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="117">
@@ -17547,7 +17557,7 @@
         <v>12</v>
       </c>
       <c r="K117" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L117" t="n">
         <v>7</v>
@@ -17598,7 +17608,7 @@
         <v>127</v>
       </c>
       <c r="AB117" t="n">
-        <v>1913</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="118">
@@ -17631,7 +17641,7 @@
         <v>12</v>
       </c>
       <c r="K118" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L118" t="n">
         <v>7</v>
@@ -17682,7 +17692,7 @@
         <v>128</v>
       </c>
       <c r="AB118" t="n">
-        <v>1915</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="119">
@@ -17719,7 +17729,7 @@
         <v>12</v>
       </c>
       <c r="K119" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L119" t="n">
         <v>7</v>
@@ -17770,7 +17780,7 @@
         <v>128</v>
       </c>
       <c r="AB119" t="n">
-        <v>1916</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="120">
@@ -17801,7 +17811,7 @@
         <v>12</v>
       </c>
       <c r="K120" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L120" t="n">
         <v>7</v>
@@ -17844,7 +17854,7 @@
         <v>129</v>
       </c>
       <c r="AB120" t="n">
-        <v>1920</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="121">
@@ -17877,7 +17887,7 @@
         <v>12</v>
       </c>
       <c r="K121" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L121" t="n">
         <v>7</v>
@@ -17922,7 +17932,7 @@
         <v>130</v>
       </c>
       <c r="AB121" t="n">
-        <v>1922</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="122">
@@ -17951,7 +17961,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L122" t="n">
         <v>7</v>
@@ -17994,7 +18004,7 @@
         <v>130</v>
       </c>
       <c r="AB122" t="n">
-        <v>1923</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="123">
@@ -18025,7 +18035,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L123" t="n">
         <v>7</v>
@@ -18068,7 +18078,7 @@
         <v>130</v>
       </c>
       <c r="AB123" t="n">
-        <v>1924</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="124">
@@ -18105,7 +18115,7 @@
         <v>12</v>
       </c>
       <c r="K124" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L124" t="n">
         <v>7</v>
@@ -18156,7 +18166,7 @@
         <v>130</v>
       </c>
       <c r="AB124" t="n">
-        <v>1928</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="125">
@@ -18187,7 +18197,7 @@
         <v>12</v>
       </c>
       <c r="K125" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L125" t="n">
         <v>7</v>
@@ -18238,7 +18248,7 @@
         <v>130</v>
       </c>
       <c r="AB125" t="n">
-        <v>1928</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="126">
@@ -18273,7 +18283,7 @@
         <v>12</v>
       </c>
       <c r="K126" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L126" t="n">
         <v>7</v>
@@ -18324,7 +18334,7 @@
         <v>130</v>
       </c>
       <c r="AB126" t="n">
-        <v>1930</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="127">
@@ -18359,7 +18369,7 @@
         <v>12</v>
       </c>
       <c r="K127" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L127" t="n">
         <v>7</v>
@@ -18410,7 +18420,7 @@
         <v>130</v>
       </c>
       <c r="AB127" t="n">
-        <v>1931</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="128">
@@ -18445,7 +18455,7 @@
         <v>12</v>
       </c>
       <c r="K128" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L128" t="n">
         <v>7</v>
@@ -18496,7 +18506,7 @@
         <v>130</v>
       </c>
       <c r="AB128" t="n">
-        <v>1931</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="129">
@@ -18525,7 +18535,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L129" t="n">
         <v>7</v>
@@ -18568,7 +18578,7 @@
         <v>130</v>
       </c>
       <c r="AB129" t="n">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="130">
@@ -18597,7 +18607,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L130" t="n">
         <v>7</v>
@@ -18640,7 +18650,7 @@
         <v>130</v>
       </c>
       <c r="AB130" t="n">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="131">
@@ -18669,7 +18679,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L131" t="n">
         <v>7</v>
@@ -18712,7 +18722,7 @@
         <v>130</v>
       </c>
       <c r="AB131" t="n">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="132">
@@ -18747,7 +18757,7 @@
         <v>12</v>
       </c>
       <c r="K132" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L132" t="n">
         <v>7</v>
@@ -18794,7 +18804,7 @@
         <v>130</v>
       </c>
       <c r="AB132" t="n">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="133">
@@ -18829,7 +18839,7 @@
         <v>12</v>
       </c>
       <c r="K133" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L133" t="n">
         <v>7</v>
@@ -18876,7 +18886,7 @@
         <v>130</v>
       </c>
       <c r="AB133" t="n">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="134">
@@ -18911,7 +18921,7 @@
         <v>12</v>
       </c>
       <c r="K134" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L134" t="n">
         <v>7</v>
@@ -18956,7 +18966,7 @@
         <v>130</v>
       </c>
       <c r="AB134" t="n">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="135">
@@ -18990,7 +19000,9 @@
       <c r="J135" t="n">
         <v>12</v>
       </c>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>49</v>
+      </c>
       <c r="L135" t="n">
         <v>7</v>
       </c>
@@ -19034,7 +19046,7 @@
         <v>130</v>
       </c>
       <c r="AB135" t="n">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="136">
@@ -19060,7 +19072,9 @@
         <v>292</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>49</v>
+      </c>
       <c r="L136" t="n">
         <v>7</v>
       </c>
@@ -19096,7 +19110,7 @@
         <v>130</v>
       </c>
       <c r="AB136" t="n">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="137">
@@ -19122,7 +19136,9 @@
         <v>292</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>49</v>
+      </c>
       <c r="L137" t="n">
         <v>7</v>
       </c>
@@ -19160,7 +19176,7 @@
         <v>130</v>
       </c>
       <c r="AB137" t="n">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="138">
@@ -19192,7 +19208,9 @@
       <c r="J138" t="n">
         <v>12</v>
       </c>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>50</v>
+      </c>
       <c r="L138" t="n">
         <v>7</v>
       </c>
@@ -19236,7 +19254,7 @@
         <v>130</v>
       </c>
       <c r="AB138" t="n">
-        <v>1934</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="139">
@@ -19264,7 +19282,9 @@
       <c r="J139" t="n">
         <v>12</v>
       </c>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>50</v>
+      </c>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>20</v>
@@ -19306,7 +19326,7 @@
         <v>130</v>
       </c>
       <c r="AB139" t="n">
-        <v>1934</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="140">
@@ -19366,7 +19386,7 @@
         <v>130</v>
       </c>
       <c r="AB140" t="n">
-        <v>1934</v>
+        <v>1936</v>
       </c>
     </row>
   </sheetData>
@@ -27859,7 +27879,9 @@
       <c r="J135" t="n">
         <v>0</v>
       </c>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>2</v>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -27923,7 +27945,9 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>2</v>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -27983,7 +28007,9 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -28019,7 +28045,7 @@
         <v>7</v>
       </c>
       <c r="AB137" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="138">
@@ -28051,7 +28077,9 @@
       <c r="J138" t="n">
         <v>0</v>
       </c>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -28095,7 +28123,7 @@
         <v>7</v>
       </c>
       <c r="AB138" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="139">
@@ -28123,7 +28151,9 @@
       <c r="J139" t="n">
         <v>0</v>
       </c>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="n">
@@ -28161,7 +28191,7 @@
         <v>6</v>
       </c>
       <c r="AB139" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="140">
@@ -28213,7 +28243,7 @@
         <v>7</v>
       </c>
       <c r="AB140" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -9887,7 +9887,7 @@
         <v>736</v>
       </c>
       <c r="N138" t="n">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="O138" t="n">
         <v>124</v>
@@ -9925,7 +9925,7 @@
         <v>3641</v>
       </c>
       <c r="AB138" t="n">
-        <v>30965</v>
+        <v>30966</v>
       </c>
     </row>
     <row r="139">
@@ -9999,7 +9999,7 @@
         <v>3641</v>
       </c>
       <c r="AB139" t="n">
-        <v>30971</v>
+        <v>30972</v>
       </c>
     </row>
     <row r="140">
@@ -10034,7 +10034,9 @@
       </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
+      <c r="P140" t="n">
+        <v>82</v>
+      </c>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="n">
         <v>79</v>
@@ -10059,7 +10061,7 @@
         <v>3644</v>
       </c>
       <c r="AB140" t="n">
-        <v>30977</v>
+        <v>30978</v>
       </c>
     </row>
   </sheetData>
@@ -19361,7 +19363,9 @@
       </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
+      <c r="P140" t="n">
+        <v>0</v>
+      </c>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="n">
         <v>7</v>
@@ -28217,10 +28221,16 @@
       </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>8</v>
+      </c>
+      <c r="N140" t="n">
+        <v>2</v>
+      </c>
       <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
+      <c r="P140" t="n">
+        <v>0</v>
+      </c>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="n">
         <v>3</v>
@@ -28243,7 +28253,7 @@
         <v>7</v>
       </c>
       <c r="AB140" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -36108,8 +36118,12 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>2</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
@@ -36132,7 +36146,7 @@
       </c>
       <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -42670,7 +42684,9 @@
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
-      <c r="N140" t="inlineStr"/>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -9990,7 +9990,7 @@
         <v>5462</v>
       </c>
       <c r="Y139" t="n">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="Z139" t="n">
         <v>205</v>
@@ -9999,7 +9999,7 @@
         <v>3641</v>
       </c>
       <c r="AB139" t="n">
-        <v>30972</v>
+        <v>30973</v>
       </c>
     </row>
     <row r="140">
@@ -10061,7 +10061,7 @@
         <v>3644</v>
       </c>
       <c r="AB140" t="n">
-        <v>30978</v>
+        <v>30979</v>
       </c>
     </row>
   </sheetData>
@@ -17027,7 +17027,7 @@
         <v>404</v>
       </c>
       <c r="Y110" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z110" t="n">
         <v>8</v>
@@ -17036,7 +17036,7 @@
         <v>126</v>
       </c>
       <c r="AB110" t="n">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="111">
@@ -17115,7 +17115,7 @@
         <v>404</v>
       </c>
       <c r="Y111" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z111" t="n">
         <v>8</v>
@@ -17124,7 +17124,7 @@
         <v>126</v>
       </c>
       <c r="AB111" t="n">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="112">
@@ -17199,7 +17199,7 @@
         <v>404</v>
       </c>
       <c r="Y112" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z112" t="n">
         <v>8</v>
@@ -17208,7 +17208,7 @@
         <v>126</v>
       </c>
       <c r="AB112" t="n">
-        <v>1894</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="113">
@@ -17285,7 +17285,7 @@
         <v>406</v>
       </c>
       <c r="Y113" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z113" t="n">
         <v>8</v>
@@ -17294,7 +17294,7 @@
         <v>126</v>
       </c>
       <c r="AB113" t="n">
-        <v>1898</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="114">
@@ -17369,7 +17369,7 @@
         <v>406</v>
       </c>
       <c r="Y114" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z114" t="n">
         <v>8</v>
@@ -17378,7 +17378,7 @@
         <v>127</v>
       </c>
       <c r="AB114" t="n">
-        <v>1903</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="115">
@@ -17443,7 +17443,7 @@
         <v>406</v>
       </c>
       <c r="Y115" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z115" t="n">
         <v>8</v>
@@ -17452,7 +17452,7 @@
         <v>127</v>
       </c>
       <c r="AB115" t="n">
-        <v>1903</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="116">
@@ -17515,7 +17515,7 @@
         <v>406</v>
       </c>
       <c r="Y116" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z116" t="n">
         <v>8</v>
@@ -17524,7 +17524,7 @@
         <v>127</v>
       </c>
       <c r="AB116" t="n">
-        <v>1908</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="117">
@@ -17601,7 +17601,7 @@
         <v>406</v>
       </c>
       <c r="Y117" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z117" t="n">
         <v>8</v>
@@ -17610,7 +17610,7 @@
         <v>127</v>
       </c>
       <c r="AB117" t="n">
-        <v>1914</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="118">
@@ -17685,7 +17685,7 @@
         <v>406</v>
       </c>
       <c r="Y118" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z118" t="n">
         <v>8</v>
@@ -17694,7 +17694,7 @@
         <v>128</v>
       </c>
       <c r="AB118" t="n">
-        <v>1916</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="119">
@@ -17773,7 +17773,7 @@
         <v>406</v>
       </c>
       <c r="Y119" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z119" t="n">
         <v>8</v>
@@ -17782,7 +17782,7 @@
         <v>128</v>
       </c>
       <c r="AB119" t="n">
-        <v>1917</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="120">
@@ -17847,7 +17847,7 @@
         <v>406</v>
       </c>
       <c r="Y120" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z120" t="n">
         <v>8</v>
@@ -17856,7 +17856,7 @@
         <v>129</v>
       </c>
       <c r="AB120" t="n">
-        <v>1921</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="121">
@@ -17925,7 +17925,7 @@
         <v>406</v>
       </c>
       <c r="Y121" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z121" t="n">
         <v>8</v>
@@ -17934,7 +17934,7 @@
         <v>130</v>
       </c>
       <c r="AB121" t="n">
-        <v>1923</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="122">
@@ -17997,7 +17997,7 @@
         <v>406</v>
       </c>
       <c r="Y122" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z122" t="n">
         <v>8</v>
@@ -18006,7 +18006,7 @@
         <v>130</v>
       </c>
       <c r="AB122" t="n">
-        <v>1924</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="123">
@@ -18071,7 +18071,7 @@
         <v>406</v>
       </c>
       <c r="Y123" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z123" t="n">
         <v>8</v>
@@ -18080,7 +18080,7 @@
         <v>130</v>
       </c>
       <c r="AB123" t="n">
-        <v>1925</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="124">
@@ -18159,7 +18159,7 @@
         <v>406</v>
       </c>
       <c r="Y124" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z124" t="n">
         <v>8</v>
@@ -18168,7 +18168,7 @@
         <v>130</v>
       </c>
       <c r="AB124" t="n">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="125">
@@ -18241,7 +18241,7 @@
         <v>406</v>
       </c>
       <c r="Y125" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z125" t="n">
         <v>8</v>
@@ -18250,7 +18250,7 @@
         <v>130</v>
       </c>
       <c r="AB125" t="n">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="126">
@@ -18327,7 +18327,7 @@
         <v>406</v>
       </c>
       <c r="Y126" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z126" t="n">
         <v>9</v>
@@ -18336,7 +18336,7 @@
         <v>130</v>
       </c>
       <c r="AB126" t="n">
-        <v>1931</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="127">
@@ -18413,7 +18413,7 @@
         <v>406</v>
       </c>
       <c r="Y127" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z127" t="n">
         <v>9</v>
@@ -18422,7 +18422,7 @@
         <v>130</v>
       </c>
       <c r="AB127" t="n">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="128">
@@ -18499,7 +18499,7 @@
         <v>406</v>
       </c>
       <c r="Y128" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z128" t="n">
         <v>9</v>
@@ -18508,7 +18508,7 @@
         <v>130</v>
       </c>
       <c r="AB128" t="n">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="129">
@@ -18571,7 +18571,7 @@
         <v>406</v>
       </c>
       <c r="Y129" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z129" t="n">
         <v>9</v>
@@ -18580,7 +18580,7 @@
         <v>130</v>
       </c>
       <c r="AB129" t="n">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="130">
@@ -18643,7 +18643,7 @@
         <v>406</v>
       </c>
       <c r="Y130" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z130" t="n">
         <v>9</v>
@@ -18652,7 +18652,7 @@
         <v>130</v>
       </c>
       <c r="AB130" t="n">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="131">
@@ -18715,7 +18715,7 @@
         <v>406</v>
       </c>
       <c r="Y131" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z131" t="n">
         <v>9</v>
@@ -18724,7 +18724,7 @@
         <v>130</v>
       </c>
       <c r="AB131" t="n">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="132">
@@ -18797,7 +18797,7 @@
         <v>406</v>
       </c>
       <c r="Y132" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z132" t="n">
         <v>9</v>
@@ -18806,7 +18806,7 @@
         <v>130</v>
       </c>
       <c r="AB132" t="n">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="133">
@@ -18879,7 +18879,7 @@
         <v>406</v>
       </c>
       <c r="Y133" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z133" t="n">
         <v>9</v>
@@ -18888,7 +18888,7 @@
         <v>130</v>
       </c>
       <c r="AB133" t="n">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="134">
@@ -18959,7 +18959,7 @@
         <v>406</v>
       </c>
       <c r="Y134" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z134" t="n">
         <v>9</v>
@@ -18968,7 +18968,7 @@
         <v>130</v>
       </c>
       <c r="AB134" t="n">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="135">
@@ -19039,7 +19039,7 @@
         <v>406</v>
       </c>
       <c r="Y135" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z135" t="n">
         <v>9</v>
@@ -19048,7 +19048,7 @@
         <v>130</v>
       </c>
       <c r="AB135" t="n">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="136">
@@ -19103,7 +19103,7 @@
         <v>406</v>
       </c>
       <c r="Y136" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z136" t="n">
         <v>9</v>
@@ -19112,7 +19112,7 @@
         <v>130</v>
       </c>
       <c r="AB136" t="n">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="137">
@@ -19169,7 +19169,7 @@
         <v>406</v>
       </c>
       <c r="Y137" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z137" t="n">
         <v>9</v>
@@ -19178,7 +19178,7 @@
         <v>130</v>
       </c>
       <c r="AB137" t="n">
-        <v>1934</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="138">
@@ -19247,7 +19247,7 @@
         <v>406</v>
       </c>
       <c r="Y138" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z138" t="n">
         <v>9</v>
@@ -19256,7 +19256,7 @@
         <v>130</v>
       </c>
       <c r="AB138" t="n">
-        <v>1936</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="139">
@@ -19319,7 +19319,7 @@
         <v>406</v>
       </c>
       <c r="Y139" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z139" t="n">
         <v>9</v>
@@ -19328,7 +19328,7 @@
         <v>130</v>
       </c>
       <c r="AB139" t="n">
-        <v>1936</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="140">
@@ -19390,7 +19390,7 @@
         <v>130</v>
       </c>
       <c r="AB140" t="n">
-        <v>1936</v>
+        <v>1937</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB140"/>
+  <dimension ref="A1:AB141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9730,7 +9730,9 @@
       <c r="G136" t="n">
         <v>982</v>
       </c>
-      <c r="H136" t="inlineStr"/>
+      <c r="H136" t="n">
+        <v>1166</v>
+      </c>
       <c r="I136" t="n">
         <v>5164</v>
       </c>
@@ -9796,7 +9798,9 @@
       <c r="G137" t="n">
         <v>982</v>
       </c>
-      <c r="H137" t="inlineStr"/>
+      <c r="H137" t="n">
+        <v>1168</v>
+      </c>
       <c r="I137" t="n">
         <v>5164</v>
       </c>
@@ -9843,7 +9847,7 @@
         <v>3641</v>
       </c>
       <c r="AB137" t="n">
-        <v>30946</v>
+        <v>30948</v>
       </c>
     </row>
     <row r="138">
@@ -9948,7 +9952,9 @@
       <c r="G139" t="n">
         <v>983</v>
       </c>
-      <c r="H139" t="inlineStr"/>
+      <c r="H139" t="n">
+        <v>1172</v>
+      </c>
       <c r="I139" t="n">
         <v>5165</v>
       </c>
@@ -10037,7 +10043,9 @@
       <c r="P140" t="n">
         <v>82</v>
       </c>
-      <c r="Q140" t="inlineStr"/>
+      <c r="Q140" t="n">
+        <v>811</v>
+      </c>
       <c r="R140" t="n">
         <v>79</v>
       </c>
@@ -10061,7 +10069,43 @@
         <v>3644</v>
       </c>
       <c r="AB140" t="n">
-        <v>30979</v>
+        <v>30981</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
+      <c r="AA141" t="inlineStr"/>
+      <c r="AB141" t="n">
+        <v>30981</v>
       </c>
     </row>
   </sheetData>
@@ -10075,7 +10119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB140"/>
+  <dimension ref="A1:AB141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19069,7 +19113,9 @@
       <c r="G136" t="n">
         <v>50</v>
       </c>
-      <c r="H136" t="inlineStr"/>
+      <c r="H136" t="n">
+        <v>84</v>
+      </c>
       <c r="I136" t="n">
         <v>292</v>
       </c>
@@ -19133,7 +19179,9 @@
       <c r="G137" t="n">
         <v>50</v>
       </c>
-      <c r="H137" t="inlineStr"/>
+      <c r="H137" t="n">
+        <v>84</v>
+      </c>
       <c r="I137" t="n">
         <v>292</v>
       </c>
@@ -19279,7 +19327,9 @@
       <c r="G139" t="n">
         <v>50</v>
       </c>
-      <c r="H139" t="inlineStr"/>
+      <c r="H139" t="n">
+        <v>84</v>
+      </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
         <v>12</v>
@@ -19366,7 +19416,9 @@
       <c r="P140" t="n">
         <v>0</v>
       </c>
-      <c r="Q140" t="inlineStr"/>
+      <c r="Q140" t="n">
+        <v>37</v>
+      </c>
       <c r="R140" t="n">
         <v>7</v>
       </c>
@@ -19390,6 +19442,42 @@
         <v>130</v>
       </c>
       <c r="AB140" t="n">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
+      <c r="AA141" t="inlineStr"/>
+      <c r="AB141" t="n">
         <v>1937</v>
       </c>
     </row>
@@ -19404,7 +19492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB140"/>
+  <dimension ref="A1:AB141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28148,7 +28236,9 @@
       <c r="G139" t="n">
         <v>1</v>
       </c>
-      <c r="H139" t="inlineStr"/>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
       <c r="I139" t="n">
         <v>118</v>
       </c>
@@ -28195,7 +28285,7 @@
         <v>6</v>
       </c>
       <c r="AB139" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="140">
@@ -28253,7 +28343,43 @@
         <v>7</v>
       </c>
       <c r="AB140" t="n">
-        <v>228</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
+      <c r="AA141" t="inlineStr"/>
+      <c r="AB141" t="n">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -28267,7 +28393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB140"/>
+  <dimension ref="A1:AB141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36055,7 +36181,9 @@
         <v>0</v>
       </c>
       <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
       <c r="I139" t="n">
         <v>1</v>
       </c>
@@ -36094,7 +36222,7 @@
       </c>
       <c r="AA139" t="inlineStr"/>
       <c r="AB139" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140">
@@ -36146,7 +36274,43 @@
       </c>
       <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="n">
-        <v>22</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
+      <c r="AA141" t="inlineStr"/>
+      <c r="AB141" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -36160,7 +36324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB140"/>
+  <dimension ref="A1:AB141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42708,6 +42872,42 @@
         <v>5</v>
       </c>
     </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
+      <c r="AA141" t="inlineStr"/>
+      <c r="AB141" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -42719,7 +42919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB140"/>
+  <dimension ref="A1:AB141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49521,7 +49721,9 @@
       <c r="G139" t="n">
         <v>928</v>
       </c>
-      <c r="H139" t="inlineStr"/>
+      <c r="H139" t="n">
+        <v>150</v>
+      </c>
       <c r="I139" t="n">
         <v>826</v>
       </c>
@@ -49601,6 +49803,42 @@
         <v>5833</v>
       </c>
     </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
+      <c r="AA141" t="inlineStr"/>
+      <c r="AB141" t="n">
+        <v>5833</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -49612,7 +49850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB140"/>
+  <dimension ref="A1:AB141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55050,6 +55288,42 @@
         <v>37875</v>
       </c>
     </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
+      <c r="AA141" t="inlineStr"/>
+      <c r="AB141" t="n">
+        <v>37875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10083,7 +10083,9 @@
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
+      <c r="G141" t="n">
+        <v>983</v>
+      </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -19456,7 +19458,9 @@
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
+      <c r="G141" t="n">
+        <v>50</v>
+      </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -49814,7 +49818,9 @@
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
+      <c r="G141" t="n">
+        <v>929</v>
+      </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -49836,7 +49842,7 @@
       <c r="Z141" t="inlineStr"/>
       <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="n">
-        <v>5833</v>
+        <v>5834</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -9993,7 +9993,7 @@
       </c>
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="n">
-        <v>5462</v>
+        <v>5463</v>
       </c>
       <c r="Y139" t="n">
         <v>1966</v>
@@ -10005,7 +10005,7 @@
         <v>3641</v>
       </c>
       <c r="AB139" t="n">
-        <v>30973</v>
+        <v>30974</v>
       </c>
     </row>
     <row r="140">
@@ -10060,7 +10060,9 @@
         <v>3316</v>
       </c>
       <c r="W140" t="inlineStr"/>
-      <c r="X140" t="inlineStr"/>
+      <c r="X140" t="n">
+        <v>5464</v>
+      </c>
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="n">
         <v>207</v>
@@ -10069,7 +10071,7 @@
         <v>3644</v>
       </c>
       <c r="AB140" t="n">
-        <v>30981</v>
+        <v>30983</v>
       </c>
     </row>
     <row r="141">
@@ -10096,10 +10098,16 @@
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
+      <c r="R141" t="n">
+        <v>79</v>
+      </c>
       <c r="S141" t="inlineStr"/>
-      <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr"/>
+      <c r="T141" t="n">
+        <v>308</v>
+      </c>
+      <c r="U141" t="n">
+        <v>384</v>
+      </c>
       <c r="V141" t="inlineStr"/>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr"/>
@@ -10107,7 +10115,7 @@
       <c r="Z141" t="inlineStr"/>
       <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="n">
-        <v>30981</v>
+        <v>30984</v>
       </c>
     </row>
   </sheetData>
@@ -19435,7 +19443,9 @@
         <v>349</v>
       </c>
       <c r="W140" t="inlineStr"/>
-      <c r="X140" t="inlineStr"/>
+      <c r="X140" t="n">
+        <v>406</v>
+      </c>
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="n">
         <v>9</v>
@@ -19471,10 +19481,16 @@
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
+      <c r="R141" t="n">
+        <v>7</v>
+      </c>
       <c r="S141" t="inlineStr"/>
-      <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr"/>
+      <c r="T141" t="n">
+        <v>23</v>
+      </c>
+      <c r="U141" t="n">
+        <v>18</v>
+      </c>
       <c r="V141" t="inlineStr"/>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr"/>
@@ -28207,7 +28223,7 @@
       </c>
       <c r="W138" t="inlineStr"/>
       <c r="X138" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y138" t="n">
         <v>15</v>
@@ -28219,7 +28235,7 @@
         <v>7</v>
       </c>
       <c r="AB138" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="139">
@@ -28277,7 +28293,7 @@
       </c>
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y139" t="n">
         <v>15</v>
@@ -28289,7 +28305,7 @@
         <v>6</v>
       </c>
       <c r="AB139" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="140">
@@ -28338,7 +28354,9 @@
         <v>10</v>
       </c>
       <c r="W140" t="inlineStr"/>
-      <c r="X140" t="inlineStr"/>
+      <c r="X140" t="n">
+        <v>31</v>
+      </c>
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="n">
         <v>1</v>
@@ -28375,7 +28393,9 @@
       <c r="R141" t="inlineStr"/>
       <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr"/>
+      <c r="U141" t="n">
+        <v>1</v>
+      </c>
       <c r="V141" t="inlineStr"/>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr"/>
@@ -36271,14 +36291,16 @@
         <v>0</v>
       </c>
       <c r="W140" t="inlineStr"/>
-      <c r="X140" t="inlineStr"/>
+      <c r="X140" t="n">
+        <v>6</v>
+      </c>
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="n">
         <v>0</v>
       </c>
       <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141">
@@ -36306,7 +36328,9 @@
       <c r="R141" t="inlineStr"/>
       <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr"/>
+      <c r="U141" t="n">
+        <v>0</v>
+      </c>
       <c r="V141" t="inlineStr"/>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr"/>
@@ -36314,7 +36338,7 @@
       <c r="Z141" t="inlineStr"/>
       <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -49833,7 +49857,9 @@
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="inlineStr"/>
       <c r="S141" t="inlineStr"/>
-      <c r="T141" t="inlineStr"/>
+      <c r="T141" t="n">
+        <v>284</v>
+      </c>
       <c r="U141" t="inlineStr"/>
       <c r="V141" t="inlineStr"/>
       <c r="W141" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10083,7 +10083,9 @@
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
+      <c r="E141" t="n">
+        <v>1924</v>
+      </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="n">
         <v>983</v>
@@ -10115,7 +10117,7 @@
       <c r="Z141" t="inlineStr"/>
       <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="n">
-        <v>30984</v>
+        <v>30989</v>
       </c>
     </row>
   </sheetData>
@@ -19466,7 +19468,9 @@
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
+      <c r="E141" t="n">
+        <v>97</v>
+      </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="n">
         <v>50</v>
@@ -28377,7 +28381,9 @@
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
+      <c r="E141" t="n">
+        <v>4</v>
+      </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
@@ -36312,7 +36318,9 @@
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
@@ -42909,7 +42917,9 @@
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10086,7 +10086,9 @@
       <c r="E141" t="n">
         <v>1924</v>
       </c>
-      <c r="F141" t="inlineStr"/>
+      <c r="F141" t="n">
+        <v>846</v>
+      </c>
       <c r="G141" t="n">
         <v>983</v>
       </c>
@@ -10115,9 +10117,11 @@
       <c r="X141" t="inlineStr"/>
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr"/>
-      <c r="AA141" t="inlineStr"/>
+      <c r="AA141" t="n">
+        <v>3646</v>
+      </c>
       <c r="AB141" t="n">
-        <v>30989</v>
+        <v>30991</v>
       </c>
     </row>
   </sheetData>
@@ -19471,7 +19475,9 @@
       <c r="E141" t="n">
         <v>97</v>
       </c>
-      <c r="F141" t="inlineStr"/>
+      <c r="F141" t="n">
+        <v>35</v>
+      </c>
       <c r="G141" t="n">
         <v>50</v>
       </c>
@@ -19500,7 +19506,9 @@
       <c r="X141" t="inlineStr"/>
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr"/>
-      <c r="AA141" t="inlineStr"/>
+      <c r="AA141" t="n">
+        <v>130</v>
+      </c>
       <c r="AB141" t="n">
         <v>1937</v>
       </c>
@@ -28384,7 +28392,9 @@
       <c r="E141" t="n">
         <v>4</v>
       </c>
-      <c r="F141" t="inlineStr"/>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
@@ -28407,9 +28417,11 @@
       <c r="X141" t="inlineStr"/>
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr"/>
-      <c r="AA141" t="inlineStr"/>
+      <c r="AA141" t="n">
+        <v>8</v>
+      </c>
       <c r="AB141" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -36321,7 +36333,9 @@
       <c r="E141" t="n">
         <v>0</v>
       </c>
-      <c r="F141" t="inlineStr"/>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
@@ -42920,7 +42934,9 @@
       <c r="E141" t="n">
         <v>0</v>
       </c>
-      <c r="F141" t="inlineStr"/>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
@@ -42941,7 +42957,9 @@
       <c r="X141" t="inlineStr"/>
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr"/>
-      <c r="AA141" t="inlineStr"/>
+      <c r="AA141" t="n">
+        <v>0</v>
+      </c>
       <c r="AB141" t="n">
         <v>5</v>
       </c>
@@ -49851,7 +49869,9 @@
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
+      <c r="F141" t="n">
+        <v>807</v>
+      </c>
       <c r="G141" t="n">
         <v>929</v>
       </c>
@@ -49878,7 +49898,7 @@
       <c r="Z141" t="inlineStr"/>
       <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="n">
-        <v>5834</v>
+        <v>5835</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -9938,7 +9938,9 @@
           <t>2020-06-09</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr"/>
+      <c r="B139" t="n">
+        <v>1220</v>
+      </c>
       <c r="C139" t="n">
         <v>25</v>
       </c>
@@ -10005,7 +10007,7 @@
         <v>3641</v>
       </c>
       <c r="AB139" t="n">
-        <v>30974</v>
+        <v>30976</v>
       </c>
     </row>
     <row r="140">
@@ -10014,7 +10016,9 @@
           <t>2020-06-10</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr"/>
+      <c r="B140" t="n">
+        <v>1220</v>
+      </c>
       <c r="C140" t="n">
         <v>25</v>
       </c>
@@ -10071,7 +10075,7 @@
         <v>3644</v>
       </c>
       <c r="AB140" t="n">
-        <v>30983</v>
+        <v>30985</v>
       </c>
     </row>
     <row r="141">
@@ -10080,7 +10084,9 @@
           <t>2020-06-11</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr"/>
+      <c r="B141" t="n">
+        <v>1222</v>
+      </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="n">
@@ -10094,7 +10100,9 @@
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>128</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
@@ -10121,7 +10129,7 @@
         <v>3646</v>
       </c>
       <c r="AB141" t="n">
-        <v>30991</v>
+        <v>30995</v>
       </c>
     </row>
   </sheetData>
@@ -19469,7 +19477,9 @@
           <t>2020-06-11</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr"/>
+      <c r="B141" t="n">
+        <v>46</v>
+      </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="n">
@@ -19483,7 +19493,9 @@
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>12</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
@@ -28386,7 +28398,9 @@
           <t>2020-06-11</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr"/>
+      <c r="B141" t="n">
+        <v>2</v>
+      </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="n">
@@ -28398,7 +28412,9 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
@@ -28421,7 +28437,7 @@
         <v>8</v>
       </c>
       <c r="AB141" t="n">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -36327,7 +36343,9 @@
           <t>2020-06-11</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr"/>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="n">
@@ -42928,7 +42946,9 @@
           <t>2020-06-11</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr"/>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="n">
@@ -49865,7 +49885,9 @@
           <t>2020-06-11</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr"/>
+      <c r="B141" t="n">
+        <v>1155</v>
+      </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
@@ -49898,7 +49920,7 @@
       <c r="Z141" t="inlineStr"/>
       <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="n">
-        <v>5835</v>
+        <v>5840</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB141"/>
+  <dimension ref="A1:AB142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10105,7 +10105,9 @@
       </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>736</v>
+      </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
@@ -10129,6 +10131,46 @@
         <v>3646</v>
       </c>
       <c r="AB141" t="n">
+        <v>30995</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="n">
+        <v>79</v>
+      </c>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="n">
+        <v>308</v>
+      </c>
+      <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr"/>
+      <c r="AA142" t="inlineStr"/>
+      <c r="AB142" t="n">
         <v>30995</v>
       </c>
     </row>
@@ -10143,7 +10185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB141"/>
+  <dimension ref="A1:AB142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19498,7 +19540,9 @@
       </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>20</v>
+      </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
@@ -19522,6 +19566,46 @@
         <v>130</v>
       </c>
       <c r="AB141" t="n">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="n">
+        <v>7</v>
+      </c>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="n">
+        <v>23</v>
+      </c>
+      <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr"/>
+      <c r="AA142" t="inlineStr"/>
+      <c r="AB142" t="n">
         <v>1937</v>
       </c>
     </row>
@@ -19536,7 +19620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB141"/>
+  <dimension ref="A1:AB142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28440,6 +28524,42 @@
         <v>226</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr"/>
+      <c r="AA142" t="inlineStr"/>
+      <c r="AB142" t="n">
+        <v>226</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -28451,7 +28571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB141"/>
+  <dimension ref="A1:AB142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36381,6 +36501,42 @@
         <v>20</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr"/>
+      <c r="AA142" t="inlineStr"/>
+      <c r="AB142" t="n">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -36392,7 +36548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB141"/>
+  <dimension ref="A1:AB142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42984,6 +43140,42 @@
         <v>5</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr"/>
+      <c r="AA142" t="inlineStr"/>
+      <c r="AB142" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -42995,7 +43187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB141"/>
+  <dimension ref="A1:AB142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49923,6 +50115,44 @@
         <v>5840</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="n">
+        <v>284</v>
+      </c>
+      <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr"/>
+      <c r="AA142" t="inlineStr"/>
+      <c r="AB142" t="n">
+        <v>5840</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -49934,7 +50164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB141"/>
+  <dimension ref="A1:AB142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55408,6 +55638,42 @@
         <v>37875</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr"/>
+      <c r="AA142" t="inlineStr"/>
+      <c r="AB142" t="n">
+        <v>37875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10122,7 +10122,9 @@
       <c r="U141" t="n">
         <v>384</v>
       </c>
-      <c r="V141" t="inlineStr"/>
+      <c r="V141" t="n">
+        <v>3317</v>
+      </c>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr"/>
       <c r="Y141" t="inlineStr"/>
@@ -10131,7 +10133,7 @@
         <v>3646</v>
       </c>
       <c r="AB141" t="n">
-        <v>30995</v>
+        <v>30996</v>
       </c>
     </row>
     <row r="142">
@@ -10145,7 +10147,9 @@
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
+      <c r="G142" t="n">
+        <v>983</v>
+      </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -10164,14 +10168,16 @@
         <v>308</v>
       </c>
       <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
+      <c r="V142" t="n">
+        <v>3317</v>
+      </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr"/>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="n">
-        <v>30995</v>
+        <v>30996</v>
       </c>
     </row>
   </sheetData>
@@ -19557,7 +19563,9 @@
       <c r="U141" t="n">
         <v>18</v>
       </c>
-      <c r="V141" t="inlineStr"/>
+      <c r="V141" t="n">
+        <v>349</v>
+      </c>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr"/>
       <c r="Y141" t="inlineStr"/>
@@ -19580,7 +19588,9 @@
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
+      <c r="G142" t="n">
+        <v>50</v>
+      </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -19599,14 +19609,16 @@
         <v>23</v>
       </c>
       <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
+      <c r="V142" t="n">
+        <v>350</v>
+      </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr"/>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="n">
-        <v>1937</v>
+        <v>1938</v>
       </c>
     </row>
   </sheetData>
@@ -28512,7 +28524,9 @@
       <c r="U141" t="n">
         <v>1</v>
       </c>
-      <c r="V141" t="inlineStr"/>
+      <c r="V141" t="n">
+        <v>10</v>
+      </c>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr"/>
       <c r="Y141" t="inlineStr"/>
@@ -28550,14 +28564,16 @@
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
+      <c r="V142" t="n">
+        <v>9</v>
+      </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr"/>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -36491,7 +36507,9 @@
       <c r="U141" t="n">
         <v>0</v>
       </c>
-      <c r="V141" t="inlineStr"/>
+      <c r="V141" t="n">
+        <v>0</v>
+      </c>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr"/>
       <c r="Y141" t="inlineStr"/>
@@ -36527,7 +36545,9 @@
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
+      <c r="V142" t="n">
+        <v>0</v>
+      </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr"/>
@@ -43128,7 +43148,9 @@
       <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr"/>
-      <c r="V141" t="inlineStr"/>
+      <c r="V141" t="n">
+        <v>0</v>
+      </c>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr"/>
       <c r="Y141" t="inlineStr"/>
@@ -43166,7 +43188,9 @@
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
+      <c r="V142" t="n">
+        <v>0</v>
+      </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr"/>
@@ -50105,7 +50129,9 @@
         <v>284</v>
       </c>
       <c r="U141" t="inlineStr"/>
-      <c r="V141" t="inlineStr"/>
+      <c r="V141" t="n">
+        <v>907</v>
+      </c>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr"/>
       <c r="Y141" t="inlineStr"/>
@@ -50126,7 +50152,9 @@
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
+      <c r="G142" t="n">
+        <v>930</v>
+      </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -50143,14 +50171,16 @@
         <v>284</v>
       </c>
       <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
+      <c r="V142" t="n">
+        <v>907</v>
+      </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr"/>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="n">
-        <v>5840</v>
+        <v>5841</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10167,7 +10167,9 @@
       <c r="T142" t="n">
         <v>308</v>
       </c>
-      <c r="U142" t="inlineStr"/>
+      <c r="U142" t="n">
+        <v>384</v>
+      </c>
       <c r="V142" t="n">
         <v>3317</v>
       </c>
@@ -19608,7 +19610,9 @@
       <c r="T142" t="n">
         <v>23</v>
       </c>
-      <c r="U142" t="inlineStr"/>
+      <c r="U142" t="n">
+        <v>18</v>
+      </c>
       <c r="V142" t="n">
         <v>350</v>
       </c>
@@ -28563,7 +28567,9 @@
       <c r="R142" t="inlineStr"/>
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
+      <c r="U142" t="n">
+        <v>1</v>
+      </c>
       <c r="V142" t="n">
         <v>9</v>
       </c>
@@ -36544,7 +36550,9 @@
       <c r="R142" t="inlineStr"/>
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
+      <c r="U142" t="n">
+        <v>0</v>
+      </c>
       <c r="V142" t="n">
         <v>0</v>
       </c>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10126,14 +10126,16 @@
         <v>3317</v>
       </c>
       <c r="W141" t="inlineStr"/>
-      <c r="X141" t="inlineStr"/>
+      <c r="X141" t="n">
+        <v>5466</v>
+      </c>
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr"/>
       <c r="AA141" t="n">
         <v>3646</v>
       </c>
       <c r="AB141" t="n">
-        <v>30996</v>
+        <v>30998</v>
       </c>
     </row>
     <row r="142">
@@ -10152,7 +10154,9 @@
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>128</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
@@ -10179,7 +10183,7 @@
       <c r="Z142" t="inlineStr"/>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="n">
-        <v>30996</v>
+        <v>30998</v>
       </c>
     </row>
   </sheetData>
@@ -19569,7 +19573,9 @@
         <v>349</v>
       </c>
       <c r="W141" t="inlineStr"/>
-      <c r="X141" t="inlineStr"/>
+      <c r="X141" t="n">
+        <v>406</v>
+      </c>
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr"/>
       <c r="AA141" t="n">
@@ -19595,7 +19601,9 @@
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>12</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
@@ -26985,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="X119" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y119" t="n">
         <v>21</v>
@@ -26997,7 +27005,7 @@
         <v>29</v>
       </c>
       <c r="AB119" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="120">
@@ -27053,7 +27061,7 @@
         <v>0</v>
       </c>
       <c r="X120" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y120" t="n">
         <v>21</v>
@@ -27065,7 +27073,7 @@
         <v>25</v>
       </c>
       <c r="AB120" t="n">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="121">
@@ -27125,7 +27133,7 @@
         <v>0</v>
       </c>
       <c r="X121" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y121" t="n">
         <v>20</v>
@@ -27137,7 +27145,7 @@
         <v>31</v>
       </c>
       <c r="AB121" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="122">
@@ -27191,7 +27199,7 @@
         <v>1</v>
       </c>
       <c r="X122" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y122" t="n">
         <v>20</v>
@@ -27203,7 +27211,7 @@
         <v>26</v>
       </c>
       <c r="AB122" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="123">
@@ -27257,7 +27265,7 @@
         <v>1</v>
       </c>
       <c r="X123" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y123" t="n">
         <v>20</v>
@@ -27269,7 +27277,7 @@
         <v>28</v>
       </c>
       <c r="AB123" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="124">
@@ -27335,7 +27343,7 @@
         <v>1</v>
       </c>
       <c r="X124" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y124" t="n">
         <v>19</v>
@@ -27347,7 +27355,7 @@
         <v>23</v>
       </c>
       <c r="AB124" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="125">
@@ -28532,7 +28540,9 @@
         <v>10</v>
       </c>
       <c r="W141" t="inlineStr"/>
-      <c r="X141" t="inlineStr"/>
+      <c r="X141" t="n">
+        <v>31</v>
+      </c>
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr"/>
       <c r="AA141" t="n">
@@ -28556,7 +28566,9 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
@@ -36517,12 +36529,14 @@
         <v>0</v>
       </c>
       <c r="W141" t="inlineStr"/>
-      <c r="X141" t="inlineStr"/>
+      <c r="X141" t="n">
+        <v>3</v>
+      </c>
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr"/>
       <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142">
@@ -36562,7 +36576,7 @@
       <c r="Z142" t="inlineStr"/>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10146,9 +10146,15 @@
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>100</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1927</v>
+      </c>
+      <c r="F142" t="n">
+        <v>846</v>
+      </c>
       <c r="G142" t="n">
         <v>983</v>
       </c>
@@ -10183,7 +10189,7 @@
       <c r="Z142" t="inlineStr"/>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="n">
-        <v>30998</v>
+        <v>31001</v>
       </c>
     </row>
   </sheetData>
@@ -19593,9 +19599,15 @@
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>3</v>
+      </c>
+      <c r="E142" t="n">
+        <v>97</v>
+      </c>
+      <c r="F142" t="n">
+        <v>35</v>
+      </c>
       <c r="G142" t="n">
         <v>50</v>
       </c>
@@ -28560,9 +28572,15 @@
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
@@ -28591,7 +28609,7 @@
       <c r="Z142" t="inlineStr"/>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -36547,9 +36565,15 @@
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
@@ -43193,8 +43217,12 @@
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
@@ -50173,7 +50201,9 @@
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
+      <c r="F142" t="n">
+        <v>807</v>
+      </c>
       <c r="G142" t="n">
         <v>930</v>
       </c>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -9154,10 +9154,10 @@
         <v>202</v>
       </c>
       <c r="AA128" t="n">
-        <v>3612</v>
+        <v>3611</v>
       </c>
       <c r="AB128" t="n">
-        <v>30786</v>
+        <v>30785</v>
       </c>
     </row>
     <row r="129">
@@ -9226,10 +9226,10 @@
         <v>202</v>
       </c>
       <c r="AA129" t="n">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="AB129" t="n">
-        <v>30827</v>
+        <v>30826</v>
       </c>
     </row>
     <row r="130">
@@ -9298,10 +9298,10 @@
         <v>202</v>
       </c>
       <c r="AA130" t="n">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="AB130" t="n">
-        <v>30834</v>
+        <v>30833</v>
       </c>
     </row>
     <row r="131">
@@ -9372,10 +9372,10 @@
         <v>202</v>
       </c>
       <c r="AA131" t="n">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="AB131" t="n">
-        <v>30847</v>
+        <v>30846</v>
       </c>
     </row>
     <row r="132">
@@ -9456,10 +9456,10 @@
         <v>202</v>
       </c>
       <c r="AA132" t="n">
-        <v>3620</v>
+        <v>3619</v>
       </c>
       <c r="AB132" t="n">
-        <v>30868</v>
+        <v>30867</v>
       </c>
     </row>
     <row r="133">
@@ -9542,10 +9542,10 @@
         <v>202</v>
       </c>
       <c r="AA133" t="n">
-        <v>3623</v>
+        <v>3622</v>
       </c>
       <c r="AB133" t="n">
-        <v>30885</v>
+        <v>30884</v>
       </c>
     </row>
     <row r="134">
@@ -9624,10 +9624,10 @@
         <v>202</v>
       </c>
       <c r="AA134" t="n">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="AB134" t="n">
-        <v>30909</v>
+        <v>30908</v>
       </c>
     </row>
     <row r="135">
@@ -9706,10 +9706,10 @@
         <v>202</v>
       </c>
       <c r="AA135" t="n">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="AB135" t="n">
-        <v>30930</v>
+        <v>30929</v>
       </c>
     </row>
     <row r="136">
@@ -9774,10 +9774,10 @@
         <v>202</v>
       </c>
       <c r="AA136" t="n">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="AB136" t="n">
-        <v>30941</v>
+        <v>30940</v>
       </c>
     </row>
     <row r="137">
@@ -9844,10 +9844,10 @@
         <v>202</v>
       </c>
       <c r="AA137" t="n">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="AB137" t="n">
-        <v>30948</v>
+        <v>30947</v>
       </c>
     </row>
     <row r="138">
@@ -9926,10 +9926,10 @@
         <v>203</v>
       </c>
       <c r="AA138" t="n">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="AB138" t="n">
-        <v>30966</v>
+        <v>30965</v>
       </c>
     </row>
     <row r="139">
@@ -10004,10 +10004,10 @@
         <v>205</v>
       </c>
       <c r="AA139" t="n">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="AB139" t="n">
-        <v>30976</v>
+        <v>30975</v>
       </c>
     </row>
     <row r="140">
@@ -10072,10 +10072,10 @@
         <v>207</v>
       </c>
       <c r="AA140" t="n">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="AB140" t="n">
-        <v>30985</v>
+        <v>30984</v>
       </c>
     </row>
     <row r="141">
@@ -10132,10 +10132,10 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr"/>
       <c r="AA141" t="n">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="AB141" t="n">
-        <v>30998</v>
+        <v>30997</v>
       </c>
     </row>
     <row r="142">
@@ -10145,7 +10145,9 @@
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr"/>
+      <c r="C142" t="n">
+        <v>25</v>
+      </c>
       <c r="D142" t="n">
         <v>100</v>
       </c>
@@ -10187,9 +10189,11 @@
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr"/>
-      <c r="AA142" t="inlineStr"/>
+      <c r="AA142" t="n">
+        <v>3647</v>
+      </c>
       <c r="AB142" t="n">
-        <v>31001</v>
+        <v>31002</v>
       </c>
     </row>
   </sheetData>
@@ -19598,7 +19602,9 @@
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr"/>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
       <c r="D142" t="n">
         <v>3</v>
       </c>
@@ -19640,7 +19646,9 @@
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr"/>
-      <c r="AA142" t="inlineStr"/>
+      <c r="AA142" t="n">
+        <v>130</v>
+      </c>
       <c r="AB142" t="n">
         <v>1938</v>
       </c>
@@ -28607,9 +28615,11 @@
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr"/>
-      <c r="AA142" t="inlineStr"/>
+      <c r="AA142" t="n">
+        <v>9</v>
+      </c>
       <c r="AB142" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -43245,7 +43255,9 @@
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr"/>
-      <c r="AA142" t="inlineStr"/>
+      <c r="AA142" t="n">
+        <v>0</v>
+      </c>
       <c r="AB142" t="n">
         <v>5</v>
       </c>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -9970,7 +9970,9 @@
       <c r="M139" t="n">
         <v>736</v>
       </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="N139" t="n">
+        <v>735</v>
+      </c>
       <c r="O139" t="n">
         <v>124</v>
       </c>
@@ -10042,7 +10044,9 @@
       <c r="M140" t="n">
         <v>736</v>
       </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="N140" t="n">
+        <v>735</v>
+      </c>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="n">
         <v>82</v>
@@ -18899,7 +18903,9 @@
       <c r="M132" t="n">
         <v>20</v>
       </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>83</v>
+      </c>
       <c r="O132" t="n">
         <v>3</v>
       </c>
@@ -18981,7 +18987,9 @@
       <c r="M133" t="n">
         <v>20</v>
       </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>83</v>
+      </c>
       <c r="O133" t="n">
         <v>3</v>
       </c>
@@ -19063,7 +19071,9 @@
       <c r="M134" t="n">
         <v>20</v>
       </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="N134" t="n">
+        <v>83</v>
+      </c>
       <c r="O134" t="n">
         <v>3</v>
       </c>
@@ -28546,7 +28556,9 @@
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
-      <c r="N141" t="inlineStr"/>
+      <c r="N141" t="n">
+        <v>2</v>
+      </c>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
@@ -28598,7 +28610,9 @@
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
+      <c r="N142" t="n">
+        <v>3</v>
+      </c>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
@@ -28619,7 +28633,7 @@
         <v>9</v>
       </c>
       <c r="AB142" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -36543,7 +36557,9 @@
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
-      <c r="N141" t="inlineStr"/>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
@@ -36564,7 +36580,7 @@
       <c r="Z141" t="inlineStr"/>
       <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142">
@@ -36591,7 +36607,9 @@
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
@@ -43196,7 +43214,9 @@
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
-      <c r="N141" t="inlineStr"/>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
@@ -43240,7 +43260,9 @@
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB142"/>
+  <dimension ref="A1:AB143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10200,6 +10200,42 @@
         <v>31002</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr"/>
+      <c r="AB143" t="n">
+        <v>31002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -10211,7 +10247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB142"/>
+  <dimension ref="A1:AB143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19663,6 +19699,42 @@
         <v>1938</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr"/>
+      <c r="AB143" t="n">
+        <v>1938</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -19674,7 +19746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB142"/>
+  <dimension ref="A1:AB143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28636,6 +28708,42 @@
         <v>224</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr"/>
+      <c r="AB143" t="n">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -28647,7 +28755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB142"/>
+  <dimension ref="A1:AB143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36631,6 +36739,42 @@
         <v>17</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr"/>
+      <c r="AB143" t="n">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -36642,7 +36786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB142"/>
+  <dimension ref="A1:AB143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43284,6 +43428,42 @@
         <v>5</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr"/>
+      <c r="AB143" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -43295,7 +43475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB142"/>
+  <dimension ref="A1:AB143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50269,6 +50449,42 @@
         <v>5841</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr"/>
+      <c r="AB143" t="n">
+        <v>5841</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -50280,7 +50496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB142"/>
+  <dimension ref="A1:AB143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55790,6 +56006,42 @@
         <v>37875</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr"/>
+      <c r="AB143" t="n">
+        <v>37875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10209,7 +10209,9 @@
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="n">
+        <v>1933</v>
+      </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
@@ -10233,7 +10235,7 @@
       <c r="Z143" t="inlineStr"/>
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="n">
-        <v>31002</v>
+        <v>31008</v>
       </c>
     </row>
   </sheetData>
@@ -19708,7 +19710,9 @@
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="n">
+        <v>97</v>
+      </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
@@ -28717,7 +28721,9 @@
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="n">
+        <v>1</v>
+      </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
@@ -36748,7 +36754,9 @@
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
@@ -43437,7 +43445,9 @@
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10226,7 +10226,9 @@
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
       <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr"/>
+      <c r="T143" t="n">
+        <v>308</v>
+      </c>
       <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr"/>
       <c r="W143" t="inlineStr"/>
@@ -19727,7 +19729,9 @@
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
       <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr"/>
+      <c r="T143" t="n">
+        <v>23</v>
+      </c>
       <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr"/>
       <c r="W143" t="inlineStr"/>
@@ -50483,7 +50487,9 @@
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
       <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr"/>
+      <c r="T143" t="n">
+        <v>284</v>
+      </c>
       <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr"/>
       <c r="W143" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10212,7 +10212,9 @@
       <c r="E143" t="n">
         <v>1933</v>
       </c>
-      <c r="F143" t="inlineStr"/>
+      <c r="F143" t="n">
+        <v>846</v>
+      </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
@@ -19715,7 +19717,9 @@
       <c r="E143" t="n">
         <v>97</v>
       </c>
-      <c r="F143" t="inlineStr"/>
+      <c r="F143" t="n">
+        <v>35</v>
+      </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
@@ -28728,7 +28732,9 @@
       <c r="E143" t="n">
         <v>1</v>
       </c>
-      <c r="F143" t="inlineStr"/>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
@@ -36761,7 +36767,9 @@
       <c r="E143" t="n">
         <v>0</v>
       </c>
-      <c r="F143" t="inlineStr"/>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
@@ -43452,7 +43460,9 @@
       <c r="E143" t="n">
         <v>0</v>
       </c>
-      <c r="F143" t="inlineStr"/>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
@@ -50473,7 +50483,9 @@
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
+      <c r="F143" t="n">
+        <v>808</v>
+      </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
@@ -50498,7 +50510,7 @@
       <c r="Z143" t="inlineStr"/>
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="n">
-        <v>5841</v>
+        <v>5842</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB143"/>
+  <dimension ref="A1:AB144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10242,6 +10242,42 @@
         <v>31008</v>
       </c>
     </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr"/>
+      <c r="AA144" t="inlineStr"/>
+      <c r="AB144" t="n">
+        <v>31008</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -10253,7 +10289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB143"/>
+  <dimension ref="A1:AB144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19747,6 +19783,42 @@
         <v>1938</v>
       </c>
     </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr"/>
+      <c r="AA144" t="inlineStr"/>
+      <c r="AB144" t="n">
+        <v>1938</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -19758,7 +19830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB143"/>
+  <dimension ref="A1:AB144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28760,6 +28832,42 @@
         <v>224</v>
       </c>
     </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr"/>
+      <c r="AA144" t="inlineStr"/>
+      <c r="AB144" t="n">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -28771,7 +28879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB143"/>
+  <dimension ref="A1:AB144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36795,6 +36903,42 @@
         <v>17</v>
       </c>
     </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr"/>
+      <c r="AA144" t="inlineStr"/>
+      <c r="AB144" t="n">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -36806,7 +36950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB143"/>
+  <dimension ref="A1:AB144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43488,6 +43632,42 @@
         <v>5</v>
       </c>
     </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr"/>
+      <c r="AA144" t="inlineStr"/>
+      <c r="AB144" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -43499,7 +43679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB143"/>
+  <dimension ref="A1:AB144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50513,6 +50693,42 @@
         <v>5842</v>
       </c>
     </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr"/>
+      <c r="AA144" t="inlineStr"/>
+      <c r="AB144" t="n">
+        <v>5842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -50524,7 +50740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB143"/>
+  <dimension ref="A1:AB144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56070,6 +56286,42 @@
         <v>37875</v>
       </c>
     </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr"/>
+      <c r="AA144" t="inlineStr"/>
+      <c r="AB144" t="n">
+        <v>37875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10251,7 +10251,9 @@
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
+      <c r="E144" t="n">
+        <v>1933</v>
+      </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
@@ -19792,7 +19794,9 @@
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
+      <c r="E144" t="n">
+        <v>97</v>
+      </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
@@ -28841,7 +28845,9 @@
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
+      <c r="E144" t="n">
+        <v>1</v>
+      </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
@@ -36912,7 +36918,9 @@
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
@@ -43641,7 +43649,9 @@
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10254,7 +10254,9 @@
       <c r="E144" t="n">
         <v>1933</v>
       </c>
-      <c r="F144" t="inlineStr"/>
+      <c r="F144" t="n">
+        <v>846</v>
+      </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
@@ -19797,7 +19799,9 @@
       <c r="E144" t="n">
         <v>97</v>
       </c>
-      <c r="F144" t="inlineStr"/>
+      <c r="F144" t="n">
+        <v>35</v>
+      </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
@@ -28848,7 +28852,9 @@
       <c r="E144" t="n">
         <v>1</v>
       </c>
-      <c r="F144" t="inlineStr"/>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
@@ -36921,7 +36927,9 @@
       <c r="E144" t="n">
         <v>0</v>
       </c>
-      <c r="F144" t="inlineStr"/>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
@@ -43652,7 +43660,9 @@
       <c r="E144" t="n">
         <v>0</v>
       </c>
-      <c r="F144" t="inlineStr"/>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
@@ -50713,7 +50723,9 @@
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
+      <c r="F144" t="n">
+        <v>808</v>
+      </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB144"/>
+  <dimension ref="A1:AB145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10134,7 +10134,9 @@
         <v>5466</v>
       </c>
       <c r="Y141" t="inlineStr"/>
-      <c r="Z141" t="inlineStr"/>
+      <c r="Z141" t="n">
+        <v>207</v>
+      </c>
       <c r="AA141" t="n">
         <v>3645</v>
       </c>
@@ -10192,12 +10194,14 @@
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr"/>
-      <c r="Z142" t="inlineStr"/>
+      <c r="Z142" t="n">
+        <v>211</v>
+      </c>
       <c r="AA142" t="n">
         <v>3647</v>
       </c>
       <c r="AB142" t="n">
-        <v>31002</v>
+        <v>31006</v>
       </c>
     </row>
     <row r="143">
@@ -10236,10 +10240,12 @@
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
       <c r="Y143" t="inlineStr"/>
-      <c r="Z143" t="inlineStr"/>
+      <c r="Z143" t="n">
+        <v>211</v>
+      </c>
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="n">
-        <v>31008</v>
+        <v>31012</v>
       </c>
     </row>
     <row r="144">
@@ -10263,7 +10269,9 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>738</v>
+      </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
@@ -10276,10 +10284,50 @@
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
       <c r="Y144" t="inlineStr"/>
-      <c r="Z144" t="inlineStr"/>
+      <c r="Z144" t="n">
+        <v>211</v>
+      </c>
       <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="n">
-        <v>31008</v>
+        <v>31014</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="n">
+        <v>213</v>
+      </c>
+      <c r="AA145" t="inlineStr"/>
+      <c r="AB145" t="n">
+        <v>31016</v>
       </c>
     </row>
   </sheetData>
@@ -10293,7 +10341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB144"/>
+  <dimension ref="A1:AB145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19679,7 +19727,9 @@
         <v>406</v>
       </c>
       <c r="Y141" t="inlineStr"/>
-      <c r="Z141" t="inlineStr"/>
+      <c r="Z141" t="n">
+        <v>9</v>
+      </c>
       <c r="AA141" t="n">
         <v>130</v>
       </c>
@@ -19737,7 +19787,9 @@
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr"/>
-      <c r="Z142" t="inlineStr"/>
+      <c r="Z142" t="n">
+        <v>9</v>
+      </c>
       <c r="AA142" t="n">
         <v>130</v>
       </c>
@@ -19781,7 +19833,9 @@
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
       <c r="Y143" t="inlineStr"/>
-      <c r="Z143" t="inlineStr"/>
+      <c r="Z143" t="n">
+        <v>9</v>
+      </c>
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="n">
         <v>1938</v>
@@ -19808,7 +19862,9 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>20</v>
+      </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
@@ -19821,9 +19877,49 @@
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
       <c r="Y144" t="inlineStr"/>
-      <c r="Z144" t="inlineStr"/>
+      <c r="Z144" t="n">
+        <v>9</v>
+      </c>
       <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="n">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA145" t="inlineStr"/>
+      <c r="AB145" t="n">
         <v>1938</v>
       </c>
     </row>
@@ -19838,7 +19934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB144"/>
+  <dimension ref="A1:AB145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28740,7 +28836,9 @@
         <v>31</v>
       </c>
       <c r="Y141" t="inlineStr"/>
-      <c r="Z141" t="inlineStr"/>
+      <c r="Z141" t="n">
+        <v>1</v>
+      </c>
       <c r="AA141" t="n">
         <v>8</v>
       </c>
@@ -28792,7 +28890,9 @@
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr"/>
-      <c r="Z142" t="inlineStr"/>
+      <c r="Z142" t="n">
+        <v>1</v>
+      </c>
       <c r="AA142" t="n">
         <v>9</v>
       </c>
@@ -28834,7 +28934,9 @@
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
       <c r="Y143" t="inlineStr"/>
-      <c r="Z143" t="inlineStr"/>
+      <c r="Z143" t="n">
+        <v>1</v>
+      </c>
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="n">
         <v>224</v>
@@ -28874,9 +28976,49 @@
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
       <c r="Y144" t="inlineStr"/>
-      <c r="Z144" t="inlineStr"/>
+      <c r="Z144" t="n">
+        <v>1</v>
+      </c>
       <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA145" t="inlineStr"/>
+      <c r="AB145" t="n">
         <v>224</v>
       </c>
     </row>
@@ -28891,7 +29033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB144"/>
+  <dimension ref="A1:AB145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36821,7 +36963,9 @@
         <v>3</v>
       </c>
       <c r="Y141" t="inlineStr"/>
-      <c r="Z141" t="inlineStr"/>
+      <c r="Z141" t="n">
+        <v>0</v>
+      </c>
       <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="n">
         <v>18</v>
@@ -36869,7 +37013,9 @@
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr"/>
-      <c r="Z142" t="inlineStr"/>
+      <c r="Z142" t="n">
+        <v>0</v>
+      </c>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="n">
         <v>17</v>
@@ -36909,7 +37055,9 @@
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
       <c r="Y143" t="inlineStr"/>
-      <c r="Z143" t="inlineStr"/>
+      <c r="Z143" t="n">
+        <v>0</v>
+      </c>
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="n">
         <v>17</v>
@@ -36949,9 +37097,49 @@
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
       <c r="Y144" t="inlineStr"/>
-      <c r="Z144" t="inlineStr"/>
+      <c r="Z144" t="n">
+        <v>0</v>
+      </c>
       <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA145" t="inlineStr"/>
+      <c r="AB145" t="n">
         <v>17</v>
       </c>
     </row>
@@ -36966,7 +37154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB144"/>
+  <dimension ref="A1:AB145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43688,6 +43876,42 @@
         <v>5</v>
       </c>
     </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="inlineStr"/>
+      <c r="AA145" t="inlineStr"/>
+      <c r="AB145" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -43699,7 +43923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB144"/>
+  <dimension ref="A1:AB145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50623,7 +50847,9 @@
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr"/>
       <c r="Y141" t="inlineStr"/>
-      <c r="Z141" t="inlineStr"/>
+      <c r="Z141" t="n">
+        <v>186</v>
+      </c>
       <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="n">
         <v>5840</v>
@@ -50667,7 +50893,9 @@
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr"/>
-      <c r="Z142" t="inlineStr"/>
+      <c r="Z142" t="n">
+        <v>186</v>
+      </c>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="n">
         <v>5841</v>
@@ -50707,7 +50935,9 @@
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
       <c r="Y143" t="inlineStr"/>
-      <c r="Z143" t="inlineStr"/>
+      <c r="Z143" t="n">
+        <v>186</v>
+      </c>
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="n">
         <v>5842</v>
@@ -50745,10 +50975,50 @@
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
       <c r="Y144" t="inlineStr"/>
-      <c r="Z144" t="inlineStr"/>
+      <c r="Z144" t="n">
+        <v>186</v>
+      </c>
       <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="n">
         <v>5842</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="n">
+        <v>189</v>
+      </c>
+      <c r="AA145" t="inlineStr"/>
+      <c r="AB145" t="n">
+        <v>5845</v>
       </c>
     </row>
   </sheetData>
@@ -50762,7 +51032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB144"/>
+  <dimension ref="A1:AB145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56344,6 +56614,42 @@
         <v>37875</v>
       </c>
     </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="inlineStr"/>
+      <c r="AA145" t="inlineStr"/>
+      <c r="AB145" t="n">
+        <v>37875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10219,7 +10219,9 @@
       <c r="F143" t="n">
         <v>846</v>
       </c>
-      <c r="G143" t="inlineStr"/>
+      <c r="G143" t="n">
+        <v>983</v>
+      </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -10263,7 +10265,9 @@
       <c r="F144" t="n">
         <v>846</v>
       </c>
-      <c r="G144" t="inlineStr"/>
+      <c r="G144" t="n">
+        <v>983</v>
+      </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -10277,7 +10281,9 @@
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
+      <c r="S144" t="n">
+        <v>448</v>
+      </c>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr"/>
       <c r="V144" t="inlineStr"/>
@@ -10289,7 +10295,7 @@
       </c>
       <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="n">
-        <v>31014</v>
+        <v>31016</v>
       </c>
     </row>
     <row r="145">
@@ -10303,7 +10309,9 @@
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
+      <c r="G145" t="n">
+        <v>983</v>
+      </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -10314,7 +10322,9 @@
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
+      <c r="R145" t="n">
+        <v>81</v>
+      </c>
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr"/>
@@ -10327,7 +10337,7 @@
       </c>
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="n">
-        <v>31016</v>
+        <v>31020</v>
       </c>
     </row>
   </sheetData>
@@ -19812,7 +19822,9 @@
       <c r="F143" t="n">
         <v>35</v>
       </c>
-      <c r="G143" t="inlineStr"/>
+      <c r="G143" t="n">
+        <v>50</v>
+      </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -19856,7 +19868,9 @@
       <c r="F144" t="n">
         <v>35</v>
       </c>
-      <c r="G144" t="inlineStr"/>
+      <c r="G144" t="n">
+        <v>50</v>
+      </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -19870,7 +19884,9 @@
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
+      <c r="S144" t="n">
+        <v>17</v>
+      </c>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr"/>
       <c r="V144" t="inlineStr"/>
@@ -19896,7 +19912,9 @@
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
+      <c r="G145" t="n">
+        <v>50</v>
+      </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -19907,7 +19925,9 @@
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
+      <c r="R145" t="n">
+        <v>7</v>
+      </c>
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr"/>
@@ -28995,7 +29015,9 @@
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
+      <c r="G145" t="n">
+        <v>3</v>
+      </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -29019,7 +29041,7 @@
       </c>
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -37116,7 +37138,9 @@
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
+      <c r="G145" t="n">
+        <v>2</v>
+      </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -50914,7 +50938,9 @@
       <c r="F143" t="n">
         <v>808</v>
       </c>
-      <c r="G143" t="inlineStr"/>
+      <c r="G143" t="n">
+        <v>931</v>
+      </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -50940,7 +50966,7 @@
       </c>
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="n">
-        <v>5842</v>
+        <v>5843</v>
       </c>
     </row>
     <row r="144">
@@ -50956,7 +50982,9 @@
       <c r="F144" t="n">
         <v>808</v>
       </c>
-      <c r="G144" t="inlineStr"/>
+      <c r="G144" t="n">
+        <v>932</v>
+      </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -50980,7 +51008,7 @@
       </c>
       <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="n">
-        <v>5842</v>
+        <v>5844</v>
       </c>
     </row>
     <row r="145">
@@ -50994,7 +51022,9 @@
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
+      <c r="G145" t="n">
+        <v>932</v>
+      </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -51018,7 +51048,7 @@
       </c>
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="n">
-        <v>5845</v>
+        <v>5847</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10237,7 +10237,9 @@
       <c r="T143" t="n">
         <v>308</v>
       </c>
-      <c r="U143" t="inlineStr"/>
+      <c r="U143" t="n">
+        <v>384</v>
+      </c>
       <c r="V143" t="inlineStr"/>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
@@ -10284,8 +10286,12 @@
       <c r="S144" t="n">
         <v>448</v>
       </c>
-      <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr"/>
+      <c r="T144" t="n">
+        <v>308</v>
+      </c>
+      <c r="U144" t="n">
+        <v>384</v>
+      </c>
       <c r="V144" t="inlineStr"/>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
@@ -10326,8 +10332,12 @@
         <v>81</v>
       </c>
       <c r="S145" t="inlineStr"/>
-      <c r="T145" t="inlineStr"/>
-      <c r="U145" t="inlineStr"/>
+      <c r="T145" t="n">
+        <v>308</v>
+      </c>
+      <c r="U145" t="n">
+        <v>384</v>
+      </c>
       <c r="V145" t="inlineStr"/>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
@@ -19840,7 +19850,9 @@
       <c r="T143" t="n">
         <v>23</v>
       </c>
-      <c r="U143" t="inlineStr"/>
+      <c r="U143" t="n">
+        <v>18</v>
+      </c>
       <c r="V143" t="inlineStr"/>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
@@ -19887,8 +19899,12 @@
       <c r="S144" t="n">
         <v>17</v>
       </c>
-      <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr"/>
+      <c r="T144" t="n">
+        <v>23</v>
+      </c>
+      <c r="U144" t="n">
+        <v>18</v>
+      </c>
       <c r="V144" t="inlineStr"/>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
@@ -19929,8 +19945,12 @@
         <v>7</v>
       </c>
       <c r="S145" t="inlineStr"/>
-      <c r="T145" t="inlineStr"/>
-      <c r="U145" t="inlineStr"/>
+      <c r="T145" t="n">
+        <v>23</v>
+      </c>
+      <c r="U145" t="n">
+        <v>18</v>
+      </c>
       <c r="V145" t="inlineStr"/>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
@@ -28949,7 +28969,9 @@
       <c r="R143" t="inlineStr"/>
       <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr"/>
+      <c r="U143" t="n">
+        <v>1</v>
+      </c>
       <c r="V143" t="inlineStr"/>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
@@ -28991,7 +29013,9 @@
       <c r="R144" t="inlineStr"/>
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr"/>
+      <c r="U144" t="n">
+        <v>1</v>
+      </c>
       <c r="V144" t="inlineStr"/>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
@@ -29031,7 +29055,9 @@
       <c r="R145" t="inlineStr"/>
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
-      <c r="U145" t="inlineStr"/>
+      <c r="U145" t="n">
+        <v>1</v>
+      </c>
       <c r="V145" t="inlineStr"/>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
@@ -37072,7 +37098,9 @@
       <c r="R143" t="inlineStr"/>
       <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr"/>
+      <c r="U143" t="n">
+        <v>0</v>
+      </c>
       <c r="V143" t="inlineStr"/>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
@@ -37114,7 +37142,9 @@
       <c r="R144" t="inlineStr"/>
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr"/>
+      <c r="U144" t="n">
+        <v>0</v>
+      </c>
       <c r="V144" t="inlineStr"/>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
@@ -37154,7 +37184,9 @@
       <c r="R145" t="inlineStr"/>
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
-      <c r="U145" t="inlineStr"/>
+      <c r="U145" t="n">
+        <v>0</v>
+      </c>
       <c r="V145" t="inlineStr"/>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
@@ -50997,7 +51029,9 @@
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
       <c r="S144" t="inlineStr"/>
-      <c r="T144" t="inlineStr"/>
+      <c r="T144" t="n">
+        <v>284</v>
+      </c>
       <c r="U144" t="inlineStr"/>
       <c r="V144" t="inlineStr"/>
       <c r="W144" t="inlineStr"/>
@@ -51037,7 +51071,9 @@
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="inlineStr"/>
       <c r="S145" t="inlineStr"/>
-      <c r="T145" t="inlineStr"/>
+      <c r="T145" t="n">
+        <v>284</v>
+      </c>
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr"/>
       <c r="W145" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10240,7 +10240,9 @@
       <c r="U143" t="n">
         <v>384</v>
       </c>
-      <c r="V143" t="inlineStr"/>
+      <c r="V143" t="n">
+        <v>3318</v>
+      </c>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
       <c r="Y143" t="inlineStr"/>
@@ -10249,7 +10251,7 @@
       </c>
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="n">
-        <v>31012</v>
+        <v>31013</v>
       </c>
     </row>
     <row r="144">
@@ -10292,7 +10294,9 @@
       <c r="U144" t="n">
         <v>384</v>
       </c>
-      <c r="V144" t="inlineStr"/>
+      <c r="V144" t="n">
+        <v>3321</v>
+      </c>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
       <c r="Y144" t="inlineStr"/>
@@ -10301,7 +10305,7 @@
       </c>
       <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="n">
-        <v>31016</v>
+        <v>31020</v>
       </c>
     </row>
     <row r="145">
@@ -10313,14 +10317,18 @@
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="n">
+        <v>1934</v>
+      </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="n">
         <v>983</v>
       </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>128</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
@@ -10338,7 +10346,9 @@
       <c r="U145" t="n">
         <v>384</v>
       </c>
-      <c r="V145" t="inlineStr"/>
+      <c r="V145" t="n">
+        <v>3321</v>
+      </c>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
       <c r="Y145" t="inlineStr"/>
@@ -10347,7 +10357,7 @@
       </c>
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="n">
-        <v>31020</v>
+        <v>31025</v>
       </c>
     </row>
   </sheetData>
@@ -19853,7 +19863,9 @@
       <c r="U143" t="n">
         <v>18</v>
       </c>
-      <c r="V143" t="inlineStr"/>
+      <c r="V143" t="n">
+        <v>350</v>
+      </c>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
       <c r="Y143" t="inlineStr"/>
@@ -19905,7 +19917,9 @@
       <c r="U144" t="n">
         <v>18</v>
       </c>
-      <c r="V144" t="inlineStr"/>
+      <c r="V144" t="n">
+        <v>350</v>
+      </c>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
       <c r="Y144" t="inlineStr"/>
@@ -19926,14 +19940,18 @@
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="n">
+        <v>97</v>
+      </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="n">
         <v>50</v>
       </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>12</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
@@ -19951,7 +19969,9 @@
       <c r="U145" t="n">
         <v>18</v>
       </c>
-      <c r="V145" t="inlineStr"/>
+      <c r="V145" t="n">
+        <v>350</v>
+      </c>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
       <c r="Y145" t="inlineStr"/>
@@ -24749,7 +24769,9 @@
       <c r="F87" t="n">
         <v>44</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>67</v>
+      </c>
       <c r="H87" t="n">
         <v>64</v>
       </c>
@@ -24807,7 +24829,7 @@
         <v>114</v>
       </c>
       <c r="AB87" t="n">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="88">
@@ -24825,7 +24847,9 @@
       <c r="F88" t="n">
         <v>40</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>61</v>
+      </c>
       <c r="H88" t="n">
         <v>61</v>
       </c>
@@ -24883,7 +24907,7 @@
         <v>116</v>
       </c>
       <c r="AB88" t="n">
-        <v>1505</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="89">
@@ -24903,7 +24927,9 @@
       <c r="F89" t="n">
         <v>40</v>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>57</v>
+      </c>
       <c r="H89" t="n">
         <v>62</v>
       </c>
@@ -24963,7 +24989,7 @@
         <v>121</v>
       </c>
       <c r="AB89" t="n">
-        <v>1480</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="90">
@@ -25309,7 +25335,9 @@
       <c r="F94" t="n">
         <v>23</v>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>32</v>
+      </c>
       <c r="H94" t="n">
         <v>54</v>
       </c>
@@ -25365,7 +25393,7 @@
         <v>77</v>
       </c>
       <c r="AB94" t="n">
-        <v>1207</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="95">
@@ -25383,7 +25411,9 @@
       <c r="F95" t="n">
         <v>21</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>30</v>
+      </c>
       <c r="H95" t="n">
         <v>54</v>
       </c>
@@ -25441,7 +25471,7 @@
         <v>75</v>
       </c>
       <c r="AB95" t="n">
-        <v>1185</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="96">
@@ -25463,7 +25493,9 @@
       <c r="F96" t="n">
         <v>17</v>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>29</v>
+      </c>
       <c r="H96" t="n">
         <v>55</v>
       </c>
@@ -25523,7 +25555,7 @@
         <v>73</v>
       </c>
       <c r="AB96" t="n">
-        <v>1160</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="97">
@@ -25797,7 +25829,9 @@
       <c r="F100" t="n">
         <v>8</v>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>22</v>
+      </c>
       <c r="H100" t="n">
         <v>43</v>
       </c>
@@ -25857,7 +25891,7 @@
         <v>43</v>
       </c>
       <c r="AB100" t="n">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="101">
@@ -25877,7 +25911,9 @@
       <c r="F101" t="n">
         <v>8</v>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>21</v>
+      </c>
       <c r="H101" t="n">
         <v>38</v>
       </c>
@@ -25933,7 +25969,7 @@
         <v>41</v>
       </c>
       <c r="AB101" t="n">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="102">
@@ -25953,7 +25989,9 @@
       <c r="F102" t="n">
         <v>10</v>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>21</v>
+      </c>
       <c r="H102" t="n">
         <v>35</v>
       </c>
@@ -26009,7 +26047,7 @@
         <v>42</v>
       </c>
       <c r="AB102" t="n">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="103">
@@ -26031,7 +26069,9 @@
       <c r="F103" t="n">
         <v>9</v>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>22</v>
+      </c>
       <c r="H103" t="n">
         <v>36</v>
       </c>
@@ -26091,7 +26131,7 @@
         <v>43</v>
       </c>
       <c r="AB103" t="n">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="104">
@@ -26439,7 +26479,9 @@
       <c r="F108" t="n">
         <v>3</v>
       </c>
-      <c r="G108" t="inlineStr"/>
+      <c r="G108" t="n">
+        <v>16</v>
+      </c>
       <c r="H108" t="n">
         <v>30</v>
       </c>
@@ -26491,7 +26533,7 @@
         <v>37</v>
       </c>
       <c r="AB108" t="n">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="109">
@@ -26509,7 +26551,9 @@
       <c r="F109" t="n">
         <v>2</v>
       </c>
-      <c r="G109" t="inlineStr"/>
+      <c r="G109" t="n">
+        <v>14</v>
+      </c>
       <c r="H109" t="n">
         <v>26</v>
       </c>
@@ -26561,7 +26605,7 @@
         <v>40</v>
       </c>
       <c r="AB109" t="n">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="110">
@@ -26583,7 +26627,9 @@
       <c r="F110" t="n">
         <v>3</v>
       </c>
-      <c r="G110" t="inlineStr"/>
+      <c r="G110" t="n">
+        <v>14</v>
+      </c>
       <c r="H110" t="n">
         <v>26</v>
       </c>
@@ -26643,7 +26689,7 @@
         <v>44</v>
       </c>
       <c r="AB110" t="n">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="111">
@@ -26745,7 +26791,9 @@
       <c r="F112" t="n">
         <v>2</v>
       </c>
-      <c r="G112" t="inlineStr"/>
+      <c r="G112" t="n">
+        <v>12</v>
+      </c>
       <c r="H112" t="n">
         <v>25</v>
       </c>
@@ -26805,7 +26853,7 @@
         <v>38</v>
       </c>
       <c r="AB112" t="n">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="113">
@@ -26825,7 +26873,9 @@
       <c r="F113" t="n">
         <v>3</v>
       </c>
-      <c r="G113" t="inlineStr"/>
+      <c r="G113" t="n">
+        <v>11</v>
+      </c>
       <c r="H113" t="n">
         <v>20</v>
       </c>
@@ -26883,7 +26933,7 @@
         <v>36</v>
       </c>
       <c r="AB113" t="n">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="114">
@@ -26983,7 +27033,9 @@
       <c r="F115" t="n">
         <v>1</v>
       </c>
-      <c r="G115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>11</v>
+      </c>
       <c r="H115" t="n">
         <v>18</v>
       </c>
@@ -27049,7 +27101,9 @@
       <c r="F116" t="n">
         <v>3</v>
       </c>
-      <c r="G116" t="inlineStr"/>
+      <c r="G116" t="n">
+        <v>11</v>
+      </c>
       <c r="H116" t="n">
         <v>17</v>
       </c>
@@ -27119,7 +27173,9 @@
       <c r="F117" t="n">
         <v>3</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>12</v>
+      </c>
       <c r="H117" t="n">
         <v>16</v>
       </c>
@@ -27177,7 +27233,7 @@
         <v>33</v>
       </c>
       <c r="AB117" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="118">
@@ -27493,7 +27549,9 @@
       <c r="F122" t="n">
         <v>2</v>
       </c>
-      <c r="G122" t="inlineStr"/>
+      <c r="G122" t="n">
+        <v>6</v>
+      </c>
       <c r="H122" t="n">
         <v>10</v>
       </c>
@@ -27541,7 +27599,7 @@
         <v>26</v>
       </c>
       <c r="AB122" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="123">
@@ -27559,7 +27617,9 @@
       <c r="F123" t="n">
         <v>2</v>
       </c>
-      <c r="G123" t="inlineStr"/>
+      <c r="G123" t="n">
+        <v>5</v>
+      </c>
       <c r="H123" t="n">
         <v>9</v>
       </c>
@@ -27607,7 +27667,7 @@
         <v>28</v>
       </c>
       <c r="AB123" t="n">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="124">
@@ -27629,7 +27689,9 @@
       <c r="F124" t="n">
         <v>2</v>
       </c>
-      <c r="G124" t="inlineStr"/>
+      <c r="G124" t="n">
+        <v>5</v>
+      </c>
       <c r="H124" t="n">
         <v>8</v>
       </c>
@@ -27685,7 +27747,7 @@
         <v>23</v>
       </c>
       <c r="AB124" t="n">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="125">
@@ -27782,7 +27844,7 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H126" t="n">
         <v>7</v>
@@ -27839,7 +27901,7 @@
         <v>18</v>
       </c>
       <c r="AB126" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="127">
@@ -27862,7 +27924,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H127" t="n">
         <v>7</v>
@@ -27917,7 +27979,7 @@
         <v>20</v>
       </c>
       <c r="AB127" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="128">
@@ -27938,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H128" t="n">
         <v>7</v>
@@ -27995,7 +28057,7 @@
         <v>15</v>
       </c>
       <c r="AB128" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="129">
@@ -28014,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H129" t="n">
         <v>5</v>
@@ -28061,7 +28123,7 @@
         <v>12</v>
       </c>
       <c r="AB129" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="130">
@@ -28080,7 +28142,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H130" t="n">
         <v>5</v>
@@ -28127,7 +28189,7 @@
         <v>11</v>
       </c>
       <c r="AB130" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="131">
@@ -28146,7 +28208,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H131" t="n">
         <v>5</v>
@@ -28193,7 +28255,7 @@
         <v>11</v>
       </c>
       <c r="AB131" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="132">
@@ -28216,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H132" t="n">
         <v>5</v>
@@ -28271,7 +28333,7 @@
         <v>11</v>
       </c>
       <c r="AB132" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="133">
@@ -28291,7 +28353,9 @@
       <c r="F133" t="n">
         <v>0</v>
       </c>
-      <c r="G133" t="inlineStr"/>
+      <c r="G133" t="n">
+        <v>6</v>
+      </c>
       <c r="H133" t="n">
         <v>5</v>
       </c>
@@ -28347,7 +28411,7 @@
         <v>9</v>
       </c>
       <c r="AB133" t="n">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="134">
@@ -28369,7 +28433,9 @@
       <c r="F134" t="n">
         <v>0</v>
       </c>
-      <c r="G134" t="inlineStr"/>
+      <c r="G134" t="n">
+        <v>6</v>
+      </c>
       <c r="H134" t="n">
         <v>4</v>
       </c>
@@ -28421,7 +28487,7 @@
         <v>9</v>
       </c>
       <c r="AB134" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="135">
@@ -28442,7 +28508,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H135" t="n">
         <v>5</v>
@@ -28495,7 +28561,7 @@
         <v>8</v>
       </c>
       <c r="AB135" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="136">
@@ -28513,7 +28579,9 @@
       <c r="F136" t="n">
         <v>0</v>
       </c>
-      <c r="G136" t="inlineStr"/>
+      <c r="G136" t="n">
+        <v>5</v>
+      </c>
       <c r="H136" t="n">
         <v>5</v>
       </c>
@@ -28557,7 +28625,7 @@
         <v>7</v>
       </c>
       <c r="AB136" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="137">
@@ -28575,7 +28643,9 @@
       <c r="F137" t="n">
         <v>0</v>
       </c>
-      <c r="G137" t="inlineStr"/>
+      <c r="G137" t="n">
+        <v>4</v>
+      </c>
       <c r="H137" t="n">
         <v>5</v>
       </c>
@@ -28619,7 +28689,7 @@
         <v>7</v>
       </c>
       <c r="AB137" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="138">
@@ -28641,7 +28711,9 @@
       <c r="F138" t="n">
         <v>0</v>
       </c>
-      <c r="G138" t="inlineStr"/>
+      <c r="G138" t="n">
+        <v>4</v>
+      </c>
       <c r="H138" t="n">
         <v>5</v>
       </c>
@@ -28697,7 +28769,7 @@
         <v>7</v>
       </c>
       <c r="AB138" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="139">
@@ -28716,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H139" t="n">
         <v>4</v>
@@ -28767,7 +28839,7 @@
         <v>6</v>
       </c>
       <c r="AB139" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="140">
@@ -28785,7 +28857,9 @@
       <c r="F140" t="n">
         <v>0</v>
       </c>
-      <c r="G140" t="inlineStr"/>
+      <c r="G140" t="n">
+        <v>4</v>
+      </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
@@ -28827,7 +28901,7 @@
         <v>7</v>
       </c>
       <c r="AB140" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="141">
@@ -28847,7 +28921,9 @@
       <c r="F141" t="n">
         <v>0</v>
       </c>
-      <c r="G141" t="inlineStr"/>
+      <c r="G141" t="n">
+        <v>3</v>
+      </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
@@ -28883,7 +28959,7 @@
         <v>8</v>
       </c>
       <c r="AB141" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="142">
@@ -28903,7 +28979,9 @@
       <c r="F142" t="n">
         <v>0</v>
       </c>
-      <c r="G142" t="inlineStr"/>
+      <c r="G142" t="n">
+        <v>3</v>
+      </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
@@ -28937,7 +29015,7 @@
         <v>9</v>
       </c>
       <c r="AB142" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="143">
@@ -28972,7 +29050,9 @@
       <c r="U143" t="n">
         <v>1</v>
       </c>
-      <c r="V143" t="inlineStr"/>
+      <c r="V143" t="n">
+        <v>9</v>
+      </c>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
       <c r="Y143" t="inlineStr"/>
@@ -28981,7 +29061,7 @@
       </c>
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="144">
@@ -29016,7 +29096,9 @@
       <c r="U144" t="n">
         <v>1</v>
       </c>
-      <c r="V144" t="inlineStr"/>
+      <c r="V144" t="n">
+        <v>8</v>
+      </c>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
       <c r="Y144" t="inlineStr"/>
@@ -29025,7 +29107,7 @@
       </c>
       <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="145">
@@ -29037,14 +29119,18 @@
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="n">
         <v>3</v>
       </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
@@ -29058,7 +29144,9 @@
       <c r="U145" t="n">
         <v>1</v>
       </c>
-      <c r="V145" t="inlineStr"/>
+      <c r="V145" t="n">
+        <v>6</v>
+      </c>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
       <c r="Y145" t="inlineStr"/>
@@ -29067,7 +29155,7 @@
       </c>
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="n">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -33414,7 +33502,9 @@
       <c r="F87" t="n">
         <v>7</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>8</v>
+      </c>
       <c r="H87" t="n">
         <v>11</v>
       </c>
@@ -33462,7 +33552,7 @@
       </c>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="88">
@@ -33480,7 +33570,9 @@
       <c r="F88" t="n">
         <v>7</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>7</v>
+      </c>
       <c r="H88" t="n">
         <v>12</v>
       </c>
@@ -33548,7 +33640,9 @@
       <c r="F89" t="n">
         <v>6</v>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>8</v>
+      </c>
       <c r="H89" t="n">
         <v>11</v>
       </c>
@@ -33596,7 +33690,7 @@
       </c>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90">
@@ -33894,7 +33988,9 @@
       <c r="F94" t="n">
         <v>1</v>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>7</v>
+      </c>
       <c r="H94" t="n">
         <v>7</v>
       </c>
@@ -33958,7 +34054,9 @@
       <c r="F95" t="n">
         <v>0</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>8</v>
+      </c>
       <c r="H95" t="n">
         <v>5</v>
       </c>
@@ -34006,7 +34104,7 @@
       </c>
       <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96">
@@ -34028,7 +34126,9 @@
       <c r="F96" t="n">
         <v>1</v>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>7</v>
+      </c>
       <c r="H96" t="n">
         <v>5</v>
       </c>
@@ -34314,7 +34414,9 @@
       <c r="F100" t="n">
         <v>1</v>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>6</v>
+      </c>
       <c r="H100" t="n">
         <v>5</v>
       </c>
@@ -34362,7 +34464,7 @@
       </c>
       <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101">
@@ -34382,7 +34484,9 @@
       <c r="F101" t="n">
         <v>2</v>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>5</v>
+      </c>
       <c r="H101" t="n">
         <v>4</v>
       </c>
@@ -34428,7 +34532,7 @@
       </c>
       <c r="AA101" t="inlineStr"/>
       <c r="AB101" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102">
@@ -34448,7 +34552,9 @@
       <c r="F102" t="n">
         <v>1</v>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>5</v>
+      </c>
       <c r="H102" t="n">
         <v>4</v>
       </c>
@@ -34494,7 +34600,7 @@
       </c>
       <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103">
@@ -34516,7 +34622,9 @@
       <c r="F103" t="n">
         <v>1</v>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>4</v>
+      </c>
       <c r="H103" t="n">
         <v>4</v>
       </c>
@@ -34564,7 +34672,7 @@
       </c>
       <c r="AA103" t="inlineStr"/>
       <c r="AB103" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104">
@@ -34864,7 +34972,9 @@
       <c r="F108" t="n">
         <v>1</v>
       </c>
-      <c r="G108" t="inlineStr"/>
+      <c r="G108" t="n">
+        <v>3</v>
+      </c>
       <c r="H108" t="n">
         <v>5</v>
       </c>
@@ -34908,7 +35018,7 @@
       </c>
       <c r="AA108" t="inlineStr"/>
       <c r="AB108" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109">
@@ -34926,7 +35036,9 @@
       <c r="F109" t="n">
         <v>1</v>
       </c>
-      <c r="G109" t="inlineStr"/>
+      <c r="G109" t="n">
+        <v>3</v>
+      </c>
       <c r="H109" t="n">
         <v>4</v>
       </c>
@@ -34970,7 +35082,7 @@
       </c>
       <c r="AA109" t="inlineStr"/>
       <c r="AB109" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="110">
@@ -34992,7 +35104,9 @@
       <c r="F110" t="n">
         <v>1</v>
       </c>
-      <c r="G110" t="inlineStr"/>
+      <c r="G110" t="n">
+        <v>3</v>
+      </c>
       <c r="H110" t="n">
         <v>5</v>
       </c>
@@ -35040,7 +35154,7 @@
       </c>
       <c r="AA110" t="inlineStr"/>
       <c r="AB110" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="111">
@@ -35130,7 +35244,9 @@
       <c r="F112" t="n">
         <v>1</v>
       </c>
-      <c r="G112" t="inlineStr"/>
+      <c r="G112" t="n">
+        <v>3</v>
+      </c>
       <c r="H112" t="n">
         <v>5</v>
       </c>
@@ -35198,7 +35314,9 @@
       <c r="F113" t="n">
         <v>1</v>
       </c>
-      <c r="G113" t="inlineStr"/>
+      <c r="G113" t="n">
+        <v>3</v>
+      </c>
       <c r="H113" t="n">
         <v>5</v>
       </c>
@@ -35334,7 +35452,9 @@
       <c r="F115" t="n">
         <v>1</v>
       </c>
-      <c r="G115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>3</v>
+      </c>
       <c r="H115" t="n">
         <v>5</v>
       </c>
@@ -35394,7 +35514,9 @@
       <c r="F116" t="n">
         <v>1</v>
       </c>
-      <c r="G116" t="inlineStr"/>
+      <c r="G116" t="n">
+        <v>3</v>
+      </c>
       <c r="H116" t="n">
         <v>4</v>
       </c>
@@ -35458,7 +35580,9 @@
       <c r="F117" t="n">
         <v>0</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>3</v>
+      </c>
       <c r="H117" t="n">
         <v>4</v>
       </c>
@@ -35786,7 +35910,9 @@
       <c r="F122" t="n">
         <v>0</v>
       </c>
-      <c r="G122" t="inlineStr"/>
+      <c r="G122" t="n">
+        <v>3</v>
+      </c>
       <c r="H122" t="n">
         <v>3</v>
       </c>
@@ -35846,7 +35972,9 @@
       <c r="F123" t="n">
         <v>0</v>
       </c>
-      <c r="G123" t="inlineStr"/>
+      <c r="G123" t="n">
+        <v>2</v>
+      </c>
       <c r="H123" t="n">
         <v>3</v>
       </c>
@@ -35888,7 +36016,7 @@
       </c>
       <c r="AA123" t="inlineStr"/>
       <c r="AB123" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124">
@@ -35910,7 +36038,9 @@
       <c r="F124" t="n">
         <v>0</v>
       </c>
-      <c r="G124" t="inlineStr"/>
+      <c r="G124" t="n">
+        <v>2</v>
+      </c>
       <c r="H124" t="n">
         <v>3</v>
       </c>
@@ -35956,7 +36086,7 @@
       </c>
       <c r="AA124" t="inlineStr"/>
       <c r="AB124" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125">
@@ -36042,7 +36172,9 @@
       <c r="F126" t="n">
         <v>0</v>
       </c>
-      <c r="G126" t="inlineStr"/>
+      <c r="G126" t="n">
+        <v>2</v>
+      </c>
       <c r="H126" t="n">
         <v>3</v>
       </c>
@@ -36110,7 +36242,9 @@
       <c r="F127" t="n">
         <v>0</v>
       </c>
-      <c r="G127" t="inlineStr"/>
+      <c r="G127" t="n">
+        <v>2</v>
+      </c>
       <c r="H127" t="n">
         <v>3</v>
       </c>
@@ -36174,7 +36308,9 @@
       <c r="F128" t="n">
         <v>0</v>
       </c>
-      <c r="G128" t="inlineStr"/>
+      <c r="G128" t="n">
+        <v>2</v>
+      </c>
       <c r="H128" t="n">
         <v>3</v>
       </c>
@@ -36238,7 +36374,9 @@
       <c r="F129" t="n">
         <v>0</v>
       </c>
-      <c r="G129" t="inlineStr"/>
+      <c r="G129" t="n">
+        <v>3</v>
+      </c>
       <c r="H129" t="n">
         <v>3</v>
       </c>
@@ -36280,7 +36418,7 @@
       </c>
       <c r="AA129" t="inlineStr"/>
       <c r="AB129" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130">
@@ -36298,7 +36436,9 @@
       <c r="F130" t="n">
         <v>0</v>
       </c>
-      <c r="G130" t="inlineStr"/>
+      <c r="G130" t="n">
+        <v>3</v>
+      </c>
       <c r="H130" t="n">
         <v>3</v>
       </c>
@@ -36340,7 +36480,7 @@
       </c>
       <c r="AA130" t="inlineStr"/>
       <c r="AB130" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131">
@@ -36358,7 +36498,9 @@
       <c r="F131" t="n">
         <v>0</v>
       </c>
-      <c r="G131" t="inlineStr"/>
+      <c r="G131" t="n">
+        <v>3</v>
+      </c>
       <c r="H131" t="n">
         <v>3</v>
       </c>
@@ -36400,7 +36542,7 @@
       </c>
       <c r="AA131" t="inlineStr"/>
       <c r="AB131" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132">
@@ -36422,7 +36564,9 @@
       <c r="F132" t="n">
         <v>0</v>
       </c>
-      <c r="G132" t="inlineStr"/>
+      <c r="G132" t="n">
+        <v>3</v>
+      </c>
       <c r="H132" t="n">
         <v>3</v>
       </c>
@@ -36466,7 +36610,7 @@
       </c>
       <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133">
@@ -36486,7 +36630,9 @@
       <c r="F133" t="n">
         <v>0</v>
       </c>
-      <c r="G133" t="inlineStr"/>
+      <c r="G133" t="n">
+        <v>3</v>
+      </c>
       <c r="H133" t="n">
         <v>3</v>
       </c>
@@ -36534,7 +36680,7 @@
       </c>
       <c r="AA133" t="inlineStr"/>
       <c r="AB133" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134">
@@ -36556,7 +36702,9 @@
       <c r="F134" t="n">
         <v>0</v>
       </c>
-      <c r="G134" t="inlineStr"/>
+      <c r="G134" t="n">
+        <v>3</v>
+      </c>
       <c r="H134" t="n">
         <v>3</v>
       </c>
@@ -36600,7 +36748,7 @@
       </c>
       <c r="AA134" t="inlineStr"/>
       <c r="AB134" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135">
@@ -36620,7 +36768,9 @@
       <c r="F135" t="n">
         <v>0</v>
       </c>
-      <c r="G135" t="inlineStr"/>
+      <c r="G135" t="n">
+        <v>3</v>
+      </c>
       <c r="H135" t="n">
         <v>2</v>
       </c>
@@ -36664,7 +36814,7 @@
       </c>
       <c r="AA135" t="inlineStr"/>
       <c r="AB135" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136">
@@ -36682,7 +36832,9 @@
       <c r="F136" t="n">
         <v>0</v>
       </c>
-      <c r="G136" t="inlineStr"/>
+      <c r="G136" t="n">
+        <v>3</v>
+      </c>
       <c r="H136" t="n">
         <v>2</v>
       </c>
@@ -36722,7 +36874,7 @@
       </c>
       <c r="AA136" t="inlineStr"/>
       <c r="AB136" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137">
@@ -36740,7 +36892,9 @@
       <c r="F137" t="n">
         <v>0</v>
       </c>
-      <c r="G137" t="inlineStr"/>
+      <c r="G137" t="n">
+        <v>3</v>
+      </c>
       <c r="H137" t="n">
         <v>2</v>
       </c>
@@ -36780,7 +36934,7 @@
       </c>
       <c r="AA137" t="inlineStr"/>
       <c r="AB137" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138">
@@ -36802,7 +36956,9 @@
       <c r="F138" t="n">
         <v>0</v>
       </c>
-      <c r="G138" t="inlineStr"/>
+      <c r="G138" t="n">
+        <v>3</v>
+      </c>
       <c r="H138" t="n">
         <v>2</v>
       </c>
@@ -36850,7 +37006,7 @@
       </c>
       <c r="AA138" t="inlineStr"/>
       <c r="AB138" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139">
@@ -36868,7 +37024,9 @@
       <c r="F139" t="n">
         <v>0</v>
       </c>
-      <c r="G139" t="inlineStr"/>
+      <c r="G139" t="n">
+        <v>3</v>
+      </c>
       <c r="H139" t="n">
         <v>1</v>
       </c>
@@ -36910,7 +37068,7 @@
       </c>
       <c r="AA139" t="inlineStr"/>
       <c r="AB139" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140">
@@ -36928,7 +37086,9 @@
       <c r="F140" t="n">
         <v>0</v>
       </c>
-      <c r="G140" t="inlineStr"/>
+      <c r="G140" t="n">
+        <v>3</v>
+      </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -36964,7 +37124,7 @@
       </c>
       <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141">
@@ -36984,7 +37144,9 @@
       <c r="F141" t="n">
         <v>0</v>
       </c>
-      <c r="G141" t="inlineStr"/>
+      <c r="G141" t="n">
+        <v>2</v>
+      </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -37036,7 +37198,9 @@
       <c r="F142" t="n">
         <v>0</v>
       </c>
-      <c r="G142" t="inlineStr"/>
+      <c r="G142" t="n">
+        <v>2</v>
+      </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -37101,7 +37265,9 @@
       <c r="U143" t="n">
         <v>0</v>
       </c>
-      <c r="V143" t="inlineStr"/>
+      <c r="V143" t="n">
+        <v>0</v>
+      </c>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
       <c r="Y143" t="inlineStr"/>
@@ -37145,7 +37311,9 @@
       <c r="U144" t="n">
         <v>0</v>
       </c>
-      <c r="V144" t="inlineStr"/>
+      <c r="V144" t="n">
+        <v>0</v>
+      </c>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
       <c r="Y144" t="inlineStr"/>
@@ -37166,7 +37334,9 @@
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="n">
         <v>2</v>
@@ -37187,7 +37357,9 @@
       <c r="U145" t="n">
         <v>0</v>
       </c>
-      <c r="V145" t="inlineStr"/>
+      <c r="V145" t="n">
+        <v>0</v>
+      </c>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
       <c r="Y145" t="inlineStr"/>
@@ -43882,7 +44054,9 @@
       <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
+      <c r="V143" t="n">
+        <v>0</v>
+      </c>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
       <c r="Y143" t="inlineStr"/>
@@ -43922,7 +44096,9 @@
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
+      <c r="V144" t="n">
+        <v>0</v>
+      </c>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
       <c r="Y144" t="inlineStr"/>
@@ -43941,7 +44117,9 @@
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
@@ -43958,7 +44136,9 @@
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr"/>
-      <c r="V145" t="inlineStr"/>
+      <c r="V145" t="n">
+        <v>0</v>
+      </c>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
       <c r="Y145" t="inlineStr"/>
@@ -50989,7 +51169,9 @@
         <v>284</v>
       </c>
       <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
+      <c r="V143" t="n">
+        <v>907</v>
+      </c>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
       <c r="Y143" t="inlineStr"/>
@@ -51033,7 +51215,9 @@
         <v>284</v>
       </c>
       <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
+      <c r="V144" t="n">
+        <v>908</v>
+      </c>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
       <c r="Y144" t="inlineStr"/>
@@ -51042,7 +51226,7 @@
       </c>
       <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="n">
-        <v>5844</v>
+        <v>5845</v>
       </c>
     </row>
     <row r="145">
@@ -51075,7 +51259,9 @@
         <v>284</v>
       </c>
       <c r="U145" t="inlineStr"/>
-      <c r="V145" t="inlineStr"/>
+      <c r="V145" t="n">
+        <v>908</v>
+      </c>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
       <c r="Y145" t="inlineStr"/>
@@ -51084,7 +51270,7 @@
       </c>
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="n">
-        <v>5847</v>
+        <v>5848</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -7869,7 +7869,7 @@
         <v>971</v>
       </c>
       <c r="H113" t="n">
-        <v>1143</v>
+        <v>1181</v>
       </c>
       <c r="I113" t="n">
         <v>5110</v>
@@ -7929,7 +7929,7 @@
         <v>3563</v>
       </c>
       <c r="AB113" t="n">
-        <v>30430</v>
+        <v>30468</v>
       </c>
     </row>
     <row r="114">
@@ -10034,7 +10034,9 @@
       <c r="G140" t="n">
         <v>983</v>
       </c>
-      <c r="H140" t="inlineStr"/>
+      <c r="H140" t="n">
+        <v>1174</v>
+      </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
         <v>128</v>
@@ -10079,7 +10081,7 @@
         <v>3643</v>
       </c>
       <c r="AB140" t="n">
-        <v>30984</v>
+        <v>30986</v>
       </c>
     </row>
     <row r="141">
@@ -10102,7 +10104,9 @@
       <c r="G141" t="n">
         <v>983</v>
       </c>
-      <c r="H141" t="inlineStr"/>
+      <c r="H141" t="n">
+        <v>1175</v>
+      </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
         <v>128</v>
@@ -10141,7 +10145,7 @@
         <v>3645</v>
       </c>
       <c r="AB141" t="n">
-        <v>30997</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="142">
@@ -10166,7 +10170,9 @@
       <c r="G142" t="n">
         <v>983</v>
       </c>
-      <c r="H142" t="inlineStr"/>
+      <c r="H142" t="n">
+        <v>1175</v>
+      </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
         <v>128</v>
@@ -10201,7 +10207,7 @@
         <v>3647</v>
       </c>
       <c r="AB142" t="n">
-        <v>31006</v>
+        <v>31009</v>
       </c>
     </row>
     <row r="143">
@@ -10222,7 +10228,9 @@
       <c r="G143" t="n">
         <v>983</v>
       </c>
-      <c r="H143" t="inlineStr"/>
+      <c r="H143" t="n">
+        <v>1179</v>
+      </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -10251,7 +10259,7 @@
       </c>
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="n">
-        <v>31013</v>
+        <v>31020</v>
       </c>
     </row>
     <row r="144">
@@ -10305,7 +10313,7 @@
       </c>
       <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="n">
-        <v>31020</v>
+        <v>31027</v>
       </c>
     </row>
     <row r="145">
@@ -10324,7 +10332,9 @@
       <c r="G145" t="n">
         <v>983</v>
       </c>
-      <c r="H145" t="inlineStr"/>
+      <c r="H145" t="n">
+        <v>1181</v>
+      </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
         <v>128</v>
@@ -10357,7 +10367,7 @@
       </c>
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="n">
-        <v>31025</v>
+        <v>31034</v>
       </c>
     </row>
   </sheetData>
@@ -19659,7 +19669,9 @@
       <c r="G140" t="n">
         <v>50</v>
       </c>
-      <c r="H140" t="inlineStr"/>
+      <c r="H140" t="n">
+        <v>84</v>
+      </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
         <v>12</v>
@@ -19725,7 +19737,9 @@
       <c r="G141" t="n">
         <v>50</v>
       </c>
-      <c r="H141" t="inlineStr"/>
+      <c r="H141" t="n">
+        <v>84</v>
+      </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
         <v>12</v>
@@ -19789,7 +19803,9 @@
       <c r="G142" t="n">
         <v>50</v>
       </c>
-      <c r="H142" t="inlineStr"/>
+      <c r="H142" t="n">
+        <v>84</v>
+      </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
         <v>12</v>
@@ -19845,7 +19861,9 @@
       <c r="G143" t="n">
         <v>50</v>
       </c>
-      <c r="H143" t="inlineStr"/>
+      <c r="H143" t="n">
+        <v>84</v>
+      </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -19947,7 +19965,9 @@
       <c r="G145" t="n">
         <v>50</v>
       </c>
-      <c r="H145" t="inlineStr"/>
+      <c r="H145" t="n">
+        <v>84</v>
+      </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
         <v>12</v>
@@ -26877,7 +26897,7 @@
         <v>11</v>
       </c>
       <c r="H113" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I113" t="n">
         <v>175</v>
@@ -26933,7 +26953,7 @@
         <v>36</v>
       </c>
       <c r="AB113" t="n">
-        <v>544</v>
+        <v>527</v>
       </c>
     </row>
     <row r="114">
@@ -28860,7 +28880,9 @@
       <c r="G140" t="n">
         <v>4</v>
       </c>
-      <c r="H140" t="inlineStr"/>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
         <v>0</v>
@@ -28924,7 +28946,9 @@
       <c r="G141" t="n">
         <v>3</v>
       </c>
-      <c r="H141" t="inlineStr"/>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
         <v>0</v>
@@ -28959,7 +28983,7 @@
         <v>8</v>
       </c>
       <c r="AB141" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="142">
@@ -28982,7 +29006,9 @@
       <c r="G142" t="n">
         <v>3</v>
       </c>
-      <c r="H142" t="inlineStr"/>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
         <v>0</v>
@@ -29034,7 +29060,9 @@
         <v>0</v>
       </c>
       <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -29061,7 +29089,7 @@
       </c>
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="144">
@@ -29085,7 +29113,9 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>8</v>
+      </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
@@ -29107,7 +29137,7 @@
       </c>
       <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="145">
@@ -29126,7 +29156,9 @@
       <c r="G145" t="n">
         <v>3</v>
       </c>
-      <c r="H145" t="inlineStr"/>
+      <c r="H145" t="n">
+        <v>3</v>
+      </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
         <v>0</v>
@@ -29155,7 +29187,7 @@
       </c>
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -35318,7 +35350,7 @@
         <v>3</v>
       </c>
       <c r="H113" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>6</v>
@@ -35362,7 +35394,7 @@
       </c>
       <c r="AA113" t="inlineStr"/>
       <c r="AB113" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114">
@@ -37089,7 +37121,9 @@
       <c r="G140" t="n">
         <v>3</v>
       </c>
-      <c r="H140" t="inlineStr"/>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -37147,7 +37181,9 @@
       <c r="G141" t="n">
         <v>2</v>
       </c>
-      <c r="H141" t="inlineStr"/>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -37201,7 +37237,9 @@
       <c r="G142" t="n">
         <v>2</v>
       </c>
-      <c r="H142" t="inlineStr"/>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -37249,7 +37287,9 @@
         <v>0</v>
       </c>
       <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -37300,7 +37340,9 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>2</v>
+      </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
@@ -37341,7 +37383,9 @@
       <c r="G145" t="n">
         <v>2</v>
       </c>
-      <c r="H145" t="inlineStr"/>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -49556,7 +49600,7 @@
         <v>895</v>
       </c>
       <c r="H113" t="n">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="I113" t="n">
         <v>734</v>
@@ -49590,7 +49634,7 @@
       </c>
       <c r="AA113" t="inlineStr"/>
       <c r="AB113" t="n">
-        <v>5480</v>
+        <v>5488</v>
       </c>
     </row>
     <row r="114">
@@ -51013,7 +51057,9 @@
       <c r="G140" t="n">
         <v>928</v>
       </c>
-      <c r="H140" t="inlineStr"/>
+      <c r="H140" t="n">
+        <v>150</v>
+      </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -51061,7 +51107,9 @@
       <c r="G141" t="n">
         <v>929</v>
       </c>
-      <c r="H141" t="inlineStr"/>
+      <c r="H141" t="n">
+        <v>150</v>
+      </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -51107,7 +51155,9 @@
       <c r="G142" t="n">
         <v>930</v>
       </c>
-      <c r="H142" t="inlineStr"/>
+      <c r="H142" t="n">
+        <v>150</v>
+      </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -51153,7 +51203,9 @@
       <c r="G143" t="n">
         <v>931</v>
       </c>
-      <c r="H143" t="inlineStr"/>
+      <c r="H143" t="n">
+        <v>150</v>
+      </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -51243,7 +51295,9 @@
       <c r="G145" t="n">
         <v>932</v>
       </c>
-      <c r="H145" t="inlineStr"/>
+      <c r="H145" t="n">
+        <v>150</v>
+      </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10324,11 +10324,15 @@
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>100</v>
+      </c>
       <c r="E145" t="n">
         <v>1934</v>
       </c>
-      <c r="F145" t="inlineStr"/>
+      <c r="F145" t="n">
+        <v>846</v>
+      </c>
       <c r="G145" t="n">
         <v>983</v>
       </c>
@@ -19957,11 +19961,15 @@
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>3</v>
+      </c>
       <c r="E145" t="n">
         <v>97</v>
       </c>
-      <c r="F145" t="inlineStr"/>
+      <c r="F145" t="n">
+        <v>35</v>
+      </c>
       <c r="G145" t="n">
         <v>50</v>
       </c>
@@ -29059,7 +29067,9 @@
       <c r="F143" t="n">
         <v>0</v>
       </c>
-      <c r="G143" t="inlineStr"/>
+      <c r="G143" t="n">
+        <v>3</v>
+      </c>
       <c r="H143" t="n">
         <v>3</v>
       </c>
@@ -29107,7 +29117,9 @@
       <c r="F144" t="n">
         <v>0</v>
       </c>
-      <c r="G144" t="inlineStr"/>
+      <c r="G144" t="n">
+        <v>3</v>
+      </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -29148,11 +29160,15 @@
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>1</v>
+      </c>
       <c r="E145" t="n">
         <v>1</v>
       </c>
-      <c r="F145" t="inlineStr"/>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
       <c r="G145" t="n">
         <v>3</v>
       </c>
@@ -29187,7 +29203,7 @@
       </c>
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -37286,7 +37302,9 @@
       <c r="F143" t="n">
         <v>0</v>
       </c>
-      <c r="G143" t="inlineStr"/>
+      <c r="G143" t="n">
+        <v>2</v>
+      </c>
       <c r="H143" t="n">
         <v>1</v>
       </c>
@@ -37334,7 +37352,9 @@
       <c r="F144" t="n">
         <v>0</v>
       </c>
-      <c r="G144" t="inlineStr"/>
+      <c r="G144" t="n">
+        <v>2</v>
+      </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -37375,11 +37395,15 @@
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
-      <c r="F145" t="inlineStr"/>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
       <c r="G145" t="n">
         <v>2</v>
       </c>
@@ -44164,7 +44188,9 @@
       <c r="E145" t="n">
         <v>0</v>
       </c>
-      <c r="F145" t="inlineStr"/>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
@@ -51291,7 +51317,9 @@
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
+      <c r="F145" t="n">
+        <v>809</v>
+      </c>
       <c r="G145" t="n">
         <v>932</v>
       </c>
@@ -51324,7 +51352,7 @@
       </c>
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="n">
-        <v>5848</v>
+        <v>5849</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10049,7 +10049,9 @@
       <c r="N140" t="n">
         <v>735</v>
       </c>
-      <c r="O140" t="inlineStr"/>
+      <c r="O140" t="n">
+        <v>124</v>
+      </c>
       <c r="P140" t="n">
         <v>82</v>
       </c>
@@ -10117,7 +10119,9 @@
         <v>736</v>
       </c>
       <c r="N141" t="inlineStr"/>
-      <c r="O141" t="inlineStr"/>
+      <c r="O141" t="n">
+        <v>124</v>
+      </c>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="n">
@@ -10181,7 +10185,9 @@
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr"/>
-      <c r="O142" t="inlineStr"/>
+      <c r="O142" t="n">
+        <v>124</v>
+      </c>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="n">
@@ -10237,7 +10243,9 @@
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr"/>
+      <c r="O143" t="n">
+        <v>124</v>
+      </c>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
@@ -10257,9 +10265,11 @@
       <c r="Z143" t="n">
         <v>211</v>
       </c>
-      <c r="AA143" t="inlineStr"/>
+      <c r="AA143" t="n">
+        <v>3650</v>
+      </c>
       <c r="AB143" t="n">
-        <v>31020</v>
+        <v>31023</v>
       </c>
     </row>
     <row r="144">
@@ -10289,7 +10299,9 @@
         <v>738</v>
       </c>
       <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
+      <c r="O144" t="n">
+        <v>124</v>
+      </c>
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
@@ -10311,9 +10323,11 @@
       <c r="Z144" t="n">
         <v>211</v>
       </c>
-      <c r="AA144" t="inlineStr"/>
+      <c r="AA144" t="n">
+        <v>3655</v>
+      </c>
       <c r="AB144" t="n">
-        <v>31027</v>
+        <v>31035</v>
       </c>
     </row>
     <row r="145">
@@ -10347,8 +10361,12 @@
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
+      <c r="O145" t="n">
+        <v>124</v>
+      </c>
+      <c r="P145" t="n">
+        <v>82</v>
+      </c>
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="n">
         <v>81</v>
@@ -10369,9 +10387,11 @@
       <c r="Z145" t="n">
         <v>213</v>
       </c>
-      <c r="AA145" t="inlineStr"/>
+      <c r="AA145" t="n">
+        <v>3662</v>
+      </c>
       <c r="AB145" t="n">
-        <v>31034</v>
+        <v>31049</v>
       </c>
     </row>
   </sheetData>
@@ -19686,7 +19706,9 @@
         <v>20</v>
       </c>
       <c r="N140" t="inlineStr"/>
-      <c r="O140" t="inlineStr"/>
+      <c r="O140" t="n">
+        <v>3</v>
+      </c>
       <c r="P140" t="n">
         <v>0</v>
       </c>
@@ -19754,7 +19776,9 @@
         <v>20</v>
       </c>
       <c r="N141" t="inlineStr"/>
-      <c r="O141" t="inlineStr"/>
+      <c r="O141" t="n">
+        <v>3</v>
+      </c>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="n">
@@ -19818,7 +19842,9 @@
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr"/>
-      <c r="O142" t="inlineStr"/>
+      <c r="O142" t="n">
+        <v>3</v>
+      </c>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="n">
@@ -19874,7 +19900,9 @@
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr"/>
+      <c r="O143" t="n">
+        <v>3</v>
+      </c>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
@@ -19894,7 +19922,9 @@
       <c r="Z143" t="n">
         <v>9</v>
       </c>
-      <c r="AA143" t="inlineStr"/>
+      <c r="AA143" t="n">
+        <v>130</v>
+      </c>
       <c r="AB143" t="n">
         <v>1938</v>
       </c>
@@ -19926,7 +19956,9 @@
         <v>20</v>
       </c>
       <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
+      <c r="O144" t="n">
+        <v>3</v>
+      </c>
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
@@ -19948,7 +19980,9 @@
       <c r="Z144" t="n">
         <v>9</v>
       </c>
-      <c r="AA144" t="inlineStr"/>
+      <c r="AA144" t="n">
+        <v>130</v>
+      </c>
       <c r="AB144" t="n">
         <v>1938</v>
       </c>
@@ -19984,8 +20018,12 @@
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
+      <c r="O145" t="n">
+        <v>3</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="n">
         <v>7</v>
@@ -20006,7 +20044,9 @@
       <c r="Z145" t="n">
         <v>9</v>
       </c>
-      <c r="AA145" t="inlineStr"/>
+      <c r="AA145" t="n">
+        <v>130</v>
+      </c>
       <c r="AB145" t="n">
         <v>1938</v>
       </c>
@@ -28903,7 +28943,9 @@
       <c r="N140" t="n">
         <v>2</v>
       </c>
-      <c r="O140" t="inlineStr"/>
+      <c r="O140" t="n">
+        <v>0</v>
+      </c>
       <c r="P140" t="n">
         <v>0</v>
       </c>
@@ -28967,7 +29009,9 @@
       <c r="N141" t="n">
         <v>2</v>
       </c>
-      <c r="O141" t="inlineStr"/>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="inlineStr"/>
@@ -29027,7 +29071,9 @@
       <c r="N142" t="n">
         <v>3</v>
       </c>
-      <c r="O142" t="inlineStr"/>
+      <c r="O142" t="n">
+        <v>0</v>
+      </c>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="inlineStr"/>
@@ -29079,7 +29125,9 @@
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr"/>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
@@ -29097,9 +29145,11 @@
       <c r="Z143" t="n">
         <v>1</v>
       </c>
-      <c r="AA143" t="inlineStr"/>
+      <c r="AA143" t="n">
+        <v>8</v>
+      </c>
       <c r="AB143" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="144">
@@ -29129,7 +29179,9 @@
         <v>8</v>
       </c>
       <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
@@ -29147,7 +29199,9 @@
       <c r="Z144" t="n">
         <v>1</v>
       </c>
-      <c r="AA144" t="inlineStr"/>
+      <c r="AA144" t="n">
+        <v>9</v>
+      </c>
       <c r="AB144" t="n">
         <v>224</v>
       </c>
@@ -29183,8 +29237,12 @@
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="inlineStr"/>
       <c r="S145" t="inlineStr"/>
@@ -29201,7 +29259,9 @@
       <c r="Z145" t="n">
         <v>1</v>
       </c>
-      <c r="AA145" t="inlineStr"/>
+      <c r="AA145" t="n">
+        <v>9</v>
+      </c>
       <c r="AB145" t="n">
         <v>223</v>
       </c>
@@ -37150,7 +37210,9 @@
       <c r="N140" t="n">
         <v>0</v>
       </c>
-      <c r="O140" t="inlineStr"/>
+      <c r="O140" t="n">
+        <v>0</v>
+      </c>
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="n">
@@ -37208,7 +37270,9 @@
       <c r="N141" t="n">
         <v>1</v>
       </c>
-      <c r="O141" t="inlineStr"/>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="inlineStr"/>
@@ -37264,7 +37328,9 @@
       <c r="N142" t="n">
         <v>0</v>
       </c>
-      <c r="O142" t="inlineStr"/>
+      <c r="O142" t="n">
+        <v>0</v>
+      </c>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="inlineStr"/>
@@ -37314,7 +37380,9 @@
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr"/>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
@@ -37364,7 +37432,9 @@
         <v>2</v>
       </c>
       <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
@@ -37416,7 +37486,9 @@
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr"/>
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="inlineStr"/>
@@ -44129,7 +44201,9 @@
       <c r="X143" t="inlineStr"/>
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr"/>
-      <c r="AA143" t="inlineStr"/>
+      <c r="AA143" t="n">
+        <v>0</v>
+      </c>
       <c r="AB143" t="n">
         <v>5</v>
       </c>
@@ -44171,7 +44245,9 @@
       <c r="X144" t="inlineStr"/>
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr"/>
-      <c r="AA144" t="inlineStr"/>
+      <c r="AA144" t="n">
+        <v>0</v>
+      </c>
       <c r="AB144" t="n">
         <v>5</v>
       </c>
@@ -44213,7 +44289,9 @@
       <c r="X145" t="inlineStr"/>
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr"/>
-      <c r="AA145" t="inlineStr"/>
+      <c r="AA145" t="n">
+        <v>0</v>
+      </c>
       <c r="AB145" t="n">
         <v>5</v>
       </c>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -7869,7 +7869,7 @@
         <v>971</v>
       </c>
       <c r="H113" t="n">
-        <v>1181</v>
+        <v>1143</v>
       </c>
       <c r="I113" t="n">
         <v>5110</v>
@@ -7929,7 +7929,7 @@
         <v>3563</v>
       </c>
       <c r="AB113" t="n">
-        <v>30468</v>
+        <v>30430</v>
       </c>
     </row>
     <row r="114">
@@ -10290,7 +10290,9 @@
       <c r="G144" t="n">
         <v>983</v>
       </c>
-      <c r="H144" t="inlineStr"/>
+      <c r="H144" t="n">
+        <v>1181</v>
+      </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -10327,7 +10329,7 @@
         <v>3655</v>
       </c>
       <c r="AB144" t="n">
-        <v>31035</v>
+        <v>31037</v>
       </c>
     </row>
     <row r="145">
@@ -19947,7 +19949,9 @@
       <c r="G144" t="n">
         <v>50</v>
       </c>
-      <c r="H144" t="inlineStr"/>
+      <c r="H144" t="n">
+        <v>84</v>
+      </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -26945,7 +26949,7 @@
         <v>11</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I113" t="n">
         <v>175</v>
@@ -27001,7 +27005,7 @@
         <v>36</v>
       </c>
       <c r="AB113" t="n">
-        <v>527</v>
+        <v>544</v>
       </c>
     </row>
     <row r="114">
@@ -29170,7 +29174,9 @@
       <c r="G144" t="n">
         <v>3</v>
       </c>
-      <c r="H144" t="inlineStr"/>
+      <c r="H144" t="n">
+        <v>3</v>
+      </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -35426,7 +35432,7 @@
         <v>3</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I113" t="n">
         <v>6</v>
@@ -35470,7 +35476,7 @@
       </c>
       <c r="AA113" t="inlineStr"/>
       <c r="AB113" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114">
@@ -37423,7 +37429,9 @@
       <c r="G144" t="n">
         <v>2</v>
       </c>
-      <c r="H144" t="inlineStr"/>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -49704,7 +49712,7 @@
         <v>895</v>
       </c>
       <c r="H113" t="n">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I113" t="n">
         <v>734</v>
@@ -49738,7 +49746,7 @@
       </c>
       <c r="AA113" t="inlineStr"/>
       <c r="AB113" t="n">
-        <v>5488</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="114">
@@ -51355,7 +51363,9 @@
       <c r="G144" t="n">
         <v>932</v>
       </c>
-      <c r="H144" t="inlineStr"/>
+      <c r="H144" t="n">
+        <v>150</v>
+      </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -9366,7 +9366,7 @@
         <v>5445</v>
       </c>
       <c r="Y131" t="n">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="Z131" t="n">
         <v>202</v>
@@ -9375,7 +9375,7 @@
         <v>3617</v>
       </c>
       <c r="AB131" t="n">
-        <v>30846</v>
+        <v>30845</v>
       </c>
     </row>
     <row r="132">
@@ -9450,7 +9450,7 @@
         <v>5449</v>
       </c>
       <c r="Y132" t="n">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="Z132" t="n">
         <v>202</v>
@@ -9459,7 +9459,7 @@
         <v>3619</v>
       </c>
       <c r="AB132" t="n">
-        <v>30867</v>
+        <v>30866</v>
       </c>
     </row>
     <row r="133">
@@ -9536,7 +9536,7 @@
         <v>5451</v>
       </c>
       <c r="Y133" t="n">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="Z133" t="n">
         <v>202</v>
@@ -9545,7 +9545,7 @@
         <v>3622</v>
       </c>
       <c r="AB133" t="n">
-        <v>30884</v>
+        <v>30883</v>
       </c>
     </row>
     <row r="134">
@@ -9618,7 +9618,7 @@
         <v>5454</v>
       </c>
       <c r="Y134" t="n">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="Z134" t="n">
         <v>202</v>
@@ -9627,7 +9627,7 @@
         <v>3630</v>
       </c>
       <c r="AB134" t="n">
-        <v>30908</v>
+        <v>30907</v>
       </c>
     </row>
     <row r="135">
@@ -9700,7 +9700,7 @@
         <v>5456</v>
       </c>
       <c r="Y135" t="n">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="Z135" t="n">
         <v>202</v>
@@ -9709,7 +9709,7 @@
         <v>3636</v>
       </c>
       <c r="AB135" t="n">
-        <v>30929</v>
+        <v>30928</v>
       </c>
     </row>
     <row r="136">
@@ -9768,7 +9768,7 @@
         <v>5458</v>
       </c>
       <c r="Y136" t="n">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="Z136" t="n">
         <v>202</v>
@@ -9777,7 +9777,7 @@
         <v>3640</v>
       </c>
       <c r="AB136" t="n">
-        <v>30940</v>
+        <v>30939</v>
       </c>
     </row>
     <row r="137">
@@ -9838,7 +9838,7 @@
         <v>5459</v>
       </c>
       <c r="Y137" t="n">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="Z137" t="n">
         <v>202</v>
@@ -9847,7 +9847,7 @@
         <v>3640</v>
       </c>
       <c r="AB137" t="n">
-        <v>30947</v>
+        <v>30946</v>
       </c>
     </row>
     <row r="138">
@@ -9920,7 +9920,7 @@
         <v>5460</v>
       </c>
       <c r="Y138" t="n">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="Z138" t="n">
         <v>203</v>
@@ -9929,7 +9929,7 @@
         <v>3640</v>
       </c>
       <c r="AB138" t="n">
-        <v>30965</v>
+        <v>30964</v>
       </c>
     </row>
     <row r="139">
@@ -10000,7 +10000,7 @@
         <v>5463</v>
       </c>
       <c r="Y139" t="n">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="Z139" t="n">
         <v>205</v>
@@ -10009,7 +10009,7 @@
         <v>3640</v>
       </c>
       <c r="AB139" t="n">
-        <v>30975</v>
+        <v>30974</v>
       </c>
     </row>
     <row r="140">
@@ -10075,7 +10075,9 @@
       <c r="X140" t="n">
         <v>5464</v>
       </c>
-      <c r="Y140" t="inlineStr"/>
+      <c r="Y140" t="n">
+        <v>1969</v>
+      </c>
       <c r="Z140" t="n">
         <v>207</v>
       </c>
@@ -10083,7 +10085,7 @@
         <v>3643</v>
       </c>
       <c r="AB140" t="n">
-        <v>30986</v>
+        <v>30989</v>
       </c>
     </row>
     <row r="141">
@@ -10118,7 +10120,9 @@
       <c r="M141" t="n">
         <v>736</v>
       </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="N141" t="n">
+        <v>735</v>
+      </c>
       <c r="O141" t="n">
         <v>124</v>
       </c>
@@ -10141,7 +10145,9 @@
       <c r="X141" t="n">
         <v>5466</v>
       </c>
-      <c r="Y141" t="inlineStr"/>
+      <c r="Y141" t="n">
+        <v>1973</v>
+      </c>
       <c r="Z141" t="n">
         <v>207</v>
       </c>
@@ -10149,7 +10155,7 @@
         <v>3645</v>
       </c>
       <c r="AB141" t="n">
-        <v>31000</v>
+        <v>31007</v>
       </c>
     </row>
     <row r="142">
@@ -10184,7 +10190,9 @@
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
+      <c r="N142" t="n">
+        <v>736</v>
+      </c>
       <c r="O142" t="n">
         <v>124</v>
       </c>
@@ -10205,7 +10213,9 @@
       </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
+      <c r="Y142" t="n">
+        <v>1977</v>
+      </c>
       <c r="Z142" t="n">
         <v>211</v>
       </c>
@@ -10213,7 +10223,7 @@
         <v>3647</v>
       </c>
       <c r="AB142" t="n">
-        <v>31009</v>
+        <v>31021</v>
       </c>
     </row>
     <row r="143">
@@ -10242,7 +10252,9 @@
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
-      <c r="N143" t="inlineStr"/>
+      <c r="N143" t="n">
+        <v>737</v>
+      </c>
       <c r="O143" t="n">
         <v>124</v>
       </c>
@@ -10261,7 +10273,9 @@
       </c>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
+      <c r="Y143" t="n">
+        <v>1977</v>
+      </c>
       <c r="Z143" t="n">
         <v>211</v>
       </c>
@@ -10269,7 +10283,7 @@
         <v>3650</v>
       </c>
       <c r="AB143" t="n">
-        <v>31023</v>
+        <v>31036</v>
       </c>
     </row>
     <row r="144">
@@ -10321,7 +10335,9 @@
       </c>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
+      <c r="Y144" t="n">
+        <v>1977</v>
+      </c>
       <c r="Z144" t="n">
         <v>211</v>
       </c>
@@ -10329,7 +10345,7 @@
         <v>3655</v>
       </c>
       <c r="AB144" t="n">
-        <v>31037</v>
+        <v>31050</v>
       </c>
     </row>
     <row r="145">
@@ -10385,7 +10401,9 @@
       </c>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr"/>
+      <c r="Y145" t="n">
+        <v>1977</v>
+      </c>
       <c r="Z145" t="n">
         <v>213</v>
       </c>
@@ -10393,7 +10411,7 @@
         <v>3662</v>
       </c>
       <c r="AB145" t="n">
-        <v>31049</v>
+        <v>31062</v>
       </c>
     </row>
   </sheetData>
@@ -19734,7 +19752,9 @@
       <c r="X140" t="n">
         <v>406</v>
       </c>
-      <c r="Y140" t="inlineStr"/>
+      <c r="Y140" t="n">
+        <v>152</v>
+      </c>
       <c r="Z140" t="n">
         <v>9</v>
       </c>
@@ -19800,7 +19820,9 @@
       <c r="X141" t="n">
         <v>406</v>
       </c>
-      <c r="Y141" t="inlineStr"/>
+      <c r="Y141" t="n">
+        <v>152</v>
+      </c>
       <c r="Z141" t="n">
         <v>9</v>
       </c>
@@ -19864,7 +19886,9 @@
       </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
+      <c r="Y142" t="n">
+        <v>153</v>
+      </c>
       <c r="Z142" t="n">
         <v>9</v>
       </c>
@@ -19872,7 +19896,7 @@
         <v>130</v>
       </c>
       <c r="AB142" t="n">
-        <v>1938</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="143">
@@ -19920,7 +19944,9 @@
       </c>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
+      <c r="Y143" t="n">
+        <v>153</v>
+      </c>
       <c r="Z143" t="n">
         <v>9</v>
       </c>
@@ -19928,7 +19954,7 @@
         <v>130</v>
       </c>
       <c r="AB143" t="n">
-        <v>1938</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="144">
@@ -19980,7 +20006,9 @@
       </c>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
+      <c r="Y144" t="n">
+        <v>153</v>
+      </c>
       <c r="Z144" t="n">
         <v>9</v>
       </c>
@@ -19988,7 +20016,7 @@
         <v>130</v>
       </c>
       <c r="AB144" t="n">
-        <v>1938</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="145">
@@ -20044,7 +20072,9 @@
       </c>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr"/>
+      <c r="Y145" t="n">
+        <v>153</v>
+      </c>
       <c r="Z145" t="n">
         <v>9</v>
       </c>
@@ -20052,7 +20082,7 @@
         <v>130</v>
       </c>
       <c r="AB145" t="n">
-        <v>1938</v>
+        <v>1939</v>
       </c>
     </row>
   </sheetData>
@@ -28969,7 +28999,9 @@
       <c r="X140" t="n">
         <v>31</v>
       </c>
-      <c r="Y140" t="inlineStr"/>
+      <c r="Y140" t="n">
+        <v>15</v>
+      </c>
       <c r="Z140" t="n">
         <v>1</v>
       </c>
@@ -29031,7 +29063,9 @@
       <c r="X141" t="n">
         <v>31</v>
       </c>
-      <c r="Y141" t="inlineStr"/>
+      <c r="Y141" t="n">
+        <v>15</v>
+      </c>
       <c r="Z141" t="n">
         <v>1</v>
       </c>
@@ -29091,7 +29125,9 @@
       </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
+      <c r="Y142" t="n">
+        <v>15</v>
+      </c>
       <c r="Z142" t="n">
         <v>1</v>
       </c>
@@ -29128,7 +29164,9 @@
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
-      <c r="N143" t="inlineStr"/>
+      <c r="N143" t="n">
+        <v>3</v>
+      </c>
       <c r="O143" t="n">
         <v>0</v>
       </c>
@@ -29145,7 +29183,9 @@
       </c>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
+      <c r="Y143" t="n">
+        <v>14</v>
+      </c>
       <c r="Z143" t="n">
         <v>1</v>
       </c>
@@ -29153,7 +29193,7 @@
         <v>8</v>
       </c>
       <c r="AB143" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="144">
@@ -29184,7 +29224,9 @@
       <c r="M144" t="n">
         <v>8</v>
       </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>3</v>
+      </c>
       <c r="O144" t="n">
         <v>0</v>
       </c>
@@ -29201,7 +29243,9 @@
       </c>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
+      <c r="Y144" t="n">
+        <v>14</v>
+      </c>
       <c r="Z144" t="n">
         <v>1</v>
       </c>
@@ -29209,7 +29253,7 @@
         <v>9</v>
       </c>
       <c r="AB144" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="145">
@@ -29242,7 +29286,9 @@
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr"/>
+      <c r="N145" t="n">
+        <v>3</v>
+      </c>
       <c r="O145" t="n">
         <v>0</v>
       </c>
@@ -29261,7 +29307,9 @@
       </c>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr"/>
+      <c r="Y145" t="n">
+        <v>14</v>
+      </c>
       <c r="Z145" t="n">
         <v>1</v>
       </c>
@@ -29269,7 +29317,7 @@
         <v>9</v>
       </c>
       <c r="AB145" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -37236,7 +37284,9 @@
       <c r="X140" t="n">
         <v>6</v>
       </c>
-      <c r="Y140" t="inlineStr"/>
+      <c r="Y140" t="n">
+        <v>4</v>
+      </c>
       <c r="Z140" t="n">
         <v>0</v>
       </c>
@@ -37294,7 +37344,9 @@
       <c r="X141" t="n">
         <v>3</v>
       </c>
-      <c r="Y141" t="inlineStr"/>
+      <c r="Y141" t="n">
+        <v>4</v>
+      </c>
       <c r="Z141" t="n">
         <v>0</v>
       </c>
@@ -37350,7 +37402,9 @@
       </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
+      <c r="Y142" t="n">
+        <v>4</v>
+      </c>
       <c r="Z142" t="n">
         <v>0</v>
       </c>
@@ -37385,7 +37439,9 @@
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
-      <c r="N143" t="inlineStr"/>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
       <c r="O143" t="n">
         <v>0</v>
       </c>
@@ -37402,7 +37458,9 @@
       </c>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
+      <c r="Y143" t="n">
+        <v>4</v>
+      </c>
       <c r="Z143" t="n">
         <v>0</v>
       </c>
@@ -37439,7 +37497,9 @@
       <c r="M144" t="n">
         <v>2</v>
       </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
       <c r="O144" t="n">
         <v>0</v>
       </c>
@@ -37456,7 +37516,9 @@
       </c>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
+      <c r="Y144" t="n">
+        <v>4</v>
+      </c>
       <c r="Z144" t="n">
         <v>0</v>
       </c>
@@ -37493,7 +37555,9 @@
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr"/>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
       <c r="O145" t="n">
         <v>0</v>
       </c>
@@ -37510,7 +37574,9 @@
       </c>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr"/>
+      <c r="Y145" t="n">
+        <v>4</v>
+      </c>
       <c r="Z145" t="n">
         <v>0</v>
       </c>
@@ -44069,7 +44135,9 @@
       </c>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
+      <c r="Y140" t="n">
+        <v>3</v>
+      </c>
       <c r="Z140" t="inlineStr"/>
       <c r="AA140" t="n">
         <v>0</v>
@@ -44117,7 +44185,9 @@
       </c>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="inlineStr"/>
+      <c r="Y141" t="n">
+        <v>3</v>
+      </c>
       <c r="Z141" t="inlineStr"/>
       <c r="AA141" t="n">
         <v>0</v>
@@ -44163,7 +44233,9 @@
       </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
+      <c r="Y142" t="n">
+        <v>3</v>
+      </c>
       <c r="Z142" t="inlineStr"/>
       <c r="AA142" t="n">
         <v>0</v>
@@ -44194,7 +44266,9 @@
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
-      <c r="N143" t="inlineStr"/>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
@@ -44207,7 +44281,9 @@
       </c>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
+      <c r="Y143" t="n">
+        <v>3</v>
+      </c>
       <c r="Z143" t="inlineStr"/>
       <c r="AA143" t="n">
         <v>0</v>
@@ -44238,7 +44314,9 @@
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
@@ -44251,7 +44329,9 @@
       </c>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
+      <c r="Y144" t="n">
+        <v>3</v>
+      </c>
       <c r="Z144" t="inlineStr"/>
       <c r="AA144" t="n">
         <v>0</v>
@@ -44282,7 +44362,9 @@
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr"/>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr"/>
@@ -44295,7 +44377,9 @@
       </c>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr"/>
+      <c r="Y145" t="n">
+        <v>3</v>
+      </c>
       <c r="Z145" t="inlineStr"/>
       <c r="AA145" t="n">
         <v>0</v>
@@ -51192,7 +51276,9 @@
       </c>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
+      <c r="Y140" t="n">
+        <v>286</v>
+      </c>
       <c r="Z140" t="n">
         <v>186</v>
       </c>
@@ -51242,7 +51328,9 @@
       </c>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="inlineStr"/>
+      <c r="Y141" t="n">
+        <v>286</v>
+      </c>
       <c r="Z141" t="n">
         <v>186</v>
       </c>
@@ -51290,7 +51378,9 @@
       </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
+      <c r="Y142" t="n">
+        <v>286</v>
+      </c>
       <c r="Z142" t="n">
         <v>186</v>
       </c>
@@ -51338,13 +51428,15 @@
       </c>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
+      <c r="Y143" t="n">
+        <v>287</v>
+      </c>
       <c r="Z143" t="n">
         <v>186</v>
       </c>
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="n">
-        <v>5843</v>
+        <v>5844</v>
       </c>
     </row>
     <row r="144">
@@ -51386,13 +51478,15 @@
       </c>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
+      <c r="Y144" t="n">
+        <v>287</v>
+      </c>
       <c r="Z144" t="n">
         <v>186</v>
       </c>
       <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="n">
-        <v>5845</v>
+        <v>5846</v>
       </c>
     </row>
     <row r="145">
@@ -51434,13 +51528,15 @@
       </c>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr"/>
+      <c r="Y145" t="n">
+        <v>287</v>
+      </c>
       <c r="Z145" t="n">
         <v>189</v>
       </c>
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="n">
-        <v>5849</v>
+        <v>5850</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB145"/>
+  <dimension ref="A1:AB146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10389,7 +10389,9 @@
       <c r="R145" t="n">
         <v>81</v>
       </c>
-      <c r="S145" t="inlineStr"/>
+      <c r="S145" t="n">
+        <v>448</v>
+      </c>
       <c r="T145" t="n">
         <v>308</v>
       </c>
@@ -10411,6 +10413,48 @@
         <v>3662</v>
       </c>
       <c r="AB145" t="n">
+        <v>31062</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="n">
+        <v>25</v>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="n">
+        <v>448</v>
+      </c>
+      <c r="T146" t="n">
+        <v>308</v>
+      </c>
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
+      <c r="AA146" t="inlineStr"/>
+      <c r="AB146" t="n">
         <v>31062</v>
       </c>
     </row>
@@ -10425,7 +10469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB145"/>
+  <dimension ref="A1:AB146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20060,7 +20104,9 @@
       <c r="R145" t="n">
         <v>7</v>
       </c>
-      <c r="S145" t="inlineStr"/>
+      <c r="S145" t="n">
+        <v>17</v>
+      </c>
       <c r="T145" t="n">
         <v>23</v>
       </c>
@@ -20082,6 +20128,48 @@
         <v>130</v>
       </c>
       <c r="AB145" t="n">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="n">
+        <v>17</v>
+      </c>
+      <c r="T146" t="n">
+        <v>23</v>
+      </c>
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
+      <c r="AA146" t="inlineStr"/>
+      <c r="AB146" t="n">
         <v>1939</v>
       </c>
     </row>
@@ -20096,7 +20184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB145"/>
+  <dimension ref="A1:AB146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29320,6 +29408,42 @@
         <v>222</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
+      <c r="AA146" t="inlineStr"/>
+      <c r="AB146" t="n">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -29331,7 +29455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB145"/>
+  <dimension ref="A1:AB146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37585,6 +37709,42 @@
         <v>17</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
+      <c r="AA146" t="inlineStr"/>
+      <c r="AB146" t="n">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -37596,7 +37756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB145"/>
+  <dimension ref="A1:AB146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44388,6 +44548,42 @@
         <v>5</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
+      <c r="AA146" t="inlineStr"/>
+      <c r="AB146" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -44399,7 +44595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB145"/>
+  <dimension ref="A1:AB146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51539,6 +51735,44 @@
         <v>5850</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="n">
+        <v>284</v>
+      </c>
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
+      <c r="AA146" t="inlineStr"/>
+      <c r="AB146" t="n">
+        <v>5850</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -51550,7 +51784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB145"/>
+  <dimension ref="A1:AB146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57168,6 +57402,42 @@
         <v>37875</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
+      <c r="AA146" t="inlineStr"/>
+      <c r="AB146" t="n">
+        <v>37875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10429,7 +10429,9 @@
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
+      <c r="G146" t="n">
+        <v>983</v>
+      </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -10440,7 +10442,9 @@
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
+      <c r="R146" t="n">
+        <v>81</v>
+      </c>
       <c r="S146" t="n">
         <v>448</v>
       </c>
@@ -20144,7 +20148,9 @@
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
+      <c r="G146" t="n">
+        <v>50</v>
+      </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -20155,7 +20161,9 @@
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
+      <c r="R146" t="n">
+        <v>7</v>
+      </c>
       <c r="S146" t="n">
         <v>17</v>
       </c>
@@ -29383,7 +29391,9 @@
       <c r="P145" t="n">
         <v>0</v>
       </c>
-      <c r="Q145" t="inlineStr"/>
+      <c r="Q145" t="n">
+        <v>7</v>
+      </c>
       <c r="R145" t="inlineStr"/>
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
@@ -29405,7 +29415,7 @@
         <v>9</v>
       </c>
       <c r="AB145" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="146">
@@ -29441,7 +29451,7 @@
       <c r="Z146" t="inlineStr"/>
       <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -37686,7 +37696,9 @@
         <v>0</v>
       </c>
       <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
+      <c r="Q145" t="n">
+        <v>2</v>
+      </c>
       <c r="R145" t="inlineStr"/>
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
@@ -51712,7 +51724,9 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
+      <c r="Q145" t="n">
+        <v>223</v>
+      </c>
       <c r="R145" t="inlineStr"/>
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="n">
@@ -51746,7 +51760,9 @@
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
+      <c r="G146" t="n">
+        <v>932</v>
+      </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10452,7 +10452,9 @@
         <v>308</v>
       </c>
       <c r="U146" t="inlineStr"/>
-      <c r="V146" t="inlineStr"/>
+      <c r="V146" t="n">
+        <v>3321</v>
+      </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr"/>
@@ -20171,7 +20173,9 @@
         <v>23</v>
       </c>
       <c r="U146" t="inlineStr"/>
-      <c r="V146" t="inlineStr"/>
+      <c r="V146" t="n">
+        <v>350</v>
+      </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr"/>
@@ -29444,7 +29448,9 @@
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr"/>
-      <c r="V146" t="inlineStr"/>
+      <c r="V146" t="n">
+        <v>6</v>
+      </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr"/>
@@ -37747,7 +37753,9 @@
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr"/>
-      <c r="V146" t="inlineStr"/>
+      <c r="V146" t="n">
+        <v>0</v>
+      </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr"/>
@@ -44586,7 +44594,9 @@
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr"/>
-      <c r="V146" t="inlineStr"/>
+      <c r="V146" t="n">
+        <v>0</v>
+      </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr"/>
@@ -51779,7 +51789,9 @@
         <v>284</v>
       </c>
       <c r="U146" t="inlineStr"/>
-      <c r="V146" t="inlineStr"/>
+      <c r="V146" t="n">
+        <v>908</v>
+      </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10143,7 +10143,7 @@
       </c>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="n">
-        <v>5466</v>
+        <v>5467</v>
       </c>
       <c r="Y141" t="n">
         <v>1973</v>
@@ -10155,7 +10155,7 @@
         <v>3645</v>
       </c>
       <c r="AB141" t="n">
-        <v>31007</v>
+        <v>31008</v>
       </c>
     </row>
     <row r="142">
@@ -10212,7 +10212,9 @@
         <v>3317</v>
       </c>
       <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
+      <c r="X142" t="n">
+        <v>5474</v>
+      </c>
       <c r="Y142" t="n">
         <v>1977</v>
       </c>
@@ -10223,7 +10225,7 @@
         <v>3647</v>
       </c>
       <c r="AB142" t="n">
-        <v>31021</v>
+        <v>31029</v>
       </c>
     </row>
     <row r="143">
@@ -10272,7 +10274,9 @@
         <v>3318</v>
       </c>
       <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr"/>
+      <c r="X143" t="n">
+        <v>5474</v>
+      </c>
       <c r="Y143" t="n">
         <v>1977</v>
       </c>
@@ -10283,7 +10287,7 @@
         <v>3650</v>
       </c>
       <c r="AB143" t="n">
-        <v>31036</v>
+        <v>31044</v>
       </c>
     </row>
     <row r="144">
@@ -10334,7 +10338,9 @@
         <v>3321</v>
       </c>
       <c r="W144" t="inlineStr"/>
-      <c r="X144" t="inlineStr"/>
+      <c r="X144" t="n">
+        <v>5475</v>
+      </c>
       <c r="Y144" t="n">
         <v>1977</v>
       </c>
@@ -10345,7 +10351,7 @@
         <v>3655</v>
       </c>
       <c r="AB144" t="n">
-        <v>31050</v>
+        <v>31059</v>
       </c>
     </row>
     <row r="145">
@@ -10402,7 +10408,9 @@
         <v>3321</v>
       </c>
       <c r="W145" t="inlineStr"/>
-      <c r="X145" t="inlineStr"/>
+      <c r="X145" t="n">
+        <v>5475</v>
+      </c>
       <c r="Y145" t="n">
         <v>1977</v>
       </c>
@@ -10413,7 +10421,7 @@
         <v>3662</v>
       </c>
       <c r="AB145" t="n">
-        <v>31062</v>
+        <v>31071</v>
       </c>
     </row>
     <row r="146">
@@ -10434,10 +10442,14 @@
       </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>128</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>740</v>
+      </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
@@ -10451,17 +10463,21 @@
       <c r="T146" t="n">
         <v>308</v>
       </c>
-      <c r="U146" t="inlineStr"/>
+      <c r="U146" t="n">
+        <v>384</v>
+      </c>
       <c r="V146" t="n">
         <v>3321</v>
       </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr"/>
-      <c r="Z146" t="inlineStr"/>
+      <c r="Z146" t="n">
+        <v>214</v>
+      </c>
       <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="n">
-        <v>31062</v>
+        <v>31074</v>
       </c>
     </row>
   </sheetData>
@@ -13854,7 +13870,7 @@
       </c>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y68" t="n">
         <v>35</v>
@@ -13866,7 +13882,7 @@
         <v>24</v>
       </c>
       <c r="AB68" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69">
@@ -13936,7 +13952,7 @@
       </c>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Y69" t="n">
         <v>37</v>
@@ -13948,7 +13964,7 @@
         <v>27</v>
       </c>
       <c r="AB69" t="n">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="70">
@@ -14018,7 +14034,7 @@
         <v>1</v>
       </c>
       <c r="X70" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Y70" t="n">
         <v>40</v>
@@ -14030,7 +14046,7 @@
         <v>36</v>
       </c>
       <c r="AB70" t="n">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="71">
@@ -14102,7 +14118,7 @@
         <v>1</v>
       </c>
       <c r="X71" t="n">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Y71" t="n">
         <v>47</v>
@@ -14114,7 +14130,7 @@
         <v>39</v>
       </c>
       <c r="AB71" t="n">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="72">
@@ -14186,7 +14202,7 @@
         <v>1</v>
       </c>
       <c r="X72" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Y72" t="n">
         <v>51</v>
@@ -14198,7 +14214,7 @@
         <v>41</v>
       </c>
       <c r="AB72" t="n">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="73">
@@ -14268,7 +14284,7 @@
         <v>1</v>
       </c>
       <c r="X73" t="n">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="Y73" t="n">
         <v>53</v>
@@ -14280,7 +14296,7 @@
         <v>48</v>
       </c>
       <c r="AB73" t="n">
-        <v>756</v>
+        <v>764</v>
       </c>
     </row>
     <row r="74">
@@ -14348,7 +14364,7 @@
         <v>2</v>
       </c>
       <c r="X74" t="n">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="Y74" t="n">
         <v>57</v>
@@ -14360,7 +14376,7 @@
         <v>52</v>
       </c>
       <c r="AB74" t="n">
-        <v>809</v>
+        <v>818</v>
       </c>
     </row>
     <row r="75">
@@ -14434,7 +14450,7 @@
         <v>2</v>
       </c>
       <c r="X75" t="n">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="Y75" t="n">
         <v>60</v>
@@ -14446,7 +14462,7 @@
         <v>54</v>
       </c>
       <c r="AB75" t="n">
-        <v>869</v>
+        <v>878</v>
       </c>
     </row>
     <row r="76">
@@ -14520,7 +14536,7 @@
         <v>2</v>
       </c>
       <c r="X76" t="n">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="Y76" t="n">
         <v>68</v>
@@ -14532,7 +14548,7 @@
         <v>56</v>
       </c>
       <c r="AB76" t="n">
-        <v>930</v>
+        <v>939</v>
       </c>
     </row>
     <row r="77">
@@ -14606,7 +14622,7 @@
         <v>4</v>
       </c>
       <c r="X77" t="n">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="Y77" t="n">
         <v>71</v>
@@ -14618,7 +14634,7 @@
         <v>64</v>
       </c>
       <c r="AB77" t="n">
-        <v>997</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="78">
@@ -14692,7 +14708,7 @@
         <v>4</v>
       </c>
       <c r="X78" t="n">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="Y78" t="n">
         <v>77</v>
@@ -14704,7 +14720,7 @@
         <v>66</v>
       </c>
       <c r="AB78" t="n">
-        <v>1049</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="79">
@@ -14774,7 +14790,7 @@
         <v>4</v>
       </c>
       <c r="X79" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="Y79" t="n">
         <v>83</v>
@@ -14786,7 +14802,7 @@
         <v>71</v>
       </c>
       <c r="AB79" t="n">
-        <v>1100</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="80">
@@ -14860,7 +14876,7 @@
         <v>4</v>
       </c>
       <c r="X80" t="n">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="Y80" t="n">
         <v>85</v>
@@ -14872,7 +14888,7 @@
         <v>77</v>
       </c>
       <c r="AB80" t="n">
-        <v>1139</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="81">
@@ -14942,7 +14958,7 @@
         <v>4</v>
       </c>
       <c r="X81" t="n">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Y81" t="n">
         <v>91</v>
@@ -14954,7 +14970,7 @@
         <v>79</v>
       </c>
       <c r="AB81" t="n">
-        <v>1196</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="82">
@@ -15028,7 +15044,7 @@
         <v>4</v>
       </c>
       <c r="X82" t="n">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="Y82" t="n">
         <v>93</v>
@@ -15040,7 +15056,7 @@
         <v>83</v>
       </c>
       <c r="AB82" t="n">
-        <v>1228</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="83">
@@ -15116,7 +15132,7 @@
         <v>4</v>
       </c>
       <c r="X83" t="n">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="Y83" t="n">
         <v>94</v>
@@ -15128,7 +15144,7 @@
         <v>87</v>
       </c>
       <c r="AB83" t="n">
-        <v>1266</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="84">
@@ -15204,7 +15220,7 @@
         <v>4</v>
       </c>
       <c r="X84" t="n">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="Y84" t="n">
         <v>94</v>
@@ -15216,7 +15232,7 @@
         <v>91</v>
       </c>
       <c r="AB84" t="n">
-        <v>1321</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="85">
@@ -15292,7 +15308,7 @@
         <v>5</v>
       </c>
       <c r="X85" t="n">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="Y85" t="n">
         <v>95</v>
@@ -15304,7 +15320,7 @@
         <v>95</v>
       </c>
       <c r="AB85" t="n">
-        <v>1369</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="86">
@@ -15380,7 +15396,7 @@
         <v>5</v>
       </c>
       <c r="X86" t="n">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="Y86" t="n">
         <v>99</v>
@@ -15392,7 +15408,7 @@
         <v>100</v>
       </c>
       <c r="AB86" t="n">
-        <v>1418</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="87">
@@ -15462,7 +15478,7 @@
         <v>5</v>
       </c>
       <c r="X87" t="n">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="Y87" t="n">
         <v>104</v>
@@ -15474,7 +15490,7 @@
         <v>105</v>
       </c>
       <c r="AB87" t="n">
-        <v>1459</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="88">
@@ -15546,7 +15562,7 @@
         <v>5</v>
       </c>
       <c r="X88" t="n">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="Y88" t="n">
         <v>107</v>
@@ -15558,7 +15574,7 @@
         <v>105</v>
       </c>
       <c r="AB88" t="n">
-        <v>1484</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="89">
@@ -15634,7 +15650,7 @@
         <v>5</v>
       </c>
       <c r="X89" t="n">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="Y89" t="n">
         <v>110</v>
@@ -15646,7 +15662,7 @@
         <v>107</v>
       </c>
       <c r="AB89" t="n">
-        <v>1527</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="90">
@@ -15722,7 +15738,7 @@
         <v>5</v>
       </c>
       <c r="X90" t="n">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="Y90" t="n">
         <v>115</v>
@@ -15734,7 +15750,7 @@
         <v>109</v>
       </c>
       <c r="AB90" t="n">
-        <v>1569</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="91">
@@ -15810,7 +15826,7 @@
         <v>5</v>
       </c>
       <c r="X91" t="n">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="Y91" t="n">
         <v>118</v>
@@ -15822,7 +15838,7 @@
         <v>110</v>
       </c>
       <c r="AB91" t="n">
-        <v>1599</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="92">
@@ -15898,7 +15914,7 @@
         <v>5</v>
       </c>
       <c r="X92" t="n">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="Y92" t="n">
         <v>123</v>
@@ -15910,7 +15926,7 @@
         <v>113</v>
       </c>
       <c r="AB92" t="n">
-        <v>1630</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="93">
@@ -15986,7 +16002,7 @@
         <v>5</v>
       </c>
       <c r="X93" t="n">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="Y93" t="n">
         <v>127</v>
@@ -15998,7 +16014,7 @@
         <v>114</v>
       </c>
       <c r="AB93" t="n">
-        <v>1660</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="94">
@@ -16068,7 +16084,7 @@
         <v>5</v>
       </c>
       <c r="X94" t="n">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="Y94" t="n">
         <v>129</v>
@@ -16080,7 +16096,7 @@
         <v>115</v>
       </c>
       <c r="AB94" t="n">
-        <v>1685</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="95">
@@ -16148,7 +16164,7 @@
         <v>5</v>
       </c>
       <c r="X95" t="n">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="Y95" t="n">
         <v>131</v>
@@ -16160,7 +16176,7 @@
         <v>115</v>
       </c>
       <c r="AB95" t="n">
-        <v>1702</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="96">
@@ -16236,7 +16252,7 @@
         <v>5</v>
       </c>
       <c r="X96" t="n">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="Y96" t="n">
         <v>132</v>
@@ -16248,7 +16264,7 @@
         <v>119</v>
       </c>
       <c r="AB96" t="n">
-        <v>1724</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="97">
@@ -16324,7 +16340,7 @@
         <v>5</v>
       </c>
       <c r="X97" t="n">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="Y97" t="n">
         <v>135</v>
@@ -16336,7 +16352,7 @@
         <v>119</v>
       </c>
       <c r="AB97" t="n">
-        <v>1751</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="98">
@@ -16412,7 +16428,7 @@
         <v>5</v>
       </c>
       <c r="X98" t="n">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="Y98" t="n">
         <v>136</v>
@@ -16424,7 +16440,7 @@
         <v>121</v>
       </c>
       <c r="AB98" t="n">
-        <v>1759</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="99">
@@ -16500,7 +16516,7 @@
         <v>5</v>
       </c>
       <c r="X99" t="n">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="Y99" t="n">
         <v>138</v>
@@ -16512,7 +16528,7 @@
         <v>123</v>
       </c>
       <c r="AB99" t="n">
-        <v>1777</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="100">
@@ -16588,7 +16604,7 @@
         <v>6</v>
       </c>
       <c r="X100" t="n">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="Y100" t="n">
         <v>138</v>
@@ -16600,7 +16616,7 @@
         <v>123</v>
       </c>
       <c r="AB100" t="n">
-        <v>1793</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="101">
@@ -16668,7 +16684,7 @@
         <v>6</v>
       </c>
       <c r="X101" t="n">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="Y101" t="n">
         <v>140</v>
@@ -16680,7 +16696,7 @@
         <v>123</v>
       </c>
       <c r="AB101" t="n">
-        <v>1808</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="102">
@@ -16748,7 +16764,7 @@
         <v>6</v>
       </c>
       <c r="X102" t="n">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="Y102" t="n">
         <v>142</v>
@@ -16760,7 +16776,7 @@
         <v>123</v>
       </c>
       <c r="AB102" t="n">
-        <v>1816</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="103">
@@ -16836,7 +16852,7 @@
         <v>6</v>
       </c>
       <c r="X103" t="n">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="Y103" t="n">
         <v>142</v>
@@ -16848,7 +16864,7 @@
         <v>123</v>
       </c>
       <c r="AB103" t="n">
-        <v>1823</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="104">
@@ -16924,7 +16940,7 @@
         <v>7</v>
       </c>
       <c r="X104" t="n">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="Y104" t="n">
         <v>146</v>
@@ -16936,7 +16952,7 @@
         <v>124</v>
       </c>
       <c r="AB104" t="n">
-        <v>1836</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="105">
@@ -17012,7 +17028,7 @@
         <v>7</v>
       </c>
       <c r="X105" t="n">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="Y105" t="n">
         <v>146</v>
@@ -17024,7 +17040,7 @@
         <v>125</v>
       </c>
       <c r="AB105" t="n">
-        <v>1842</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="106">
@@ -17098,7 +17114,7 @@
         <v>7</v>
       </c>
       <c r="X106" t="n">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="Y106" t="n">
         <v>146</v>
@@ -17110,7 +17126,7 @@
         <v>125</v>
       </c>
       <c r="AB106" t="n">
-        <v>1853</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="107">
@@ -17184,7 +17200,7 @@
         <v>7</v>
       </c>
       <c r="X107" t="n">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="Y107" t="n">
         <v>148</v>
@@ -17196,7 +17212,7 @@
         <v>125</v>
       </c>
       <c r="AB107" t="n">
-        <v>1862</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="108">
@@ -17262,7 +17278,7 @@
         <v>7</v>
       </c>
       <c r="X108" t="n">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="Y108" t="n">
         <v>148</v>
@@ -17274,7 +17290,7 @@
         <v>126</v>
       </c>
       <c r="AB108" t="n">
-        <v>1872</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="109">
@@ -17336,7 +17352,7 @@
         <v>7</v>
       </c>
       <c r="X109" t="n">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="Y109" t="n">
         <v>148</v>
@@ -17348,7 +17364,7 @@
         <v>126</v>
       </c>
       <c r="AB109" t="n">
-        <v>1881</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="110">
@@ -17424,7 +17440,7 @@
         <v>7</v>
       </c>
       <c r="X110" t="n">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="Y110" t="n">
         <v>150</v>
@@ -17436,7 +17452,7 @@
         <v>126</v>
       </c>
       <c r="AB110" t="n">
-        <v>1885</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="111">
@@ -17512,7 +17528,7 @@
         <v>7</v>
       </c>
       <c r="X111" t="n">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="Y111" t="n">
         <v>150</v>
@@ -17524,7 +17540,7 @@
         <v>126</v>
       </c>
       <c r="AB111" t="n">
-        <v>1891</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="112">
@@ -17596,7 +17612,7 @@
         <v>7</v>
       </c>
       <c r="X112" t="n">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="Y112" t="n">
         <v>150</v>
@@ -17608,7 +17624,7 @@
         <v>126</v>
       </c>
       <c r="AB112" t="n">
-        <v>1895</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="113">
@@ -17682,7 +17698,7 @@
         <v>7</v>
       </c>
       <c r="X113" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y113" t="n">
         <v>150</v>
@@ -17694,7 +17710,7 @@
         <v>126</v>
       </c>
       <c r="AB113" t="n">
-        <v>1899</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="114">
@@ -17766,7 +17782,7 @@
       </c>
       <c r="W114" t="inlineStr"/>
       <c r="X114" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y114" t="n">
         <v>150</v>
@@ -17778,7 +17794,7 @@
         <v>127</v>
       </c>
       <c r="AB114" t="n">
-        <v>1904</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="115">
@@ -17840,7 +17856,7 @@
         <v>7</v>
       </c>
       <c r="X115" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y115" t="n">
         <v>150</v>
@@ -17852,7 +17868,7 @@
         <v>127</v>
       </c>
       <c r="AB115" t="n">
-        <v>1904</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="116">
@@ -17912,7 +17928,7 @@
         <v>7</v>
       </c>
       <c r="X116" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y116" t="n">
         <v>150</v>
@@ -17924,7 +17940,7 @@
         <v>127</v>
       </c>
       <c r="AB116" t="n">
-        <v>1909</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="117">
@@ -17998,7 +18014,7 @@
         <v>7</v>
       </c>
       <c r="X117" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y117" t="n">
         <v>152</v>
@@ -18010,7 +18026,7 @@
         <v>127</v>
       </c>
       <c r="AB117" t="n">
-        <v>1915</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="118">
@@ -18082,7 +18098,7 @@
         <v>7</v>
       </c>
       <c r="X118" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y118" t="n">
         <v>152</v>
@@ -18094,7 +18110,7 @@
         <v>128</v>
       </c>
       <c r="AB118" t="n">
-        <v>1917</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="119">
@@ -18170,7 +18186,7 @@
         <v>7</v>
       </c>
       <c r="X119" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y119" t="n">
         <v>152</v>
@@ -18182,7 +18198,7 @@
         <v>128</v>
       </c>
       <c r="AB119" t="n">
-        <v>1918</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="120">
@@ -18244,7 +18260,7 @@
         <v>7</v>
       </c>
       <c r="X120" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y120" t="n">
         <v>152</v>
@@ -18256,7 +18272,7 @@
         <v>129</v>
       </c>
       <c r="AB120" t="n">
-        <v>1922</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="121">
@@ -18322,7 +18338,7 @@
         <v>7</v>
       </c>
       <c r="X121" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y121" t="n">
         <v>152</v>
@@ -18334,7 +18350,7 @@
         <v>130</v>
       </c>
       <c r="AB121" t="n">
-        <v>1924</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="122">
@@ -18394,7 +18410,7 @@
         <v>7</v>
       </c>
       <c r="X122" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y122" t="n">
         <v>152</v>
@@ -18406,7 +18422,7 @@
         <v>130</v>
       </c>
       <c r="AB122" t="n">
-        <v>1925</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="123">
@@ -18468,7 +18484,7 @@
         <v>7</v>
       </c>
       <c r="X123" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y123" t="n">
         <v>152</v>
@@ -18480,7 +18496,7 @@
         <v>130</v>
       </c>
       <c r="AB123" t="n">
-        <v>1926</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="124">
@@ -18556,7 +18572,7 @@
         <v>7</v>
       </c>
       <c r="X124" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y124" t="n">
         <v>152</v>
@@ -18568,7 +18584,7 @@
         <v>130</v>
       </c>
       <c r="AB124" t="n">
-        <v>1930</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="125">
@@ -18638,7 +18654,7 @@
         <v>7</v>
       </c>
       <c r="X125" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y125" t="n">
         <v>152</v>
@@ -18650,7 +18666,7 @@
         <v>130</v>
       </c>
       <c r="AB125" t="n">
-        <v>1930</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="126">
@@ -18724,7 +18740,7 @@
         <v>7</v>
       </c>
       <c r="X126" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y126" t="n">
         <v>152</v>
@@ -18736,7 +18752,7 @@
         <v>130</v>
       </c>
       <c r="AB126" t="n">
-        <v>1932</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="127">
@@ -18810,7 +18826,7 @@
         <v>7</v>
       </c>
       <c r="X127" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y127" t="n">
         <v>152</v>
@@ -18822,7 +18838,7 @@
         <v>130</v>
       </c>
       <c r="AB127" t="n">
-        <v>1933</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="128">
@@ -18896,7 +18912,7 @@
         <v>7</v>
       </c>
       <c r="X128" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y128" t="n">
         <v>152</v>
@@ -18908,7 +18924,7 @@
         <v>130</v>
       </c>
       <c r="AB128" t="n">
-        <v>1933</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="129">
@@ -18968,7 +18984,7 @@
         <v>7</v>
       </c>
       <c r="X129" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y129" t="n">
         <v>152</v>
@@ -18980,7 +18996,7 @@
         <v>130</v>
       </c>
       <c r="AB129" t="n">
-        <v>1934</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="130">
@@ -19040,7 +19056,7 @@
         <v>7</v>
       </c>
       <c r="X130" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y130" t="n">
         <v>152</v>
@@ -19052,7 +19068,7 @@
         <v>130</v>
       </c>
       <c r="AB130" t="n">
-        <v>1934</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="131">
@@ -19112,7 +19128,7 @@
         <v>7</v>
       </c>
       <c r="X131" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y131" t="n">
         <v>152</v>
@@ -19124,7 +19140,7 @@
         <v>130</v>
       </c>
       <c r="AB131" t="n">
-        <v>1934</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="132">
@@ -19196,7 +19212,7 @@
         <v>7</v>
       </c>
       <c r="X132" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y132" t="n">
         <v>152</v>
@@ -19208,7 +19224,7 @@
         <v>130</v>
       </c>
       <c r="AB132" t="n">
-        <v>1934</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="133">
@@ -19280,7 +19296,7 @@
       </c>
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y133" t="n">
         <v>152</v>
@@ -19292,7 +19308,7 @@
         <v>130</v>
       </c>
       <c r="AB133" t="n">
-        <v>1934</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="134">
@@ -19362,7 +19378,7 @@
       </c>
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y134" t="n">
         <v>152</v>
@@ -19374,7 +19390,7 @@
         <v>130</v>
       </c>
       <c r="AB134" t="n">
-        <v>1934</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="135">
@@ -19442,7 +19458,7 @@
       </c>
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y135" t="n">
         <v>152</v>
@@ -19454,7 +19470,7 @@
         <v>130</v>
       </c>
       <c r="AB135" t="n">
-        <v>1934</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="136">
@@ -19508,7 +19524,7 @@
       </c>
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y136" t="n">
         <v>152</v>
@@ -19520,7 +19536,7 @@
         <v>130</v>
       </c>
       <c r="AB136" t="n">
-        <v>1934</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="137">
@@ -19576,7 +19592,7 @@
       </c>
       <c r="W137" t="inlineStr"/>
       <c r="X137" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y137" t="n">
         <v>152</v>
@@ -19588,7 +19604,7 @@
         <v>130</v>
       </c>
       <c r="AB137" t="n">
-        <v>1935</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="138">
@@ -19654,7 +19670,7 @@
       </c>
       <c r="W138" t="inlineStr"/>
       <c r="X138" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y138" t="n">
         <v>152</v>
@@ -19666,7 +19682,7 @@
         <v>130</v>
       </c>
       <c r="AB138" t="n">
-        <v>1937</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="139">
@@ -19728,7 +19744,7 @@
       </c>
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y139" t="n">
         <v>152</v>
@@ -19740,7 +19756,7 @@
         <v>130</v>
       </c>
       <c r="AB139" t="n">
-        <v>1937</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="140">
@@ -19800,7 +19816,7 @@
       </c>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y140" t="n">
         <v>152</v>
@@ -19812,7 +19828,7 @@
         <v>130</v>
       </c>
       <c r="AB140" t="n">
-        <v>1937</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="141">
@@ -19868,7 +19884,7 @@
       </c>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y141" t="n">
         <v>152</v>
@@ -19880,7 +19896,7 @@
         <v>130</v>
       </c>
       <c r="AB141" t="n">
-        <v>1937</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="142">
@@ -19935,7 +19951,9 @@
         <v>350</v>
       </c>
       <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
+      <c r="X142" t="n">
+        <v>420</v>
+      </c>
       <c r="Y142" t="n">
         <v>153</v>
       </c>
@@ -19946,7 +19964,7 @@
         <v>130</v>
       </c>
       <c r="AB142" t="n">
-        <v>1939</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="143">
@@ -19993,7 +20011,9 @@
         <v>350</v>
       </c>
       <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr"/>
+      <c r="X143" t="n">
+        <v>420</v>
+      </c>
       <c r="Y143" t="n">
         <v>153</v>
       </c>
@@ -20004,7 +20024,7 @@
         <v>130</v>
       </c>
       <c r="AB143" t="n">
-        <v>1939</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="144">
@@ -20055,7 +20075,9 @@
         <v>350</v>
       </c>
       <c r="W144" t="inlineStr"/>
-      <c r="X144" t="inlineStr"/>
+      <c r="X144" t="n">
+        <v>420</v>
+      </c>
       <c r="Y144" t="n">
         <v>153</v>
       </c>
@@ -20066,7 +20088,7 @@
         <v>130</v>
       </c>
       <c r="AB144" t="n">
-        <v>1939</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="145">
@@ -20123,7 +20145,9 @@
         <v>350</v>
       </c>
       <c r="W145" t="inlineStr"/>
-      <c r="X145" t="inlineStr"/>
+      <c r="X145" t="n">
+        <v>420</v>
+      </c>
       <c r="Y145" t="n">
         <v>153</v>
       </c>
@@ -20134,7 +20158,7 @@
         <v>130</v>
       </c>
       <c r="AB145" t="n">
-        <v>1939</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="146">
@@ -20155,10 +20179,14 @@
       </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>12</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>20</v>
+      </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
@@ -20172,17 +20200,21 @@
       <c r="T146" t="n">
         <v>23</v>
       </c>
-      <c r="U146" t="inlineStr"/>
+      <c r="U146" t="n">
+        <v>18</v>
+      </c>
       <c r="V146" t="n">
         <v>350</v>
       </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr"/>
-      <c r="Z146" t="inlineStr"/>
+      <c r="Z146" t="n">
+        <v>9</v>
+      </c>
       <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="n">
-        <v>1939</v>
+        <v>1953</v>
       </c>
     </row>
   </sheetData>
@@ -29224,7 +29256,9 @@
         <v>9</v>
       </c>
       <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
+      <c r="X142" t="n">
+        <v>32</v>
+      </c>
       <c r="Y142" t="n">
         <v>15</v>
       </c>
@@ -29235,7 +29269,7 @@
         <v>9</v>
       </c>
       <c r="AB142" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="143">
@@ -29282,7 +29316,9 @@
         <v>9</v>
       </c>
       <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr"/>
+      <c r="X143" t="n">
+        <v>32</v>
+      </c>
       <c r="Y143" t="n">
         <v>14</v>
       </c>
@@ -29293,7 +29329,7 @@
         <v>8</v>
       </c>
       <c r="AB143" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="144">
@@ -29342,7 +29378,9 @@
         <v>8</v>
       </c>
       <c r="W144" t="inlineStr"/>
-      <c r="X144" t="inlineStr"/>
+      <c r="X144" t="n">
+        <v>32</v>
+      </c>
       <c r="Y144" t="n">
         <v>14</v>
       </c>
@@ -29353,7 +29391,7 @@
         <v>9</v>
       </c>
       <c r="AB144" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="145">
@@ -29408,7 +29446,9 @@
         <v>6</v>
       </c>
       <c r="W145" t="inlineStr"/>
-      <c r="X145" t="inlineStr"/>
+      <c r="X145" t="n">
+        <v>31</v>
+      </c>
       <c r="Y145" t="n">
         <v>14</v>
       </c>
@@ -29436,7 +29476,9 @@
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
@@ -29447,17 +29489,21 @@
       <c r="R146" t="inlineStr"/>
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr"/>
-      <c r="U146" t="inlineStr"/>
+      <c r="U146" t="n">
+        <v>1</v>
+      </c>
       <c r="V146" t="n">
         <v>6</v>
       </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr"/>
-      <c r="Z146" t="inlineStr"/>
+      <c r="Z146" t="n">
+        <v>0</v>
+      </c>
       <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -37541,7 +37587,9 @@
         <v>0</v>
       </c>
       <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
+      <c r="X142" t="n">
+        <v>3</v>
+      </c>
       <c r="Y142" t="n">
         <v>4</v>
       </c>
@@ -37597,7 +37645,9 @@
         <v>0</v>
       </c>
       <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr"/>
+      <c r="X143" t="n">
+        <v>3</v>
+      </c>
       <c r="Y143" t="n">
         <v>4</v>
       </c>
@@ -37655,7 +37705,9 @@
         <v>0</v>
       </c>
       <c r="W144" t="inlineStr"/>
-      <c r="X144" t="inlineStr"/>
+      <c r="X144" t="n">
+        <v>3</v>
+      </c>
       <c r="Y144" t="n">
         <v>4</v>
       </c>
@@ -37715,7 +37767,9 @@
         <v>0</v>
       </c>
       <c r="W145" t="inlineStr"/>
-      <c r="X145" t="inlineStr"/>
+      <c r="X145" t="n">
+        <v>4</v>
+      </c>
       <c r="Y145" t="n">
         <v>4</v>
       </c>
@@ -37724,7 +37778,7 @@
       </c>
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146">
@@ -37752,17 +37806,21 @@
       <c r="R146" t="inlineStr"/>
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr"/>
-      <c r="U146" t="inlineStr"/>
+      <c r="U146" t="n">
+        <v>0</v>
+      </c>
       <c r="V146" t="n">
         <v>0</v>
       </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr"/>
-      <c r="Z146" t="inlineStr"/>
+      <c r="Z146" t="n">
+        <v>0</v>
+      </c>
       <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -51795,7 +51853,9 @@
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr"/>
-      <c r="Z146" t="inlineStr"/>
+      <c r="Z146" t="n">
+        <v>189</v>
+      </c>
       <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="n">
         <v>5850</v>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10436,7 +10436,9 @@
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
+      <c r="F146" t="n">
+        <v>847</v>
+      </c>
       <c r="G146" t="n">
         <v>983</v>
       </c>
@@ -10477,7 +10479,7 @@
       </c>
       <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="n">
-        <v>31074</v>
+        <v>31075</v>
       </c>
     </row>
   </sheetData>
@@ -20173,7 +20175,9 @@
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
+      <c r="F146" t="n">
+        <v>35</v>
+      </c>
       <c r="G146" t="n">
         <v>50</v>
       </c>
@@ -29472,7 +29476,9 @@
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
@@ -37791,7 +37797,9 @@
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
@@ -44636,7 +44644,9 @@
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
@@ -51827,7 +51837,9 @@
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
+      <c r="F146" t="n">
+        <v>809</v>
+      </c>
       <c r="G146" t="n">
         <v>932</v>
       </c>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10435,7 +10435,9 @@
         <v>25</v>
       </c>
       <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
+      <c r="E146" t="n">
+        <v>1935</v>
+      </c>
       <c r="F146" t="n">
         <v>847</v>
       </c>
@@ -10477,9 +10479,11 @@
       <c r="Z146" t="n">
         <v>214</v>
       </c>
-      <c r="AA146" t="inlineStr"/>
+      <c r="AA146" t="n">
+        <v>3670</v>
+      </c>
       <c r="AB146" t="n">
-        <v>31075</v>
+        <v>31084</v>
       </c>
     </row>
   </sheetData>
@@ -20174,7 +20178,9 @@
         <v>0</v>
       </c>
       <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
+      <c r="E146" t="n">
+        <v>97</v>
+      </c>
       <c r="F146" t="n">
         <v>35</v>
       </c>
@@ -20216,7 +20222,9 @@
       <c r="Z146" t="n">
         <v>9</v>
       </c>
-      <c r="AA146" t="inlineStr"/>
+      <c r="AA146" t="n">
+        <v>130</v>
+      </c>
       <c r="AB146" t="n">
         <v>1953</v>
       </c>
@@ -29475,7 +29483,9 @@
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
+      <c r="E146" t="n">
+        <v>1</v>
+      </c>
       <c r="F146" t="n">
         <v>0</v>
       </c>
@@ -29507,9 +29517,11 @@
       <c r="Z146" t="n">
         <v>0</v>
       </c>
-      <c r="AA146" t="inlineStr"/>
+      <c r="AA146" t="n">
+        <v>8</v>
+      </c>
       <c r="AB146" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -37796,7 +37808,9 @@
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
       <c r="F146" t="n">
         <v>0</v>
       </c>
@@ -44643,7 +44657,9 @@
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
       <c r="F146" t="n">
         <v>0</v>
       </c>
@@ -44669,7 +44685,9 @@
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr"/>
-      <c r="AA146" t="inlineStr"/>
+      <c r="AA146" t="n">
+        <v>0</v>
+      </c>
       <c r="AB146" t="n">
         <v>5</v>
       </c>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -9966,7 +9966,9 @@
       <c r="K139" t="n">
         <v>828</v>
       </c>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>205</v>
+      </c>
       <c r="M139" t="n">
         <v>736</v>
       </c>
@@ -10042,7 +10044,9 @@
         <v>128</v>
       </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>205</v>
+      </c>
       <c r="M140" t="n">
         <v>736</v>
       </c>
@@ -10116,7 +10120,9 @@
         <v>128</v>
       </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>205</v>
+      </c>
       <c r="M141" t="n">
         <v>736</v>
       </c>
@@ -10188,7 +10194,9 @@
         <v>128</v>
       </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>205</v>
+      </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="n">
         <v>736</v>
@@ -10252,7 +10260,9 @@
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>206</v>
+      </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="n">
         <v>737</v>
@@ -10287,7 +10297,7 @@
         <v>3650</v>
       </c>
       <c r="AB143" t="n">
-        <v>31044</v>
+        <v>31045</v>
       </c>
     </row>
     <row r="144">
@@ -10314,11 +10324,15 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>206</v>
+      </c>
       <c r="M144" t="n">
         <v>738</v>
       </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>737</v>
+      </c>
       <c r="O144" t="n">
         <v>124</v>
       </c>
@@ -10351,7 +10365,7 @@
         <v>3655</v>
       </c>
       <c r="AB144" t="n">
-        <v>31059</v>
+        <v>31060</v>
       </c>
     </row>
     <row r="145">
@@ -10382,7 +10396,9 @@
         <v>128</v>
       </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>206</v>
+      </c>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="n">
@@ -10412,7 +10428,7 @@
         <v>5475</v>
       </c>
       <c r="Y145" t="n">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="Z145" t="n">
         <v>213</v>
@@ -10421,7 +10437,7 @@
         <v>3662</v>
       </c>
       <c r="AB145" t="n">
-        <v>31071</v>
+        <v>31076</v>
       </c>
     </row>
     <row r="146">
@@ -10450,12 +10466,16 @@
         <v>128</v>
       </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>206</v>
+      </c>
       <c r="M146" t="n">
         <v>740</v>
       </c>
       <c r="N146" t="inlineStr"/>
-      <c r="O146" t="inlineStr"/>
+      <c r="O146" t="n">
+        <v>124</v>
+      </c>
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="n">
@@ -10475,7 +10495,9 @@
       </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
-      <c r="Y146" t="inlineStr"/>
+      <c r="Y146" t="n">
+        <v>1982</v>
+      </c>
       <c r="Z146" t="n">
         <v>214</v>
       </c>
@@ -10483,7 +10505,7 @@
         <v>3670</v>
       </c>
       <c r="AB146" t="n">
-        <v>31084</v>
+        <v>31090</v>
       </c>
     </row>
   </sheetData>
@@ -19439,7 +19461,9 @@
       <c r="M135" t="n">
         <v>20</v>
       </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>83</v>
+      </c>
       <c r="O135" t="n">
         <v>3</v>
       </c>
@@ -19511,7 +19535,9 @@
         <v>7</v>
       </c>
       <c r="M136" t="inlineStr"/>
-      <c r="N136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>83</v>
+      </c>
       <c r="O136" t="n">
         <v>3</v>
       </c>
@@ -19579,7 +19605,9 @@
       <c r="M137" t="n">
         <v>20</v>
       </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>83</v>
+      </c>
       <c r="O137" t="n">
         <v>3</v>
       </c>
@@ -19651,7 +19679,9 @@
       <c r="M138" t="n">
         <v>20</v>
       </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="N138" t="n">
+        <v>83</v>
+      </c>
       <c r="O138" t="n">
         <v>3</v>
       </c>
@@ -19721,11 +19751,15 @@
       <c r="K139" t="n">
         <v>50</v>
       </c>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>7</v>
+      </c>
       <c r="M139" t="n">
         <v>20</v>
       </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="N139" t="n">
+        <v>83</v>
+      </c>
       <c r="O139" t="n">
         <v>3</v>
       </c>
@@ -19793,7 +19827,9 @@
         <v>12</v>
       </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>7</v>
+      </c>
       <c r="M140" t="n">
         <v>20</v>
       </c>
@@ -19865,7 +19901,9 @@
         <v>12</v>
       </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>7</v>
+      </c>
       <c r="M141" t="n">
         <v>20</v>
       </c>
@@ -19935,7 +19973,9 @@
         <v>12</v>
       </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>7</v>
+      </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="n">
@@ -19997,7 +20037,9 @@
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>7</v>
+      </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="n">
@@ -20057,7 +20099,9 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>7</v>
+      </c>
       <c r="M144" t="n">
         <v>20</v>
       </c>
@@ -20125,7 +20169,9 @@
         <v>12</v>
       </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>7</v>
+      </c>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="n">
@@ -20193,12 +20239,16 @@
         <v>12</v>
       </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>7</v>
+      </c>
       <c r="M146" t="n">
         <v>20</v>
       </c>
       <c r="N146" t="inlineStr"/>
-      <c r="O146" t="inlineStr"/>
+      <c r="O146" t="n">
+        <v>3</v>
+      </c>
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="n">
@@ -20218,7 +20268,9 @@
       </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
-      <c r="Y146" t="inlineStr"/>
+      <c r="Y146" t="n">
+        <v>153</v>
+      </c>
       <c r="Z146" t="n">
         <v>9</v>
       </c>
@@ -28216,7 +28268,7 @@
         <v>35</v>
       </c>
       <c r="Y127" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z127" t="n">
         <v>0</v>
@@ -28225,7 +28277,7 @@
         <v>20</v>
       </c>
       <c r="AB127" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="128">
@@ -28294,7 +28346,7 @@
         <v>31</v>
       </c>
       <c r="Y128" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z128" t="n">
         <v>0</v>
@@ -28303,7 +28355,7 @@
         <v>15</v>
       </c>
       <c r="AB128" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="129">
@@ -28360,7 +28412,7 @@
         <v>31</v>
       </c>
       <c r="Y129" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z129" t="n">
         <v>0</v>
@@ -28369,7 +28421,7 @@
         <v>12</v>
       </c>
       <c r="AB129" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="130">
@@ -28426,7 +28478,7 @@
         <v>32</v>
       </c>
       <c r="Y130" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z130" t="n">
         <v>0</v>
@@ -28435,7 +28487,7 @@
         <v>11</v>
       </c>
       <c r="AB130" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="131">
@@ -28492,7 +28544,7 @@
         <v>32</v>
       </c>
       <c r="Y131" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z131" t="n">
         <v>0</v>
@@ -28501,7 +28553,7 @@
         <v>11</v>
       </c>
       <c r="AB131" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="132">
@@ -28570,7 +28622,7 @@
         <v>32</v>
       </c>
       <c r="Y132" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z132" t="n">
         <v>0</v>
@@ -28579,7 +28631,7 @@
         <v>11</v>
       </c>
       <c r="AB132" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="133">
@@ -28648,7 +28700,7 @@
         <v>32</v>
       </c>
       <c r="Y133" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z133" t="n">
         <v>0</v>
@@ -28657,7 +28709,7 @@
         <v>9</v>
       </c>
       <c r="AB133" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="134">
@@ -28724,7 +28776,7 @@
         <v>33</v>
       </c>
       <c r="Y134" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z134" t="n">
         <v>0</v>
@@ -28733,7 +28785,7 @@
         <v>9</v>
       </c>
       <c r="AB134" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="135">
@@ -28798,7 +28850,7 @@
         <v>32</v>
       </c>
       <c r="Y135" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z135" t="n">
         <v>0</v>
@@ -28807,7 +28859,7 @@
         <v>8</v>
       </c>
       <c r="AB135" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="136">
@@ -28862,7 +28914,7 @@
         <v>29</v>
       </c>
       <c r="Y136" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z136" t="n">
         <v>0</v>
@@ -28871,7 +28923,7 @@
         <v>7</v>
       </c>
       <c r="AB136" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="137">
@@ -28926,7 +28978,7 @@
         <v>30</v>
       </c>
       <c r="Y137" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z137" t="n">
         <v>0</v>
@@ -28935,7 +28987,7 @@
         <v>7</v>
       </c>
       <c r="AB137" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="138">
@@ -29006,7 +29058,7 @@
         <v>32</v>
       </c>
       <c r="Y138" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z138" t="n">
         <v>0</v>
@@ -29015,7 +29067,7 @@
         <v>7</v>
       </c>
       <c r="AB138" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="139">
@@ -29048,7 +29100,9 @@
       <c r="K139" t="n">
         <v>0</v>
       </c>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="n">
         <v>2</v>
@@ -29076,7 +29130,7 @@
         <v>32</v>
       </c>
       <c r="Y139" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z139" t="n">
         <v>0</v>
@@ -29085,7 +29139,7 @@
         <v>6</v>
       </c>
       <c r="AB139" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="140">
@@ -29114,7 +29168,9 @@
         <v>0</v>
       </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
       <c r="M140" t="n">
         <v>8</v>
       </c>
@@ -29144,7 +29200,7 @@
         <v>31</v>
       </c>
       <c r="Y140" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z140" t="n">
         <v>1</v>
@@ -29153,7 +29209,7 @@
         <v>7</v>
       </c>
       <c r="AB140" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="141">
@@ -29184,7 +29240,9 @@
         <v>0</v>
       </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="n">
         <v>2</v>
@@ -29208,7 +29266,7 @@
         <v>31</v>
       </c>
       <c r="Y141" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z141" t="n">
         <v>1</v>
@@ -29217,7 +29275,7 @@
         <v>8</v>
       </c>
       <c r="AB141" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="142">
@@ -29248,7 +29306,9 @@
         <v>0</v>
       </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="n">
         <v>3</v>
@@ -29272,7 +29332,7 @@
         <v>32</v>
       </c>
       <c r="Y142" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z142" t="n">
         <v>1</v>
@@ -29281,7 +29341,7 @@
         <v>9</v>
       </c>
       <c r="AB142" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="143">
@@ -29308,7 +29368,9 @@
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="n">
         <v>3</v>
@@ -29332,7 +29394,7 @@
         <v>32</v>
       </c>
       <c r="Y143" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z143" t="n">
         <v>1</v>
@@ -29341,7 +29403,7 @@
         <v>8</v>
       </c>
       <c r="AB143" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="144">
@@ -29368,7 +29430,9 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
       <c r="M144" t="n">
         <v>8</v>
       </c>
@@ -29394,7 +29458,7 @@
         <v>32</v>
       </c>
       <c r="Y144" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z144" t="n">
         <v>1</v>
@@ -29403,7 +29467,7 @@
         <v>9</v>
       </c>
       <c r="AB144" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="145">
@@ -29434,7 +29498,9 @@
         <v>0</v>
       </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="n">
         <v>3</v>
@@ -29462,7 +29528,7 @@
         <v>31</v>
       </c>
       <c r="Y145" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z145" t="n">
         <v>1</v>
@@ -29471,7 +29537,7 @@
         <v>9</v>
       </c>
       <c r="AB145" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="146">
@@ -29496,10 +29562,16 @@
         <v>0</v>
       </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
       <c r="M146" t="inlineStr"/>
-      <c r="N146" t="inlineStr"/>
-      <c r="O146" t="inlineStr"/>
+      <c r="N146" t="n">
+        <v>2</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="inlineStr"/>
@@ -29513,7 +29585,9 @@
       </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
-      <c r="Y146" t="inlineStr"/>
+      <c r="Y146" t="n">
+        <v>15</v>
+      </c>
       <c r="Z146" t="n">
         <v>0</v>
       </c>
@@ -37401,7 +37475,9 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="n">
         <v>0</v>
@@ -37461,7 +37537,9 @@
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
       <c r="M140" t="n">
         <v>2</v>
       </c>
@@ -37525,7 +37603,9 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="n">
         <v>1</v>
@@ -37585,7 +37665,9 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="n">
         <v>0</v>
@@ -37643,7 +37725,9 @@
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="n">
         <v>0</v>
@@ -37701,7 +37785,9 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
       <c r="M144" t="n">
         <v>2</v>
       </c>
@@ -37763,7 +37849,9 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="n">
         <v>0</v>
@@ -37819,10 +37907,16 @@
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
       <c r="M146" t="inlineStr"/>
-      <c r="N146" t="inlineStr"/>
-      <c r="O146" t="inlineStr"/>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="inlineStr"/>
@@ -37836,7 +37930,9 @@
       </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
-      <c r="Y146" t="inlineStr"/>
+      <c r="Y146" t="n">
+        <v>4</v>
+      </c>
       <c r="Z146" t="n">
         <v>0</v>
       </c>
@@ -44670,7 +44766,9 @@
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
-      <c r="N146" t="inlineStr"/>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
@@ -44683,7 +44781,9 @@
       </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
-      <c r="Y146" t="inlineStr"/>
+      <c r="Y146" t="n">
+        <v>3</v>
+      </c>
       <c r="Z146" t="inlineStr"/>
       <c r="AA146" t="n">
         <v>0</v>
@@ -51882,7 +51982,9 @@
       </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
-      <c r="Y146" t="inlineStr"/>
+      <c r="Y146" t="n">
+        <v>287</v>
+      </c>
       <c r="Z146" t="n">
         <v>189</v>
       </c>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -2602,7 +2602,7 @@
         <v>22</v>
       </c>
       <c r="I50" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J50" t="n">
         <v>3</v>
@@ -2647,7 +2647,7 @@
         <v>140</v>
       </c>
       <c r="AB50" t="n">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="51">
@@ -2742,7 +2742,7 @@
         <v>36</v>
       </c>
       <c r="I52" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J52" t="n">
         <v>8</v>
@@ -2783,7 +2783,7 @@
         <v>218</v>
       </c>
       <c r="AB52" t="n">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="53">
@@ -2804,7 +2804,7 @@
         <v>40</v>
       </c>
       <c r="I53" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J53" t="n">
         <v>10</v>
@@ -2847,7 +2847,7 @@
         <v>250</v>
       </c>
       <c r="AB53" t="n">
-        <v>2070</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="54">
@@ -2876,7 +2876,7 @@
         <v>45</v>
       </c>
       <c r="I54" t="n">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="J54" t="n">
         <v>10</v>
@@ -2919,7 +2919,7 @@
         <v>326</v>
       </c>
       <c r="AB54" t="n">
-        <v>2862</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="55">
@@ -2946,7 +2946,7 @@
         <v>59</v>
       </c>
       <c r="I55" t="n">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="J55" t="n">
         <v>12</v>
@@ -2993,7 +2993,7 @@
         <v>429</v>
       </c>
       <c r="AB55" t="n">
-        <v>3760</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="56">
@@ -3022,7 +3022,7 @@
         <v>86</v>
       </c>
       <c r="I56" t="n">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="J56" t="n">
         <v>14</v>
@@ -3073,7 +3073,7 @@
         <v>568</v>
       </c>
       <c r="AB56" t="n">
-        <v>4867</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="57">
@@ -3102,7 +3102,7 @@
         <v>111</v>
       </c>
       <c r="I57" t="n">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="J57" t="n">
         <v>16</v>
@@ -3151,7 +3151,7 @@
         <v>679</v>
       </c>
       <c r="AB57" t="n">
-        <v>5848</v>
+        <v>5854</v>
       </c>
     </row>
     <row r="58">
@@ -3178,7 +3178,7 @@
         <v>145</v>
       </c>
       <c r="I58" t="n">
-        <v>1192</v>
+        <v>1200</v>
       </c>
       <c r="J58" t="n">
         <v>20</v>
@@ -3231,7 +3231,7 @@
         <v>711</v>
       </c>
       <c r="AB58" t="n">
-        <v>7059</v>
+        <v>7067</v>
       </c>
     </row>
     <row r="59">
@@ -3256,7 +3256,7 @@
         <v>167</v>
       </c>
       <c r="I59" t="n">
-        <v>1329</v>
+        <v>1338</v>
       </c>
       <c r="J59" t="n">
         <v>25</v>
@@ -3305,7 +3305,7 @@
         <v>925</v>
       </c>
       <c r="AB59" t="n">
-        <v>7950</v>
+        <v>7959</v>
       </c>
     </row>
     <row r="60">
@@ -3330,7 +3330,7 @@
         <v>202</v>
       </c>
       <c r="I60" t="n">
-        <v>1429</v>
+        <v>1440</v>
       </c>
       <c r="J60" t="n">
         <v>29</v>
@@ -3377,7 +3377,7 @@
         <v>984</v>
       </c>
       <c r="AB60" t="n">
-        <v>8531</v>
+        <v>8542</v>
       </c>
     </row>
     <row r="61">
@@ -3406,7 +3406,7 @@
         <v>226</v>
       </c>
       <c r="I61" t="n">
-        <v>1581</v>
+        <v>1592</v>
       </c>
       <c r="J61" t="n">
         <v>31</v>
@@ -3461,7 +3461,7 @@
         <v>1073</v>
       </c>
       <c r="AB61" t="n">
-        <v>9809</v>
+        <v>9820</v>
       </c>
     </row>
     <row r="62">
@@ -3492,7 +3492,7 @@
         <v>255</v>
       </c>
       <c r="I62" t="n">
-        <v>1699</v>
+        <v>1710</v>
       </c>
       <c r="J62" t="n">
         <v>33</v>
@@ -3549,7 +3549,7 @@
         <v>1221</v>
       </c>
       <c r="AB62" t="n">
-        <v>10904</v>
+        <v>10915</v>
       </c>
     </row>
     <row r="63">
@@ -3580,7 +3580,7 @@
         <v>293</v>
       </c>
       <c r="I63" t="n">
-        <v>1837</v>
+        <v>1850</v>
       </c>
       <c r="J63" t="n">
         <v>40</v>
@@ -3633,7 +3633,7 @@
         <v>1368</v>
       </c>
       <c r="AB63" t="n">
-        <v>12032</v>
+        <v>12045</v>
       </c>
     </row>
     <row r="64">
@@ -3664,7 +3664,7 @@
         <v>309</v>
       </c>
       <c r="I64" t="n">
-        <v>2035</v>
+        <v>2048</v>
       </c>
       <c r="J64" t="n">
         <v>43</v>
@@ -3721,7 +3721,7 @@
         <v>1500</v>
       </c>
       <c r="AB64" t="n">
-        <v>13107</v>
+        <v>13120</v>
       </c>
     </row>
     <row r="65">
@@ -3752,7 +3752,7 @@
         <v>369</v>
       </c>
       <c r="I65" t="n">
-        <v>2192</v>
+        <v>2207</v>
       </c>
       <c r="J65" t="n">
         <v>47</v>
@@ -3809,7 +3809,7 @@
         <v>1627</v>
       </c>
       <c r="AB65" t="n">
-        <v>14394</v>
+        <v>14409</v>
       </c>
     </row>
     <row r="66">
@@ -3838,7 +3838,7 @@
         <v>421</v>
       </c>
       <c r="I66" t="n">
-        <v>2395</v>
+        <v>2415</v>
       </c>
       <c r="J66" t="n">
         <v>47</v>
@@ -3893,7 +3893,7 @@
         <v>1701</v>
       </c>
       <c r="AB66" t="n">
-        <v>15226</v>
+        <v>15246</v>
       </c>
     </row>
     <row r="67">
@@ -3920,7 +3920,7 @@
         <v>442</v>
       </c>
       <c r="I67" t="n">
-        <v>2506</v>
+        <v>2527</v>
       </c>
       <c r="J67" t="n">
         <v>50</v>
@@ -3975,7 +3975,7 @@
         <v>1733</v>
       </c>
       <c r="AB67" t="n">
-        <v>15819</v>
+        <v>15840</v>
       </c>
     </row>
     <row r="68">
@@ -4006,7 +4006,7 @@
         <v>477</v>
       </c>
       <c r="I68" t="n">
-        <v>2722</v>
+        <v>2744</v>
       </c>
       <c r="J68" t="n">
         <v>51</v>
@@ -4061,7 +4061,7 @@
         <v>1859</v>
       </c>
       <c r="AB68" t="n">
-        <v>16974</v>
+        <v>16996</v>
       </c>
     </row>
     <row r="69">
@@ -4092,7 +4092,7 @@
         <v>491</v>
       </c>
       <c r="I69" t="n">
-        <v>2958</v>
+        <v>2985</v>
       </c>
       <c r="J69" t="n">
         <v>53</v>
@@ -4149,7 +4149,7 @@
         <v>1947</v>
       </c>
       <c r="AB69" t="n">
-        <v>17906</v>
+        <v>17933</v>
       </c>
     </row>
     <row r="70">
@@ -4178,7 +4178,7 @@
         <v>525</v>
       </c>
       <c r="I70" t="n">
-        <v>3137</v>
+        <v>3164</v>
       </c>
       <c r="J70" t="n">
         <v>56</v>
@@ -4235,7 +4235,7 @@
         <v>2136</v>
       </c>
       <c r="AB70" t="n">
-        <v>18945</v>
+        <v>18972</v>
       </c>
     </row>
     <row r="71">
@@ -4266,7 +4266,7 @@
         <v>550</v>
       </c>
       <c r="I71" t="n">
-        <v>3420</v>
+        <v>3448</v>
       </c>
       <c r="J71" t="n">
         <v>58</v>
@@ -4323,7 +4323,7 @@
         <v>2300</v>
       </c>
       <c r="AB71" t="n">
-        <v>20024</v>
+        <v>20052</v>
       </c>
     </row>
     <row r="72">
@@ -4354,7 +4354,7 @@
         <v>588</v>
       </c>
       <c r="I72" t="n">
-        <v>3621</v>
+        <v>3652</v>
       </c>
       <c r="J72" t="n">
         <v>59</v>
@@ -4411,7 +4411,7 @@
         <v>2428</v>
       </c>
       <c r="AB72" t="n">
-        <v>20989</v>
+        <v>21020</v>
       </c>
     </row>
     <row r="73">
@@ -4440,7 +4440,7 @@
         <v>638</v>
       </c>
       <c r="I73" t="n">
-        <v>3753</v>
+        <v>3785</v>
       </c>
       <c r="J73" t="n">
         <v>61</v>
@@ -4495,7 +4495,7 @@
         <v>2461</v>
       </c>
       <c r="AB73" t="n">
-        <v>21553</v>
+        <v>21585</v>
       </c>
     </row>
     <row r="74">
@@ -4522,7 +4522,7 @@
         <v>669</v>
       </c>
       <c r="I74" t="n">
-        <v>3838</v>
+        <v>3870</v>
       </c>
       <c r="J74" t="n">
         <v>63</v>
@@ -4577,7 +4577,7 @@
         <v>2491</v>
       </c>
       <c r="AB74" t="n">
-        <v>21946</v>
+        <v>21978</v>
       </c>
     </row>
     <row r="75">
@@ -4608,7 +4608,7 @@
         <v>689</v>
       </c>
       <c r="I75" t="n">
-        <v>3955</v>
+        <v>3987</v>
       </c>
       <c r="J75" t="n">
         <v>63</v>
@@ -4665,7 +4665,7 @@
         <v>2605</v>
       </c>
       <c r="AB75" t="n">
-        <v>22692</v>
+        <v>22724</v>
       </c>
     </row>
     <row r="76">
@@ -4696,7 +4696,7 @@
         <v>729</v>
       </c>
       <c r="I76" t="n">
-        <v>4118</v>
+        <v>4154</v>
       </c>
       <c r="J76" t="n">
         <v>63</v>
@@ -4753,7 +4753,7 @@
         <v>2688</v>
       </c>
       <c r="AB76" t="n">
-        <v>23360</v>
+        <v>23396</v>
       </c>
     </row>
     <row r="77">
@@ -4784,7 +4784,7 @@
         <v>756</v>
       </c>
       <c r="I77" t="n">
-        <v>4249</v>
+        <v>4290</v>
       </c>
       <c r="J77" t="n">
         <v>64</v>
@@ -4841,7 +4841,7 @@
         <v>2783</v>
       </c>
       <c r="AB77" t="n">
-        <v>24035</v>
+        <v>24076</v>
       </c>
     </row>
     <row r="78">
@@ -4872,7 +4872,7 @@
         <v>786</v>
       </c>
       <c r="I78" t="n">
-        <v>4338</v>
+        <v>4380</v>
       </c>
       <c r="J78" t="n">
         <v>67</v>
@@ -4929,7 +4929,7 @@
         <v>2880</v>
       </c>
       <c r="AB78" t="n">
-        <v>24685</v>
+        <v>24727</v>
       </c>
     </row>
     <row r="79">
@@ -4958,7 +4958,7 @@
         <v>796</v>
       </c>
       <c r="I79" t="n">
-        <v>4383</v>
+        <v>4425</v>
       </c>
       <c r="J79" t="n">
         <v>76</v>
@@ -5013,7 +5013,7 @@
         <v>2920</v>
       </c>
       <c r="AB79" t="n">
-        <v>25133</v>
+        <v>25175</v>
       </c>
     </row>
     <row r="80">
@@ -5044,7 +5044,7 @@
         <v>834</v>
       </c>
       <c r="I80" t="n">
-        <v>4432</v>
+        <v>4477</v>
       </c>
       <c r="J80" t="n">
         <v>91</v>
@@ -5099,7 +5099,7 @@
         <v>2978</v>
       </c>
       <c r="AB80" t="n">
-        <v>25586</v>
+        <v>25631</v>
       </c>
     </row>
     <row r="81">
@@ -5126,7 +5126,7 @@
         <v>846</v>
       </c>
       <c r="I81" t="n">
-        <v>4454</v>
+        <v>4502</v>
       </c>
       <c r="J81" t="n">
         <v>91</v>
@@ -5181,7 +5181,7 @@
         <v>2995</v>
       </c>
       <c r="AB81" t="n">
-        <v>25854</v>
+        <v>25902</v>
       </c>
     </row>
     <row r="82">
@@ -5212,7 +5212,7 @@
         <v>859</v>
       </c>
       <c r="I82" t="n">
-        <v>4497</v>
+        <v>4545</v>
       </c>
       <c r="J82" t="n">
         <v>92</v>
@@ -5267,7 +5267,7 @@
         <v>3012</v>
       </c>
       <c r="AB82" t="n">
-        <v>26097</v>
+        <v>26145</v>
       </c>
     </row>
     <row r="83">
@@ -5298,7 +5298,7 @@
         <v>879</v>
       </c>
       <c r="I83" t="n">
-        <v>4553</v>
+        <v>4601</v>
       </c>
       <c r="J83" t="n">
         <v>105</v>
@@ -5355,7 +5355,7 @@
         <v>3059</v>
       </c>
       <c r="AB83" t="n">
-        <v>26426</v>
+        <v>26474</v>
       </c>
     </row>
     <row r="84">
@@ -5386,7 +5386,7 @@
         <v>890</v>
       </c>
       <c r="I84" t="n">
-        <v>4614</v>
+        <v>4663</v>
       </c>
       <c r="J84" t="n">
         <v>105</v>
@@ -5443,7 +5443,7 @@
         <v>3106</v>
       </c>
       <c r="AB84" t="n">
-        <v>26743</v>
+        <v>26792</v>
       </c>
     </row>
     <row r="85">
@@ -5474,7 +5474,7 @@
         <v>907</v>
       </c>
       <c r="I85" t="n">
-        <v>4682</v>
+        <v>4734</v>
       </c>
       <c r="J85" t="n">
         <v>106</v>
@@ -5531,7 +5531,7 @@
         <v>3141</v>
       </c>
       <c r="AB85" t="n">
-        <v>27046</v>
+        <v>27098</v>
       </c>
     </row>
     <row r="86">
@@ -5562,7 +5562,7 @@
         <v>930</v>
       </c>
       <c r="I86" t="n">
-        <v>4726</v>
+        <v>4779</v>
       </c>
       <c r="J86" t="n">
         <v>108</v>
@@ -5619,7 +5619,7 @@
         <v>3164</v>
       </c>
       <c r="AB86" t="n">
-        <v>27349</v>
+        <v>27402</v>
       </c>
     </row>
     <row r="87">
@@ -5646,7 +5646,7 @@
         <v>956</v>
       </c>
       <c r="I87" t="n">
-        <v>4771</v>
+        <v>4824</v>
       </c>
       <c r="J87" t="n">
         <v>111</v>
@@ -5701,7 +5701,7 @@
         <v>3203</v>
       </c>
       <c r="AB87" t="n">
-        <v>27627</v>
+        <v>27680</v>
       </c>
     </row>
     <row r="88">
@@ -5730,7 +5730,7 @@
         <v>980</v>
       </c>
       <c r="I88" t="n">
-        <v>4781</v>
+        <v>4836</v>
       </c>
       <c r="J88" t="n">
         <v>111</v>
@@ -5785,7 +5785,7 @@
         <v>3230</v>
       </c>
       <c r="AB88" t="n">
-        <v>27801</v>
+        <v>27856</v>
       </c>
     </row>
     <row r="89">
@@ -5816,7 +5816,7 @@
         <v>989</v>
       </c>
       <c r="I89" t="n">
-        <v>4808</v>
+        <v>4863</v>
       </c>
       <c r="J89" t="n">
         <v>114</v>
@@ -5873,7 +5873,7 @@
         <v>3246</v>
       </c>
       <c r="AB89" t="n">
-        <v>28002</v>
+        <v>28057</v>
       </c>
     </row>
     <row r="90">
@@ -5904,7 +5904,7 @@
         <v>995</v>
       </c>
       <c r="I90" t="n">
-        <v>4842</v>
+        <v>4897</v>
       </c>
       <c r="J90" t="n">
         <v>115</v>
@@ -5961,7 +5961,7 @@
         <v>3271</v>
       </c>
       <c r="AB90" t="n">
-        <v>28169</v>
+        <v>28224</v>
       </c>
     </row>
     <row r="91">
@@ -5992,7 +5992,7 @@
         <v>1006</v>
       </c>
       <c r="I91" t="n">
-        <v>4872</v>
+        <v>4927</v>
       </c>
       <c r="J91" t="n">
         <v>117</v>
@@ -6049,7 +6049,7 @@
         <v>3311</v>
       </c>
       <c r="AB91" t="n">
-        <v>28372</v>
+        <v>28427</v>
       </c>
     </row>
     <row r="92">
@@ -6080,7 +6080,7 @@
         <v>1014</v>
       </c>
       <c r="I92" t="n">
-        <v>4906</v>
+        <v>4962</v>
       </c>
       <c r="J92" t="n">
         <v>117</v>
@@ -6137,7 +6137,7 @@
         <v>3328</v>
       </c>
       <c r="AB92" t="n">
-        <v>28592</v>
+        <v>28648</v>
       </c>
     </row>
     <row r="93">
@@ -6168,7 +6168,7 @@
         <v>1021</v>
       </c>
       <c r="I93" t="n">
-        <v>4925</v>
+        <v>4982</v>
       </c>
       <c r="J93" t="n">
         <v>117</v>
@@ -6225,7 +6225,7 @@
         <v>3357</v>
       </c>
       <c r="AB93" t="n">
-        <v>28777</v>
+        <v>28834</v>
       </c>
     </row>
     <row r="94">
@@ -6252,7 +6252,7 @@
         <v>1029</v>
       </c>
       <c r="I94" t="n">
-        <v>4942</v>
+        <v>4999</v>
       </c>
       <c r="J94" t="n">
         <v>120</v>
@@ -6307,7 +6307,7 @@
         <v>3388</v>
       </c>
       <c r="AB94" t="n">
-        <v>28922</v>
+        <v>28979</v>
       </c>
     </row>
     <row r="95">
@@ -6332,7 +6332,7 @@
         <v>1033</v>
       </c>
       <c r="I95" t="n">
-        <v>4947</v>
+        <v>5004</v>
       </c>
       <c r="J95" t="n">
         <v>120</v>
@@ -6387,7 +6387,7 @@
         <v>3391</v>
       </c>
       <c r="AB95" t="n">
-        <v>28997</v>
+        <v>29054</v>
       </c>
     </row>
     <row r="96">
@@ -6418,7 +6418,7 @@
         <v>1040</v>
       </c>
       <c r="I96" t="n">
-        <v>4963</v>
+        <v>5020</v>
       </c>
       <c r="J96" t="n">
         <v>121</v>
@@ -6475,7 +6475,7 @@
         <v>3409</v>
       </c>
       <c r="AB96" t="n">
-        <v>29162</v>
+        <v>29219</v>
       </c>
     </row>
     <row r="97">
@@ -6506,7 +6506,7 @@
         <v>1044</v>
       </c>
       <c r="I97" t="n">
-        <v>4982</v>
+        <v>5039</v>
       </c>
       <c r="J97" t="n">
         <v>121</v>
@@ -6563,7 +6563,7 @@
         <v>3424</v>
       </c>
       <c r="AB97" t="n">
-        <v>29292</v>
+        <v>29349</v>
       </c>
     </row>
     <row r="98">
@@ -6594,7 +6594,7 @@
         <v>1057</v>
       </c>
       <c r="I98" t="n">
-        <v>4999</v>
+        <v>5056</v>
       </c>
       <c r="J98" t="n">
         <v>122</v>
@@ -6651,7 +6651,7 @@
         <v>3453</v>
       </c>
       <c r="AB98" t="n">
-        <v>29431</v>
+        <v>29488</v>
       </c>
     </row>
     <row r="99">
@@ -6682,7 +6682,7 @@
         <v>1070</v>
       </c>
       <c r="I99" t="n">
-        <v>5009</v>
+        <v>5066</v>
       </c>
       <c r="J99" t="n">
         <v>122</v>
@@ -6739,7 +6739,7 @@
         <v>3464</v>
       </c>
       <c r="AB99" t="n">
-        <v>29575</v>
+        <v>29632</v>
       </c>
     </row>
     <row r="100">
@@ -6770,7 +6770,7 @@
         <v>1078</v>
       </c>
       <c r="I100" t="n">
-        <v>5027</v>
+        <v>5084</v>
       </c>
       <c r="J100" t="n">
         <v>122</v>
@@ -6827,7 +6827,7 @@
         <v>3477</v>
       </c>
       <c r="AB100" t="n">
-        <v>29685</v>
+        <v>29742</v>
       </c>
     </row>
     <row r="101">
@@ -6856,7 +6856,7 @@
         <v>1092</v>
       </c>
       <c r="I101" t="n">
-        <v>5032</v>
+        <v>5089</v>
       </c>
       <c r="J101" t="n">
         <v>122</v>
@@ -6909,7 +6909,7 @@
         <v>3480</v>
       </c>
       <c r="AB101" t="n">
-        <v>29763</v>
+        <v>29820</v>
       </c>
     </row>
     <row r="102">
@@ -6938,7 +6938,7 @@
         <v>1097</v>
       </c>
       <c r="I102" t="n">
-        <v>5038</v>
+        <v>5095</v>
       </c>
       <c r="J102" t="n">
         <v>122</v>
@@ -6991,7 +6991,7 @@
         <v>3484</v>
       </c>
       <c r="AB102" t="n">
-        <v>29823</v>
+        <v>29880</v>
       </c>
     </row>
     <row r="103">
@@ -7022,7 +7022,7 @@
         <v>1102</v>
       </c>
       <c r="I103" t="n">
-        <v>5044</v>
+        <v>5101</v>
       </c>
       <c r="J103" t="n">
         <v>122</v>
@@ -7079,7 +7079,7 @@
         <v>3486</v>
       </c>
       <c r="AB103" t="n">
-        <v>29884</v>
+        <v>29941</v>
       </c>
     </row>
     <row r="104">
@@ -7110,7 +7110,7 @@
         <v>1104</v>
       </c>
       <c r="I104" t="n">
-        <v>5053</v>
+        <v>5110</v>
       </c>
       <c r="J104" t="n">
         <v>122</v>
@@ -7167,7 +7167,7 @@
         <v>3502</v>
       </c>
       <c r="AB104" t="n">
-        <v>29943</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="105">
@@ -7198,7 +7198,7 @@
         <v>1107</v>
       </c>
       <c r="I105" t="n">
-        <v>5060</v>
+        <v>5117</v>
       </c>
       <c r="J105" t="n">
         <v>125</v>
@@ -7255,7 +7255,7 @@
         <v>3517</v>
       </c>
       <c r="AB105" t="n">
-        <v>30027</v>
+        <v>30084</v>
       </c>
     </row>
     <row r="106">
@@ -7284,7 +7284,7 @@
         <v>1115</v>
       </c>
       <c r="I106" t="n">
-        <v>5068</v>
+        <v>5125</v>
       </c>
       <c r="J106" t="n">
         <v>125</v>
@@ -7341,7 +7341,7 @@
         <v>3527</v>
       </c>
       <c r="AB106" t="n">
-        <v>30098</v>
+        <v>30155</v>
       </c>
     </row>
     <row r="107">
@@ -7370,7 +7370,7 @@
         <v>1117</v>
       </c>
       <c r="I107" t="n">
-        <v>5074</v>
+        <v>5131</v>
       </c>
       <c r="J107" t="n">
         <v>125</v>
@@ -7427,7 +7427,7 @@
         <v>3537</v>
       </c>
       <c r="AB107" t="n">
-        <v>30163</v>
+        <v>30220</v>
       </c>
     </row>
     <row r="108">
@@ -7456,7 +7456,7 @@
         <v>1121</v>
       </c>
       <c r="I108" t="n">
-        <v>5083</v>
+        <v>5140</v>
       </c>
       <c r="J108" t="n">
         <v>126</v>
@@ -7507,7 +7507,7 @@
         <v>3542</v>
       </c>
       <c r="AB108" t="n">
-        <v>30210</v>
+        <v>30267</v>
       </c>
     </row>
     <row r="109">
@@ -7534,7 +7534,7 @@
         <v>1126</v>
       </c>
       <c r="I109" t="n">
-        <v>5084</v>
+        <v>5141</v>
       </c>
       <c r="J109" t="n">
         <v>126</v>
@@ -7583,7 +7583,7 @@
         <v>3545</v>
       </c>
       <c r="AB109" t="n">
-        <v>30241</v>
+        <v>30298</v>
       </c>
     </row>
     <row r="110">
@@ -7614,7 +7614,7 @@
         <v>1129</v>
       </c>
       <c r="I110" t="n">
-        <v>5089</v>
+        <v>5146</v>
       </c>
       <c r="J110" t="n">
         <v>127</v>
@@ -7671,7 +7671,7 @@
         <v>3550</v>
       </c>
       <c r="AB110" t="n">
-        <v>30303</v>
+        <v>30360</v>
       </c>
     </row>
     <row r="111">
@@ -7702,7 +7702,7 @@
         <v>1138</v>
       </c>
       <c r="I111" t="n">
-        <v>5099</v>
+        <v>5156</v>
       </c>
       <c r="J111" t="n">
         <v>127</v>
@@ -7759,7 +7759,7 @@
         <v>3552</v>
       </c>
       <c r="AB111" t="n">
-        <v>30353</v>
+        <v>30410</v>
       </c>
     </row>
     <row r="112">
@@ -7786,7 +7786,7 @@
         <v>1141</v>
       </c>
       <c r="I112" t="n">
-        <v>5103</v>
+        <v>5160</v>
       </c>
       <c r="J112" t="n">
         <v>127</v>
@@ -7843,7 +7843,7 @@
         <v>3558</v>
       </c>
       <c r="AB112" t="n">
-        <v>30389</v>
+        <v>30446</v>
       </c>
     </row>
     <row r="113">
@@ -7872,7 +7872,7 @@
         <v>1143</v>
       </c>
       <c r="I113" t="n">
-        <v>5110</v>
+        <v>5167</v>
       </c>
       <c r="J113" t="n">
         <v>128</v>
@@ -7929,7 +7929,7 @@
         <v>3563</v>
       </c>
       <c r="AB113" t="n">
-        <v>30430</v>
+        <v>30487</v>
       </c>
     </row>
     <row r="114">
@@ -7958,7 +7958,7 @@
         <v>1145</v>
       </c>
       <c r="I114" t="n">
-        <v>5115</v>
+        <v>5172</v>
       </c>
       <c r="J114" t="n">
         <v>128</v>
@@ -8013,7 +8013,7 @@
         <v>3565</v>
       </c>
       <c r="AB114" t="n">
-        <v>30474</v>
+        <v>30531</v>
       </c>
     </row>
     <row r="115">
@@ -8040,7 +8040,7 @@
         <v>1146</v>
       </c>
       <c r="I115" t="n">
-        <v>5117</v>
+        <v>5174</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
@@ -8089,7 +8089,7 @@
         <v>3570</v>
       </c>
       <c r="AB115" t="n">
-        <v>30504</v>
+        <v>30561</v>
       </c>
     </row>
     <row r="116">
@@ -8114,7 +8114,7 @@
         <v>1147</v>
       </c>
       <c r="I116" t="n">
-        <v>5118</v>
+        <v>5175</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
@@ -8163,7 +8163,7 @@
         <v>3572</v>
       </c>
       <c r="AB116" t="n">
-        <v>30520</v>
+        <v>30577</v>
       </c>
     </row>
     <row r="117">
@@ -8192,7 +8192,7 @@
         <v>1147</v>
       </c>
       <c r="I117" t="n">
-        <v>5119</v>
+        <v>5176</v>
       </c>
       <c r="J117" t="n">
         <v>128</v>
@@ -8249,7 +8249,7 @@
         <v>3576</v>
       </c>
       <c r="AB117" t="n">
-        <v>30556</v>
+        <v>30613</v>
       </c>
     </row>
     <row r="118">
@@ -8276,7 +8276,7 @@
         <v>1147</v>
       </c>
       <c r="I118" t="n">
-        <v>5121</v>
+        <v>5178</v>
       </c>
       <c r="J118" t="n">
         <v>128</v>
@@ -8333,7 +8333,7 @@
         <v>3580</v>
       </c>
       <c r="AB118" t="n">
-        <v>30580</v>
+        <v>30637</v>
       </c>
     </row>
     <row r="119">
@@ -8364,7 +8364,7 @@
         <v>1152</v>
       </c>
       <c r="I119" t="n">
-        <v>5128</v>
+        <v>5185</v>
       </c>
       <c r="J119" t="n">
         <v>128</v>
@@ -8421,7 +8421,7 @@
         <v>3583</v>
       </c>
       <c r="AB119" t="n">
-        <v>30623</v>
+        <v>30680</v>
       </c>
     </row>
     <row r="120">
@@ -8448,7 +8448,7 @@
         <v>1152</v>
       </c>
       <c r="I120" t="n">
-        <v>5133</v>
+        <v>5190</v>
       </c>
       <c r="J120" t="n">
         <v>128</v>
@@ -8499,7 +8499,7 @@
         <v>3584</v>
       </c>
       <c r="AB120" t="n">
-        <v>30651</v>
+        <v>30708</v>
       </c>
     </row>
     <row r="121">
@@ -8528,7 +8528,7 @@
         <v>1152</v>
       </c>
       <c r="I121" t="n">
-        <v>5135</v>
+        <v>5192</v>
       </c>
       <c r="J121" t="n">
         <v>128</v>
@@ -8579,7 +8579,7 @@
         <v>3586</v>
       </c>
       <c r="AB121" t="n">
-        <v>30669</v>
+        <v>30726</v>
       </c>
     </row>
     <row r="122">
@@ -8604,7 +8604,7 @@
         <v>1154</v>
       </c>
       <c r="I122" t="n">
-        <v>5137</v>
+        <v>5194</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
@@ -8651,7 +8651,7 @@
         <v>3588</v>
       </c>
       <c r="AB122" t="n">
-        <v>30689</v>
+        <v>30746</v>
       </c>
     </row>
     <row r="123">
@@ -8678,7 +8678,7 @@
         <v>1155</v>
       </c>
       <c r="I123" t="n">
-        <v>5137</v>
+        <v>5194</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
@@ -8725,7 +8725,7 @@
         <v>3589</v>
       </c>
       <c r="AB123" t="n">
-        <v>30699</v>
+        <v>30756</v>
       </c>
     </row>
     <row r="124">
@@ -8756,7 +8756,7 @@
         <v>1156</v>
       </c>
       <c r="I124" t="n">
-        <v>5137</v>
+        <v>5194</v>
       </c>
       <c r="J124" t="n">
         <v>128</v>
@@ -8813,7 +8813,7 @@
         <v>3591</v>
       </c>
       <c r="AB124" t="n">
-        <v>30708</v>
+        <v>30765</v>
       </c>
     </row>
     <row r="125">
@@ -8840,7 +8840,7 @@
         <v>1156</v>
       </c>
       <c r="I125" t="n">
-        <v>5140</v>
+        <v>5197</v>
       </c>
       <c r="J125" t="n">
         <v>128</v>
@@ -8897,7 +8897,7 @@
         <v>3597</v>
       </c>
       <c r="AB125" t="n">
-        <v>30730</v>
+        <v>30787</v>
       </c>
     </row>
     <row r="126">
@@ -8928,7 +8928,7 @@
         <v>1157</v>
       </c>
       <c r="I126" t="n">
-        <v>5143</v>
+        <v>5200</v>
       </c>
       <c r="J126" t="n">
         <v>128</v>
@@ -8985,7 +8985,7 @@
         <v>3600</v>
       </c>
       <c r="AB126" t="n">
-        <v>30744</v>
+        <v>30801</v>
       </c>
     </row>
     <row r="127">
@@ -9014,7 +9014,7 @@
         <v>1158</v>
       </c>
       <c r="I127" t="n">
-        <v>5145</v>
+        <v>5202</v>
       </c>
       <c r="J127" t="n">
         <v>128</v>
@@ -9071,7 +9071,7 @@
         <v>3605</v>
       </c>
       <c r="AB127" t="n">
-        <v>30762</v>
+        <v>30819</v>
       </c>
     </row>
     <row r="128">
@@ -9100,7 +9100,7 @@
         <v>1159</v>
       </c>
       <c r="I128" t="n">
-        <v>5149</v>
+        <v>5206</v>
       </c>
       <c r="J128" t="n">
         <v>128</v>
@@ -9157,7 +9157,7 @@
         <v>3611</v>
       </c>
       <c r="AB128" t="n">
-        <v>30785</v>
+        <v>30842</v>
       </c>
     </row>
     <row r="129">
@@ -9182,7 +9182,7 @@
         <v>1159</v>
       </c>
       <c r="I129" t="n">
-        <v>5154</v>
+        <v>5211</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
@@ -9229,7 +9229,7 @@
         <v>3617</v>
       </c>
       <c r="AB129" t="n">
-        <v>30826</v>
+        <v>30883</v>
       </c>
     </row>
     <row r="130">
@@ -9254,7 +9254,7 @@
         <v>1159</v>
       </c>
       <c r="I130" t="n">
-        <v>5154</v>
+        <v>5211</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
@@ -9301,7 +9301,7 @@
         <v>3617</v>
       </c>
       <c r="AB130" t="n">
-        <v>30833</v>
+        <v>30890</v>
       </c>
     </row>
     <row r="131">
@@ -9328,7 +9328,7 @@
         <v>1159</v>
       </c>
       <c r="I131" t="n">
-        <v>5155</v>
+        <v>5212</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
@@ -9375,7 +9375,7 @@
         <v>3617</v>
       </c>
       <c r="AB131" t="n">
-        <v>30845</v>
+        <v>30902</v>
       </c>
     </row>
     <row r="132">
@@ -9404,7 +9404,7 @@
         <v>1161</v>
       </c>
       <c r="I132" t="n">
-        <v>5158</v>
+        <v>5215</v>
       </c>
       <c r="J132" t="n">
         <v>128</v>
@@ -9459,7 +9459,7 @@
         <v>3619</v>
       </c>
       <c r="AB132" t="n">
-        <v>30866</v>
+        <v>30923</v>
       </c>
     </row>
     <row r="133">
@@ -9490,7 +9490,7 @@
         <v>1162</v>
       </c>
       <c r="I133" t="n">
-        <v>5160</v>
+        <v>5217</v>
       </c>
       <c r="J133" t="n">
         <v>128</v>
@@ -9545,7 +9545,7 @@
         <v>3622</v>
       </c>
       <c r="AB133" t="n">
-        <v>30883</v>
+        <v>30940</v>
       </c>
     </row>
     <row r="134">
@@ -9574,7 +9574,7 @@
         <v>1164</v>
       </c>
       <c r="I134" t="n">
-        <v>5161</v>
+        <v>5218</v>
       </c>
       <c r="J134" t="n">
         <v>128</v>
@@ -9627,7 +9627,7 @@
         <v>3630</v>
       </c>
       <c r="AB134" t="n">
-        <v>30907</v>
+        <v>30964</v>
       </c>
     </row>
     <row r="135">
@@ -9656,7 +9656,7 @@
         <v>1166</v>
       </c>
       <c r="I135" t="n">
-        <v>5162</v>
+        <v>5219</v>
       </c>
       <c r="J135" t="n">
         <v>128</v>
@@ -9709,7 +9709,7 @@
         <v>3636</v>
       </c>
       <c r="AB135" t="n">
-        <v>30928</v>
+        <v>30985</v>
       </c>
     </row>
     <row r="136">
@@ -9734,7 +9734,7 @@
         <v>1166</v>
       </c>
       <c r="I136" t="n">
-        <v>5164</v>
+        <v>5222</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
@@ -9777,7 +9777,7 @@
         <v>3640</v>
       </c>
       <c r="AB136" t="n">
-        <v>30939</v>
+        <v>30997</v>
       </c>
     </row>
     <row r="137">
@@ -9802,7 +9802,7 @@
         <v>1168</v>
       </c>
       <c r="I137" t="n">
-        <v>5164</v>
+        <v>5222</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
@@ -9847,7 +9847,7 @@
         <v>3640</v>
       </c>
       <c r="AB137" t="n">
-        <v>30946</v>
+        <v>31004</v>
       </c>
     </row>
     <row r="138">
@@ -9876,7 +9876,7 @@
         <v>1172</v>
       </c>
       <c r="I138" t="n">
-        <v>5165</v>
+        <v>5223</v>
       </c>
       <c r="J138" t="n">
         <v>128</v>
@@ -9929,7 +9929,7 @@
         <v>3640</v>
       </c>
       <c r="AB138" t="n">
-        <v>30964</v>
+        <v>31022</v>
       </c>
     </row>
     <row r="139">
@@ -9958,7 +9958,7 @@
         <v>1172</v>
       </c>
       <c r="I139" t="n">
-        <v>5165</v>
+        <v>5223</v>
       </c>
       <c r="J139" t="n">
         <v>128</v>
@@ -10011,7 +10011,7 @@
         <v>3640</v>
       </c>
       <c r="AB139" t="n">
-        <v>30974</v>
+        <v>31032</v>
       </c>
     </row>
     <row r="140">
@@ -10039,7 +10039,9 @@
       <c r="H140" t="n">
         <v>1174</v>
       </c>
-      <c r="I140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>5223</v>
+      </c>
       <c r="J140" t="n">
         <v>128</v>
       </c>
@@ -10089,7 +10091,7 @@
         <v>3643</v>
       </c>
       <c r="AB140" t="n">
-        <v>30989</v>
+        <v>31047</v>
       </c>
     </row>
     <row r="141">
@@ -10115,7 +10117,9 @@
       <c r="H141" t="n">
         <v>1175</v>
       </c>
-      <c r="I141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>5223</v>
+      </c>
       <c r="J141" t="n">
         <v>128</v>
       </c>
@@ -10161,7 +10165,7 @@
         <v>3645</v>
       </c>
       <c r="AB141" t="n">
-        <v>31008</v>
+        <v>31066</v>
       </c>
     </row>
     <row r="142">
@@ -10189,7 +10193,9 @@
       <c r="H142" t="n">
         <v>1175</v>
       </c>
-      <c r="I142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>5227</v>
+      </c>
       <c r="J142" t="n">
         <v>128</v>
       </c>
@@ -10233,7 +10239,7 @@
         <v>3647</v>
       </c>
       <c r="AB142" t="n">
-        <v>31029</v>
+        <v>31091</v>
       </c>
     </row>
     <row r="143">
@@ -10257,7 +10263,9 @@
       <c r="H143" t="n">
         <v>1179</v>
       </c>
-      <c r="I143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>5227</v>
+      </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
@@ -10297,7 +10305,7 @@
         <v>3650</v>
       </c>
       <c r="AB143" t="n">
-        <v>31045</v>
+        <v>31107</v>
       </c>
     </row>
     <row r="144">
@@ -10321,7 +10329,9 @@
       <c r="H144" t="n">
         <v>1181</v>
       </c>
-      <c r="I144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>5227</v>
+      </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
@@ -10365,7 +10375,7 @@
         <v>3655</v>
       </c>
       <c r="AB144" t="n">
-        <v>31060</v>
+        <v>31122</v>
       </c>
     </row>
     <row r="145">
@@ -10391,7 +10401,9 @@
       <c r="H145" t="n">
         <v>1181</v>
       </c>
-      <c r="I145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>5229</v>
+      </c>
       <c r="J145" t="n">
         <v>128</v>
       </c>
@@ -10437,7 +10449,7 @@
         <v>3662</v>
       </c>
       <c r="AB145" t="n">
-        <v>31076</v>
+        <v>31140</v>
       </c>
     </row>
     <row r="146">
@@ -10461,7 +10473,9 @@
         <v>983</v>
       </c>
       <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>5229</v>
+      </c>
       <c r="J146" t="n">
         <v>128</v>
       </c>
@@ -10476,7 +10490,9 @@
       <c r="O146" t="n">
         <v>124</v>
       </c>
-      <c r="P146" t="inlineStr"/>
+      <c r="P146" t="n">
+        <v>82</v>
+      </c>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="n">
         <v>81</v>
@@ -10505,7 +10521,7 @@
         <v>3670</v>
       </c>
       <c r="AB146" t="n">
-        <v>31090</v>
+        <v>31154</v>
       </c>
     </row>
   </sheetData>
@@ -19666,7 +19682,9 @@
       <c r="H138" t="n">
         <v>84</v>
       </c>
-      <c r="I138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>292</v>
+      </c>
       <c r="J138" t="n">
         <v>12</v>
       </c>
@@ -19744,7 +19762,9 @@
       <c r="H139" t="n">
         <v>84</v>
       </c>
-      <c r="I139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>292</v>
+      </c>
       <c r="J139" t="n">
         <v>12</v>
       </c>
@@ -19822,7 +19842,9 @@
       <c r="H140" t="n">
         <v>84</v>
       </c>
-      <c r="I140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>293</v>
+      </c>
       <c r="J140" t="n">
         <v>12</v>
       </c>
@@ -19870,7 +19892,7 @@
         <v>130</v>
       </c>
       <c r="AB140" t="n">
-        <v>1951</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="141">
@@ -19896,7 +19918,9 @@
       <c r="H141" t="n">
         <v>84</v>
       </c>
-      <c r="I141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>293</v>
+      </c>
       <c r="J141" t="n">
         <v>12</v>
       </c>
@@ -19940,7 +19964,7 @@
         <v>130</v>
       </c>
       <c r="AB141" t="n">
-        <v>1951</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="142">
@@ -19968,7 +19992,9 @@
       <c r="H142" t="n">
         <v>84</v>
       </c>
-      <c r="I142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>293</v>
+      </c>
       <c r="J142" t="n">
         <v>12</v>
       </c>
@@ -20010,7 +20036,7 @@
         <v>130</v>
       </c>
       <c r="AB142" t="n">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="143">
@@ -20034,7 +20060,9 @@
       <c r="H143" t="n">
         <v>84</v>
       </c>
-      <c r="I143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>293</v>
+      </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
@@ -20072,7 +20100,7 @@
         <v>130</v>
       </c>
       <c r="AB143" t="n">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="144">
@@ -20096,7 +20124,9 @@
       <c r="H144" t="n">
         <v>84</v>
       </c>
-      <c r="I144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>293</v>
+      </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
@@ -20138,7 +20168,7 @@
         <v>130</v>
       </c>
       <c r="AB144" t="n">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="145">
@@ -20164,7 +20194,9 @@
       <c r="H145" t="n">
         <v>84</v>
       </c>
-      <c r="I145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>293</v>
+      </c>
       <c r="J145" t="n">
         <v>12</v>
       </c>
@@ -20210,7 +20242,7 @@
         <v>130</v>
       </c>
       <c r="AB145" t="n">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="146">
@@ -20249,7 +20281,9 @@
       <c r="O146" t="n">
         <v>3</v>
       </c>
-      <c r="P146" t="inlineStr"/>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="n">
         <v>7</v>
@@ -20278,7 +20312,7 @@
         <v>130</v>
       </c>
       <c r="AB146" t="n">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
   </sheetData>
@@ -29163,7 +29197,9 @@
       <c r="H140" t="n">
         <v>4</v>
       </c>
-      <c r="I140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>116</v>
+      </c>
       <c r="J140" t="n">
         <v>0</v>
       </c>
@@ -29209,7 +29245,7 @@
         <v>7</v>
       </c>
       <c r="AB140" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="141">
@@ -29235,7 +29271,9 @@
       <c r="H141" t="n">
         <v>3</v>
       </c>
-      <c r="I141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>112</v>
+      </c>
       <c r="J141" t="n">
         <v>0</v>
       </c>
@@ -29275,7 +29313,7 @@
         <v>8</v>
       </c>
       <c r="AB141" t="n">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="142">
@@ -29301,7 +29339,9 @@
       <c r="H142" t="n">
         <v>4</v>
       </c>
-      <c r="I142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>113</v>
+      </c>
       <c r="J142" t="n">
         <v>0</v>
       </c>
@@ -29341,7 +29381,7 @@
         <v>9</v>
       </c>
       <c r="AB142" t="n">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="143">
@@ -29403,7 +29443,7 @@
         <v>8</v>
       </c>
       <c r="AB143" t="n">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="144">
@@ -29467,7 +29507,7 @@
         <v>9</v>
       </c>
       <c r="AB144" t="n">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="145">
@@ -29493,7 +29533,9 @@
       <c r="H145" t="n">
         <v>3</v>
       </c>
-      <c r="I145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>106</v>
+      </c>
       <c r="J145" t="n">
         <v>0</v>
       </c>
@@ -29537,7 +29579,7 @@
         <v>9</v>
       </c>
       <c r="AB145" t="n">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="146">
@@ -29557,7 +29599,9 @@
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>103</v>
+      </c>
       <c r="J146" t="n">
         <v>0</v>
       </c>
@@ -29572,7 +29616,9 @@
       <c r="O146" t="n">
         <v>0</v>
       </c>
-      <c r="P146" t="inlineStr"/>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="inlineStr"/>
       <c r="S146" t="inlineStr"/>
@@ -29595,7 +29641,7 @@
         <v>8</v>
       </c>
       <c r="AB146" t="n">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -37534,7 +37580,9 @@
       <c r="H140" t="n">
         <v>1</v>
       </c>
-      <c r="I140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
@@ -37600,7 +37648,9 @@
       <c r="H141" t="n">
         <v>1</v>
       </c>
-      <c r="I141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>2</v>
+      </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
@@ -37636,7 +37686,7 @@
       </c>
       <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142">
@@ -37662,7 +37712,9 @@
       <c r="H142" t="n">
         <v>1</v>
       </c>
-      <c r="I142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>2</v>
+      </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
@@ -37698,7 +37750,7 @@
       </c>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143">
@@ -37758,7 +37810,7 @@
       </c>
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144">
@@ -37820,7 +37872,7 @@
       </c>
       <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145">
@@ -37846,7 +37898,9 @@
       <c r="H145" t="n">
         <v>1</v>
       </c>
-      <c r="I145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
@@ -37904,7 +37958,9 @@
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
@@ -44471,7 +44527,9 @@
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
@@ -44521,7 +44579,9 @@
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
@@ -44569,7 +44629,9 @@
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
@@ -44713,7 +44775,9 @@
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
@@ -44741,7 +44805,7 @@
         <v>0</v>
       </c>
       <c r="AB145" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146">
@@ -44761,7 +44825,9 @@
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
@@ -44789,7 +44855,7 @@
         <v>0</v>
       </c>
       <c r="AB146" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -51660,7 +51726,9 @@
       <c r="H140" t="n">
         <v>150</v>
       </c>
-      <c r="I140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>831</v>
+      </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
@@ -51688,7 +51756,7 @@
       </c>
       <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="n">
-        <v>5833</v>
+        <v>5838</v>
       </c>
     </row>
     <row r="141">
@@ -51712,7 +51780,9 @@
       <c r="H141" t="n">
         <v>150</v>
       </c>
-      <c r="I141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>835</v>
+      </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
@@ -51740,7 +51810,7 @@
       </c>
       <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="n">
-        <v>5840</v>
+        <v>5849</v>
       </c>
     </row>
     <row r="142">
@@ -51762,7 +51832,9 @@
       <c r="H142" t="n">
         <v>150</v>
       </c>
-      <c r="I142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>836</v>
+      </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
@@ -51790,7 +51862,7 @@
       </c>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="n">
-        <v>5841</v>
+        <v>5851</v>
       </c>
     </row>
     <row r="143">
@@ -51840,7 +51912,7 @@
       </c>
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="n">
-        <v>5844</v>
+        <v>5854</v>
       </c>
     </row>
     <row r="144">
@@ -51890,7 +51962,7 @@
       </c>
       <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="n">
-        <v>5846</v>
+        <v>5856</v>
       </c>
     </row>
     <row r="145">
@@ -51912,7 +51984,9 @@
       <c r="H145" t="n">
         <v>150</v>
       </c>
-      <c r="I145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>844</v>
+      </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
@@ -51942,7 +52016,7 @@
       </c>
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="n">
-        <v>5850</v>
+        <v>5868</v>
       </c>
     </row>
     <row r="146">
@@ -51962,7 +52036,9 @@
         <v>932</v>
       </c>
       <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>847</v>
+      </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
@@ -51990,7 +52066,7 @@
       </c>
       <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="n">
-        <v>5850</v>
+        <v>5871</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB146"/>
+  <dimension ref="A1:AB147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10524,6 +10524,48 @@
         <v>31154</v>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="n">
+        <v>25</v>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="n">
+        <v>449</v>
+      </c>
+      <c r="T147" t="n">
+        <v>308</v>
+      </c>
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
+      <c r="AA147" t="inlineStr"/>
+      <c r="AB147" t="n">
+        <v>31155</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -10535,7 +10577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB146"/>
+  <dimension ref="A1:AB147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20315,6 +20357,48 @@
         <v>1954</v>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="n">
+        <v>17</v>
+      </c>
+      <c r="T147" t="n">
+        <v>23</v>
+      </c>
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
+      <c r="AA147" t="inlineStr"/>
+      <c r="AB147" t="n">
+        <v>1954</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -20326,7 +20410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB146"/>
+  <dimension ref="A1:AB147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29644,6 +29728,42 @@
         <v>203</v>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
+      <c r="AA147" t="inlineStr"/>
+      <c r="AB147" t="n">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -29655,7 +29775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB146"/>
+  <dimension ref="A1:AB147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37997,6 +38117,42 @@
         <v>18</v>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
+      <c r="AA147" t="inlineStr"/>
+      <c r="AB147" t="n">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -38008,7 +38164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB146"/>
+  <dimension ref="A1:AB147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44858,6 +45014,42 @@
         <v>4</v>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
+      <c r="AA147" t="inlineStr"/>
+      <c r="AB147" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -44869,7 +45061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB146"/>
+  <dimension ref="A1:AB147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52069,6 +52261,44 @@
         <v>5871</v>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="n">
+        <v>284</v>
+      </c>
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
+      <c r="AA147" t="inlineStr"/>
+      <c r="AB147" t="n">
+        <v>5871</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -52080,7 +52310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB146"/>
+  <dimension ref="A1:AB147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57734,6 +57964,42 @@
         <v>37875</v>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
+      <c r="AA147" t="inlineStr"/>
+      <c r="AB147" t="n">
+        <v>37875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10537,7 +10537,9 @@
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
+      <c r="G147" t="n">
+        <v>984</v>
+      </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -10556,14 +10558,16 @@
         <v>308</v>
       </c>
       <c r="U147" t="inlineStr"/>
-      <c r="V147" t="inlineStr"/>
+      <c r="V147" t="n">
+        <v>3323</v>
+      </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr"/>
       <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="n">
-        <v>31155</v>
+        <v>31158</v>
       </c>
     </row>
   </sheetData>
@@ -20370,7 +20374,9 @@
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
+      <c r="G147" t="n">
+        <v>50</v>
+      </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -20389,7 +20395,9 @@
         <v>23</v>
       </c>
       <c r="U147" t="inlineStr"/>
-      <c r="V147" t="inlineStr"/>
+      <c r="V147" t="n">
+        <v>350</v>
+      </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="inlineStr"/>
@@ -29754,7 +29762,9 @@
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
-      <c r="V147" t="inlineStr"/>
+      <c r="V147" t="n">
+        <v>6</v>
+      </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="inlineStr"/>
@@ -38143,7 +38153,9 @@
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
-      <c r="V147" t="inlineStr"/>
+      <c r="V147" t="n">
+        <v>0</v>
+      </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="inlineStr"/>
@@ -45040,7 +45052,9 @@
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
-      <c r="V147" t="inlineStr"/>
+      <c r="V147" t="n">
+        <v>0</v>
+      </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="inlineStr"/>
@@ -52272,7 +52286,9 @@
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
+      <c r="G147" t="n">
+        <v>932</v>
+      </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -52289,7 +52305,9 @@
         <v>284</v>
       </c>
       <c r="U147" t="inlineStr"/>
-      <c r="V147" t="inlineStr"/>
+      <c r="V147" t="n">
+        <v>908</v>
+      </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10549,7 +10549,9 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
+      <c r="Q147" t="n">
+        <v>820</v>
+      </c>
       <c r="R147" t="inlineStr"/>
       <c r="S147" t="n">
         <v>449</v>
@@ -10557,7 +10559,9 @@
       <c r="T147" t="n">
         <v>308</v>
       </c>
-      <c r="U147" t="inlineStr"/>
+      <c r="U147" t="n">
+        <v>385</v>
+      </c>
       <c r="V147" t="n">
         <v>3323</v>
       </c>
@@ -10567,7 +10571,7 @@
       <c r="Z147" t="inlineStr"/>
       <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="n">
-        <v>31158</v>
+        <v>31168</v>
       </c>
     </row>
   </sheetData>
@@ -20386,7 +20390,9 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
+      <c r="Q147" t="n">
+        <v>38</v>
+      </c>
       <c r="R147" t="inlineStr"/>
       <c r="S147" t="n">
         <v>17</v>
@@ -20394,7 +20400,9 @@
       <c r="T147" t="n">
         <v>23</v>
       </c>
-      <c r="U147" t="inlineStr"/>
+      <c r="U147" t="n">
+        <v>18</v>
+      </c>
       <c r="V147" t="n">
         <v>350</v>
       </c>
@@ -20404,7 +20412,7 @@
       <c r="Z147" t="inlineStr"/>
       <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="n">
-        <v>1954</v>
+        <v>1955</v>
       </c>
     </row>
   </sheetData>
@@ -29761,7 +29769,9 @@
       <c r="R147" t="inlineStr"/>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
-      <c r="U147" t="inlineStr"/>
+      <c r="U147" t="n">
+        <v>1</v>
+      </c>
       <c r="V147" t="n">
         <v>6</v>
       </c>
@@ -38152,7 +38162,9 @@
       <c r="R147" t="inlineStr"/>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
-      <c r="U147" t="inlineStr"/>
+      <c r="U147" t="n">
+        <v>0</v>
+      </c>
       <c r="V147" t="n">
         <v>0</v>
       </c>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -1723,7 +1723,9 @@
         <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>2</v>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -1743,7 +1745,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1765,7 +1767,9 @@
         <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>2</v>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1789,7 +1793,7 @@
         <v>2</v>
       </c>
       <c r="AB36" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -1817,7 +1821,9 @@
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>6</v>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1843,7 +1849,7 @@
         <v>2</v>
       </c>
       <c r="AB37" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -1867,7 +1873,9 @@
         <v>8</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>6</v>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1895,7 +1903,7 @@
         <v>6</v>
       </c>
       <c r="AB38" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
@@ -1923,7 +1931,9 @@
         <v>9</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>6</v>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1953,7 +1963,7 @@
         <v>7</v>
       </c>
       <c r="AB39" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40">
@@ -1983,7 +1993,9 @@
         <v>10</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>9</v>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2015,7 +2027,7 @@
         <v>10</v>
       </c>
       <c r="AB40" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41">
@@ -2041,7 +2053,9 @@
         <v>13</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>10</v>
+      </c>
       <c r="L41" t="n">
         <v>2</v>
       </c>
@@ -2073,7 +2087,7 @@
         <v>13</v>
       </c>
       <c r="AB41" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42">
@@ -2103,7 +2117,9 @@
         <v>14</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>13</v>
+      </c>
       <c r="L42" t="n">
         <v>2</v>
       </c>
@@ -2139,7 +2155,7 @@
         <v>15</v>
       </c>
       <c r="AB42" t="n">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43">
@@ -2169,7 +2185,9 @@
         <v>17</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>15</v>
+      </c>
       <c r="L43" t="n">
         <v>4</v>
       </c>
@@ -2199,7 +2217,7 @@
         <v>23</v>
       </c>
       <c r="AB43" t="n">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44">
@@ -2229,7 +2247,9 @@
         <v>25</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>16</v>
+      </c>
       <c r="L44" t="n">
         <v>4</v>
       </c>
@@ -2267,7 +2287,7 @@
         <v>29</v>
       </c>
       <c r="AB44" t="n">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45">
@@ -2293,7 +2313,9 @@
         <v>38</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>18</v>
+      </c>
       <c r="L45" t="n">
         <v>5</v>
       </c>
@@ -2325,7 +2347,7 @@
         <v>34</v>
       </c>
       <c r="AB45" t="n">
-        <v>257</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46">
@@ -2353,7 +2375,9 @@
         <v>40</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>19</v>
+      </c>
       <c r="L46" t="n">
         <v>5</v>
       </c>
@@ -2385,7 +2409,7 @@
         <v>40</v>
       </c>
       <c r="AB46" t="n">
-        <v>303</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47">
@@ -2417,7 +2441,9 @@
         <v>55</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>28</v>
+      </c>
       <c r="L47" t="n">
         <v>7</v>
       </c>
@@ -2449,7 +2475,7 @@
         <v>49</v>
       </c>
       <c r="AB47" t="n">
-        <v>395</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48">
@@ -2477,7 +2503,9 @@
       <c r="J48" t="n">
         <v>1</v>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>32</v>
+      </c>
       <c r="L48" t="n">
         <v>7</v>
       </c>
@@ -2509,7 +2537,7 @@
         <v>62</v>
       </c>
       <c r="AB48" t="n">
-        <v>541</v>
+        <v>573</v>
       </c>
     </row>
     <row r="49">
@@ -2539,7 +2567,9 @@
       <c r="J49" t="n">
         <v>1</v>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>44</v>
+      </c>
       <c r="L49" t="n">
         <v>7</v>
       </c>
@@ -2575,7 +2605,7 @@
         <v>101</v>
       </c>
       <c r="AB49" t="n">
-        <v>765</v>
+        <v>809</v>
       </c>
     </row>
     <row r="50">
@@ -2607,7 +2637,9 @@
       <c r="J50" t="n">
         <v>3</v>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>53</v>
+      </c>
       <c r="L50" t="n">
         <v>12</v>
       </c>
@@ -2647,7 +2679,7 @@
         <v>140</v>
       </c>
       <c r="AB50" t="n">
-        <v>1070</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="51">
@@ -2677,7 +2709,9 @@
       <c r="J51" t="n">
         <v>6</v>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>65</v>
+      </c>
       <c r="L51" t="n">
         <v>17</v>
       </c>
@@ -2717,7 +2751,7 @@
         <v>163</v>
       </c>
       <c r="AB51" t="n">
-        <v>1397</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="52">
@@ -2747,7 +2781,9 @@
       <c r="J52" t="n">
         <v>8</v>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>73</v>
+      </c>
       <c r="L52" t="n">
         <v>18</v>
       </c>
@@ -2783,7 +2819,7 @@
         <v>218</v>
       </c>
       <c r="AB52" t="n">
-        <v>1795</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="53">
@@ -2809,7 +2845,9 @@
       <c r="J53" t="n">
         <v>10</v>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>93</v>
+      </c>
       <c r="L53" t="n">
         <v>19</v>
       </c>
@@ -2847,7 +2885,7 @@
         <v>250</v>
       </c>
       <c r="AB53" t="n">
-        <v>2071</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="54">
@@ -2881,7 +2919,9 @@
       <c r="J54" t="n">
         <v>10</v>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>118</v>
+      </c>
       <c r="L54" t="n">
         <v>25</v>
       </c>
@@ -2919,7 +2959,7 @@
         <v>326</v>
       </c>
       <c r="AB54" t="n">
-        <v>2865</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="55">
@@ -10045,7 +10085,9 @@
       <c r="J140" t="n">
         <v>128</v>
       </c>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>829</v>
+      </c>
       <c r="L140" t="n">
         <v>205</v>
       </c>
@@ -10091,7 +10133,7 @@
         <v>3643</v>
       </c>
       <c r="AB140" t="n">
-        <v>31047</v>
+        <v>31048</v>
       </c>
     </row>
     <row r="141">
@@ -10123,7 +10165,9 @@
       <c r="J141" t="n">
         <v>128</v>
       </c>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>830</v>
+      </c>
       <c r="L141" t="n">
         <v>205</v>
       </c>
@@ -10165,7 +10209,7 @@
         <v>3645</v>
       </c>
       <c r="AB141" t="n">
-        <v>31066</v>
+        <v>31068</v>
       </c>
     </row>
     <row r="142">
@@ -10199,7 +10243,9 @@
       <c r="J142" t="n">
         <v>128</v>
       </c>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>830</v>
+      </c>
       <c r="L142" t="n">
         <v>205</v>
       </c>
@@ -10239,7 +10285,7 @@
         <v>3647</v>
       </c>
       <c r="AB142" t="n">
-        <v>31091</v>
+        <v>31093</v>
       </c>
     </row>
     <row r="143">
@@ -10267,7 +10313,9 @@
         <v>5227</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>830</v>
+      </c>
       <c r="L143" t="n">
         <v>206</v>
       </c>
@@ -10305,7 +10353,7 @@
         <v>3650</v>
       </c>
       <c r="AB143" t="n">
-        <v>31107</v>
+        <v>31109</v>
       </c>
     </row>
     <row r="144">
@@ -10333,7 +10381,9 @@
         <v>5227</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>830</v>
+      </c>
       <c r="L144" t="n">
         <v>206</v>
       </c>
@@ -10375,7 +10425,7 @@
         <v>3655</v>
       </c>
       <c r="AB144" t="n">
-        <v>31122</v>
+        <v>31124</v>
       </c>
     </row>
     <row r="145">
@@ -10407,7 +10457,9 @@
       <c r="J145" t="n">
         <v>128</v>
       </c>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>830</v>
+      </c>
       <c r="L145" t="n">
         <v>206</v>
       </c>
@@ -10449,7 +10501,7 @@
         <v>3662</v>
       </c>
       <c r="AB145" t="n">
-        <v>31140</v>
+        <v>31142</v>
       </c>
     </row>
     <row r="146">
@@ -10472,14 +10524,18 @@
       <c r="G146" t="n">
         <v>983</v>
       </c>
-      <c r="H146" t="inlineStr"/>
+      <c r="H146" t="n">
+        <v>1182</v>
+      </c>
       <c r="I146" t="n">
         <v>5229</v>
       </c>
       <c r="J146" t="n">
         <v>128</v>
       </c>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>830</v>
+      </c>
       <c r="L146" t="n">
         <v>206</v>
       </c>
@@ -10521,7 +10577,7 @@
         <v>3670</v>
       </c>
       <c r="AB146" t="n">
-        <v>31154</v>
+        <v>31157</v>
       </c>
     </row>
     <row r="147">
@@ -10540,12 +10596,18 @@
       <c r="G147" t="n">
         <v>984</v>
       </c>
-      <c r="H147" t="inlineStr"/>
+      <c r="H147" t="n">
+        <v>1183</v>
+      </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>128</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>740</v>
+      </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
@@ -10571,7 +10633,7 @@
       <c r="Z147" t="inlineStr"/>
       <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="n">
-        <v>31168</v>
+        <v>31172</v>
       </c>
     </row>
   </sheetData>
@@ -11944,7 +12006,9 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -11984,7 +12048,9 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
@@ -12026,7 +12092,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
@@ -12070,7 +12138,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
@@ -12116,7 +12186,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
@@ -12162,7 +12234,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
@@ -12208,7 +12282,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
@@ -12254,7 +12330,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
@@ -12300,7 +12378,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
@@ -12346,7 +12426,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
@@ -12394,7 +12476,9 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
@@ -12444,7 +12528,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
@@ -12494,7 +12580,9 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
@@ -12546,7 +12634,9 @@
       <c r="J48" t="n">
         <v>0</v>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
@@ -12600,7 +12690,9 @@
       <c r="J49" t="n">
         <v>0</v>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
@@ -12658,7 +12750,9 @@
       <c r="J50" t="n">
         <v>0</v>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
@@ -12716,7 +12810,9 @@
       <c r="J51" t="n">
         <v>0</v>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
@@ -12776,7 +12872,9 @@
       <c r="J52" t="n">
         <v>0</v>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
@@ -12832,7 +12930,9 @@
       <c r="J53" t="n">
         <v>0</v>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
@@ -12896,7 +12996,9 @@
       <c r="J54" t="n">
         <v>0</v>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
@@ -12928,7 +13030,7 @@
         <v>1</v>
       </c>
       <c r="AB54" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55">
@@ -19898,7 +20000,9 @@
       <c r="J140" t="n">
         <v>12</v>
       </c>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>50</v>
+      </c>
       <c r="L140" t="n">
         <v>7</v>
       </c>
@@ -19974,7 +20078,9 @@
       <c r="J141" t="n">
         <v>12</v>
       </c>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>50</v>
+      </c>
       <c r="L141" t="n">
         <v>7</v>
       </c>
@@ -20048,7 +20154,9 @@
       <c r="J142" t="n">
         <v>12</v>
       </c>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>50</v>
+      </c>
       <c r="L142" t="n">
         <v>7</v>
       </c>
@@ -20114,7 +20222,9 @@
         <v>293</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>50</v>
+      </c>
       <c r="L143" t="n">
         <v>7</v>
       </c>
@@ -20178,7 +20288,9 @@
         <v>293</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>50</v>
+      </c>
       <c r="L144" t="n">
         <v>7</v>
       </c>
@@ -20250,7 +20362,9 @@
       <c r="J145" t="n">
         <v>12</v>
       </c>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>50</v>
+      </c>
       <c r="L145" t="n">
         <v>7</v>
       </c>
@@ -20315,12 +20429,16 @@
       <c r="G146" t="n">
         <v>50</v>
       </c>
-      <c r="H146" t="inlineStr"/>
+      <c r="H146" t="n">
+        <v>84</v>
+      </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
         <v>12</v>
       </c>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>50</v>
+      </c>
       <c r="L146" t="n">
         <v>7</v>
       </c>
@@ -20381,12 +20499,18 @@
       <c r="G147" t="n">
         <v>50</v>
       </c>
-      <c r="H147" t="inlineStr"/>
+      <c r="H147" t="n">
+        <v>84</v>
+      </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>13</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>20</v>
+      </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
@@ -20412,7 +20536,7 @@
       <c r="Z147" t="inlineStr"/>
       <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="n">
-        <v>1955</v>
+        <v>1956</v>
       </c>
     </row>
   </sheetData>
@@ -21785,7 +21909,9 @@
         <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -21825,7 +21951,9 @@
         <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -21867,7 +21995,9 @@
         <v>2</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -21915,7 +22045,9 @@
         <v>3</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -21965,7 +22097,9 @@
         <v>3</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -22015,7 +22149,9 @@
         <v>3</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -22067,7 +22203,9 @@
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -22119,7 +22257,9 @@
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -22175,7 +22315,9 @@
         <v>5</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
       <c r="L43" t="n">
         <v>2</v>
       </c>
@@ -22229,7 +22371,9 @@
         <v>7</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
       <c r="L44" t="n">
         <v>5</v>
       </c>
@@ -22283,7 +22427,9 @@
         <v>7</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
       <c r="L45" t="n">
         <v>5</v>
       </c>
@@ -22337,7 +22483,9 @@
         <v>9</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
       <c r="L46" t="n">
         <v>5</v>
       </c>
@@ -22391,7 +22539,9 @@
         <v>13</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
       <c r="L47" t="n">
         <v>5</v>
       </c>
@@ -22447,7 +22597,9 @@
       <c r="J48" t="n">
         <v>0</v>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
       <c r="L48" t="n">
         <v>5</v>
       </c>
@@ -22503,7 +22655,9 @@
       <c r="J49" t="n">
         <v>0</v>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
       <c r="L49" t="n">
         <v>6</v>
       </c>
@@ -22563,7 +22717,9 @@
       <c r="J50" t="n">
         <v>0</v>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
       <c r="L50" t="n">
         <v>6</v>
       </c>
@@ -22621,7 +22777,9 @@
       <c r="J51" t="n">
         <v>0</v>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
       <c r="L51" t="n">
         <v>8</v>
       </c>
@@ -22679,7 +22837,9 @@
       <c r="J52" t="n">
         <v>0</v>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>6</v>
+      </c>
       <c r="L52" t="n">
         <v>8</v>
       </c>
@@ -22711,7 +22871,7 @@
       </c>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="n">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53">
@@ -22735,7 +22895,9 @@
       <c r="J53" t="n">
         <v>0</v>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
       <c r="L53" t="n">
         <v>9</v>
       </c>
@@ -22795,7 +22957,9 @@
       <c r="J54" t="n">
         <v>0</v>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>9</v>
+      </c>
       <c r="L54" t="n">
         <v>9</v>
       </c>
@@ -22827,7 +22991,7 @@
       </c>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="n">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="55">
@@ -29303,7 +29467,9 @@
       <c r="J140" t="n">
         <v>0</v>
       </c>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -29377,7 +29543,9 @@
       <c r="J141" t="n">
         <v>0</v>
       </c>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -29413,7 +29581,7 @@
         <v>8</v>
       </c>
       <c r="AB141" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="142">
@@ -29445,7 +29613,9 @@
       <c r="J142" t="n">
         <v>0</v>
       </c>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -29481,7 +29651,7 @@
         <v>9</v>
       </c>
       <c r="AB142" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="143">
@@ -29507,7 +29677,9 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -29543,7 +29715,7 @@
         <v>8</v>
       </c>
       <c r="AB143" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="144">
@@ -29569,7 +29741,9 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -29607,7 +29781,7 @@
         <v>9</v>
       </c>
       <c r="AB144" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="145">
@@ -29639,7 +29813,9 @@
       <c r="J145" t="n">
         <v>0</v>
       </c>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -29698,14 +29874,18 @@
         <v>0</v>
       </c>
       <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
       <c r="I146" t="n">
         <v>103</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
       </c>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -29741,7 +29921,7 @@
         <v>8</v>
       </c>
       <c r="AB146" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="147">
@@ -29756,9 +29936,13 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
@@ -31154,7 +31338,9 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -31194,7 +31380,9 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
@@ -31236,7 +31424,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
@@ -31282,7 +31472,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
@@ -31330,7 +31522,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
@@ -31378,7 +31572,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
@@ -31426,7 +31622,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
@@ -31474,7 +31672,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
@@ -31524,7 +31724,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
@@ -31574,7 +31776,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
@@ -31624,7 +31828,9 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
@@ -31674,7 +31880,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
@@ -31724,7 +31932,9 @@
         <v>3</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
@@ -31774,7 +31984,9 @@
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
@@ -31826,7 +32038,9 @@
         <v>6</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
@@ -31876,7 +32090,9 @@
         <v>6</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
@@ -31926,7 +32142,9 @@
         <v>7</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
@@ -31976,7 +32194,9 @@
         <v>8</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
@@ -32004,7 +32224,7 @@
       </c>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53">
@@ -32026,7 +32246,9 @@
         <v>12</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
@@ -32076,7 +32298,9 @@
         <v>10</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
@@ -32104,7 +32328,7 @@
       </c>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55">
@@ -32126,7 +32350,9 @@
         <v>19</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
@@ -32154,7 +32380,7 @@
       </c>
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56">
@@ -32178,7 +32404,9 @@
         <v>20</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>2</v>
+      </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
@@ -32206,7 +32434,7 @@
       </c>
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57">
@@ -32232,7 +32460,9 @@
         <v>19</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>2</v>
+      </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
@@ -32260,7 +32490,7 @@
       </c>
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58">
@@ -32286,7 +32516,9 @@
         <v>22</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>3</v>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -32314,7 +32546,7 @@
       </c>
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59">
@@ -32338,7 +32570,9 @@
         <v>25</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>3</v>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -32366,7 +32600,7 @@
       </c>
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60">
@@ -32390,7 +32624,9 @@
         <v>36</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>3</v>
+      </c>
       <c r="L60" t="n">
         <v>2</v>
       </c>
@@ -32418,7 +32654,7 @@
       </c>
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="n">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61">
@@ -32444,7 +32680,9 @@
         <v>43</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>5</v>
+      </c>
       <c r="L61" t="n">
         <v>3</v>
       </c>
@@ -32474,7 +32712,7 @@
       </c>
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62">
@@ -32500,7 +32738,9 @@
         <v>41</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>5</v>
+      </c>
       <c r="L62" t="n">
         <v>4</v>
       </c>
@@ -32530,7 +32770,7 @@
       </c>
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63">
@@ -32556,7 +32796,9 @@
         <v>50</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>8</v>
+      </c>
       <c r="L63" t="n">
         <v>4</v>
       </c>
@@ -32588,7 +32830,7 @@
       </c>
       <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="n">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64">
@@ -32616,7 +32858,9 @@
         <v>52</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>11</v>
+      </c>
       <c r="L64" t="n">
         <v>4</v>
       </c>
@@ -32648,7 +32892,7 @@
       </c>
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="n">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65">
@@ -32676,7 +32920,9 @@
         <v>54</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>11</v>
+      </c>
       <c r="L65" t="n">
         <v>6</v>
       </c>
@@ -32708,7 +32954,7 @@
       </c>
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="n">
-        <v>253</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66">
@@ -32734,7 +32980,9 @@
         <v>59</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>11</v>
+      </c>
       <c r="L66" t="n">
         <v>5</v>
       </c>
@@ -32766,7 +33014,7 @@
       </c>
       <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="n">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67">
@@ -32792,7 +33040,9 @@
         <v>59</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>11</v>
+      </c>
       <c r="L67" t="n">
         <v>5</v>
       </c>
@@ -32824,7 +33074,7 @@
       </c>
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="n">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68">
@@ -32854,7 +33104,9 @@
         <v>57</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>9</v>
+      </c>
       <c r="L68" t="n">
         <v>5</v>
       </c>
@@ -32886,7 +33138,7 @@
       </c>
       <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="n">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69">
@@ -32916,7 +33168,9 @@
         <v>64</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>10</v>
+      </c>
       <c r="L69" t="n">
         <v>5</v>
       </c>
@@ -32950,7 +33204,7 @@
       </c>
       <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="n">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="70">
@@ -32980,7 +33234,9 @@
         <v>64</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>11</v>
+      </c>
       <c r="L70" t="n">
         <v>5</v>
       </c>
@@ -33016,7 +33272,7 @@
       </c>
       <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="n">
-        <v>384</v>
+        <v>395</v>
       </c>
     </row>
     <row r="71">
@@ -33046,7 +33302,9 @@
         <v>62</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>11</v>
+      </c>
       <c r="L71" t="n">
         <v>3</v>
       </c>
@@ -33084,7 +33342,7 @@
       </c>
       <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="n">
-        <v>390</v>
+        <v>401</v>
       </c>
     </row>
     <row r="72">
@@ -33114,7 +33372,9 @@
         <v>65</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>10</v>
+      </c>
       <c r="L72" t="n">
         <v>3</v>
       </c>
@@ -33152,7 +33412,7 @@
       </c>
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="n">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="73">
@@ -33180,7 +33440,9 @@
         <v>61</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>10</v>
+      </c>
       <c r="L73" t="n">
         <v>3</v>
       </c>
@@ -33218,7 +33480,7 @@
       </c>
       <c r="AA73" t="inlineStr"/>
       <c r="AB73" t="n">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="74">
@@ -33246,7 +33508,9 @@
         <v>56</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>9</v>
+      </c>
       <c r="L74" t="n">
         <v>4</v>
       </c>
@@ -33284,7 +33548,7 @@
       </c>
       <c r="AA74" t="inlineStr"/>
       <c r="AB74" t="n">
-        <v>386</v>
+        <v>395</v>
       </c>
     </row>
     <row r="75">
@@ -33314,7 +33578,9 @@
         <v>56</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>9</v>
+      </c>
       <c r="L75" t="n">
         <v>4</v>
       </c>
@@ -33354,7 +33620,7 @@
       </c>
       <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="n">
-        <v>386</v>
+        <v>395</v>
       </c>
     </row>
     <row r="76">
@@ -33384,7 +33650,9 @@
         <v>51</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>8</v>
+      </c>
       <c r="L76" t="n">
         <v>4</v>
       </c>
@@ -33424,7 +33692,7 @@
       </c>
       <c r="AA76" t="inlineStr"/>
       <c r="AB76" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="77">
@@ -33454,7 +33722,9 @@
         <v>49</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>7</v>
+      </c>
       <c r="L77" t="n">
         <v>4</v>
       </c>
@@ -33492,7 +33762,7 @@
       </c>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="78">
@@ -33522,7 +33792,9 @@
         <v>47</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>7</v>
+      </c>
       <c r="L78" t="n">
         <v>5</v>
       </c>
@@ -33562,7 +33834,7 @@
       </c>
       <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="n">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="79">
@@ -33590,7 +33862,9 @@
         <v>47</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>6</v>
+      </c>
       <c r="L79" t="n">
         <v>5</v>
       </c>
@@ -33630,7 +33904,7 @@
       </c>
       <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="n">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="80">
@@ -33658,7 +33932,9 @@
         <v>48</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>6</v>
+      </c>
       <c r="L80" t="n">
         <v>5</v>
       </c>
@@ -33696,7 +33972,7 @@
       </c>
       <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="n">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="81">
@@ -33724,7 +34000,9 @@
         <v>47</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>7</v>
+      </c>
       <c r="L81" t="n">
         <v>5</v>
       </c>
@@ -33764,7 +34042,7 @@
       </c>
       <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82">
@@ -33790,7 +34068,9 @@
         <v>47</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>6</v>
+      </c>
       <c r="L82" t="n">
         <v>5</v>
       </c>
@@ -33830,7 +34110,7 @@
       </c>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="n">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="83">
@@ -33860,7 +34140,9 @@
         <v>46</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>6</v>
+      </c>
       <c r="L83" t="n">
         <v>5</v>
       </c>
@@ -33900,7 +34182,7 @@
       </c>
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="84">
@@ -33930,7 +34212,9 @@
         <v>41</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>7</v>
+      </c>
       <c r="L84" t="n">
         <v>5</v>
       </c>
@@ -33970,7 +34254,7 @@
       </c>
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="n">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="85">
@@ -34000,7 +34284,9 @@
         <v>38</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>8</v>
+      </c>
       <c r="L85" t="n">
         <v>5</v>
       </c>
@@ -34040,7 +34326,7 @@
       </c>
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="n">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86">
@@ -34070,7 +34356,9 @@
         <v>39</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>7</v>
+      </c>
       <c r="L86" t="n">
         <v>5</v>
       </c>
@@ -34110,7 +34398,7 @@
       </c>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="n">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87">
@@ -34138,7 +34426,9 @@
         <v>34</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>8</v>
+      </c>
       <c r="L87" t="n">
         <v>5</v>
       </c>
@@ -34178,7 +34468,7 @@
       </c>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="n">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="88">
@@ -34206,7 +34496,9 @@
         <v>35</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>7</v>
+      </c>
       <c r="L88" t="n">
         <v>5</v>
       </c>
@@ -34246,7 +34538,7 @@
       </c>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="n">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="89">
@@ -34276,7 +34568,9 @@
         <v>34</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>7</v>
+      </c>
       <c r="L89" t="n">
         <v>4</v>
       </c>
@@ -34316,7 +34610,7 @@
       </c>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="n">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90">
@@ -34346,7 +34640,9 @@
         <v>32</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>6</v>
+      </c>
       <c r="L90" t="n">
         <v>4</v>
       </c>
@@ -34386,7 +34682,7 @@
       </c>
       <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="n">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91">
@@ -34416,7 +34712,9 @@
         <v>30</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>7</v>
+      </c>
       <c r="L91" t="n">
         <v>4</v>
       </c>
@@ -34454,7 +34752,7 @@
       </c>
       <c r="AA91" t="inlineStr"/>
       <c r="AB91" t="n">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92">
@@ -34486,7 +34784,9 @@
         <v>29</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>7</v>
+      </c>
       <c r="L92" t="n">
         <v>4</v>
       </c>
@@ -34526,7 +34826,7 @@
       </c>
       <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="n">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93">
@@ -34558,7 +34858,9 @@
         <v>26</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>9</v>
+      </c>
       <c r="L93" t="n">
         <v>4</v>
       </c>
@@ -34596,7 +34898,7 @@
       </c>
       <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="n">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94">
@@ -34624,7 +34926,9 @@
         <v>27</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>9</v>
+      </c>
       <c r="L94" t="n">
         <v>4</v>
       </c>
@@ -34662,7 +34966,7 @@
       </c>
       <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="n">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95">
@@ -34690,7 +34994,9 @@
         <v>25</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>8</v>
+      </c>
       <c r="L95" t="n">
         <v>4</v>
       </c>
@@ -34730,7 +35036,7 @@
       </c>
       <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="n">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96">
@@ -34762,7 +35068,9 @@
         <v>26</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>8</v>
+      </c>
       <c r="L96" t="n">
         <v>4</v>
       </c>
@@ -34802,7 +35110,7 @@
       </c>
       <c r="AA96" t="inlineStr"/>
       <c r="AB96" t="n">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97">
@@ -34834,7 +35142,9 @@
         <v>23</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>7</v>
+      </c>
       <c r="L97" t="n">
         <v>5</v>
       </c>
@@ -34874,7 +35184,7 @@
       </c>
       <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="n">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98">
@@ -34906,7 +35216,9 @@
         <v>21</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>6</v>
+      </c>
       <c r="L98" t="n">
         <v>5</v>
       </c>
@@ -34946,7 +35258,7 @@
       </c>
       <c r="AA98" t="inlineStr"/>
       <c r="AB98" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99">
@@ -34978,7 +35290,9 @@
         <v>19</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>6</v>
+      </c>
       <c r="L99" t="n">
         <v>5</v>
       </c>
@@ -35018,7 +35332,7 @@
       </c>
       <c r="AA99" t="inlineStr"/>
       <c r="AB99" t="n">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
@@ -35050,7 +35364,9 @@
         <v>18</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>6</v>
+      </c>
       <c r="L100" t="n">
         <v>5</v>
       </c>
@@ -35090,7 +35406,7 @@
       </c>
       <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="n">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101">
@@ -35120,7 +35436,9 @@
         <v>17</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>6</v>
+      </c>
       <c r="L101" t="n">
         <v>5</v>
       </c>
@@ -35158,7 +35476,7 @@
       </c>
       <c r="AA101" t="inlineStr"/>
       <c r="AB101" t="n">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102">
@@ -35188,7 +35506,9 @@
         <v>17</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>6</v>
+      </c>
       <c r="L102" t="n">
         <v>5</v>
       </c>
@@ -35226,7 +35546,7 @@
       </c>
       <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="n">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103">
@@ -35258,7 +35578,9 @@
         <v>17</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>5</v>
+      </c>
       <c r="L103" t="n">
         <v>5</v>
       </c>
@@ -35298,7 +35620,7 @@
       </c>
       <c r="AA103" t="inlineStr"/>
       <c r="AB103" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104">
@@ -35330,7 +35652,9 @@
         <v>17</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>5</v>
+      </c>
       <c r="L104" t="n">
         <v>5</v>
       </c>
@@ -35368,7 +35692,7 @@
       </c>
       <c r="AA104" t="inlineStr"/>
       <c r="AB104" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105">
@@ -35400,7 +35724,9 @@
         <v>16</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>6</v>
+      </c>
       <c r="L105" t="n">
         <v>5</v>
       </c>
@@ -35440,7 +35766,7 @@
       </c>
       <c r="AA105" t="inlineStr"/>
       <c r="AB105" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106">
@@ -35472,7 +35798,9 @@
         <v>15</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>6</v>
+      </c>
       <c r="L106" t="n">
         <v>4</v>
       </c>
@@ -35510,7 +35838,7 @@
       </c>
       <c r="AA106" t="inlineStr"/>
       <c r="AB106" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107">
@@ -35542,7 +35870,9 @@
         <v>11</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>6</v>
+      </c>
       <c r="L107" t="n">
         <v>4</v>
       </c>
@@ -35580,7 +35910,7 @@
       </c>
       <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108">
@@ -35608,7 +35938,9 @@
         <v>9</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>6</v>
+      </c>
       <c r="L108" t="n">
         <v>4</v>
       </c>
@@ -35644,7 +35976,7 @@
       </c>
       <c r="AA108" t="inlineStr"/>
       <c r="AB108" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109">
@@ -35672,7 +36004,9 @@
         <v>8</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>5</v>
+      </c>
       <c r="L109" t="n">
         <v>4</v>
       </c>
@@ -35708,7 +36042,7 @@
       </c>
       <c r="AA109" t="inlineStr"/>
       <c r="AB109" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="110">
@@ -35740,7 +36074,9 @@
         <v>7</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>5</v>
+      </c>
       <c r="L110" t="n">
         <v>3</v>
       </c>
@@ -35780,7 +36116,7 @@
       </c>
       <c r="AA110" t="inlineStr"/>
       <c r="AB110" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111">
@@ -35812,7 +36148,9 @@
         <v>5</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>5</v>
+      </c>
       <c r="L111" t="n">
         <v>3</v>
       </c>
@@ -35850,7 +36188,7 @@
       </c>
       <c r="AA111" t="inlineStr"/>
       <c r="AB111" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="112">
@@ -35880,7 +36218,9 @@
         <v>6</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>5</v>
+      </c>
       <c r="L112" t="n">
         <v>2</v>
       </c>
@@ -35920,7 +36260,7 @@
       </c>
       <c r="AA112" t="inlineStr"/>
       <c r="AB112" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113">
@@ -35950,7 +36290,9 @@
         <v>6</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>5</v>
+      </c>
       <c r="L113" t="n">
         <v>2</v>
       </c>
@@ -35988,7 +36330,7 @@
       </c>
       <c r="AA113" t="inlineStr"/>
       <c r="AB113" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114">
@@ -36020,7 +36362,9 @@
         <v>7</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>4</v>
+      </c>
       <c r="L114" t="n">
         <v>2</v>
       </c>
@@ -36060,7 +36404,7 @@
       </c>
       <c r="AA114" t="inlineStr"/>
       <c r="AB114" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115">
@@ -36088,7 +36432,9 @@
         <v>5</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>4</v>
+      </c>
       <c r="L115" t="n">
         <v>2</v>
       </c>
@@ -36122,7 +36468,7 @@
       </c>
       <c r="AA115" t="inlineStr"/>
       <c r="AB115" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116">
@@ -36150,7 +36496,9 @@
         <v>4</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>3</v>
+      </c>
       <c r="L116" t="n">
         <v>2</v>
       </c>
@@ -36184,7 +36532,7 @@
       </c>
       <c r="AA116" t="inlineStr"/>
       <c r="AB116" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117">
@@ -36216,7 +36564,9 @@
         <v>5</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>2</v>
+      </c>
       <c r="L117" t="n">
         <v>2</v>
       </c>
@@ -36256,7 +36606,7 @@
       </c>
       <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="118">
@@ -36286,7 +36636,9 @@
         <v>4</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>2</v>
+      </c>
       <c r="L118" t="n">
         <v>2</v>
       </c>
@@ -36324,7 +36676,7 @@
       </c>
       <c r="AA118" t="inlineStr"/>
       <c r="AB118" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="119">
@@ -36354,7 +36706,9 @@
         <v>3</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>2</v>
+      </c>
       <c r="L119" t="n">
         <v>2</v>
       </c>
@@ -36394,7 +36748,7 @@
       </c>
       <c r="AA119" t="inlineStr"/>
       <c r="AB119" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="120">
@@ -36420,7 +36774,9 @@
         <v>2</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>2</v>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -36454,7 +36810,7 @@
       </c>
       <c r="AA120" t="inlineStr"/>
       <c r="AB120" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="121">
@@ -36482,7 +36838,9 @@
         <v>2</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>2</v>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -36518,7 +36876,7 @@
       </c>
       <c r="AA121" t="inlineStr"/>
       <c r="AB121" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122">
@@ -36546,7 +36904,9 @@
         <v>2</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>2</v>
+      </c>
       <c r="L122" t="n">
         <v>2</v>
       </c>
@@ -36580,7 +36940,7 @@
       </c>
       <c r="AA122" t="inlineStr"/>
       <c r="AB122" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="123">
@@ -36608,7 +36968,9 @@
         <v>2</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>2</v>
+      </c>
       <c r="L123" t="n">
         <v>2</v>
       </c>
@@ -36642,7 +37004,7 @@
       </c>
       <c r="AA123" t="inlineStr"/>
       <c r="AB123" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124">
@@ -36674,7 +37036,9 @@
         <v>2</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>2</v>
+      </c>
       <c r="L124" t="n">
         <v>2</v>
       </c>
@@ -36712,7 +37076,7 @@
       </c>
       <c r="AA124" t="inlineStr"/>
       <c r="AB124" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125">
@@ -36740,7 +37104,9 @@
         <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>2</v>
+      </c>
       <c r="L125" t="n">
         <v>2</v>
       </c>
@@ -36778,7 +37144,7 @@
       </c>
       <c r="AA125" t="inlineStr"/>
       <c r="AB125" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126">
@@ -36808,7 +37174,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>2</v>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -36846,7 +37214,7 @@
       </c>
       <c r="AA126" t="inlineStr"/>
       <c r="AB126" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127">
@@ -36878,7 +37246,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -36914,7 +37284,7 @@
       </c>
       <c r="AA127" t="inlineStr"/>
       <c r="AB127" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128">
@@ -36944,7 +37314,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -36982,7 +37354,7 @@
       </c>
       <c r="AA128" t="inlineStr"/>
       <c r="AB128" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129">
@@ -37010,7 +37382,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -37044,7 +37418,7 @@
       </c>
       <c r="AA129" t="inlineStr"/>
       <c r="AB129" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130">
@@ -37072,7 +37446,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -37106,7 +37482,7 @@
       </c>
       <c r="AA130" t="inlineStr"/>
       <c r="AB130" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131">
@@ -37134,7 +37510,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -37168,7 +37546,7 @@
       </c>
       <c r="AA131" t="inlineStr"/>
       <c r="AB131" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="132">
@@ -37200,7 +37578,9 @@
         <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
       <c r="L132" t="n">
         <v>0</v>
       </c>
@@ -37236,7 +37616,7 @@
       </c>
       <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133">
@@ -37266,7 +37646,9 @@
         <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
       <c r="L133" t="n">
         <v>0</v>
       </c>
@@ -37306,7 +37688,7 @@
       </c>
       <c r="AA133" t="inlineStr"/>
       <c r="AB133" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134">
@@ -37338,7 +37720,9 @@
         <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
       <c r="L134" t="n">
         <v>0</v>
       </c>
@@ -37374,7 +37758,7 @@
       </c>
       <c r="AA134" t="inlineStr"/>
       <c r="AB134" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="135">
@@ -37404,7 +37788,9 @@
         <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
       <c r="L135" t="n">
         <v>0</v>
       </c>
@@ -37440,7 +37826,7 @@
       </c>
       <c r="AA135" t="inlineStr"/>
       <c r="AB135" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="136">
@@ -37466,7 +37852,9 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
       <c r="L136" t="n">
         <v>0</v>
       </c>
@@ -37500,7 +37888,7 @@
       </c>
       <c r="AA136" t="inlineStr"/>
       <c r="AB136" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137">
@@ -37526,7 +37914,9 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
       <c r="L137" t="n">
         <v>0</v>
       </c>
@@ -37560,7 +37950,7 @@
       </c>
       <c r="AA137" t="inlineStr"/>
       <c r="AB137" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138">
@@ -37592,7 +37982,9 @@
         <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
       <c r="L138" t="n">
         <v>0</v>
       </c>
@@ -37660,7 +38052,9 @@
         <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
       <c r="L139" t="n">
         <v>0</v>
       </c>
@@ -37724,7 +38118,9 @@
         <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
       <c r="L140" t="n">
         <v>0</v>
       </c>
@@ -37792,7 +38188,9 @@
         <v>2</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
       <c r="L141" t="n">
         <v>0</v>
       </c>
@@ -37856,7 +38254,9 @@
         <v>2</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
       <c r="L142" t="n">
         <v>0</v>
       </c>
@@ -37916,7 +38316,9 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
       <c r="L143" t="n">
         <v>0</v>
       </c>
@@ -37976,7 +38378,9 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
       <c r="L144" t="n">
         <v>0</v>
       </c>
@@ -38042,7 +38446,9 @@
         <v>1</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
       <c r="L145" t="n">
         <v>0</v>
       </c>
@@ -38097,12 +38503,16 @@
         <v>0</v>
       </c>
       <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
       <c r="I146" t="n">
         <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
       <c r="L146" t="n">
         <v>0</v>
       </c>
@@ -38149,7 +38559,9 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
@@ -39547,7 +39959,9 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -39587,7 +40001,9 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
@@ -39627,7 +40043,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
@@ -39669,7 +40087,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
@@ -39711,7 +40131,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
@@ -39753,7 +40175,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
@@ -39795,7 +40219,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
@@ -39837,7 +40263,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
@@ -39879,7 +40307,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
@@ -39923,7 +40353,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
@@ -39967,7 +40399,9 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
@@ -40011,7 +40445,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
@@ -40055,7 +40491,9 @@
         <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
@@ -40099,7 +40537,9 @@
         <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
@@ -40143,7 +40583,9 @@
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -40187,7 +40629,9 @@
         <v>4</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
@@ -40231,7 +40675,9 @@
         <v>5</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
@@ -40275,7 +40721,9 @@
         <v>5</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
@@ -40319,7 +40767,9 @@
         <v>8</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
@@ -40363,7 +40813,9 @@
         <v>9</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
@@ -40385,7 +40837,7 @@
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -40407,7 +40859,9 @@
         <v>17</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
@@ -40429,7 +40883,7 @@
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
@@ -40451,7 +40905,9 @@
         <v>17</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>2</v>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
@@ -40473,7 +40929,7 @@
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57">
@@ -40497,7 +40953,9 @@
         <v>18</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>2</v>
+      </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
@@ -40521,7 +40979,7 @@
         <v>12</v>
       </c>
       <c r="AB57" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58">
@@ -40545,7 +41003,9 @@
         <v>21</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>3</v>
+      </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
@@ -40569,7 +41029,7 @@
         <v>15</v>
       </c>
       <c r="AB58" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59">
@@ -40591,7 +41051,9 @@
         <v>24</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>3</v>
+      </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
@@ -40615,7 +41077,7 @@
         <v>23</v>
       </c>
       <c r="AB59" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60">
@@ -40637,7 +41099,9 @@
         <v>36</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>3</v>
+      </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
@@ -40661,7 +41125,7 @@
         <v>22</v>
       </c>
       <c r="AB60" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61">
@@ -40685,7 +41149,9 @@
         <v>41</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>3</v>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="n">
@@ -40711,7 +41177,7 @@
         <v>27</v>
       </c>
       <c r="AB61" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62">
@@ -40735,7 +41201,9 @@
         <v>41</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>3</v>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
@@ -40761,7 +41229,7 @@
         <v>26</v>
       </c>
       <c r="AB62" t="n">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63">
@@ -40785,7 +41253,9 @@
         <v>48</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>6</v>
+      </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="n">
@@ -40811,7 +41281,7 @@
         <v>28</v>
       </c>
       <c r="AB63" t="n">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64">
@@ -40835,7 +41305,9 @@
         <v>48</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>7</v>
+      </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="n">
@@ -40861,7 +41333,7 @@
         <v>35</v>
       </c>
       <c r="AB64" t="n">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65">
@@ -40885,7 +41357,9 @@
         <v>54</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>7</v>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="n">
@@ -40911,7 +41385,7 @@
         <v>38</v>
       </c>
       <c r="AB65" t="n">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66">
@@ -40933,7 +41407,9 @@
         <v>54</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>8</v>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="n">
@@ -40959,7 +41435,7 @@
         <v>42</v>
       </c>
       <c r="AB66" t="n">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67">
@@ -40981,7 +41457,9 @@
         <v>55</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>8</v>
+      </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="n">
@@ -41007,7 +41485,7 @@
         <v>46</v>
       </c>
       <c r="AB67" t="n">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68">
@@ -41033,7 +41511,9 @@
         <v>54</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>9</v>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
@@ -41059,7 +41539,7 @@
         <v>46</v>
       </c>
       <c r="AB68" t="n">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69">
@@ -41085,7 +41565,9 @@
         <v>49</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>10</v>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="n">
@@ -41111,7 +41593,7 @@
         <v>50</v>
       </c>
       <c r="AB69" t="n">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70">
@@ -41137,7 +41619,9 @@
         <v>58</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>11</v>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="n">
@@ -41163,7 +41647,7 @@
         <v>54</v>
       </c>
       <c r="AB70" t="n">
-        <v>282</v>
+        <v>293</v>
       </c>
     </row>
     <row r="71">
@@ -41189,7 +41673,9 @@
         <v>54</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>11</v>
+      </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="n">
@@ -41215,7 +41701,7 @@
         <v>53</v>
       </c>
       <c r="AB71" t="n">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72">
@@ -41241,7 +41727,9 @@
         <v>58</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>10</v>
+      </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="n">
@@ -41267,7 +41755,7 @@
         <v>57</v>
       </c>
       <c r="AB72" t="n">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73">
@@ -41291,7 +41779,9 @@
         <v>51</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>10</v>
+      </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="n">
@@ -41317,7 +41807,7 @@
         <v>59</v>
       </c>
       <c r="AB73" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="74">
@@ -41341,7 +41831,9 @@
         <v>50</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>9</v>
+      </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="n">
@@ -41367,7 +41859,7 @@
         <v>59</v>
       </c>
       <c r="AB74" t="n">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75">
@@ -41393,7 +41885,9 @@
         <v>50</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>9</v>
+      </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="n">
@@ -41419,7 +41913,7 @@
         <v>58</v>
       </c>
       <c r="AB75" t="n">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76">
@@ -41445,7 +41939,9 @@
         <v>48</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>8</v>
+      </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="n">
@@ -41471,7 +41967,7 @@
         <v>60</v>
       </c>
       <c r="AB76" t="n">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="77">
@@ -41497,7 +41993,9 @@
         <v>47</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>7</v>
+      </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
@@ -41523,7 +42021,7 @@
         <v>56</v>
       </c>
       <c r="AB77" t="n">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78">
@@ -41549,7 +42047,9 @@
         <v>45</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>7</v>
+      </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="n">
@@ -41575,7 +42075,7 @@
         <v>55</v>
       </c>
       <c r="AB78" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79">
@@ -41599,7 +42099,9 @@
         <v>47</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>6</v>
+      </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="n">
@@ -41625,7 +42127,7 @@
         <v>50</v>
       </c>
       <c r="AB79" t="n">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80">
@@ -41651,7 +42153,9 @@
         <v>44</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>5</v>
+      </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="n">
@@ -41677,7 +42181,7 @@
         <v>50</v>
       </c>
       <c r="AB80" t="n">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81">
@@ -41701,7 +42205,9 @@
         <v>43</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>5</v>
+      </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="n">
@@ -41727,7 +42233,7 @@
         <v>49</v>
       </c>
       <c r="AB81" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82">
@@ -41751,7 +42257,9 @@
         <v>42</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>5</v>
+      </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="n">
@@ -41777,7 +42285,7 @@
         <v>50</v>
       </c>
       <c r="AB82" t="n">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83">
@@ -41803,7 +42311,9 @@
         <v>41</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>5</v>
+      </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="n">
@@ -41829,7 +42339,7 @@
         <v>52</v>
       </c>
       <c r="AB83" t="n">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84">
@@ -41855,7 +42365,9 @@
         <v>37</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>6</v>
+      </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="n">
@@ -41881,7 +42393,7 @@
         <v>50</v>
       </c>
       <c r="AB84" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85">
@@ -41907,7 +42419,9 @@
         <v>33</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>7</v>
+      </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="n">
@@ -41933,7 +42447,7 @@
         <v>51</v>
       </c>
       <c r="AB85" t="n">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86">
@@ -41959,7 +42473,9 @@
         <v>33</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>6</v>
+      </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="n">
@@ -41985,7 +42501,7 @@
         <v>45</v>
       </c>
       <c r="AB86" t="n">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87">
@@ -42009,7 +42525,9 @@
         <v>33</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>6</v>
+      </c>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="n">
@@ -42035,7 +42553,7 @@
         <v>44</v>
       </c>
       <c r="AB87" t="n">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88">
@@ -42059,7 +42577,9 @@
         <v>33</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>7</v>
+      </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="n">
@@ -42085,7 +42605,7 @@
         <v>43</v>
       </c>
       <c r="AB88" t="n">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89">
@@ -42111,7 +42631,9 @@
         <v>29</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>7</v>
+      </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="n">
@@ -42137,7 +42659,7 @@
         <v>43</v>
       </c>
       <c r="AB89" t="n">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90">
@@ -42163,7 +42685,9 @@
         <v>29</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>6</v>
+      </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="n">
@@ -42189,7 +42713,7 @@
         <v>41</v>
       </c>
       <c r="AB90" t="n">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91">
@@ -42215,7 +42739,9 @@
         <v>27</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>7</v>
+      </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="n">
@@ -42241,7 +42767,7 @@
         <v>44</v>
       </c>
       <c r="AB91" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92">
@@ -42267,7 +42793,9 @@
         <v>27</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>7</v>
+      </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="n">
@@ -42293,7 +42821,7 @@
         <v>44</v>
       </c>
       <c r="AB92" t="n">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93">
@@ -42319,7 +42847,9 @@
         <v>25</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>8</v>
+      </c>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="n">
@@ -42345,7 +42875,7 @@
         <v>42</v>
       </c>
       <c r="AB93" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94">
@@ -42369,7 +42899,9 @@
         <v>26</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>8</v>
+      </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="n">
@@ -42395,7 +42927,7 @@
         <v>38</v>
       </c>
       <c r="AB94" t="n">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95">
@@ -42419,7 +42951,9 @@
         <v>24</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>8</v>
+      </c>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="n">
@@ -42445,7 +42979,7 @@
         <v>26</v>
       </c>
       <c r="AB95" t="n">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96">
@@ -42471,7 +43005,9 @@
         <v>24</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>8</v>
+      </c>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="n">
@@ -42497,7 +43033,7 @@
         <v>24</v>
       </c>
       <c r="AB96" t="n">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97">
@@ -42523,7 +43059,9 @@
         <v>21</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>7</v>
+      </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="n">
@@ -42549,7 +43087,7 @@
         <v>19</v>
       </c>
       <c r="AB97" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98">
@@ -42575,7 +43113,9 @@
         <v>19</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>6</v>
+      </c>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="n">
@@ -42601,7 +43141,7 @@
         <v>19</v>
       </c>
       <c r="AB98" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99">
@@ -42627,7 +43167,9 @@
         <v>18</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>6</v>
+      </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="n">
@@ -42653,7 +43195,7 @@
         <v>15</v>
       </c>
       <c r="AB99" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100">
@@ -42679,7 +43221,9 @@
         <v>17</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>6</v>
+      </c>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="n">
@@ -42705,7 +43249,7 @@
         <v>14</v>
       </c>
       <c r="AB100" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101">
@@ -42729,7 +43273,9 @@
         <v>17</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>6</v>
+      </c>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="n">
@@ -42755,7 +43301,7 @@
         <v>13</v>
       </c>
       <c r="AB101" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102">
@@ -42779,7 +43325,9 @@
         <v>16</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>6</v>
+      </c>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="n">
@@ -42805,7 +43353,7 @@
         <v>12</v>
       </c>
       <c r="AB102" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="103">
@@ -42831,7 +43379,9 @@
         <v>16</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>5</v>
+      </c>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="n">
@@ -42857,7 +43407,7 @@
         <v>11</v>
       </c>
       <c r="AB103" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104">
@@ -42883,7 +43433,9 @@
         <v>16</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>5</v>
+      </c>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="n">
@@ -42909,7 +43461,7 @@
         <v>9</v>
       </c>
       <c r="AB104" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105">
@@ -42935,7 +43487,9 @@
         <v>15</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>5</v>
+      </c>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="n">
@@ -42961,7 +43515,7 @@
         <v>7</v>
       </c>
       <c r="AB105" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106">
@@ -42987,7 +43541,9 @@
         <v>13</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>5</v>
+      </c>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="n">
@@ -43013,7 +43569,7 @@
         <v>7</v>
       </c>
       <c r="AB106" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107">
@@ -43039,7 +43595,9 @@
         <v>9</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>5</v>
+      </c>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="n">
@@ -43065,7 +43623,7 @@
         <v>5</v>
       </c>
       <c r="AB107" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108">
@@ -43089,7 +43647,9 @@
         <v>7</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>5</v>
+      </c>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="n">
@@ -43115,7 +43675,7 @@
         <v>5</v>
       </c>
       <c r="AB108" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109">
@@ -43139,7 +43699,9 @@
         <v>7</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>5</v>
+      </c>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="n">
@@ -43165,7 +43727,7 @@
         <v>5</v>
       </c>
       <c r="AB109" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110">
@@ -43191,7 +43753,9 @@
         <v>6</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>5</v>
+      </c>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="n">
@@ -43217,7 +43781,7 @@
         <v>5</v>
       </c>
       <c r="AB110" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111">
@@ -43243,7 +43807,9 @@
         <v>5</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>5</v>
+      </c>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="n">
@@ -43269,7 +43835,7 @@
         <v>7</v>
       </c>
       <c r="AB111" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112">
@@ -43295,7 +43861,9 @@
         <v>6</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>5</v>
+      </c>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="n">
@@ -43321,7 +43889,7 @@
         <v>8</v>
       </c>
       <c r="AB112" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113">
@@ -43347,7 +43915,9 @@
         <v>6</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>5</v>
+      </c>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="n">
@@ -43373,7 +43943,7 @@
         <v>7</v>
       </c>
       <c r="AB113" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114">
@@ -43399,7 +43969,9 @@
         <v>6</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>4</v>
+      </c>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="n">
@@ -43425,7 +43997,7 @@
         <v>7</v>
       </c>
       <c r="AB114" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115">
@@ -43449,7 +44021,9 @@
         <v>5</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>4</v>
+      </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="n">
@@ -43475,7 +44049,7 @@
         <v>8</v>
       </c>
       <c r="AB115" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116">
@@ -43499,7 +44073,9 @@
         <v>4</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>3</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
@@ -43525,7 +44101,7 @@
         <v>8</v>
       </c>
       <c r="AB116" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117">
@@ -43551,7 +44127,9 @@
         <v>4</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>2</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
@@ -43577,7 +44155,7 @@
         <v>8</v>
       </c>
       <c r="AB117" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118">
@@ -43603,7 +44181,9 @@
         <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>2</v>
+      </c>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="n">
@@ -43629,7 +44209,7 @@
         <v>6</v>
       </c>
       <c r="AB118" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119">
@@ -43655,7 +44235,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>2</v>
+      </c>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="n">
@@ -43681,7 +44263,7 @@
         <v>4</v>
       </c>
       <c r="AB119" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120">
@@ -43705,7 +44287,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>2</v>
+      </c>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="n">
@@ -43731,7 +44315,7 @@
         <v>3</v>
       </c>
       <c r="AB120" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121">
@@ -43755,7 +44339,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>2</v>
+      </c>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="n">
@@ -43781,7 +44367,7 @@
         <v>4</v>
       </c>
       <c r="AB121" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122">
@@ -43805,7 +44391,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>2</v>
+      </c>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="n">
@@ -43831,7 +44419,7 @@
         <v>1</v>
       </c>
       <c r="AB122" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123">
@@ -43855,7 +44443,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>2</v>
+      </c>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="n">
@@ -43881,7 +44471,7 @@
         <v>1</v>
       </c>
       <c r="AB123" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124">
@@ -43907,7 +44497,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>2</v>
+      </c>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="n">
@@ -43933,7 +44525,7 @@
         <v>1</v>
       </c>
       <c r="AB124" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125">
@@ -43957,7 +44549,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>2</v>
+      </c>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="n">
@@ -43983,7 +44577,7 @@
         <v>1</v>
       </c>
       <c r="AB125" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126">
@@ -44007,7 +44601,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>2</v>
+      </c>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="n">
@@ -44033,7 +44629,7 @@
         <v>1</v>
       </c>
       <c r="AB126" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127">
@@ -44059,7 +44655,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="n">
@@ -44085,7 +44683,7 @@
         <v>1</v>
       </c>
       <c r="AB127" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128">
@@ -44109,7 +44707,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="n">
@@ -44135,7 +44735,7 @@
         <v>0</v>
       </c>
       <c r="AB128" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129">
@@ -44159,7 +44759,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="n">
@@ -44185,7 +44787,7 @@
         <v>0</v>
       </c>
       <c r="AB129" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130">
@@ -44209,7 +44811,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="n">
@@ -44235,7 +44839,7 @@
         <v>1</v>
       </c>
       <c r="AB130" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131">
@@ -44259,7 +44863,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="n">
@@ -44285,7 +44891,7 @@
         <v>1</v>
       </c>
       <c r="AB131" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132">
@@ -44311,7 +44917,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="n">
@@ -44337,7 +44945,7 @@
         <v>0</v>
       </c>
       <c r="AB132" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133">
@@ -44361,7 +44969,9 @@
         <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="n">
@@ -44387,7 +44997,7 @@
         <v>1</v>
       </c>
       <c r="AB133" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134">
@@ -44413,7 +45023,9 @@
         <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="n">
@@ -44439,7 +45051,7 @@
         <v>1</v>
       </c>
       <c r="AB134" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135">
@@ -44463,7 +45075,9 @@
         <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="n">
@@ -44489,7 +45103,7 @@
         <v>1</v>
       </c>
       <c r="AB135" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136">
@@ -44511,7 +45125,9 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="n">
@@ -44537,7 +45153,7 @@
         <v>1</v>
       </c>
       <c r="AB136" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137">
@@ -44559,7 +45175,9 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="n">
@@ -44585,7 +45203,7 @@
         <v>1</v>
       </c>
       <c r="AB137" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138">
@@ -44611,7 +45229,9 @@
         <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="n">
@@ -44661,7 +45281,9 @@
         <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="n">
@@ -44711,7 +45333,9 @@
         <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="n">
@@ -44763,7 +45387,9 @@
         <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="n">
@@ -44813,7 +45439,9 @@
         <v>1</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="n">
@@ -44861,7 +45489,9 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="n">
@@ -44909,7 +45539,9 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="n">
@@ -44959,7 +45591,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="n">
@@ -45009,7 +45643,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="n">
@@ -52253,7 +52889,9 @@
       <c r="G146" t="n">
         <v>932</v>
       </c>
-      <c r="H146" t="inlineStr"/>
+      <c r="H146" t="n">
+        <v>150</v>
+      </c>
       <c r="I146" t="n">
         <v>847</v>
       </c>
@@ -52301,7 +52939,9 @@
       <c r="G147" t="n">
         <v>932</v>
       </c>
-      <c r="H147" t="inlineStr"/>
+      <c r="H147" t="n">
+        <v>151</v>
+      </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
@@ -52326,7 +52966,7 @@
       <c r="Z147" t="inlineStr"/>
       <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="n">
-        <v>5871</v>
+        <v>5872</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10591,7 +10591,9 @@
         <v>25</v>
       </c>
       <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="n">
+        <v>1935</v>
+      </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="n">
         <v>984</v>
@@ -20494,7 +20496,9 @@
         <v>0</v>
       </c>
       <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="n">
+        <v>97</v>
+      </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="n">
         <v>50</v>
@@ -29933,7 +29937,9 @@
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="n">
+        <v>3</v>
+      </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
@@ -29965,7 +29971,7 @@
       <c r="Z147" t="inlineStr"/>
       <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -38556,7 +38562,9 @@
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
@@ -45683,7 +45691,9 @@
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10594,7 +10594,9 @@
       <c r="E147" t="n">
         <v>1935</v>
       </c>
-      <c r="F147" t="inlineStr"/>
+      <c r="F147" t="n">
+        <v>847</v>
+      </c>
       <c r="G147" t="n">
         <v>984</v>
       </c>
@@ -10632,10 +10634,14 @@
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="inlineStr"/>
-      <c r="Z147" t="inlineStr"/>
-      <c r="AA147" t="inlineStr"/>
+      <c r="Z147" t="n">
+        <v>215</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>3681</v>
+      </c>
       <c r="AB147" t="n">
-        <v>31172</v>
+        <v>31184</v>
       </c>
     </row>
   </sheetData>
@@ -20499,7 +20505,9 @@
       <c r="E147" t="n">
         <v>97</v>
       </c>
-      <c r="F147" t="inlineStr"/>
+      <c r="F147" t="n">
+        <v>35</v>
+      </c>
       <c r="G147" t="n">
         <v>50</v>
       </c>
@@ -20537,8 +20545,12 @@
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="inlineStr"/>
-      <c r="Z147" t="inlineStr"/>
-      <c r="AA147" t="inlineStr"/>
+      <c r="Z147" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>130</v>
+      </c>
       <c r="AB147" t="n">
         <v>1956</v>
       </c>
@@ -29940,7 +29952,9 @@
       <c r="E147" t="n">
         <v>3</v>
       </c>
-      <c r="F147" t="inlineStr"/>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
         <v>3</v>
@@ -29968,8 +29982,12 @@
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="inlineStr"/>
-      <c r="Z147" t="inlineStr"/>
-      <c r="AA147" t="inlineStr"/>
+      <c r="Z147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>8</v>
+      </c>
       <c r="AB147" t="n">
         <v>205</v>
       </c>
@@ -38565,7 +38583,9 @@
       <c r="E147" t="n">
         <v>0</v>
       </c>
-      <c r="F147" t="inlineStr"/>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
         <v>1</v>
@@ -38591,7 +38611,9 @@
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="inlineStr"/>
-      <c r="Z147" t="inlineStr"/>
+      <c r="Z147" t="n">
+        <v>0</v>
+      </c>
       <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="n">
         <v>18</v>
@@ -45694,7 +45716,9 @@
       <c r="E147" t="n">
         <v>0</v>
       </c>
-      <c r="F147" t="inlineStr"/>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
@@ -45717,7 +45741,9 @@
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr"/>
-      <c r="AA147" t="inlineStr"/>
+      <c r="AA147" t="n">
+        <v>0</v>
+      </c>
       <c r="AB147" t="n">
         <v>4</v>
       </c>
@@ -52945,7 +52971,9 @@
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
+      <c r="F147" t="n">
+        <v>809</v>
+      </c>
       <c r="G147" t="n">
         <v>932</v>
       </c>
@@ -52973,7 +53001,9 @@
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="inlineStr"/>
-      <c r="Z147" t="inlineStr"/>
+      <c r="Z147" t="n">
+        <v>189</v>
+      </c>
       <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="n">
         <v>5872</v>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10568,7 +10568,7 @@
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="n">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c r="Z146" t="n">
         <v>214</v>
@@ -10577,7 +10577,7 @@
         <v>3670</v>
       </c>
       <c r="AB146" t="n">
-        <v>31157</v>
+        <v>31159</v>
       </c>
     </row>
     <row r="147">
@@ -10613,12 +10613,18 @@
         <v>740</v>
       </c>
       <c r="N147" t="inlineStr"/>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
+      <c r="O147" t="n">
+        <v>124</v>
+      </c>
+      <c r="P147" t="n">
+        <v>82</v>
+      </c>
       <c r="Q147" t="n">
         <v>820</v>
       </c>
-      <c r="R147" t="inlineStr"/>
+      <c r="R147" t="n">
+        <v>81</v>
+      </c>
       <c r="S147" t="n">
         <v>449</v>
       </c>
@@ -10633,7 +10639,9 @@
       </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
-      <c r="Y147" t="inlineStr"/>
+      <c r="Y147" t="n">
+        <v>1985</v>
+      </c>
       <c r="Z147" t="n">
         <v>215</v>
       </c>
@@ -10641,7 +10649,7 @@
         <v>3681</v>
       </c>
       <c r="AB147" t="n">
-        <v>31184</v>
+        <v>31187</v>
       </c>
     </row>
   </sheetData>
@@ -20524,12 +20532,18 @@
         <v>20</v>
       </c>
       <c r="N147" t="inlineStr"/>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
+      <c r="O147" t="n">
+        <v>3</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
       <c r="Q147" t="n">
         <v>38</v>
       </c>
-      <c r="R147" t="inlineStr"/>
+      <c r="R147" t="n">
+        <v>7</v>
+      </c>
       <c r="S147" t="n">
         <v>17</v>
       </c>
@@ -20544,7 +20558,9 @@
       </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
-      <c r="Y147" t="inlineStr"/>
+      <c r="Y147" t="n">
+        <v>153</v>
+      </c>
       <c r="Z147" t="n">
         <v>9</v>
       </c>
@@ -29965,10 +29981,16 @@
       </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>13</v>
+      </c>
       <c r="N147" t="inlineStr"/>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
       <c r="Q147" t="inlineStr"/>
       <c r="R147" t="inlineStr"/>
       <c r="S147" t="inlineStr"/>
@@ -29981,7 +30003,9 @@
       </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
-      <c r="Y147" t="inlineStr"/>
+      <c r="Y147" t="n">
+        <v>15</v>
+      </c>
       <c r="Z147" t="n">
         <v>0</v>
       </c>
@@ -29989,7 +30013,7 @@
         <v>8</v>
       </c>
       <c r="AB147" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -38594,9 +38618,13 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>2</v>
+      </c>
       <c r="N147" t="inlineStr"/>
-      <c r="O147" t="inlineStr"/>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
       <c r="R147" t="inlineStr"/>
@@ -38610,7 +38638,9 @@
       </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
-      <c r="Y147" t="inlineStr"/>
+      <c r="Y147" t="n">
+        <v>4</v>
+      </c>
       <c r="Z147" t="n">
         <v>0</v>
       </c>
@@ -45739,7 +45769,9 @@
       </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
-      <c r="Y147" t="inlineStr"/>
+      <c r="Y147" t="n">
+        <v>3</v>
+      </c>
       <c r="Z147" t="inlineStr"/>
       <c r="AA147" t="n">
         <v>0</v>
@@ -53000,7 +53032,9 @@
       </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
-      <c r="Y147" t="inlineStr"/>
+      <c r="Y147" t="n">
+        <v>287</v>
+      </c>
       <c r="Z147" t="n">
         <v>189</v>
       </c>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB147"/>
+  <dimension ref="A1:AB148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10652,6 +10652,48 @@
         <v>31187</v>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="n">
+        <v>81</v>
+      </c>
+      <c r="S148" t="n">
+        <v>449</v>
+      </c>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="n">
+        <v>215</v>
+      </c>
+      <c r="AA148" t="inlineStr"/>
+      <c r="AB148" t="n">
+        <v>31187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -10663,7 +10705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB147"/>
+  <dimension ref="A1:AB148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20571,6 +20613,48 @@
         <v>1956</v>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="n">
+        <v>7</v>
+      </c>
+      <c r="S148" t="n">
+        <v>17</v>
+      </c>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA148" t="inlineStr"/>
+      <c r="AB148" t="n">
+        <v>1956</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -20582,7 +20666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB147"/>
+  <dimension ref="A1:AB148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30016,6 +30100,44 @@
         <v>210</v>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr"/>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA148" t="inlineStr"/>
+      <c r="AB148" t="n">
+        <v>210</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -30027,7 +30149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB147"/>
+  <dimension ref="A1:AB148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38649,6 +38771,44 @@
         <v>18</v>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr"/>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA148" t="inlineStr"/>
+      <c r="AB148" t="n">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -38660,7 +38820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB147"/>
+  <dimension ref="A1:AB148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45780,6 +45940,42 @@
         <v>4</v>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr"/>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="inlineStr"/>
+      <c r="AA148" t="inlineStr"/>
+      <c r="AB148" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -45791,7 +45987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB147"/>
+  <dimension ref="A1:AB148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53043,6 +53239,44 @@
         <v>5872</v>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr"/>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA148" t="inlineStr"/>
+      <c r="AB148" t="n">
+        <v>5873</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -53054,7 +53288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB147"/>
+  <dimension ref="A1:AB148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58744,6 +58978,42 @@
         <v>37875</v>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr"/>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="inlineStr"/>
+      <c r="AA148" t="inlineStr"/>
+      <c r="AB148" t="n">
+        <v>37875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10607,7 +10607,9 @@
       <c r="J147" t="n">
         <v>128</v>
       </c>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>830</v>
+      </c>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>740</v>
@@ -10661,9 +10663,13 @@
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="n">
+        <v>1937</v>
+      </c>
       <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
+      <c r="G148" t="n">
+        <v>984</v>
+      </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -10680,9 +10686,13 @@
       <c r="S148" t="n">
         <v>449</v>
       </c>
-      <c r="T148" t="inlineStr"/>
+      <c r="T148" t="n">
+        <v>308</v>
+      </c>
       <c r="U148" t="inlineStr"/>
-      <c r="V148" t="inlineStr"/>
+      <c r="V148" t="n">
+        <v>3324</v>
+      </c>
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="inlineStr"/>
@@ -10691,7 +10701,7 @@
       </c>
       <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="n">
-        <v>31187</v>
+        <v>31190</v>
       </c>
     </row>
   </sheetData>
@@ -20568,7 +20578,9 @@
       <c r="J147" t="n">
         <v>13</v>
       </c>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>50</v>
+      </c>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>20</v>
@@ -20622,9 +20634,13 @@
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="n">
+        <v>97</v>
+      </c>
       <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
+      <c r="G148" t="n">
+        <v>50</v>
+      </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -20641,9 +20657,13 @@
       <c r="S148" t="n">
         <v>17</v>
       </c>
-      <c r="T148" t="inlineStr"/>
+      <c r="T148" t="n">
+        <v>23</v>
+      </c>
       <c r="U148" t="inlineStr"/>
-      <c r="V148" t="inlineStr"/>
+      <c r="V148" t="n">
+        <v>350</v>
+      </c>
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="inlineStr"/>
@@ -30063,7 +30083,9 @@
       <c r="J147" t="n">
         <v>0</v>
       </c>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>13</v>
@@ -30109,7 +30131,9 @@
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="n">
+        <v>3</v>
+      </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
@@ -30126,7 +30150,9 @@
       <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="inlineStr"/>
-      <c r="V148" t="inlineStr"/>
+      <c r="V148" t="n">
+        <v>6</v>
+      </c>
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="inlineStr"/>
@@ -38738,7 +38764,9 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>2</v>
@@ -38780,7 +38808,9 @@
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
@@ -38797,7 +38827,9 @@
       <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="inlineStr"/>
-      <c r="V148" t="inlineStr"/>
+      <c r="V148" t="n">
+        <v>0</v>
+      </c>
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="inlineStr"/>
@@ -45913,7 +45945,9 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
@@ -45949,7 +45983,9 @@
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
@@ -45966,7 +46002,9 @@
       <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="inlineStr"/>
-      <c r="V148" t="inlineStr"/>
+      <c r="V148" t="n">
+        <v>0</v>
+      </c>
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="inlineStr"/>
@@ -53250,7 +53288,9 @@
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
+      <c r="G148" t="n">
+        <v>933</v>
+      </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -53263,9 +53303,13 @@
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="inlineStr"/>
       <c r="S148" t="inlineStr"/>
-      <c r="T148" t="inlineStr"/>
+      <c r="T148" t="n">
+        <v>284</v>
+      </c>
       <c r="U148" t="inlineStr"/>
-      <c r="V148" t="inlineStr"/>
+      <c r="V148" t="n">
+        <v>909</v>
+      </c>
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="inlineStr"/>
@@ -53274,7 +53318,7 @@
       </c>
       <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="n">
-        <v>5873</v>
+        <v>5875</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10660,7 +10660,9 @@
           <t>2020-06-18</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr"/>
+      <c r="B148" t="n">
+        <v>1231</v>
+      </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="n">
@@ -10672,7 +10674,9 @@
       </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>128</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
@@ -10701,7 +10705,7 @@
       </c>
       <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="n">
-        <v>31190</v>
+        <v>31199</v>
       </c>
     </row>
   </sheetData>
@@ -20631,7 +20635,9 @@
           <t>2020-06-18</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr"/>
+      <c r="B148" t="n">
+        <v>46</v>
+      </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="n">
@@ -20643,7 +20649,9 @@
       </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>13</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
@@ -30138,7 +30146,9 @@
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10197,7 +10197,7 @@
       </c>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="n">
-        <v>5467</v>
+        <v>5468</v>
       </c>
       <c r="Y141" t="n">
         <v>1973</v>
@@ -10209,7 +10209,7 @@
         <v>3645</v>
       </c>
       <c r="AB141" t="n">
-        <v>31068</v>
+        <v>31069</v>
       </c>
     </row>
     <row r="142">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="n">
-        <v>5474</v>
+        <v>5475</v>
       </c>
       <c r="Y142" t="n">
         <v>1977</v>
@@ -10285,7 +10285,7 @@
         <v>3647</v>
       </c>
       <c r="AB142" t="n">
-        <v>31093</v>
+        <v>31094</v>
       </c>
     </row>
     <row r="143">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="n">
-        <v>5474</v>
+        <v>5475</v>
       </c>
       <c r="Y143" t="n">
         <v>1977</v>
@@ -10353,7 +10353,7 @@
         <v>3650</v>
       </c>
       <c r="AB143" t="n">
-        <v>31109</v>
+        <v>31110</v>
       </c>
     </row>
     <row r="144">
@@ -10413,7 +10413,7 @@
       </c>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="n">
-        <v>5475</v>
+        <v>5476</v>
       </c>
       <c r="Y144" t="n">
         <v>1977</v>
@@ -10425,7 +10425,7 @@
         <v>3655</v>
       </c>
       <c r="AB144" t="n">
-        <v>31124</v>
+        <v>31125</v>
       </c>
     </row>
     <row r="145">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="n">
-        <v>5475</v>
+        <v>5479</v>
       </c>
       <c r="Y145" t="n">
         <v>1981</v>
@@ -10501,7 +10501,7 @@
         <v>3662</v>
       </c>
       <c r="AB145" t="n">
-        <v>31142</v>
+        <v>31146</v>
       </c>
     </row>
     <row r="146">
@@ -10566,7 +10566,9 @@
         <v>3321</v>
       </c>
       <c r="W146" t="inlineStr"/>
-      <c r="X146" t="inlineStr"/>
+      <c r="X146" t="n">
+        <v>5487</v>
+      </c>
       <c r="Y146" t="n">
         <v>1984</v>
       </c>
@@ -10577,7 +10579,7 @@
         <v>3670</v>
       </c>
       <c r="AB146" t="n">
-        <v>31159</v>
+        <v>31171</v>
       </c>
     </row>
     <row r="147">
@@ -10640,7 +10642,9 @@
         <v>3323</v>
       </c>
       <c r="W147" t="inlineStr"/>
-      <c r="X147" t="inlineStr"/>
+      <c r="X147" t="n">
+        <v>5490</v>
+      </c>
       <c r="Y147" t="n">
         <v>1985</v>
       </c>
@@ -10651,7 +10655,7 @@
         <v>3681</v>
       </c>
       <c r="AB147" t="n">
-        <v>31187</v>
+        <v>31202</v>
       </c>
     </row>
     <row r="148">
@@ -10679,7 +10683,9 @@
       </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>740</v>
+      </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
@@ -10705,7 +10711,7 @@
       </c>
       <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="n">
-        <v>31199</v>
+        <v>31214</v>
       </c>
     </row>
   </sheetData>
@@ -20541,7 +20547,9 @@
         <v>350</v>
       </c>
       <c r="W146" t="inlineStr"/>
-      <c r="X146" t="inlineStr"/>
+      <c r="X146" t="n">
+        <v>420</v>
+      </c>
       <c r="Y146" t="n">
         <v>153</v>
       </c>
@@ -20615,7 +20623,9 @@
         <v>350</v>
       </c>
       <c r="W147" t="inlineStr"/>
-      <c r="X147" t="inlineStr"/>
+      <c r="X147" t="n">
+        <v>420</v>
+      </c>
       <c r="Y147" t="n">
         <v>153</v>
       </c>
@@ -20654,7 +20664,9 @@
       </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>20</v>
+      </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
@@ -28551,7 +28563,7 @@
         <v>0</v>
       </c>
       <c r="X125" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y125" t="n">
         <v>18</v>
@@ -28563,7 +28575,7 @@
         <v>19</v>
       </c>
       <c r="AB125" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="126">
@@ -28629,7 +28641,7 @@
         <v>0</v>
       </c>
       <c r="X126" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y126" t="n">
         <v>17</v>
@@ -28641,7 +28653,7 @@
         <v>18</v>
       </c>
       <c r="AB126" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="127">
@@ -28707,7 +28719,7 @@
         <v>0</v>
       </c>
       <c r="X127" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y127" t="n">
         <v>17</v>
@@ -28719,7 +28731,7 @@
         <v>20</v>
       </c>
       <c r="AB127" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="128">
@@ -28785,7 +28797,7 @@
         <v>0</v>
       </c>
       <c r="X128" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y128" t="n">
         <v>16</v>
@@ -28797,7 +28809,7 @@
         <v>15</v>
       </c>
       <c r="AB128" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="129">
@@ -28851,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="X129" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y129" t="n">
         <v>15</v>
@@ -28863,7 +28875,7 @@
         <v>12</v>
       </c>
       <c r="AB129" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="130">
@@ -28917,7 +28929,7 @@
         <v>0</v>
       </c>
       <c r="X130" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y130" t="n">
         <v>16</v>
@@ -28929,7 +28941,7 @@
         <v>11</v>
       </c>
       <c r="AB130" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="131">
@@ -28983,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="X131" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y131" t="n">
         <v>16</v>
@@ -28995,7 +29007,7 @@
         <v>11</v>
       </c>
       <c r="AB131" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="132">
@@ -29061,7 +29073,7 @@
         <v>0</v>
       </c>
       <c r="X132" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y132" t="n">
         <v>16</v>
@@ -29073,7 +29085,7 @@
         <v>11</v>
       </c>
       <c r="AB132" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="133">
@@ -29139,7 +29151,7 @@
       </c>
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y133" t="n">
         <v>15</v>
@@ -29151,7 +29163,7 @@
         <v>9</v>
       </c>
       <c r="AB133" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="134">
@@ -29215,7 +29227,7 @@
       </c>
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y134" t="n">
         <v>16</v>
@@ -29227,7 +29239,7 @@
         <v>9</v>
       </c>
       <c r="AB134" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="135">
@@ -29289,7 +29301,7 @@
       </c>
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y135" t="n">
         <v>16</v>
@@ -29301,7 +29313,7 @@
         <v>8</v>
       </c>
       <c r="AB135" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="136">
@@ -29353,7 +29365,7 @@
       </c>
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y136" t="n">
         <v>16</v>
@@ -29365,7 +29377,7 @@
         <v>7</v>
       </c>
       <c r="AB136" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="137">
@@ -29417,7 +29429,7 @@
       </c>
       <c r="W137" t="inlineStr"/>
       <c r="X137" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y137" t="n">
         <v>16</v>
@@ -29429,7 +29441,7 @@
         <v>7</v>
       </c>
       <c r="AB137" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="138">
@@ -29497,7 +29509,7 @@
       </c>
       <c r="W138" t="inlineStr"/>
       <c r="X138" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y138" t="n">
         <v>16</v>
@@ -29509,7 +29521,7 @@
         <v>7</v>
       </c>
       <c r="AB138" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="139">
@@ -29569,7 +29581,7 @@
       </c>
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y139" t="n">
         <v>16</v>
@@ -29581,7 +29593,7 @@
         <v>6</v>
       </c>
       <c r="AB139" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="140">
@@ -29643,7 +29655,7 @@
       </c>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y140" t="n">
         <v>16</v>
@@ -29655,7 +29667,7 @@
         <v>7</v>
       </c>
       <c r="AB140" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="141">
@@ -29713,7 +29725,7 @@
       </c>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y141" t="n">
         <v>16</v>
@@ -29725,7 +29737,7 @@
         <v>8</v>
       </c>
       <c r="AB141" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="142">
@@ -29783,7 +29795,7 @@
       </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y142" t="n">
         <v>16</v>
@@ -29795,7 +29807,7 @@
         <v>9</v>
       </c>
       <c r="AB142" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="143">
@@ -29847,7 +29859,7 @@
       </c>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y143" t="n">
         <v>15</v>
@@ -29859,7 +29871,7 @@
         <v>8</v>
       </c>
       <c r="AB143" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="144">
@@ -29913,7 +29925,7 @@
       </c>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y144" t="n">
         <v>15</v>
@@ -29925,7 +29937,7 @@
         <v>9</v>
       </c>
       <c r="AB144" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="145">
@@ -30054,7 +30066,9 @@
         <v>6</v>
       </c>
       <c r="W146" t="inlineStr"/>
-      <c r="X146" t="inlineStr"/>
+      <c r="X146" t="n">
+        <v>29</v>
+      </c>
       <c r="Y146" t="n">
         <v>15</v>
       </c>
@@ -30065,7 +30079,7 @@
         <v>8</v>
       </c>
       <c r="AB146" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="147">
@@ -30116,7 +30130,9 @@
         <v>6</v>
       </c>
       <c r="W147" t="inlineStr"/>
-      <c r="X147" t="inlineStr"/>
+      <c r="X147" t="n">
+        <v>29</v>
+      </c>
       <c r="Y147" t="n">
         <v>15</v>
       </c>
@@ -30127,7 +30143,7 @@
         <v>8</v>
       </c>
       <c r="AB147" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="148">
@@ -30171,7 +30187,7 @@
       </c>
       <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -38680,7 +38696,7 @@
       </c>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y145" t="n">
         <v>4</v>
@@ -38690,7 +38706,7 @@
       </c>
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146">
@@ -38741,7 +38757,9 @@
         <v>0</v>
       </c>
       <c r="W146" t="inlineStr"/>
-      <c r="X146" t="inlineStr"/>
+      <c r="X146" t="n">
+        <v>3</v>
+      </c>
       <c r="Y146" t="n">
         <v>4</v>
       </c>
@@ -38750,7 +38768,7 @@
       </c>
       <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147">
@@ -38797,7 +38815,9 @@
         <v>0</v>
       </c>
       <c r="W147" t="inlineStr"/>
-      <c r="X147" t="inlineStr"/>
+      <c r="X147" t="n">
+        <v>3</v>
+      </c>
       <c r="Y147" t="n">
         <v>4</v>
       </c>
@@ -38806,7 +38826,7 @@
       </c>
       <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148">
@@ -38848,7 +38868,7 @@
       </c>
       <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10699,7 +10699,9 @@
       <c r="T148" t="n">
         <v>308</v>
       </c>
-      <c r="U148" t="inlineStr"/>
+      <c r="U148" t="n">
+        <v>385</v>
+      </c>
       <c r="V148" t="n">
         <v>3324</v>
       </c>
@@ -20680,7 +20682,9 @@
       <c r="T148" t="n">
         <v>23</v>
       </c>
-      <c r="U148" t="inlineStr"/>
+      <c r="U148" t="n">
+        <v>18</v>
+      </c>
       <c r="V148" t="n">
         <v>350</v>
       </c>
@@ -30029,7 +30033,9 @@
       <c r="F146" t="n">
         <v>0</v>
       </c>
-      <c r="G146" t="inlineStr"/>
+      <c r="G146" t="n">
+        <v>3</v>
+      </c>
       <c r="H146" t="n">
         <v>4</v>
       </c>
@@ -30097,7 +30103,9 @@
       <c r="F147" t="n">
         <v>0</v>
       </c>
-      <c r="G147" t="inlineStr"/>
+      <c r="G147" t="n">
+        <v>3</v>
+      </c>
       <c r="H147" t="n">
         <v>3</v>
       </c>
@@ -30175,7 +30183,9 @@
       <c r="R148" t="inlineStr"/>
       <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr"/>
-      <c r="U148" t="inlineStr"/>
+      <c r="U148" t="n">
+        <v>0</v>
+      </c>
       <c r="V148" t="n">
         <v>6</v>
       </c>
@@ -30187,7 +30197,7 @@
       </c>
       <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -38724,7 +38734,9 @@
       <c r="F146" t="n">
         <v>0</v>
       </c>
-      <c r="G146" t="inlineStr"/>
+      <c r="G146" t="n">
+        <v>2</v>
+      </c>
       <c r="H146" t="n">
         <v>1</v>
       </c>
@@ -38786,7 +38798,9 @@
       <c r="F147" t="n">
         <v>0</v>
       </c>
-      <c r="G147" t="inlineStr"/>
+      <c r="G147" t="n">
+        <v>2</v>
+      </c>
       <c r="H147" t="n">
         <v>1</v>
       </c>
@@ -38856,7 +38870,9 @@
       <c r="R148" t="inlineStr"/>
       <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr"/>
-      <c r="U148" t="inlineStr"/>
+      <c r="U148" t="n">
+        <v>0</v>
+      </c>
       <c r="V148" t="n">
         <v>0</v>
       </c>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10294,7 +10294,9 @@
           <t>2020-06-13</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr"/>
+      <c r="B143" t="n">
+        <v>1226</v>
+      </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="n">
@@ -10353,7 +10355,7 @@
         <v>3650</v>
       </c>
       <c r="AB143" t="n">
-        <v>31110</v>
+        <v>31114</v>
       </c>
     </row>
     <row r="144">
@@ -10362,7 +10364,9 @@
           <t>2020-06-14</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr"/>
+      <c r="B144" t="n">
+        <v>1227</v>
+      </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="n">
@@ -10425,7 +10429,7 @@
         <v>3655</v>
       </c>
       <c r="AB144" t="n">
-        <v>31125</v>
+        <v>31130</v>
       </c>
     </row>
     <row r="145">
@@ -10434,7 +10438,9 @@
           <t>2020-06-15</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr"/>
+      <c r="B145" t="n">
+        <v>1229</v>
+      </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
         <v>100</v>
@@ -10501,7 +10507,7 @@
         <v>3662</v>
       </c>
       <c r="AB145" t="n">
-        <v>31146</v>
+        <v>31153</v>
       </c>
     </row>
     <row r="146">
@@ -10510,7 +10516,9 @@
           <t>2020-06-16</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr"/>
+      <c r="B146" t="n">
+        <v>1230</v>
+      </c>
       <c r="C146" t="n">
         <v>25</v>
       </c>
@@ -10576,10 +10584,10 @@
         <v>214</v>
       </c>
       <c r="AA146" t="n">
-        <v>3670</v>
+        <v>3669</v>
       </c>
       <c r="AB146" t="n">
-        <v>31171</v>
+        <v>31178</v>
       </c>
     </row>
     <row r="147">
@@ -10588,7 +10596,9 @@
           <t>2020-06-17</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr"/>
+      <c r="B147" t="n">
+        <v>1231</v>
+      </c>
       <c r="C147" t="n">
         <v>25</v>
       </c>
@@ -10652,10 +10662,10 @@
         <v>215</v>
       </c>
       <c r="AA147" t="n">
-        <v>3681</v>
+        <v>3679</v>
       </c>
       <c r="AB147" t="n">
-        <v>31202</v>
+        <v>31209</v>
       </c>
     </row>
     <row r="148">
@@ -10672,7 +10682,9 @@
       <c r="E148" t="n">
         <v>1937</v>
       </c>
-      <c r="F148" t="inlineStr"/>
+      <c r="F148" t="n">
+        <v>847</v>
+      </c>
       <c r="G148" t="n">
         <v>984</v>
       </c>
@@ -10687,7 +10699,9 @@
         <v>740</v>
       </c>
       <c r="N148" t="inlineStr"/>
-      <c r="O148" t="inlineStr"/>
+      <c r="O148" t="n">
+        <v>124</v>
+      </c>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="n">
@@ -10711,9 +10725,11 @@
       <c r="Z148" t="n">
         <v>215</v>
       </c>
-      <c r="AA148" t="inlineStr"/>
+      <c r="AA148" t="n">
+        <v>3684</v>
+      </c>
       <c r="AB148" t="n">
-        <v>31214</v>
+        <v>31217</v>
       </c>
     </row>
   </sheetData>
@@ -20655,7 +20671,9 @@
       <c r="E148" t="n">
         <v>97</v>
       </c>
-      <c r="F148" t="inlineStr"/>
+      <c r="F148" t="n">
+        <v>35</v>
+      </c>
       <c r="G148" t="n">
         <v>50</v>
       </c>
@@ -20670,7 +20688,9 @@
         <v>20</v>
       </c>
       <c r="N148" t="inlineStr"/>
-      <c r="O148" t="inlineStr"/>
+      <c r="O148" t="n">
+        <v>3</v>
+      </c>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="n">
@@ -20694,7 +20714,9 @@
       <c r="Z148" t="n">
         <v>9</v>
       </c>
-      <c r="AA148" t="inlineStr"/>
+      <c r="AA148" t="n">
+        <v>130</v>
+      </c>
       <c r="AB148" t="n">
         <v>1956</v>
       </c>
@@ -30166,7 +30188,9 @@
       <c r="E148" t="n">
         <v>3</v>
       </c>
-      <c r="F148" t="inlineStr"/>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
@@ -30175,9 +30199,13 @@
       </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>13</v>
+      </c>
       <c r="N148" t="inlineStr"/>
-      <c r="O148" t="inlineStr"/>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="inlineStr"/>
@@ -30195,9 +30223,11 @@
       <c r="Z148" t="n">
         <v>0</v>
       </c>
-      <c r="AA148" t="inlineStr"/>
+      <c r="AA148" t="n">
+        <v>10</v>
+      </c>
       <c r="AB148" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -38855,16 +38885,22 @@
       <c r="E148" t="n">
         <v>0</v>
       </c>
-      <c r="F148" t="inlineStr"/>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>2</v>
+      </c>
       <c r="N148" t="inlineStr"/>
-      <c r="O148" t="inlineStr"/>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="inlineStr"/>
@@ -46032,7 +46068,9 @@
       <c r="E148" t="n">
         <v>0</v>
       </c>
-      <c r="F148" t="inlineStr"/>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
@@ -46055,7 +46093,9 @@
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="inlineStr"/>
       <c r="Z148" t="inlineStr"/>
-      <c r="AA148" t="inlineStr"/>
+      <c r="AA148" t="n">
+        <v>0</v>
+      </c>
       <c r="AB148" t="n">
         <v>4</v>
       </c>
@@ -53329,11 +53369,15 @@
           <t>2020-06-18</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr"/>
+      <c r="B148" t="n">
+        <v>1170</v>
+      </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
+      <c r="F148" t="n">
+        <v>809</v>
+      </c>
       <c r="G148" t="n">
         <v>933</v>
       </c>
@@ -53364,7 +53408,7 @@
       </c>
       <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="n">
-        <v>5875</v>
+        <v>5890</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10622,7 +10622,9 @@
       <c r="K147" t="n">
         <v>830</v>
       </c>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>206</v>
+      </c>
       <c r="M147" t="n">
         <v>740</v>
       </c>
@@ -10694,7 +10696,9 @@
         <v>128</v>
       </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>206</v>
+      </c>
       <c r="M148" t="n">
         <v>740</v>
       </c>
@@ -20611,7 +20615,9 @@
       <c r="K147" t="n">
         <v>50</v>
       </c>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>7</v>
+      </c>
       <c r="M147" t="n">
         <v>20</v>
       </c>
@@ -20683,7 +20689,9 @@
         <v>13</v>
       </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>7</v>
+      </c>
       <c r="M148" t="n">
         <v>20</v>
       </c>
@@ -30138,7 +30146,9 @@
       <c r="K147" t="n">
         <v>0</v>
       </c>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
       <c r="M147" t="n">
         <v>13</v>
       </c>
@@ -30198,7 +30208,9 @@
         <v>0</v>
       </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
       <c r="M148" t="n">
         <v>13</v>
       </c>
@@ -38839,7 +38851,9 @@
       <c r="K147" t="n">
         <v>0</v>
       </c>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
       <c r="M147" t="n">
         <v>2</v>
       </c>
@@ -38893,7 +38907,9 @@
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
       <c r="M148" t="n">
         <v>2</v>
       </c>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10470,7 +10470,9 @@
         <v>206</v>
       </c>
       <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr"/>
+      <c r="N145" t="n">
+        <v>737</v>
+      </c>
       <c r="O145" t="n">
         <v>124</v>
       </c>
@@ -10550,7 +10552,9 @@
       <c r="M146" t="n">
         <v>740</v>
       </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="N146" t="n">
+        <v>738</v>
+      </c>
       <c r="O146" t="n">
         <v>124</v>
       </c>
@@ -10587,7 +10591,7 @@
         <v>3669</v>
       </c>
       <c r="AB146" t="n">
-        <v>31178</v>
+        <v>31179</v>
       </c>
     </row>
     <row r="147">
@@ -10667,7 +10671,7 @@
         <v>3679</v>
       </c>
       <c r="AB147" t="n">
-        <v>31209</v>
+        <v>31210</v>
       </c>
     </row>
     <row r="148">
@@ -10706,7 +10710,9 @@
       <c r="O148" t="n">
         <v>124</v>
       </c>
-      <c r="P148" t="inlineStr"/>
+      <c r="P148" t="n">
+        <v>82</v>
+      </c>
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="n">
         <v>81</v>
@@ -10733,7 +10739,7 @@
         <v>3684</v>
       </c>
       <c r="AB148" t="n">
-        <v>31217</v>
+        <v>31218</v>
       </c>
     </row>
   </sheetData>
@@ -20109,7 +20115,9 @@
       <c r="M140" t="n">
         <v>20</v>
       </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="N140" t="n">
+        <v>83</v>
+      </c>
       <c r="O140" t="n">
         <v>3</v>
       </c>
@@ -20699,7 +20707,9 @@
       <c r="O148" t="n">
         <v>3</v>
       </c>
-      <c r="P148" t="inlineStr"/>
+      <c r="P148" t="n">
+        <v>0</v>
+      </c>
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="n">
         <v>7</v>
@@ -30152,7 +30162,9 @@
       <c r="M147" t="n">
         <v>13</v>
       </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="N147" t="n">
+        <v>2</v>
+      </c>
       <c r="O147" t="n">
         <v>0</v>
       </c>
@@ -30214,11 +30226,15 @@
       <c r="M148" t="n">
         <v>13</v>
       </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="N148" t="n">
+        <v>2</v>
+      </c>
       <c r="O148" t="n">
         <v>0</v>
       </c>
-      <c r="P148" t="inlineStr"/>
+      <c r="P148" t="n">
+        <v>0</v>
+      </c>
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="inlineStr"/>
       <c r="S148" t="inlineStr"/>
@@ -38857,7 +38873,9 @@
       <c r="M147" t="n">
         <v>2</v>
       </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
       <c r="O147" t="n">
         <v>0</v>
       </c>
@@ -38913,7 +38931,9 @@
       <c r="M148" t="n">
         <v>2</v>
       </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
       <c r="O148" t="n">
         <v>0</v>
       </c>
@@ -46048,7 +46068,9 @@
       </c>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
-      <c r="N147" t="inlineStr"/>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
@@ -46094,7 +46116,9 @@
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr"/>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10731,7 +10731,9 @@
       </c>
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr"/>
-      <c r="Y148" t="inlineStr"/>
+      <c r="Y148" t="n">
+        <v>1985</v>
+      </c>
       <c r="Z148" t="n">
         <v>215</v>
       </c>
@@ -20728,7 +20730,9 @@
       </c>
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr"/>
-      <c r="Y148" t="inlineStr"/>
+      <c r="Y148" t="n">
+        <v>153</v>
+      </c>
       <c r="Z148" t="n">
         <v>9</v>
       </c>
@@ -30247,7 +30251,9 @@
       </c>
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr"/>
-      <c r="Y148" t="inlineStr"/>
+      <c r="Y148" t="n">
+        <v>15</v>
+      </c>
       <c r="Z148" t="n">
         <v>0</v>
       </c>
@@ -38950,7 +38956,9 @@
       </c>
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr"/>
-      <c r="Y148" t="inlineStr"/>
+      <c r="Y148" t="n">
+        <v>4</v>
+      </c>
       <c r="Z148" t="n">
         <v>0</v>
       </c>
@@ -46131,7 +46139,9 @@
       </c>
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr"/>
-      <c r="Y148" t="inlineStr"/>
+      <c r="Y148" t="n">
+        <v>3</v>
+      </c>
       <c r="Z148" t="inlineStr"/>
       <c r="AA148" t="n">
         <v>0</v>
@@ -53442,7 +53452,9 @@
       </c>
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr"/>
-      <c r="Y148" t="inlineStr"/>
+      <c r="Y148" t="n">
+        <v>287</v>
+      </c>
       <c r="Z148" t="n">
         <v>190</v>
       </c>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB148"/>
+  <dimension ref="A1:AB149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10699,7 +10699,9 @@
       <c r="J148" t="n">
         <v>128</v>
       </c>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>830</v>
+      </c>
       <c r="L148" t="n">
         <v>206</v>
       </c>
@@ -10742,6 +10744,52 @@
       </c>
       <c r="AB148" t="n">
         <v>31218</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1235</v>
+      </c>
+      <c r="C149" t="n">
+        <v>25</v>
+      </c>
+      <c r="D149" t="n">
+        <v>100</v>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="n">
+        <v>451</v>
+      </c>
+      <c r="T149" t="n">
+        <v>309</v>
+      </c>
+      <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
+      <c r="AA149" t="inlineStr"/>
+      <c r="AB149" t="n">
+        <v>31225</v>
       </c>
     </row>
   </sheetData>
@@ -10755,7 +10803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB148"/>
+  <dimension ref="A1:AB149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20698,7 +20746,9 @@
       <c r="J148" t="n">
         <v>13</v>
       </c>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>50</v>
+      </c>
       <c r="L148" t="n">
         <v>7</v>
       </c>
@@ -20740,6 +20790,52 @@
         <v>130</v>
       </c>
       <c r="AB148" t="n">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>46</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>3</v>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="n">
+        <v>17</v>
+      </c>
+      <c r="T149" t="n">
+        <v>23</v>
+      </c>
+      <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
+      <c r="AA149" t="inlineStr"/>
+      <c r="AB149" t="n">
         <v>1956</v>
       </c>
     </row>
@@ -20754,7 +20850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB148"/>
+  <dimension ref="A1:AB149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30223,7 +30319,9 @@
       <c r="J148" t="n">
         <v>0</v>
       </c>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -30262,6 +30360,44 @@
       </c>
       <c r="AB148" t="n">
         <v>209</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
+      <c r="AA149" t="inlineStr"/>
+      <c r="AB149" t="n">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -30275,7 +30411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB148"/>
+  <dimension ref="A1:AB149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38930,7 +39066,9 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
       <c r="L148" t="n">
         <v>0</v>
       </c>
@@ -38964,6 +39102,44 @@
       </c>
       <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
+      <c r="AA149" t="inlineStr"/>
+      <c r="AB149" t="n">
         <v>17</v>
       </c>
     </row>
@@ -38978,7 +39154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB148"/>
+  <dimension ref="A1:AB149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46121,7 +46297,9 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="n">
@@ -46147,6 +46325,42 @@
         <v>0</v>
       </c>
       <c r="AB148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
+      <c r="AA149" t="inlineStr"/>
+      <c r="AB149" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46161,7 +46375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB148"/>
+  <dimension ref="A1:AB149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53463,6 +53677,44 @@
         <v>5890</v>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+      <c r="T149" t="n">
+        <v>285</v>
+      </c>
+      <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
+      <c r="AA149" t="inlineStr"/>
+      <c r="AB149" t="n">
+        <v>5891</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -53474,7 +53726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB148"/>
+  <dimension ref="A1:AB149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59200,6 +59452,42 @@
         <v>37875</v>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
+      <c r="AA149" t="inlineStr"/>
+      <c r="AB149" t="n">
+        <v>37875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10763,7 +10763,9 @@
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
+      <c r="G149" t="n">
+        <v>985</v>
+      </c>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -10774,7 +10776,9 @@
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
+      <c r="R149" t="n">
+        <v>81</v>
+      </c>
       <c r="S149" t="n">
         <v>451</v>
       </c>
@@ -10782,14 +10786,16 @@
         <v>309</v>
       </c>
       <c r="U149" t="inlineStr"/>
-      <c r="V149" t="inlineStr"/>
+      <c r="V149" t="n">
+        <v>3324</v>
+      </c>
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr"/>
       <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="n">
-        <v>31225</v>
+        <v>31226</v>
       </c>
     </row>
   </sheetData>
@@ -20810,7 +20816,9 @@
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
+      <c r="G149" t="n">
+        <v>50</v>
+      </c>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -20821,7 +20829,9 @@
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
+      <c r="R149" t="n">
+        <v>7</v>
+      </c>
       <c r="S149" t="n">
         <v>17</v>
       </c>
@@ -20829,7 +20839,9 @@
         <v>23</v>
       </c>
       <c r="U149" t="inlineStr"/>
-      <c r="V149" t="inlineStr"/>
+      <c r="V149" t="n">
+        <v>350</v>
+      </c>
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="inlineStr"/>
@@ -30390,7 +30402,9 @@
       <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr"/>
-      <c r="V149" t="inlineStr"/>
+      <c r="V149" t="n">
+        <v>6</v>
+      </c>
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="inlineStr"/>
@@ -39133,7 +39147,9 @@
       <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr"/>
-      <c r="V149" t="inlineStr"/>
+      <c r="V149" t="n">
+        <v>0</v>
+      </c>
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="inlineStr"/>
@@ -46354,7 +46370,9 @@
       <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr"/>
-      <c r="V149" t="inlineStr"/>
+      <c r="V149" t="n">
+        <v>0</v>
+      </c>
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="inlineStr"/>
@@ -53688,7 +53706,9 @@
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
+      <c r="G149" t="n">
+        <v>933</v>
+      </c>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -53705,7 +53725,9 @@
         <v>285</v>
       </c>
       <c r="U149" t="inlineStr"/>
-      <c r="V149" t="inlineStr"/>
+      <c r="V149" t="n">
+        <v>909</v>
+      </c>
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10771,7 +10771,9 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>741</v>
+      </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
@@ -10795,7 +10797,7 @@
       <c r="Z149" t="inlineStr"/>
       <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="n">
-        <v>31226</v>
+        <v>31227</v>
       </c>
     </row>
   </sheetData>
@@ -20824,7 +20826,9 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>20</v>
+      </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10694,7 +10694,9 @@
       <c r="G148" t="n">
         <v>984</v>
       </c>
-      <c r="H148" t="inlineStr"/>
+      <c r="H148" t="n">
+        <v>1185</v>
+      </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
         <v>128</v>
@@ -10743,7 +10745,7 @@
         <v>3684</v>
       </c>
       <c r="AB148" t="n">
-        <v>31218</v>
+        <v>31220</v>
       </c>
     </row>
     <row r="149">
@@ -10766,7 +10768,9 @@
       <c r="G149" t="n">
         <v>985</v>
       </c>
-      <c r="H149" t="inlineStr"/>
+      <c r="H149" t="n">
+        <v>1186</v>
+      </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
@@ -10797,7 +10801,7 @@
       <c r="Z149" t="inlineStr"/>
       <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="n">
-        <v>31227</v>
+        <v>31230</v>
       </c>
     </row>
   </sheetData>
@@ -20749,7 +20753,9 @@
       <c r="G148" t="n">
         <v>50</v>
       </c>
-      <c r="H148" t="inlineStr"/>
+      <c r="H148" t="n">
+        <v>84</v>
+      </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
         <v>13</v>
@@ -20821,7 +20827,9 @@
       <c r="G149" t="n">
         <v>50</v>
       </c>
-      <c r="H149" t="inlineStr"/>
+      <c r="H149" t="n">
+        <v>84</v>
+      </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
@@ -30330,7 +30338,9 @@
         <v>0</v>
       </c>
       <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
         <v>0</v>
@@ -30375,7 +30385,7 @@
         <v>10</v>
       </c>
       <c r="AB148" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="149">
@@ -30392,7 +30402,9 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
@@ -30415,7 +30427,7 @@
       <c r="Z149" t="inlineStr"/>
       <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -39081,7 +39093,9 @@
         <v>0</v>
       </c>
       <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
@@ -39120,7 +39134,7 @@
       </c>
       <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149">
@@ -39137,7 +39151,9 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
@@ -39160,7 +39176,7 @@
       <c r="Z149" t="inlineStr"/>
       <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -53667,7 +53683,9 @@
       <c r="G148" t="n">
         <v>933</v>
       </c>
-      <c r="H148" t="inlineStr"/>
+      <c r="H148" t="n">
+        <v>151</v>
+      </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -53713,7 +53731,9 @@
       <c r="G149" t="n">
         <v>933</v>
       </c>
-      <c r="H149" t="inlineStr"/>
+      <c r="H149" t="n">
+        <v>151</v>
+      </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10772,7 +10772,9 @@
         <v>1186</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>128</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
@@ -10791,7 +10793,9 @@
       <c r="T149" t="n">
         <v>309</v>
       </c>
-      <c r="U149" t="inlineStr"/>
+      <c r="U149" t="n">
+        <v>385</v>
+      </c>
       <c r="V149" t="n">
         <v>3324</v>
       </c>
@@ -20831,7 +20835,9 @@
         <v>84</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>13</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
@@ -20850,7 +20856,9 @@
       <c r="T149" t="n">
         <v>23</v>
       </c>
-      <c r="U149" t="inlineStr"/>
+      <c r="U149" t="n">
+        <v>18</v>
+      </c>
       <c r="V149" t="n">
         <v>350</v>
       </c>
@@ -30406,7 +30414,9 @@
         <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
@@ -30417,7 +30427,9 @@
       <c r="R149" t="inlineStr"/>
       <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr"/>
-      <c r="U149" t="inlineStr"/>
+      <c r="U149" t="n">
+        <v>0</v>
+      </c>
       <c r="V149" t="n">
         <v>6</v>
       </c>
@@ -39166,7 +39178,9 @@
       <c r="R149" t="inlineStr"/>
       <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr"/>
-      <c r="U149" t="inlineStr"/>
+      <c r="U149" t="n">
+        <v>0</v>
+      </c>
       <c r="V149" t="n">
         <v>0</v>
       </c>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -30419,7 +30419,9 @@
       </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>9</v>
+      </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
@@ -30439,7 +30441,7 @@
       <c r="Z149" t="inlineStr"/>
       <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -39170,7 +39172,9 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>2</v>
+      </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10763,8 +10763,12 @@
       <c r="D149" t="n">
         <v>100</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
+      <c r="E149" t="n">
+        <v>1939</v>
+      </c>
+      <c r="F149" t="n">
+        <v>847</v>
+      </c>
       <c r="G149" t="n">
         <v>985</v>
       </c>
@@ -10782,7 +10786,9 @@
       </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
+      <c r="P149" t="n">
+        <v>82</v>
+      </c>
       <c r="Q149" t="inlineStr"/>
       <c r="R149" t="n">
         <v>81</v>
@@ -10803,9 +10809,11 @@
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr"/>
-      <c r="AA149" t="inlineStr"/>
+      <c r="AA149" t="n">
+        <v>3685</v>
+      </c>
       <c r="AB149" t="n">
-        <v>31230</v>
+        <v>31233</v>
       </c>
     </row>
   </sheetData>
@@ -20826,8 +20834,12 @@
       <c r="D149" t="n">
         <v>3</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
+      <c r="E149" t="n">
+        <v>97</v>
+      </c>
+      <c r="F149" t="n">
+        <v>35</v>
+      </c>
       <c r="G149" t="n">
         <v>50</v>
       </c>
@@ -20845,7 +20857,9 @@
       </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
       <c r="Q149" t="inlineStr"/>
       <c r="R149" t="n">
         <v>7</v>
@@ -20866,7 +20880,9 @@
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr"/>
-      <c r="AA149" t="inlineStr"/>
+      <c r="AA149" t="n">
+        <v>130</v>
+      </c>
       <c r="AB149" t="n">
         <v>1956</v>
       </c>
@@ -30407,8 +30423,12 @@
       <c r="D149" t="n">
         <v>0</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
+      <c r="E149" t="n">
+        <v>3</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
         <v>2</v>
@@ -30424,7 +30444,9 @@
       </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
       <c r="Q149" t="inlineStr"/>
       <c r="R149" t="inlineStr"/>
       <c r="S149" t="inlineStr"/>
@@ -30439,9 +30461,11 @@
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr"/>
-      <c r="AA149" t="inlineStr"/>
+      <c r="AA149" t="n">
+        <v>9</v>
+      </c>
       <c r="AB149" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -39162,8 +39186,12 @@
       <c r="D149" t="n">
         <v>0</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
         <v>0</v>
@@ -46391,8 +46419,12 @@
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
@@ -46415,7 +46447,9 @@
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr"/>
-      <c r="AA149" t="inlineStr"/>
+      <c r="AA149" t="n">
+        <v>0</v>
+      </c>
       <c r="AB149" t="n">
         <v>4</v>
       </c>
@@ -53745,7 +53779,9 @@
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
+      <c r="F149" t="n">
+        <v>810</v>
+      </c>
       <c r="G149" t="n">
         <v>933</v>
       </c>
@@ -53776,7 +53812,7 @@
       <c r="Z149" t="inlineStr"/>
       <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="n">
-        <v>5891</v>
+        <v>5892</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10785,7 +10785,9 @@
         <v>741</v>
       </c>
       <c r="N149" t="inlineStr"/>
-      <c r="O149" t="inlineStr"/>
+      <c r="O149" t="n">
+        <v>124</v>
+      </c>
       <c r="P149" t="n">
         <v>82</v>
       </c>
@@ -20856,7 +20858,9 @@
         <v>20</v>
       </c>
       <c r="N149" t="inlineStr"/>
-      <c r="O149" t="inlineStr"/>
+      <c r="O149" t="n">
+        <v>3</v>
+      </c>
       <c r="P149" t="n">
         <v>0</v>
       </c>
@@ -30443,7 +30447,9 @@
         <v>9</v>
       </c>
       <c r="N149" t="inlineStr"/>
-      <c r="O149" t="inlineStr"/>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
       <c r="P149" t="n">
         <v>0</v>
       </c>
@@ -39204,7 +39210,9 @@
         <v>2</v>
       </c>
       <c r="N149" t="inlineStr"/>
-      <c r="O149" t="inlineStr"/>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
       <c r="R149" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10632,7 +10632,9 @@
       <c r="M147" t="n">
         <v>740</v>
       </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="N147" t="n">
+        <v>739</v>
+      </c>
       <c r="O147" t="n">
         <v>124</v>
       </c>
@@ -10671,7 +10673,7 @@
         <v>3679</v>
       </c>
       <c r="AB147" t="n">
-        <v>31210</v>
+        <v>31211</v>
       </c>
     </row>
     <row r="148">
@@ -10745,7 +10747,7 @@
         <v>3684</v>
       </c>
       <c r="AB148" t="n">
-        <v>31220</v>
+        <v>31221</v>
       </c>
     </row>
     <row r="149">
@@ -10815,7 +10817,7 @@
         <v>3685</v>
       </c>
       <c r="AB149" t="n">
-        <v>31233</v>
+        <v>31234</v>
       </c>
     </row>
   </sheetData>
@@ -30446,7 +30448,9 @@
       <c r="M149" t="n">
         <v>9</v>
       </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="N149" t="n">
+        <v>5</v>
+      </c>
       <c r="O149" t="n">
         <v>0</v>
       </c>
@@ -30471,7 +30475,7 @@
         <v>9</v>
       </c>
       <c r="AB149" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -39209,7 +39213,9 @@
       <c r="M149" t="n">
         <v>2</v>
       </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
       <c r="O149" t="n">
         <v>0</v>
       </c>
@@ -39230,7 +39236,7 @@
       <c r="Z149" t="inlineStr"/>
       <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -46440,7 +46446,9 @@
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
-      <c r="N149" t="inlineStr"/>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10582,7 +10582,7 @@
         <v>5487</v>
       </c>
       <c r="Y146" t="n">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="Z146" t="n">
         <v>214</v>
@@ -10591,7 +10591,7 @@
         <v>3669</v>
       </c>
       <c r="AB146" t="n">
-        <v>31179</v>
+        <v>31180</v>
       </c>
     </row>
     <row r="147">
@@ -10664,7 +10664,7 @@
         <v>5490</v>
       </c>
       <c r="Y147" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="Z147" t="n">
         <v>215</v>
@@ -10673,7 +10673,7 @@
         <v>3679</v>
       </c>
       <c r="AB147" t="n">
-        <v>31211</v>
+        <v>31212</v>
       </c>
     </row>
     <row r="148">
@@ -10738,7 +10738,7 @@
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="Z148" t="n">
         <v>215</v>
@@ -10747,7 +10747,7 @@
         <v>3684</v>
       </c>
       <c r="AB148" t="n">
-        <v>31221</v>
+        <v>31222</v>
       </c>
     </row>
     <row r="149">
@@ -10811,13 +10811,15 @@
       </c>
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr"/>
-      <c r="Y149" t="inlineStr"/>
+      <c r="Y149" t="n">
+        <v>1986</v>
+      </c>
       <c r="Z149" t="inlineStr"/>
       <c r="AA149" t="n">
         <v>3685</v>
       </c>
       <c r="AB149" t="n">
-        <v>31234</v>
+        <v>31235</v>
       </c>
     </row>
   </sheetData>
@@ -20884,7 +20886,9 @@
       </c>
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr"/>
-      <c r="Y149" t="inlineStr"/>
+      <c r="Y149" t="n">
+        <v>153</v>
+      </c>
       <c r="Z149" t="inlineStr"/>
       <c r="AA149" t="n">
         <v>130</v>
@@ -29912,7 +29916,9 @@
       </c>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
+      <c r="R141" t="n">
+        <v>1</v>
+      </c>
       <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="n">
@@ -29935,7 +29941,7 @@
         <v>8</v>
       </c>
       <c r="AB141" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="142">
@@ -29982,7 +29988,9 @@
       </c>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
+      <c r="R142" t="n">
+        <v>4</v>
+      </c>
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="n">
@@ -30005,7 +30013,7 @@
         <v>9</v>
       </c>
       <c r="AB142" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="143">
@@ -30069,7 +30077,7 @@
         <v>8</v>
       </c>
       <c r="AB143" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="144">
@@ -30135,7 +30143,7 @@
         <v>9</v>
       </c>
       <c r="AB144" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="145">
@@ -30186,7 +30194,9 @@
       <c r="Q145" t="n">
         <v>7</v>
       </c>
-      <c r="R145" t="inlineStr"/>
+      <c r="R145" t="n">
+        <v>1</v>
+      </c>
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="n">
@@ -30209,7 +30219,7 @@
         <v>9</v>
       </c>
       <c r="AB145" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="146">
@@ -30256,7 +30266,9 @@
         <v>0</v>
       </c>
       <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
+      <c r="R146" t="n">
+        <v>2</v>
+      </c>
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="n">
@@ -30279,7 +30291,7 @@
         <v>8</v>
       </c>
       <c r="AB146" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="147">
@@ -30326,7 +30338,9 @@
         <v>0</v>
       </c>
       <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
+      <c r="R147" t="n">
+        <v>1</v>
+      </c>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="n">
@@ -30349,7 +30363,7 @@
         <v>8</v>
       </c>
       <c r="AB147" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="148">
@@ -30394,7 +30408,9 @@
         <v>0</v>
       </c>
       <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
+      <c r="R148" t="n">
+        <v>2</v>
+      </c>
       <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="n">
@@ -30415,7 +30431,7 @@
         <v>10</v>
       </c>
       <c r="AB148" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="149">
@@ -30458,7 +30474,9 @@
         <v>0</v>
       </c>
       <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
+      <c r="R149" t="n">
+        <v>2</v>
+      </c>
       <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="n">
@@ -30469,13 +30487,15 @@
       </c>
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr"/>
-      <c r="Y149" t="inlineStr"/>
+      <c r="Y149" t="n">
+        <v>15</v>
+      </c>
       <c r="Z149" t="inlineStr"/>
       <c r="AA149" t="n">
         <v>9</v>
       </c>
       <c r="AB149" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -38713,7 +38733,9 @@
       </c>
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
       <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="n">
@@ -38734,7 +38756,7 @@
       </c>
       <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142">
@@ -38779,7 +38801,9 @@
       </c>
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="n">
@@ -38800,7 +38824,7 @@
       </c>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143">
@@ -38862,7 +38886,7 @@
       </c>
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144">
@@ -38926,7 +38950,7 @@
       </c>
       <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145">
@@ -38973,7 +38997,9 @@
       <c r="Q145" t="n">
         <v>2</v>
       </c>
-      <c r="R145" t="inlineStr"/>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="n">
@@ -38994,7 +39020,7 @@
       </c>
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146">
@@ -39037,7 +39063,9 @@
       </c>
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="n">
@@ -39058,7 +39086,7 @@
       </c>
       <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147">
@@ -39101,7 +39129,9 @@
       </c>
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="n">
@@ -39122,7 +39152,7 @@
       </c>
       <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148">
@@ -39163,7 +39193,9 @@
       </c>
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
       <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="n">
@@ -39182,7 +39214,7 @@
       </c>
       <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149">
@@ -39221,7 +39253,9 @@
       </c>
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
       <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="n">
@@ -39232,11 +39266,13 @@
       </c>
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr"/>
-      <c r="Y149" t="inlineStr"/>
+      <c r="Y149" t="n">
+        <v>4</v>
+      </c>
       <c r="Z149" t="inlineStr"/>
       <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -46461,7 +46497,9 @@
       </c>
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr"/>
-      <c r="Y149" t="inlineStr"/>
+      <c r="Y149" t="n">
+        <v>3</v>
+      </c>
       <c r="Z149" t="inlineStr"/>
       <c r="AA149" t="n">
         <v>0</v>
@@ -53824,7 +53862,9 @@
       </c>
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr"/>
-      <c r="Y149" t="inlineStr"/>
+      <c r="Y149" t="n">
+        <v>287</v>
+      </c>
       <c r="Z149" t="inlineStr"/>
       <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="n">

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB149"/>
+  <dimension ref="A1:AB150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10822,6 +10822,42 @@
         <v>31235</v>
       </c>
     </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr"/>
+      <c r="AA150" t="inlineStr"/>
+      <c r="AB150" t="n">
+        <v>31235</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -10833,7 +10869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB149"/>
+  <dimension ref="A1:AB150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20897,6 +20933,42 @@
         <v>1956</v>
       </c>
     </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr"/>
+      <c r="AA150" t="inlineStr"/>
+      <c r="AB150" t="n">
+        <v>1956</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -20908,7 +20980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB149"/>
+  <dimension ref="A1:AB150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30498,6 +30570,42 @@
         <v>204</v>
       </c>
     </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr"/>
+      <c r="AA150" t="inlineStr"/>
+      <c r="AB150" t="n">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -30509,7 +30617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB149"/>
+  <dimension ref="A1:AB150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39275,6 +39383,42 @@
         <v>16</v>
       </c>
     </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr"/>
+      <c r="AA150" t="inlineStr"/>
+      <c r="AB150" t="n">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -39286,7 +39430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB149"/>
+  <dimension ref="A1:AB150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46508,6 +46652,42 @@
         <v>4</v>
       </c>
     </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr"/>
+      <c r="AA150" t="inlineStr"/>
+      <c r="AB150" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -46519,7 +46699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB149"/>
+  <dimension ref="A1:AB150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53871,6 +54051,42 @@
         <v>5892</v>
       </c>
     </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr"/>
+      <c r="AA150" t="inlineStr"/>
+      <c r="AB150" t="n">
+        <v>5892</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -53882,7 +54098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB149"/>
+  <dimension ref="A1:AB150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59644,6 +59860,42 @@
         <v>37875</v>
       </c>
     </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr"/>
+      <c r="AA150" t="inlineStr"/>
+      <c r="AB150" t="n">
+        <v>37875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10831,7 +10831,9 @@
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr"/>
+      <c r="E150" t="n">
+        <v>1939</v>
+      </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
@@ -20942,7 +20944,9 @@
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr"/>
+      <c r="E150" t="n">
+        <v>97</v>
+      </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
@@ -30579,7 +30583,9 @@
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr"/>
+      <c r="E150" t="n">
+        <v>3</v>
+      </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
@@ -39392,7 +39398,9 @@
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr"/>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
@@ -46661,7 +46669,9 @@
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr"/>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10841,7 +10841,9 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>741</v>
+      </c>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
@@ -20954,7 +20956,9 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>20</v>
+      </c>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB150"/>
+  <dimension ref="A1:AB151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10862,6 +10862,42 @@
         <v>31235</v>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
+      <c r="AA151" t="inlineStr"/>
+      <c r="AB151" t="n">
+        <v>31235</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -10873,7 +10909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB150"/>
+  <dimension ref="A1:AB151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20977,6 +21013,42 @@
         <v>1956</v>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
+      <c r="AA151" t="inlineStr"/>
+      <c r="AB151" t="n">
+        <v>1956</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -20988,7 +21060,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB150"/>
+  <dimension ref="A1:AB151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30616,6 +30688,42 @@
         <v>204</v>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
+      <c r="AA151" t="inlineStr"/>
+      <c r="AB151" t="n">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -30627,7 +30735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB150"/>
+  <dimension ref="A1:AB151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39431,6 +39539,42 @@
         <v>16</v>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
+      <c r="AA151" t="inlineStr"/>
+      <c r="AB151" t="n">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -39442,7 +39586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB150"/>
+  <dimension ref="A1:AB151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46702,6 +46846,42 @@
         <v>4</v>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
+      <c r="AA151" t="inlineStr"/>
+      <c r="AB151" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -46713,7 +46893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB150"/>
+  <dimension ref="A1:AB151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54101,6 +54281,42 @@
         <v>5892</v>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
+      <c r="AA151" t="inlineStr"/>
+      <c r="AB151" t="n">
+        <v>5892</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -54112,7 +54328,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB150"/>
+  <dimension ref="A1:AB151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59910,6 +60126,42 @@
         <v>37875</v>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
+      <c r="AA151" t="inlineStr"/>
+      <c r="AB151" t="n">
+        <v>37875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10879,7 +10879,9 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>744</v>
+      </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr"/>
@@ -10895,7 +10897,7 @@
       <c r="Z151" t="inlineStr"/>
       <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="n">
-        <v>31235</v>
+        <v>31238</v>
       </c>
     </row>
   </sheetData>
@@ -21030,7 +21032,9 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>20</v>
+      </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10871,7 +10871,9 @@
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
+      <c r="E151" t="n">
+        <v>1939</v>
+      </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
@@ -21024,7 +21026,9 @@
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
+      <c r="E151" t="n">
+        <v>97</v>
+      </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
@@ -30701,7 +30705,9 @@
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
+      <c r="E151" t="n">
+        <v>3</v>
+      </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
@@ -39552,7 +39558,9 @@
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
@@ -46859,7 +46867,9 @@
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB151"/>
+  <dimension ref="A1:AB152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10850,7 +10850,9 @@
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="inlineStr"/>
       <c r="S150" t="inlineStr"/>
-      <c r="T150" t="inlineStr"/>
+      <c r="T150" t="n">
+        <v>309</v>
+      </c>
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="inlineStr"/>
       <c r="W150" t="inlineStr"/>
@@ -10872,7 +10874,7 @@
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="n">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
@@ -10890,7 +10892,9 @@
       <c r="Q151" t="inlineStr"/>
       <c r="R151" t="inlineStr"/>
       <c r="S151" t="inlineStr"/>
-      <c r="T151" t="inlineStr"/>
+      <c r="T151" t="n">
+        <v>309</v>
+      </c>
       <c r="U151" t="inlineStr"/>
       <c r="V151" t="inlineStr"/>
       <c r="W151" t="inlineStr"/>
@@ -10899,7 +10903,47 @@
       <c r="Z151" t="inlineStr"/>
       <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="n">
-        <v>31238</v>
+        <v>31239</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="n">
+        <v>822</v>
+      </c>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="n">
+        <v>451</v>
+      </c>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
+      <c r="AA152" t="inlineStr"/>
+      <c r="AB152" t="n">
+        <v>31241</v>
       </c>
     </row>
   </sheetData>
@@ -10913,7 +10957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB151"/>
+  <dimension ref="A1:AB152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21005,7 +21049,9 @@
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="inlineStr"/>
       <c r="S150" t="inlineStr"/>
-      <c r="T150" t="inlineStr"/>
+      <c r="T150" t="n">
+        <v>23</v>
+      </c>
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="inlineStr"/>
       <c r="W150" t="inlineStr"/>
@@ -21045,7 +21091,9 @@
       <c r="Q151" t="inlineStr"/>
       <c r="R151" t="inlineStr"/>
       <c r="S151" t="inlineStr"/>
-      <c r="T151" t="inlineStr"/>
+      <c r="T151" t="n">
+        <v>23</v>
+      </c>
       <c r="U151" t="inlineStr"/>
       <c r="V151" t="inlineStr"/>
       <c r="W151" t="inlineStr"/>
@@ -21054,6 +21102,46 @@
       <c r="Z151" t="inlineStr"/>
       <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="n">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="n">
+        <v>38</v>
+      </c>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="n">
+        <v>17</v>
+      </c>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
+      <c r="AA152" t="inlineStr"/>
+      <c r="AB152" t="n">
         <v>1956</v>
       </c>
     </row>
@@ -21068,7 +21156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB151"/>
+  <dimension ref="A1:AB152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30734,6 +30822,42 @@
         <v>204</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
+      <c r="AA152" t="inlineStr"/>
+      <c r="AB152" t="n">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -30745,7 +30869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB151"/>
+  <dimension ref="A1:AB152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39587,6 +39711,42 @@
         <v>16</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
+      <c r="AA152" t="inlineStr"/>
+      <c r="AB152" t="n">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -39598,7 +39758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB151"/>
+  <dimension ref="A1:AB152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46896,6 +47056,42 @@
         <v>4</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
+      <c r="AA152" t="inlineStr"/>
+      <c r="AB152" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -46907,7 +47103,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB151"/>
+  <dimension ref="A1:AB152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54283,7 +54479,9 @@
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="inlineStr"/>
       <c r="S150" t="inlineStr"/>
-      <c r="T150" t="inlineStr"/>
+      <c r="T150" t="n">
+        <v>285</v>
+      </c>
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="inlineStr"/>
       <c r="W150" t="inlineStr"/>
@@ -54319,7 +54517,9 @@
       <c r="Q151" t="inlineStr"/>
       <c r="R151" t="inlineStr"/>
       <c r="S151" t="inlineStr"/>
-      <c r="T151" t="inlineStr"/>
+      <c r="T151" t="n">
+        <v>285</v>
+      </c>
       <c r="U151" t="inlineStr"/>
       <c r="V151" t="inlineStr"/>
       <c r="W151" t="inlineStr"/>
@@ -54328,6 +54528,42 @@
       <c r="Z151" t="inlineStr"/>
       <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="n">
+        <v>5892</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
+      <c r="AA152" t="inlineStr"/>
+      <c r="AB152" t="n">
         <v>5892</v>
       </c>
     </row>
@@ -54342,7 +54578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB151"/>
+  <dimension ref="A1:AB152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60176,6 +60412,42 @@
         <v>37875</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
+      <c r="AA152" t="inlineStr"/>
+      <c r="AB152" t="n">
+        <v>37875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10781,7 +10781,9 @@
       <c r="J149" t="n">
         <v>128</v>
       </c>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>830</v>
+      </c>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>741</v>
@@ -10814,7 +10816,9 @@
       <c r="Y149" t="n">
         <v>1986</v>
       </c>
-      <c r="Z149" t="inlineStr"/>
+      <c r="Z149" t="n">
+        <v>215</v>
+      </c>
       <c r="AA149" t="n">
         <v>3685</v>
       </c>
@@ -10839,7 +10843,9 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>830</v>
+      </c>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>741</v>
@@ -10854,14 +10860,18 @@
         <v>309</v>
       </c>
       <c r="U150" t="inlineStr"/>
-      <c r="V150" t="inlineStr"/>
+      <c r="V150" t="n">
+        <v>3325</v>
+      </c>
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr"/>
       <c r="Y150" t="inlineStr"/>
-      <c r="Z150" t="inlineStr"/>
+      <c r="Z150" t="n">
+        <v>215</v>
+      </c>
       <c r="AA150" t="inlineStr"/>
       <c r="AB150" t="n">
-        <v>31235</v>
+        <v>31236</v>
       </c>
     </row>
     <row r="151">
@@ -10881,7 +10891,9 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>830</v>
+      </c>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>744</v>
@@ -10896,14 +10908,18 @@
         <v>309</v>
       </c>
       <c r="U151" t="inlineStr"/>
-      <c r="V151" t="inlineStr"/>
+      <c r="V151" t="n">
+        <v>3325</v>
+      </c>
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr"/>
       <c r="Y151" t="inlineStr"/>
-      <c r="Z151" t="inlineStr"/>
+      <c r="Z151" t="n">
+        <v>215</v>
+      </c>
       <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="n">
-        <v>31239</v>
+        <v>31240</v>
       </c>
     </row>
     <row r="152">
@@ -10914,10 +10930,14 @@
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>100</v>
+      </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
+      <c r="G152" t="n">
+        <v>985</v>
+      </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -10934,16 +10954,22 @@
       <c r="S152" t="n">
         <v>451</v>
       </c>
-      <c r="T152" t="inlineStr"/>
+      <c r="T152" t="n">
+        <v>313</v>
+      </c>
       <c r="U152" t="inlineStr"/>
-      <c r="V152" t="inlineStr"/>
+      <c r="V152" t="n">
+        <v>3326</v>
+      </c>
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr"/>
       <c r="Y152" t="inlineStr"/>
-      <c r="Z152" t="inlineStr"/>
+      <c r="Z152" t="n">
+        <v>216</v>
+      </c>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="n">
-        <v>31241</v>
+        <v>31248</v>
       </c>
     </row>
   </sheetData>
@@ -20980,7 +21006,9 @@
       <c r="J149" t="n">
         <v>13</v>
       </c>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>50</v>
+      </c>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>20</v>
@@ -21013,7 +21041,9 @@
       <c r="Y149" t="n">
         <v>153</v>
       </c>
-      <c r="Z149" t="inlineStr"/>
+      <c r="Z149" t="n">
+        <v>9</v>
+      </c>
       <c r="AA149" t="n">
         <v>130</v>
       </c>
@@ -21038,7 +21068,9 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>50</v>
+      </c>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>20</v>
@@ -21053,11 +21085,15 @@
         <v>23</v>
       </c>
       <c r="U150" t="inlineStr"/>
-      <c r="V150" t="inlineStr"/>
+      <c r="V150" t="n">
+        <v>350</v>
+      </c>
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr"/>
       <c r="Y150" t="inlineStr"/>
-      <c r="Z150" t="inlineStr"/>
+      <c r="Z150" t="n">
+        <v>9</v>
+      </c>
       <c r="AA150" t="inlineStr"/>
       <c r="AB150" t="n">
         <v>1956</v>
@@ -21080,7 +21116,9 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>50</v>
+      </c>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>20</v>
@@ -21095,11 +21133,15 @@
         <v>23</v>
       </c>
       <c r="U151" t="inlineStr"/>
-      <c r="V151" t="inlineStr"/>
+      <c r="V151" t="n">
+        <v>350</v>
+      </c>
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr"/>
       <c r="Y151" t="inlineStr"/>
-      <c r="Z151" t="inlineStr"/>
+      <c r="Z151" t="n">
+        <v>9</v>
+      </c>
       <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="n">
         <v>1956</v>
@@ -21113,10 +21155,14 @@
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>3</v>
+      </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
+      <c r="G152" t="n">
+        <v>50</v>
+      </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -21133,13 +21179,19 @@
       <c r="S152" t="n">
         <v>17</v>
       </c>
-      <c r="T152" t="inlineStr"/>
+      <c r="T152" t="n">
+        <v>23</v>
+      </c>
       <c r="U152" t="inlineStr"/>
-      <c r="V152" t="inlineStr"/>
+      <c r="V152" t="n">
+        <v>350</v>
+      </c>
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr"/>
       <c r="Y152" t="inlineStr"/>
-      <c r="Z152" t="inlineStr"/>
+      <c r="Z152" t="n">
+        <v>9</v>
+      </c>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="n">
         <v>1956</v>
@@ -30707,7 +30759,9 @@
       <c r="J149" t="n">
         <v>0</v>
       </c>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>9</v>
@@ -30738,7 +30792,9 @@
       <c r="Y149" t="n">
         <v>15</v>
       </c>
-      <c r="Z149" t="inlineStr"/>
+      <c r="Z149" t="n">
+        <v>0</v>
+      </c>
       <c r="AA149" t="n">
         <v>9</v>
       </c>
@@ -30763,7 +30819,9 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr"/>
@@ -30774,11 +30832,15 @@
       <c r="S150" t="inlineStr"/>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr"/>
-      <c r="V150" t="inlineStr"/>
+      <c r="V150" t="n">
+        <v>6</v>
+      </c>
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr"/>
       <c r="Y150" t="inlineStr"/>
-      <c r="Z150" t="inlineStr"/>
+      <c r="Z150" t="n">
+        <v>0</v>
+      </c>
       <c r="AA150" t="inlineStr"/>
       <c r="AB150" t="n">
         <v>204</v>
@@ -30801,7 +30863,9 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
@@ -30812,11 +30876,15 @@
       <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="inlineStr"/>
-      <c r="V151" t="inlineStr"/>
+      <c r="V151" t="n">
+        <v>6</v>
+      </c>
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr"/>
       <c r="Y151" t="inlineStr"/>
-      <c r="Z151" t="inlineStr"/>
+      <c r="Z151" t="n">
+        <v>0</v>
+      </c>
       <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="n">
         <v>204</v>
@@ -30830,7 +30898,9 @@
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -30848,11 +30918,15 @@
       <c r="S152" t="inlineStr"/>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr"/>
-      <c r="V152" t="inlineStr"/>
+      <c r="V152" t="n">
+        <v>6</v>
+      </c>
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr"/>
       <c r="Y152" t="inlineStr"/>
-      <c r="Z152" t="inlineStr"/>
+      <c r="Z152" t="n">
+        <v>0</v>
+      </c>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="n">
         <v>204</v>
@@ -39600,7 +39674,9 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>2</v>
@@ -39629,7 +39705,9 @@
       <c r="Y149" t="n">
         <v>4</v>
       </c>
-      <c r="Z149" t="inlineStr"/>
+      <c r="Z149" t="n">
+        <v>0</v>
+      </c>
       <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="n">
         <v>16</v>
@@ -39652,7 +39730,9 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr"/>
@@ -39663,11 +39743,15 @@
       <c r="S150" t="inlineStr"/>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr"/>
-      <c r="V150" t="inlineStr"/>
+      <c r="V150" t="n">
+        <v>0</v>
+      </c>
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr"/>
       <c r="Y150" t="inlineStr"/>
-      <c r="Z150" t="inlineStr"/>
+      <c r="Z150" t="n">
+        <v>0</v>
+      </c>
       <c r="AA150" t="inlineStr"/>
       <c r="AB150" t="n">
         <v>16</v>
@@ -39690,7 +39774,9 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
@@ -39701,11 +39787,15 @@
       <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="inlineStr"/>
-      <c r="V151" t="inlineStr"/>
+      <c r="V151" t="n">
+        <v>0</v>
+      </c>
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr"/>
       <c r="Y151" t="inlineStr"/>
-      <c r="Z151" t="inlineStr"/>
+      <c r="Z151" t="n">
+        <v>0</v>
+      </c>
       <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="n">
         <v>16</v>
@@ -39719,7 +39809,9 @@
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
@@ -39737,11 +39829,15 @@
       <c r="S152" t="inlineStr"/>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr"/>
-      <c r="V152" t="inlineStr"/>
+      <c r="V152" t="n">
+        <v>0</v>
+      </c>
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr"/>
       <c r="Y152" t="inlineStr"/>
-      <c r="Z152" t="inlineStr"/>
+      <c r="Z152" t="n">
+        <v>0</v>
+      </c>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="n">
         <v>16</v>
@@ -46951,7 +47047,9 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="n">
@@ -46997,7 +47095,9 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr"/>
@@ -47008,7 +47108,9 @@
       <c r="S150" t="inlineStr"/>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr"/>
-      <c r="V150" t="inlineStr"/>
+      <c r="V150" t="n">
+        <v>0</v>
+      </c>
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr"/>
       <c r="Y150" t="inlineStr"/>
@@ -47035,7 +47137,9 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
@@ -47046,7 +47150,9 @@
       <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="inlineStr"/>
-      <c r="V151" t="inlineStr"/>
+      <c r="V151" t="n">
+        <v>0</v>
+      </c>
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr"/>
       <c r="Y151" t="inlineStr"/>
@@ -47082,7 +47188,9 @@
       <c r="S152" t="inlineStr"/>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr"/>
-      <c r="V152" t="inlineStr"/>
+      <c r="V152" t="n">
+        <v>0</v>
+      </c>
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr"/>
       <c r="Y152" t="inlineStr"/>
@@ -54449,7 +54557,9 @@
       <c r="Y149" t="n">
         <v>287</v>
       </c>
-      <c r="Z149" t="inlineStr"/>
+      <c r="Z149" t="n">
+        <v>190</v>
+      </c>
       <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="n">
         <v>5892</v>
@@ -54483,11 +54593,15 @@
         <v>285</v>
       </c>
       <c r="U150" t="inlineStr"/>
-      <c r="V150" t="inlineStr"/>
+      <c r="V150" t="n">
+        <v>909</v>
+      </c>
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr"/>
       <c r="Y150" t="inlineStr"/>
-      <c r="Z150" t="inlineStr"/>
+      <c r="Z150" t="n">
+        <v>190</v>
+      </c>
       <c r="AA150" t="inlineStr"/>
       <c r="AB150" t="n">
         <v>5892</v>
@@ -54521,11 +54635,15 @@
         <v>285</v>
       </c>
       <c r="U151" t="inlineStr"/>
-      <c r="V151" t="inlineStr"/>
+      <c r="V151" t="n">
+        <v>909</v>
+      </c>
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr"/>
       <c r="Y151" t="inlineStr"/>
-      <c r="Z151" t="inlineStr"/>
+      <c r="Z151" t="n">
+        <v>190</v>
+      </c>
       <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="n">
         <v>5892</v>
@@ -54542,7 +54660,9 @@
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
+      <c r="G152" t="n">
+        <v>934</v>
+      </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -54555,16 +54675,22 @@
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="inlineStr"/>
       <c r="S152" t="inlineStr"/>
-      <c r="T152" t="inlineStr"/>
+      <c r="T152" t="n">
+        <v>285</v>
+      </c>
       <c r="U152" t="inlineStr"/>
-      <c r="V152" t="inlineStr"/>
+      <c r="V152" t="n">
+        <v>909</v>
+      </c>
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr"/>
       <c r="Y152" t="inlineStr"/>
-      <c r="Z152" t="inlineStr"/>
+      <c r="Z152" t="n">
+        <v>190</v>
+      </c>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="n">
-        <v>5892</v>
+        <v>5893</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10859,7 +10859,9 @@
       <c r="T150" t="n">
         <v>309</v>
       </c>
-      <c r="U150" t="inlineStr"/>
+      <c r="U150" t="n">
+        <v>385</v>
+      </c>
       <c r="V150" t="n">
         <v>3325</v>
       </c>
@@ -10907,7 +10909,9 @@
       <c r="T151" t="n">
         <v>309</v>
       </c>
-      <c r="U151" t="inlineStr"/>
+      <c r="U151" t="n">
+        <v>385</v>
+      </c>
       <c r="V151" t="n">
         <v>3325</v>
       </c>
@@ -10943,7 +10947,9 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>745</v>
+      </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
@@ -10957,7 +10963,9 @@
       <c r="T152" t="n">
         <v>313</v>
       </c>
-      <c r="U152" t="inlineStr"/>
+      <c r="U152" t="n">
+        <v>385</v>
+      </c>
       <c r="V152" t="n">
         <v>3326</v>
       </c>
@@ -10969,7 +10977,7 @@
       </c>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="n">
-        <v>31248</v>
+        <v>31249</v>
       </c>
     </row>
   </sheetData>
@@ -21084,7 +21092,9 @@
       <c r="T150" t="n">
         <v>23</v>
       </c>
-      <c r="U150" t="inlineStr"/>
+      <c r="U150" t="n">
+        <v>18</v>
+      </c>
       <c r="V150" t="n">
         <v>350</v>
       </c>
@@ -21132,7 +21142,9 @@
       <c r="T151" t="n">
         <v>23</v>
       </c>
-      <c r="U151" t="inlineStr"/>
+      <c r="U151" t="n">
+        <v>18</v>
+      </c>
       <c r="V151" t="n">
         <v>350</v>
       </c>
@@ -21168,7 +21180,9 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>20</v>
+      </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
@@ -21182,7 +21196,9 @@
       <c r="T152" t="n">
         <v>23</v>
       </c>
-      <c r="U152" t="inlineStr"/>
+      <c r="U152" t="n">
+        <v>18</v>
+      </c>
       <c r="V152" t="n">
         <v>350</v>
       </c>
@@ -30831,7 +30847,9 @@
       <c r="R150" t="inlineStr"/>
       <c r="S150" t="inlineStr"/>
       <c r="T150" t="inlineStr"/>
-      <c r="U150" t="inlineStr"/>
+      <c r="U150" t="n">
+        <v>0</v>
+      </c>
       <c r="V150" t="n">
         <v>6</v>
       </c>
@@ -30875,7 +30893,9 @@
       <c r="R151" t="inlineStr"/>
       <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr"/>
-      <c r="U151" t="inlineStr"/>
+      <c r="U151" t="n">
+        <v>0</v>
+      </c>
       <c r="V151" t="n">
         <v>6</v>
       </c>
@@ -30917,7 +30937,9 @@
       <c r="R152" t="inlineStr"/>
       <c r="S152" t="inlineStr"/>
       <c r="T152" t="inlineStr"/>
-      <c r="U152" t="inlineStr"/>
+      <c r="U152" t="n">
+        <v>0</v>
+      </c>
       <c r="V152" t="n">
         <v>6</v>
       </c>
@@ -39742,7 +39764,9 @@
       <c r="R150" t="inlineStr"/>
       <c r="S150" t="inlineStr"/>
       <c r="T150" t="inlineStr"/>
-      <c r="U150" t="inlineStr"/>
+      <c r="U150" t="n">
+        <v>0</v>
+      </c>
       <c r="V150" t="n">
         <v>0</v>
       </c>
@@ -39786,7 +39810,9 @@
       <c r="R151" t="inlineStr"/>
       <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr"/>
-      <c r="U151" t="inlineStr"/>
+      <c r="U151" t="n">
+        <v>0</v>
+      </c>
       <c r="V151" t="n">
         <v>0</v>
       </c>
@@ -39828,7 +39854,9 @@
       <c r="R152" t="inlineStr"/>
       <c r="S152" t="inlineStr"/>
       <c r="T152" t="inlineStr"/>
-      <c r="U152" t="inlineStr"/>
+      <c r="U152" t="n">
+        <v>0</v>
+      </c>
       <c r="V152" t="n">
         <v>0</v>
       </c>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10839,7 +10839,9 @@
         <v>1939</v>
       </c>
       <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
+      <c r="G150" t="n">
+        <v>985</v>
+      </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -10889,7 +10891,9 @@
         <v>1940</v>
       </c>
       <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
+      <c r="G151" t="n">
+        <v>985</v>
+      </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -10944,7 +10948,9 @@
       </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>128</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
@@ -21072,7 +21078,9 @@
         <v>97</v>
       </c>
       <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
+      <c r="G150" t="n">
+        <v>50</v>
+      </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -21122,7 +21130,9 @@
         <v>97</v>
       </c>
       <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
+      <c r="G151" t="n">
+        <v>50</v>
+      </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -21177,7 +21187,9 @@
       </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>13</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
@@ -30926,7 +30938,9 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
@@ -54604,7 +54618,9 @@
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
+      <c r="G150" t="n">
+        <v>933</v>
+      </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -54646,7 +54662,9 @@
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
+      <c r="G151" t="n">
+        <v>934</v>
+      </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -54674,7 +54692,7 @@
       </c>
       <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="n">
-        <v>5892</v>
+        <v>5893</v>
       </c>
     </row>
     <row r="152">

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10962,7 +10962,9 @@
       <c r="Q152" t="n">
         <v>822</v>
       </c>
-      <c r="R152" t="inlineStr"/>
+      <c r="R152" t="n">
+        <v>81</v>
+      </c>
       <c r="S152" t="n">
         <v>451</v>
       </c>
@@ -21201,7 +21203,9 @@
       <c r="Q152" t="n">
         <v>38</v>
       </c>
-      <c r="R152" t="inlineStr"/>
+      <c r="R152" t="n">
+        <v>7</v>
+      </c>
       <c r="S152" t="n">
         <v>17</v>
       </c>
@@ -30943,12 +30947,16 @@
       </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>9</v>
+      </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
+      <c r="R152" t="n">
+        <v>3</v>
+      </c>
       <c r="S152" t="inlineStr"/>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="n">
@@ -30965,7 +30973,7 @@
       </c>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -39860,12 +39868,16 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>2</v>
+      </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
       <c r="S152" t="inlineStr"/>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="n">

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10842,7 +10842,9 @@
       <c r="G150" t="n">
         <v>985</v>
       </c>
-      <c r="H150" t="inlineStr"/>
+      <c r="H150" t="n">
+        <v>1191</v>
+      </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
@@ -10875,7 +10877,7 @@
       </c>
       <c r="AA150" t="inlineStr"/>
       <c r="AB150" t="n">
-        <v>31236</v>
+        <v>31241</v>
       </c>
     </row>
     <row r="151">
@@ -10894,7 +10896,9 @@
       <c r="G151" t="n">
         <v>985</v>
       </c>
-      <c r="H151" t="inlineStr"/>
+      <c r="H151" t="n">
+        <v>1191</v>
+      </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
@@ -10927,7 +10931,7 @@
       </c>
       <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="n">
-        <v>31240</v>
+        <v>31245</v>
       </c>
     </row>
     <row r="152">
@@ -10936,12 +10940,16 @@
           <t>2020-06-22</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr"/>
+      <c r="B152" t="n">
+        <v>1239</v>
+      </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
         <v>100</v>
       </c>
-      <c r="E152" t="inlineStr"/>
+      <c r="E152" t="n">
+        <v>1946</v>
+      </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="n">
         <v>985</v>
@@ -10985,7 +10993,7 @@
       </c>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="n">
-        <v>31249</v>
+        <v>31264</v>
       </c>
     </row>
   </sheetData>
@@ -21083,7 +21091,9 @@
       <c r="G150" t="n">
         <v>50</v>
       </c>
-      <c r="H150" t="inlineStr"/>
+      <c r="H150" t="n">
+        <v>84</v>
+      </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
@@ -21135,7 +21145,9 @@
       <c r="G151" t="n">
         <v>50</v>
       </c>
-      <c r="H151" t="inlineStr"/>
+      <c r="H151" t="n">
+        <v>84</v>
+      </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
@@ -21177,12 +21189,16 @@
           <t>2020-06-22</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr"/>
+      <c r="B152" t="n">
+        <v>46</v>
+      </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
         <v>3</v>
       </c>
-      <c r="E152" t="inlineStr"/>
+      <c r="E152" t="n">
+        <v>97</v>
+      </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="n">
         <v>50</v>
@@ -30894,7 +30910,9 @@
       </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
@@ -30923,7 +30941,7 @@
       </c>
       <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="152">
@@ -30937,7 +30955,9 @@
       <c r="D152" t="n">
         <v>0</v>
       </c>
-      <c r="E152" t="inlineStr"/>
+      <c r="E152" t="n">
+        <v>2</v>
+      </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
@@ -39817,7 +39837,9 @@
       </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
@@ -39860,7 +39882,9 @@
       <c r="D152" t="n">
         <v>0</v>
       </c>
-      <c r="E152" t="inlineStr"/>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
@@ -47225,7 +47249,9 @@
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr"/>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
@@ -54633,7 +54659,9 @@
       <c r="G150" t="n">
         <v>933</v>
       </c>
-      <c r="H150" t="inlineStr"/>
+      <c r="H150" t="n">
+        <v>151</v>
+      </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -54677,7 +54705,9 @@
       <c r="G151" t="n">
         <v>934</v>
       </c>
-      <c r="H151" t="inlineStr"/>
+      <c r="H151" t="n">
+        <v>151</v>
+      </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10875,9 +10875,11 @@
       <c r="Z150" t="n">
         <v>215</v>
       </c>
-      <c r="AA150" t="inlineStr"/>
+      <c r="AA150" t="n">
+        <v>3692</v>
+      </c>
       <c r="AB150" t="n">
-        <v>31241</v>
+        <v>31248</v>
       </c>
     </row>
     <row r="151">
@@ -10929,9 +10931,11 @@
       <c r="Z151" t="n">
         <v>215</v>
       </c>
-      <c r="AA151" t="inlineStr"/>
+      <c r="AA151" t="n">
+        <v>3698</v>
+      </c>
       <c r="AB151" t="n">
-        <v>31245</v>
+        <v>31258</v>
       </c>
     </row>
     <row r="152">
@@ -10966,7 +10970,9 @@
       </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
+      <c r="P152" t="n">
+        <v>82</v>
+      </c>
       <c r="Q152" t="n">
         <v>822</v>
       </c>
@@ -10991,9 +10997,11 @@
       <c r="Z152" t="n">
         <v>216</v>
       </c>
-      <c r="AA152" t="inlineStr"/>
+      <c r="AA152" t="n">
+        <v>3701</v>
+      </c>
       <c r="AB152" t="n">
-        <v>31264</v>
+        <v>31280</v>
       </c>
     </row>
   </sheetData>
@@ -21124,7 +21132,9 @@
       <c r="Z150" t="n">
         <v>9</v>
       </c>
-      <c r="AA150" t="inlineStr"/>
+      <c r="AA150" t="n">
+        <v>130</v>
+      </c>
       <c r="AB150" t="n">
         <v>1956</v>
       </c>
@@ -21178,7 +21188,9 @@
       <c r="Z151" t="n">
         <v>9</v>
       </c>
-      <c r="AA151" t="inlineStr"/>
+      <c r="AA151" t="n">
+        <v>130</v>
+      </c>
       <c r="AB151" t="n">
         <v>1956</v>
       </c>
@@ -21215,7 +21227,9 @@
       </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
+      <c r="P152" t="n">
+        <v>0</v>
+      </c>
       <c r="Q152" t="n">
         <v>38</v>
       </c>
@@ -21240,7 +21254,9 @@
       <c r="Z152" t="n">
         <v>9</v>
       </c>
-      <c r="AA152" t="inlineStr"/>
+      <c r="AA152" t="n">
+        <v>130</v>
+      </c>
       <c r="AB152" t="n">
         <v>1956</v>
       </c>
@@ -30729,7 +30745,9 @@
       <c r="F148" t="n">
         <v>0</v>
       </c>
-      <c r="G148" t="inlineStr"/>
+      <c r="G148" t="n">
+        <v>3</v>
+      </c>
       <c r="H148" t="n">
         <v>2</v>
       </c>
@@ -30799,7 +30817,9 @@
       <c r="F149" t="n">
         <v>0</v>
       </c>
-      <c r="G149" t="inlineStr"/>
+      <c r="G149" t="n">
+        <v>3</v>
+      </c>
       <c r="H149" t="n">
         <v>2</v>
       </c>
@@ -30863,7 +30883,9 @@
         <v>3</v>
       </c>
       <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
+      <c r="G150" t="n">
+        <v>3</v>
+      </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -30891,9 +30913,11 @@
       <c r="Z150" t="n">
         <v>0</v>
       </c>
-      <c r="AA150" t="inlineStr"/>
+      <c r="AA150" t="n">
+        <v>10</v>
+      </c>
       <c r="AB150" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="151">
@@ -30909,7 +30933,9 @@
         <v>3</v>
       </c>
       <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
+      <c r="G151" t="n">
+        <v>2</v>
+      </c>
       <c r="H151" t="n">
         <v>3</v>
       </c>
@@ -30939,7 +30965,9 @@
       <c r="Z151" t="n">
         <v>0</v>
       </c>
-      <c r="AA151" t="inlineStr"/>
+      <c r="AA151" t="n">
+        <v>10</v>
+      </c>
       <c r="AB151" t="n">
         <v>205</v>
       </c>
@@ -30972,7 +31000,9 @@
       </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
+      <c r="P152" t="n">
+        <v>0</v>
+      </c>
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="n">
         <v>3</v>
@@ -30991,9 +31021,11 @@
       <c r="Z152" t="n">
         <v>0</v>
       </c>
-      <c r="AA152" t="inlineStr"/>
+      <c r="AA152" t="n">
+        <v>11</v>
+      </c>
       <c r="AB152" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -39668,7 +39700,9 @@
       <c r="F148" t="n">
         <v>0</v>
       </c>
-      <c r="G148" t="inlineStr"/>
+      <c r="G148" t="n">
+        <v>2</v>
+      </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
@@ -39732,7 +39766,9 @@
       <c r="F149" t="n">
         <v>0</v>
       </c>
-      <c r="G149" t="inlineStr"/>
+      <c r="G149" t="n">
+        <v>2</v>
+      </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
@@ -39790,7 +39826,9 @@
         <v>0</v>
       </c>
       <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
+      <c r="G150" t="n">
+        <v>2</v>
+      </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -39836,7 +39874,9 @@
         <v>0</v>
       </c>
       <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
@@ -39868,7 +39908,7 @@
       </c>
       <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152">
@@ -39918,7 +39958,7 @@
       </c>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -47193,7 +47233,9 @@
       <c r="X150" t="inlineStr"/>
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr"/>
-      <c r="AA150" t="inlineStr"/>
+      <c r="AA150" t="n">
+        <v>0</v>
+      </c>
       <c r="AB150" t="n">
         <v>4</v>
       </c>
@@ -47235,7 +47277,9 @@
       <c r="X151" t="inlineStr"/>
       <c r="Y151" t="inlineStr"/>
       <c r="Z151" t="inlineStr"/>
-      <c r="AA151" t="inlineStr"/>
+      <c r="AA151" t="n">
+        <v>0</v>
+      </c>
       <c r="AB151" t="n">
         <v>4</v>
       </c>
@@ -47275,7 +47319,9 @@
       <c r="X152" t="inlineStr"/>
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr"/>
-      <c r="AA152" t="inlineStr"/>
+      <c r="AA152" t="n">
+        <v>0</v>
+      </c>
       <c r="AB152" t="n">
         <v>4</v>
       </c>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10838,7 +10838,9 @@
       <c r="E150" t="n">
         <v>1939</v>
       </c>
-      <c r="F150" t="inlineStr"/>
+      <c r="F150" t="n">
+        <v>848</v>
+      </c>
       <c r="G150" t="n">
         <v>985</v>
       </c>
@@ -10855,7 +10857,9 @@
         <v>741</v>
       </c>
       <c r="N150" t="inlineStr"/>
-      <c r="O150" t="inlineStr"/>
+      <c r="O150" t="n">
+        <v>124</v>
+      </c>
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="inlineStr"/>
@@ -10879,7 +10883,7 @@
         <v>3692</v>
       </c>
       <c r="AB150" t="n">
-        <v>31248</v>
+        <v>31249</v>
       </c>
     </row>
     <row r="151">
@@ -10894,7 +10898,9 @@
       <c r="E151" t="n">
         <v>1940</v>
       </c>
-      <c r="F151" t="inlineStr"/>
+      <c r="F151" t="n">
+        <v>849</v>
+      </c>
       <c r="G151" t="n">
         <v>985</v>
       </c>
@@ -10911,7 +10917,9 @@
         <v>744</v>
       </c>
       <c r="N151" t="inlineStr"/>
-      <c r="O151" t="inlineStr"/>
+      <c r="O151" t="n">
+        <v>124</v>
+      </c>
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr"/>
       <c r="R151" t="inlineStr"/>
@@ -10935,7 +10943,7 @@
         <v>3698</v>
       </c>
       <c r="AB151" t="n">
-        <v>31258</v>
+        <v>31260</v>
       </c>
     </row>
     <row r="152">
@@ -10954,7 +10962,9 @@
       <c r="E152" t="n">
         <v>1946</v>
       </c>
-      <c r="F152" t="inlineStr"/>
+      <c r="F152" t="n">
+        <v>849</v>
+      </c>
       <c r="G152" t="n">
         <v>985</v>
       </c>
@@ -10969,7 +10979,9 @@
         <v>745</v>
       </c>
       <c r="N152" t="inlineStr"/>
-      <c r="O152" t="inlineStr"/>
+      <c r="O152" t="n">
+        <v>124</v>
+      </c>
       <c r="P152" t="n">
         <v>82</v>
       </c>
@@ -11001,7 +11013,7 @@
         <v>3701</v>
       </c>
       <c r="AB152" t="n">
-        <v>31280</v>
+        <v>31282</v>
       </c>
     </row>
   </sheetData>
@@ -21095,7 +21107,9 @@
       <c r="E150" t="n">
         <v>97</v>
       </c>
-      <c r="F150" t="inlineStr"/>
+      <c r="F150" t="n">
+        <v>35</v>
+      </c>
       <c r="G150" t="n">
         <v>50</v>
       </c>
@@ -21112,7 +21126,9 @@
         <v>20</v>
       </c>
       <c r="N150" t="inlineStr"/>
-      <c r="O150" t="inlineStr"/>
+      <c r="O150" t="n">
+        <v>3</v>
+      </c>
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="inlineStr"/>
@@ -21151,7 +21167,9 @@
       <c r="E151" t="n">
         <v>97</v>
       </c>
-      <c r="F151" t="inlineStr"/>
+      <c r="F151" t="n">
+        <v>35</v>
+      </c>
       <c r="G151" t="n">
         <v>50</v>
       </c>
@@ -21168,7 +21186,9 @@
         <v>20</v>
       </c>
       <c r="N151" t="inlineStr"/>
-      <c r="O151" t="inlineStr"/>
+      <c r="O151" t="n">
+        <v>3</v>
+      </c>
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr"/>
       <c r="R151" t="inlineStr"/>
@@ -21211,7 +21231,9 @@
       <c r="E152" t="n">
         <v>97</v>
       </c>
-      <c r="F152" t="inlineStr"/>
+      <c r="F152" t="n">
+        <v>35</v>
+      </c>
       <c r="G152" t="n">
         <v>50</v>
       </c>
@@ -21226,7 +21248,9 @@
         <v>20</v>
       </c>
       <c r="N152" t="inlineStr"/>
-      <c r="O152" t="inlineStr"/>
+      <c r="O152" t="n">
+        <v>3</v>
+      </c>
       <c r="P152" t="n">
         <v>0</v>
       </c>
@@ -30882,7 +30906,9 @@
       <c r="E150" t="n">
         <v>3</v>
       </c>
-      <c r="F150" t="inlineStr"/>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
       <c r="G150" t="n">
         <v>3</v>
       </c>
@@ -30895,7 +30921,9 @@
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr"/>
-      <c r="O150" t="inlineStr"/>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="inlineStr"/>
@@ -30932,7 +30960,9 @@
       <c r="E151" t="n">
         <v>3</v>
       </c>
-      <c r="F151" t="inlineStr"/>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
       <c r="G151" t="n">
         <v>2</v>
       </c>
@@ -30947,7 +30977,9 @@
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
-      <c r="O151" t="inlineStr"/>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr"/>
       <c r="R151" t="inlineStr"/>
@@ -30986,7 +31018,9 @@
       <c r="E152" t="n">
         <v>2</v>
       </c>
-      <c r="F152" t="inlineStr"/>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
@@ -30999,7 +31033,9 @@
         <v>9</v>
       </c>
       <c r="N152" t="inlineStr"/>
-      <c r="O152" t="inlineStr"/>
+      <c r="O152" t="n">
+        <v>0</v>
+      </c>
       <c r="P152" t="n">
         <v>0</v>
       </c>
@@ -39825,7 +39861,9 @@
       <c r="E150" t="n">
         <v>0</v>
       </c>
-      <c r="F150" t="inlineStr"/>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
       <c r="G150" t="n">
         <v>2</v>
       </c>
@@ -39838,7 +39876,9 @@
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr"/>
-      <c r="O150" t="inlineStr"/>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="inlineStr"/>
@@ -39873,7 +39913,9 @@
       <c r="E151" t="n">
         <v>0</v>
       </c>
-      <c r="F151" t="inlineStr"/>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
       <c r="G151" t="n">
         <v>1</v>
       </c>
@@ -39888,7 +39930,9 @@
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
-      <c r="O151" t="inlineStr"/>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr"/>
       <c r="R151" t="inlineStr"/>
@@ -39925,7 +39969,9 @@
       <c r="E152" t="n">
         <v>0</v>
       </c>
-      <c r="F152" t="inlineStr"/>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
@@ -39936,7 +39982,9 @@
         <v>2</v>
       </c>
       <c r="N152" t="inlineStr"/>
-      <c r="O152" t="inlineStr"/>
+      <c r="O152" t="n">
+        <v>0</v>
+      </c>
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="n">
@@ -47208,7 +47256,9 @@
       <c r="E150" t="n">
         <v>0</v>
       </c>
-      <c r="F150" t="inlineStr"/>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
@@ -47252,7 +47302,9 @@
       <c r="E151" t="n">
         <v>0</v>
       </c>
-      <c r="F151" t="inlineStr"/>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
@@ -47296,7 +47348,9 @@
       <c r="E152" t="n">
         <v>0</v>
       </c>
-      <c r="F152" t="inlineStr"/>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
@@ -54701,7 +54755,9 @@
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
+      <c r="F150" t="n">
+        <v>810</v>
+      </c>
       <c r="G150" t="n">
         <v>933</v>
       </c>
@@ -54747,7 +54803,9 @@
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
+      <c r="F151" t="n">
+        <v>810</v>
+      </c>
       <c r="G151" t="n">
         <v>934</v>
       </c>
@@ -54793,7 +54851,9 @@
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
+      <c r="F152" t="n">
+        <v>811</v>
+      </c>
       <c r="G152" t="n">
         <v>934</v>
       </c>
@@ -54824,7 +54884,7 @@
       </c>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="n">
-        <v>5893</v>
+        <v>5894</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10664,7 +10664,7 @@
         <v>5490</v>
       </c>
       <c r="Y147" t="n">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="Z147" t="n">
         <v>215</v>
@@ -10673,7 +10673,7 @@
         <v>3679</v>
       </c>
       <c r="AB147" t="n">
-        <v>31212</v>
+        <v>31213</v>
       </c>
     </row>
     <row r="148">
@@ -10738,7 +10738,7 @@
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="n">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="Z148" t="n">
         <v>215</v>
@@ -10747,7 +10747,7 @@
         <v>3684</v>
       </c>
       <c r="AB148" t="n">
-        <v>31222</v>
+        <v>31224</v>
       </c>
     </row>
     <row r="149">
@@ -10814,7 +10814,7 @@
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="n">
-        <v>1986</v>
+        <v>1997</v>
       </c>
       <c r="Z149" t="n">
         <v>215</v>
@@ -10823,7 +10823,7 @@
         <v>3685</v>
       </c>
       <c r="AB149" t="n">
-        <v>31235</v>
+        <v>31246</v>
       </c>
     </row>
     <row r="150">
@@ -10875,7 +10875,9 @@
       </c>
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr"/>
-      <c r="Y150" t="inlineStr"/>
+      <c r="Y150" t="n">
+        <v>2000</v>
+      </c>
       <c r="Z150" t="n">
         <v>215</v>
       </c>
@@ -10883,7 +10885,7 @@
         <v>3692</v>
       </c>
       <c r="AB150" t="n">
-        <v>31249</v>
+        <v>31263</v>
       </c>
     </row>
     <row r="151">
@@ -10935,7 +10937,9 @@
       </c>
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr"/>
-      <c r="Y151" t="inlineStr"/>
+      <c r="Y151" t="n">
+        <v>2001</v>
+      </c>
       <c r="Z151" t="n">
         <v>215</v>
       </c>
@@ -10943,7 +10947,7 @@
         <v>3698</v>
       </c>
       <c r="AB151" t="n">
-        <v>31260</v>
+        <v>31275</v>
       </c>
     </row>
     <row r="152">
@@ -11005,7 +11009,9 @@
       </c>
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr"/>
-      <c r="Y152" t="inlineStr"/>
+      <c r="Y152" t="n">
+        <v>2002</v>
+      </c>
       <c r="Z152" t="n">
         <v>216</v>
       </c>
@@ -11013,7 +11019,7 @@
         <v>3701</v>
       </c>
       <c r="AB152" t="n">
-        <v>31282</v>
+        <v>31298</v>
       </c>
     </row>
   </sheetData>
@@ -21144,7 +21150,9 @@
       </c>
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr"/>
-      <c r="Y150" t="inlineStr"/>
+      <c r="Y150" t="n">
+        <v>153</v>
+      </c>
       <c r="Z150" t="n">
         <v>9</v>
       </c>
@@ -21204,7 +21212,9 @@
       </c>
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr"/>
-      <c r="Y151" t="inlineStr"/>
+      <c r="Y151" t="n">
+        <v>153</v>
+      </c>
       <c r="Z151" t="n">
         <v>9</v>
       </c>
@@ -21274,7 +21284,9 @@
       </c>
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr"/>
-      <c r="Y152" t="inlineStr"/>
+      <c r="Y152" t="n">
+        <v>153</v>
+      </c>
       <c r="Z152" t="n">
         <v>9</v>
       </c>
@@ -30248,7 +30260,7 @@
         <v>30</v>
       </c>
       <c r="Y140" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z140" t="n">
         <v>1</v>
@@ -30257,7 +30269,7 @@
         <v>7</v>
       </c>
       <c r="AB140" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="141">
@@ -30320,7 +30332,7 @@
         <v>30</v>
       </c>
       <c r="Y141" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z141" t="n">
         <v>1</v>
@@ -30329,7 +30341,7 @@
         <v>8</v>
       </c>
       <c r="AB141" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="142">
@@ -30392,7 +30404,7 @@
         <v>31</v>
       </c>
       <c r="Y142" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z142" t="n">
         <v>1</v>
@@ -30401,7 +30413,7 @@
         <v>9</v>
       </c>
       <c r="AB142" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="143">
@@ -30456,7 +30468,7 @@
         <v>31</v>
       </c>
       <c r="Y143" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z143" t="n">
         <v>1</v>
@@ -30465,7 +30477,7 @@
         <v>8</v>
       </c>
       <c r="AB143" t="n">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="144">
@@ -30522,7 +30534,7 @@
         <v>31</v>
       </c>
       <c r="Y144" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z144" t="n">
         <v>1</v>
@@ -30531,7 +30543,7 @@
         <v>9</v>
       </c>
       <c r="AB144" t="n">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="145">
@@ -30598,7 +30610,7 @@
         <v>31</v>
       </c>
       <c r="Y145" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z145" t="n">
         <v>1</v>
@@ -30607,7 +30619,7 @@
         <v>9</v>
       </c>
       <c r="AB145" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="146">
@@ -30670,7 +30682,7 @@
         <v>29</v>
       </c>
       <c r="Y146" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z146" t="n">
         <v>0</v>
@@ -30679,7 +30691,7 @@
         <v>8</v>
       </c>
       <c r="AB146" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="147">
@@ -30742,7 +30754,7 @@
         <v>29</v>
       </c>
       <c r="Y147" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z147" t="n">
         <v>0</v>
@@ -30751,7 +30763,7 @@
         <v>8</v>
       </c>
       <c r="AB147" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="148">
@@ -30812,7 +30824,7 @@
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z148" t="n">
         <v>0</v>
@@ -30821,7 +30833,7 @@
         <v>10</v>
       </c>
       <c r="AB148" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="149">
@@ -30882,7 +30894,7 @@
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z149" t="n">
         <v>0</v>
@@ -30891,7 +30903,7 @@
         <v>9</v>
       </c>
       <c r="AB149" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="150">
@@ -30937,7 +30949,9 @@
       </c>
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr"/>
-      <c r="Y150" t="inlineStr"/>
+      <c r="Y150" t="n">
+        <v>14</v>
+      </c>
       <c r="Z150" t="n">
         <v>0</v>
       </c>
@@ -30945,7 +30959,7 @@
         <v>10</v>
       </c>
       <c r="AB150" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="151">
@@ -30993,7 +31007,9 @@
       </c>
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr"/>
-      <c r="Y151" t="inlineStr"/>
+      <c r="Y151" t="n">
+        <v>15</v>
+      </c>
       <c r="Z151" t="n">
         <v>0</v>
       </c>
@@ -31053,7 +31069,9 @@
       </c>
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr"/>
-      <c r="Y152" t="inlineStr"/>
+      <c r="Y152" t="n">
+        <v>15</v>
+      </c>
       <c r="Z152" t="n">
         <v>0</v>
       </c>
@@ -39445,14 +39463,14 @@
         <v>3</v>
       </c>
       <c r="Y143" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z143" t="n">
         <v>0</v>
       </c>
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144">
@@ -39509,14 +39527,14 @@
         <v>3</v>
       </c>
       <c r="Y144" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z144" t="n">
         <v>0</v>
       </c>
       <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145">
@@ -39579,14 +39597,14 @@
         <v>3</v>
       </c>
       <c r="Y145" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z145" t="n">
         <v>0</v>
       </c>
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146">
@@ -39645,14 +39663,14 @@
         <v>3</v>
       </c>
       <c r="Y146" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z146" t="n">
         <v>0</v>
       </c>
       <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147">
@@ -39711,14 +39729,14 @@
         <v>3</v>
       </c>
       <c r="Y147" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z147" t="n">
         <v>0</v>
       </c>
       <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148">
@@ -39775,14 +39793,14 @@
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z148" t="n">
         <v>0</v>
       </c>
       <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149">
@@ -39839,14 +39857,14 @@
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z149" t="n">
         <v>0</v>
       </c>
       <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150">
@@ -39892,13 +39910,15 @@
       </c>
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr"/>
-      <c r="Y150" t="inlineStr"/>
+      <c r="Y150" t="n">
+        <v>2</v>
+      </c>
       <c r="Z150" t="n">
         <v>0</v>
       </c>
       <c r="AA150" t="inlineStr"/>
       <c r="AB150" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151">
@@ -39946,13 +39966,15 @@
       </c>
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr"/>
-      <c r="Y151" t="inlineStr"/>
+      <c r="Y151" t="n">
+        <v>2</v>
+      </c>
       <c r="Z151" t="n">
         <v>0</v>
       </c>
       <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152">
@@ -40000,13 +40022,15 @@
       </c>
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr"/>
-      <c r="Y152" t="inlineStr"/>
+      <c r="Y152" t="n">
+        <v>2</v>
+      </c>
       <c r="Z152" t="n">
         <v>0</v>
       </c>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -46828,14 +46852,14 @@
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr"/>
       <c r="Y141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z141" t="inlineStr"/>
       <c r="AA141" t="n">
         <v>0</v>
       </c>
       <c r="AB141" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142">
@@ -46880,14 +46904,14 @@
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z142" t="inlineStr"/>
       <c r="AA142" t="n">
         <v>0</v>
       </c>
       <c r="AB142" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
@@ -46930,14 +46954,14 @@
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
       <c r="Y143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z143" t="inlineStr"/>
       <c r="AA143" t="n">
         <v>0</v>
       </c>
       <c r="AB143" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
@@ -46980,14 +47004,14 @@
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
       <c r="Y144" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z144" t="inlineStr"/>
       <c r="AA144" t="n">
         <v>0</v>
       </c>
       <c r="AB144" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
@@ -47032,14 +47056,14 @@
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
       <c r="Y145" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z145" t="inlineStr"/>
       <c r="AA145" t="n">
         <v>0</v>
       </c>
       <c r="AB145" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -47084,14 +47108,14 @@
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z146" t="inlineStr"/>
       <c r="AA146" t="n">
         <v>0</v>
       </c>
       <c r="AB146" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -47134,14 +47158,14 @@
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z147" t="inlineStr"/>
       <c r="AA147" t="n">
         <v>0</v>
       </c>
       <c r="AB147" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -47184,14 +47208,14 @@
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z148" t="inlineStr"/>
       <c r="AA148" t="n">
         <v>0</v>
       </c>
       <c r="AB148" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -47234,14 +47258,14 @@
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z149" t="inlineStr"/>
       <c r="AA149" t="n">
         <v>0</v>
       </c>
       <c r="AB149" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -47281,13 +47305,15 @@
       </c>
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr"/>
-      <c r="Y150" t="inlineStr"/>
+      <c r="Y150" t="n">
+        <v>1</v>
+      </c>
       <c r="Z150" t="inlineStr"/>
       <c r="AA150" t="n">
         <v>0</v>
       </c>
       <c r="AB150" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -47327,13 +47353,15 @@
       </c>
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr"/>
-      <c r="Y151" t="inlineStr"/>
+      <c r="Y151" t="n">
+        <v>1</v>
+      </c>
       <c r="Z151" t="inlineStr"/>
       <c r="AA151" t="n">
         <v>0</v>
       </c>
       <c r="AB151" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -47371,13 +47399,15 @@
       </c>
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr"/>
-      <c r="Y152" t="inlineStr"/>
+      <c r="Y152" t="n">
+        <v>1</v>
+      </c>
       <c r="Z152" t="inlineStr"/>
       <c r="AA152" t="n">
         <v>0</v>
       </c>
       <c r="AB152" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -54271,14 +54301,14 @@
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr"/>
       <c r="Y140" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z140" t="n">
         <v>186</v>
       </c>
       <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="n">
-        <v>5838</v>
+        <v>5839</v>
       </c>
     </row>
     <row r="141">
@@ -54325,14 +54355,14 @@
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr"/>
       <c r="Y141" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z141" t="n">
         <v>186</v>
       </c>
       <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="n">
-        <v>5849</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="142">
@@ -54377,14 +54407,14 @@
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z142" t="n">
         <v>186</v>
       </c>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="n">
-        <v>5851</v>
+        <v>5852</v>
       </c>
     </row>
     <row r="143">
@@ -54427,14 +54457,14 @@
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
       <c r="Y143" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Z143" t="n">
         <v>186</v>
       </c>
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="n">
-        <v>5854</v>
+        <v>5856</v>
       </c>
     </row>
     <row r="144">
@@ -54477,14 +54507,14 @@
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
       <c r="Y144" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Z144" t="n">
         <v>186</v>
       </c>
       <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="n">
-        <v>5856</v>
+        <v>5858</v>
       </c>
     </row>
     <row r="145">
@@ -54531,14 +54561,14 @@
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
       <c r="Y145" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Z145" t="n">
         <v>189</v>
       </c>
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="n">
-        <v>5868</v>
+        <v>5870</v>
       </c>
     </row>
     <row r="146">
@@ -54583,14 +54613,14 @@
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Z146" t="n">
         <v>189</v>
       </c>
       <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="n">
-        <v>5871</v>
+        <v>5873</v>
       </c>
     </row>
     <row r="147">
@@ -54633,14 +54663,14 @@
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Z147" t="n">
         <v>189</v>
       </c>
       <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="n">
-        <v>5872</v>
+        <v>5874</v>
       </c>
     </row>
     <row r="148">
@@ -54685,14 +54715,14 @@
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Z148" t="n">
         <v>190</v>
       </c>
       <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="n">
-        <v>5890</v>
+        <v>5892</v>
       </c>
     </row>
     <row r="149">
@@ -54735,14 +54765,14 @@
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Z149" t="n">
         <v>190</v>
       </c>
       <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="n">
-        <v>5892</v>
+        <v>5895</v>
       </c>
     </row>
     <row r="150">
@@ -54784,13 +54814,15 @@
       </c>
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr"/>
-      <c r="Y150" t="inlineStr"/>
+      <c r="Y150" t="n">
+        <v>290</v>
+      </c>
       <c r="Z150" t="n">
         <v>190</v>
       </c>
       <c r="AA150" t="inlineStr"/>
       <c r="AB150" t="n">
-        <v>5892</v>
+        <v>5895</v>
       </c>
     </row>
     <row r="151">
@@ -54832,13 +54864,15 @@
       </c>
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr"/>
-      <c r="Y151" t="inlineStr"/>
+      <c r="Y151" t="n">
+        <v>290</v>
+      </c>
       <c r="Z151" t="n">
         <v>190</v>
       </c>
       <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="n">
-        <v>5893</v>
+        <v>5896</v>
       </c>
     </row>
     <row r="152">
@@ -54878,13 +54912,15 @@
       </c>
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr"/>
-      <c r="Y152" t="inlineStr"/>
+      <c r="Y152" t="n">
+        <v>290</v>
+      </c>
       <c r="Z152" t="n">
         <v>190</v>
       </c>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="n">
-        <v>5894</v>
+        <v>5897</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10712,7 +10712,9 @@
       <c r="M148" t="n">
         <v>740</v>
       </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="N148" t="n">
+        <v>739</v>
+      </c>
       <c r="O148" t="n">
         <v>124</v>
       </c>
@@ -10788,7 +10790,9 @@
       <c r="M149" t="n">
         <v>741</v>
       </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="N149" t="n">
+        <v>741</v>
+      </c>
       <c r="O149" t="n">
         <v>124</v>
       </c>
@@ -10823,7 +10827,7 @@
         <v>3685</v>
       </c>
       <c r="AB149" t="n">
-        <v>31246</v>
+        <v>31248</v>
       </c>
     </row>
     <row r="150">
@@ -10885,7 +10889,7 @@
         <v>3692</v>
       </c>
       <c r="AB150" t="n">
-        <v>31263</v>
+        <v>31265</v>
       </c>
     </row>
     <row r="151">
@@ -10947,7 +10951,7 @@
         <v>3698</v>
       </c>
       <c r="AB151" t="n">
-        <v>31275</v>
+        <v>31277</v>
       </c>
     </row>
     <row r="152">
@@ -11019,7 +11023,7 @@
         <v>3701</v>
       </c>
       <c r="AB152" t="n">
-        <v>31298</v>
+        <v>31300</v>
       </c>
     </row>
   </sheetData>
@@ -30932,7 +30936,9 @@
       </c>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr"/>
+      <c r="N150" t="n">
+        <v>2</v>
+      </c>
       <c r="O150" t="n">
         <v>0</v>
       </c>
@@ -30959,7 +30965,7 @@
         <v>10</v>
       </c>
       <c r="AB150" t="n">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="151">
@@ -30990,7 +30996,9 @@
       </c>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>2</v>
+      </c>
       <c r="O151" t="n">
         <v>0</v>
       </c>
@@ -31017,7 +31025,7 @@
         <v>10</v>
       </c>
       <c r="AB151" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="152">
@@ -31048,7 +31056,9 @@
       <c r="M152" t="n">
         <v>9</v>
       </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>2</v>
+      </c>
       <c r="O152" t="n">
         <v>0</v>
       </c>
@@ -31079,7 +31089,7 @@
         <v>11</v>
       </c>
       <c r="AB152" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -39893,7 +39903,9 @@
       </c>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr"/>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
       <c r="O150" t="n">
         <v>0</v>
       </c>
@@ -39918,7 +39930,7 @@
       </c>
       <c r="AA150" t="inlineStr"/>
       <c r="AB150" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151">
@@ -39949,7 +39961,9 @@
       </c>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
       <c r="O151" t="n">
         <v>0</v>
       </c>
@@ -39974,7 +39988,7 @@
       </c>
       <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152">
@@ -40003,7 +40017,9 @@
       <c r="M152" t="n">
         <v>2</v>
       </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
       <c r="O152" t="n">
         <v>0</v>
       </c>
@@ -40030,7 +40046,7 @@
       </c>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -47292,7 +47308,9 @@
       </c>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr"/>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
@@ -47340,7 +47358,9 @@
       </c>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr"/>
@@ -47386,7 +47406,9 @@
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
-      <c r="N152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB152"/>
+  <dimension ref="A1:AB153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10981,7 +10981,9 @@
       <c r="J152" t="n">
         <v>128</v>
       </c>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>831</v>
+      </c>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>745</v>
@@ -11023,7 +11025,53 @@
         <v>3701</v>
       </c>
       <c r="AB152" t="n">
-        <v>31300</v>
+        <v>31301</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1241</v>
+      </c>
+      <c r="C153" t="n">
+        <v>25</v>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="n">
+        <v>823</v>
+      </c>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="n">
+        <v>313</v>
+      </c>
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="n">
+        <v>216</v>
+      </c>
+      <c r="AA153" t="inlineStr"/>
+      <c r="AB153" t="n">
+        <v>31304</v>
       </c>
     </row>
   </sheetData>
@@ -11037,7 +11085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB152"/>
+  <dimension ref="A1:AB153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21256,7 +21304,9 @@
       <c r="J152" t="n">
         <v>13</v>
       </c>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>50</v>
+      </c>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>20</v>
@@ -21298,6 +21348,52 @@
         <v>130</v>
       </c>
       <c r="AB152" t="n">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>46</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="n">
+        <v>38</v>
+      </c>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="n">
+        <v>23</v>
+      </c>
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA153" t="inlineStr"/>
+      <c r="AB153" t="n">
         <v>1956</v>
       </c>
     </row>
@@ -21312,7 +21408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB152"/>
+  <dimension ref="A1:AB153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31051,7 +31147,9 @@
       <c r="J152" t="n">
         <v>0</v>
       </c>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>9</v>
@@ -31089,7 +31187,45 @@
         <v>11</v>
       </c>
       <c r="AB152" t="n">
-        <v>203</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA153" t="inlineStr"/>
+      <c r="AB153" t="n">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -31103,7 +31239,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB152"/>
+  <dimension ref="A1:AB153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40012,7 +40148,9 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>2</v>
@@ -40046,6 +40184,44 @@
       </c>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA153" t="inlineStr"/>
+      <c r="AB153" t="n">
         <v>12</v>
       </c>
     </row>
@@ -40060,7 +40236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB152"/>
+  <dimension ref="A1:AB153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47403,7 +47579,9 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="n">
@@ -47429,6 +47607,42 @@
         <v>0</v>
       </c>
       <c r="AB152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="inlineStr"/>
+      <c r="AA153" t="inlineStr"/>
+      <c r="AB153" t="n">
         <v>2</v>
       </c>
     </row>
@@ -47443,7 +47657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB152"/>
+  <dimension ref="A1:AB153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54945,6 +55159,46 @@
         <v>5897</v>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="n">
+        <v>285</v>
+      </c>
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA153" t="inlineStr"/>
+      <c r="AB153" t="n">
+        <v>5897</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -54956,7 +55210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB152"/>
+  <dimension ref="A1:AB153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60826,6 +61080,42 @@
         <v>37875</v>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="inlineStr"/>
+      <c r="AA153" t="inlineStr"/>
+      <c r="AB153" t="n">
+        <v>37875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -11041,7 +11041,9 @@
         <v>25</v>
       </c>
       <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr"/>
+      <c r="E153" t="n">
+        <v>1946</v>
+      </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
@@ -11056,13 +11058,17 @@
       <c r="Q153" t="n">
         <v>823</v>
       </c>
-      <c r="R153" t="inlineStr"/>
+      <c r="R153" t="n">
+        <v>81</v>
+      </c>
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="n">
         <v>313</v>
       </c>
       <c r="U153" t="inlineStr"/>
-      <c r="V153" t="inlineStr"/>
+      <c r="V153" t="n">
+        <v>3327</v>
+      </c>
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr"/>
       <c r="Y153" t="inlineStr"/>
@@ -11071,7 +11077,7 @@
       </c>
       <c r="AA153" t="inlineStr"/>
       <c r="AB153" t="n">
-        <v>31304</v>
+        <v>31305</v>
       </c>
     </row>
   </sheetData>
@@ -21364,7 +21370,9 @@
         <v>0</v>
       </c>
       <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr"/>
+      <c r="E153" t="n">
+        <v>97</v>
+      </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
@@ -21379,13 +21387,17 @@
       <c r="Q153" t="n">
         <v>38</v>
       </c>
-      <c r="R153" t="inlineStr"/>
+      <c r="R153" t="n">
+        <v>7</v>
+      </c>
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="n">
         <v>23</v>
       </c>
       <c r="U153" t="inlineStr"/>
-      <c r="V153" t="inlineStr"/>
+      <c r="V153" t="n">
+        <v>350</v>
+      </c>
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr"/>
       <c r="Y153" t="inlineStr"/>
@@ -31199,7 +31211,9 @@
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr"/>
+      <c r="E153" t="n">
+        <v>2</v>
+      </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
@@ -31212,11 +31226,15 @@
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
+      <c r="R153" t="n">
+        <v>2</v>
+      </c>
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr"/>
-      <c r="V153" t="inlineStr"/>
+      <c r="V153" t="n">
+        <v>6</v>
+      </c>
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr"/>
       <c r="Y153" t="inlineStr"/>
@@ -31225,7 +31243,7 @@
       </c>
       <c r="AA153" t="inlineStr"/>
       <c r="AB153" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -40196,7 +40214,9 @@
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr"/>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
@@ -40209,11 +40229,15 @@
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr"/>
-      <c r="V153" t="inlineStr"/>
+      <c r="V153" t="n">
+        <v>0</v>
+      </c>
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr"/>
       <c r="Y153" t="inlineStr"/>
@@ -47619,7 +47643,9 @@
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr"/>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
@@ -47636,7 +47662,9 @@
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr"/>
-      <c r="V153" t="inlineStr"/>
+      <c r="V153" t="n">
+        <v>0</v>
+      </c>
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr"/>
       <c r="Y153" t="inlineStr"/>
@@ -55187,7 +55215,9 @@
         <v>285</v>
       </c>
       <c r="U153" t="inlineStr"/>
-      <c r="V153" t="inlineStr"/>
+      <c r="V153" t="n">
+        <v>909</v>
+      </c>
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr"/>
       <c r="Y153" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -6767,7 +6767,7 @@
         <v>86</v>
       </c>
       <c r="X99" t="n">
-        <v>5285</v>
+        <v>5286</v>
       </c>
       <c r="Y99" t="n">
         <v>1887</v>
@@ -6779,7 +6779,7 @@
         <v>3464</v>
       </c>
       <c r="AB99" t="n">
-        <v>29632</v>
+        <v>29633</v>
       </c>
     </row>
     <row r="100">
@@ -6855,7 +6855,7 @@
         <v>87</v>
       </c>
       <c r="X100" t="n">
-        <v>5299</v>
+        <v>5303</v>
       </c>
       <c r="Y100" t="n">
         <v>1892</v>
@@ -6867,7 +6867,7 @@
         <v>3477</v>
       </c>
       <c r="AB100" t="n">
-        <v>29742</v>
+        <v>29746</v>
       </c>
     </row>
     <row r="101">
@@ -6937,7 +6937,7 @@
         <v>89</v>
       </c>
       <c r="X101" t="n">
-        <v>5308</v>
+        <v>5312</v>
       </c>
       <c r="Y101" t="n">
         <v>1895</v>
@@ -6949,7 +6949,7 @@
         <v>3480</v>
       </c>
       <c r="AB101" t="n">
-        <v>29820</v>
+        <v>29824</v>
       </c>
     </row>
     <row r="102">
@@ -7019,7 +7019,7 @@
         <v>90</v>
       </c>
       <c r="X102" t="n">
-        <v>5313</v>
+        <v>5317</v>
       </c>
       <c r="Y102" t="n">
         <v>1897</v>
@@ -7031,7 +7031,7 @@
         <v>3484</v>
       </c>
       <c r="AB102" t="n">
-        <v>29880</v>
+        <v>29884</v>
       </c>
     </row>
     <row r="103">
@@ -7107,7 +7107,7 @@
         <v>91</v>
       </c>
       <c r="X103" t="n">
-        <v>5321</v>
+        <v>5325</v>
       </c>
       <c r="Y103" t="n">
         <v>1905</v>
@@ -7119,7 +7119,7 @@
         <v>3486</v>
       </c>
       <c r="AB103" t="n">
-        <v>29941</v>
+        <v>29945</v>
       </c>
     </row>
     <row r="104">
@@ -7195,7 +7195,7 @@
         <v>91</v>
       </c>
       <c r="X104" t="n">
-        <v>5332</v>
+        <v>5336</v>
       </c>
       <c r="Y104" t="n">
         <v>1907</v>
@@ -7207,7 +7207,7 @@
         <v>3502</v>
       </c>
       <c r="AB104" t="n">
-        <v>30000</v>
+        <v>30004</v>
       </c>
     </row>
     <row r="105">
@@ -7283,7 +7283,7 @@
         <v>91</v>
       </c>
       <c r="X105" t="n">
-        <v>5350</v>
+        <v>5355</v>
       </c>
       <c r="Y105" t="n">
         <v>1910</v>
@@ -7295,7 +7295,7 @@
         <v>3517</v>
       </c>
       <c r="AB105" t="n">
-        <v>30084</v>
+        <v>30089</v>
       </c>
     </row>
     <row r="106">
@@ -7369,7 +7369,7 @@
         <v>92</v>
       </c>
       <c r="X106" t="n">
-        <v>5355</v>
+        <v>5360</v>
       </c>
       <c r="Y106" t="n">
         <v>1912</v>
@@ -7381,7 +7381,7 @@
         <v>3527</v>
       </c>
       <c r="AB106" t="n">
-        <v>30155</v>
+        <v>30160</v>
       </c>
     </row>
     <row r="107">
@@ -7455,7 +7455,7 @@
         <v>92</v>
       </c>
       <c r="X107" t="n">
-        <v>5366</v>
+        <v>5371</v>
       </c>
       <c r="Y107" t="n">
         <v>1915</v>
@@ -7467,7 +7467,7 @@
         <v>3537</v>
       </c>
       <c r="AB107" t="n">
-        <v>30220</v>
+        <v>30225</v>
       </c>
     </row>
     <row r="108">
@@ -7535,7 +7535,7 @@
         <v>92</v>
       </c>
       <c r="X108" t="n">
-        <v>5373</v>
+        <v>5378</v>
       </c>
       <c r="Y108" t="n">
         <v>1916</v>
@@ -7547,7 +7547,7 @@
         <v>3542</v>
       </c>
       <c r="AB108" t="n">
-        <v>30267</v>
+        <v>30272</v>
       </c>
     </row>
     <row r="109">
@@ -7611,7 +7611,7 @@
         <v>92</v>
       </c>
       <c r="X109" t="n">
-        <v>5373</v>
+        <v>5379</v>
       </c>
       <c r="Y109" t="n">
         <v>1917</v>
@@ -7623,7 +7623,7 @@
         <v>3545</v>
       </c>
       <c r="AB109" t="n">
-        <v>30298</v>
+        <v>30304</v>
       </c>
     </row>
     <row r="110">
@@ -7699,7 +7699,7 @@
         <v>92</v>
       </c>
       <c r="X110" t="n">
-        <v>5380</v>
+        <v>5386</v>
       </c>
       <c r="Y110" t="n">
         <v>1921</v>
@@ -7711,7 +7711,7 @@
         <v>3550</v>
       </c>
       <c r="AB110" t="n">
-        <v>30360</v>
+        <v>30366</v>
       </c>
     </row>
     <row r="111">
@@ -7787,7 +7787,7 @@
         <v>92</v>
       </c>
       <c r="X111" t="n">
-        <v>5389</v>
+        <v>5396</v>
       </c>
       <c r="Y111" t="n">
         <v>1921</v>
@@ -7799,7 +7799,7 @@
         <v>3552</v>
       </c>
       <c r="AB111" t="n">
-        <v>30410</v>
+        <v>30417</v>
       </c>
     </row>
     <row r="112">
@@ -7871,7 +7871,7 @@
         <v>92</v>
       </c>
       <c r="X112" t="n">
-        <v>5397</v>
+        <v>5405</v>
       </c>
       <c r="Y112" t="n">
         <v>1922</v>
@@ -7883,7 +7883,7 @@
         <v>3558</v>
       </c>
       <c r="AB112" t="n">
-        <v>30446</v>
+        <v>30454</v>
       </c>
     </row>
     <row r="113">
@@ -7957,7 +7957,7 @@
         <v>92</v>
       </c>
       <c r="X113" t="n">
-        <v>5402</v>
+        <v>5410</v>
       </c>
       <c r="Y113" t="n">
         <v>1924</v>
@@ -7969,7 +7969,7 @@
         <v>3563</v>
       </c>
       <c r="AB113" t="n">
-        <v>30487</v>
+        <v>30495</v>
       </c>
     </row>
     <row r="114">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="W114" t="inlineStr"/>
       <c r="X114" t="n">
-        <v>5406</v>
+        <v>5414</v>
       </c>
       <c r="Y114" t="n">
         <v>1933</v>
@@ -8053,7 +8053,7 @@
         <v>3565</v>
       </c>
       <c r="AB114" t="n">
-        <v>30531</v>
+        <v>30539</v>
       </c>
     </row>
     <row r="115">
@@ -8117,7 +8117,7 @@
         <v>93</v>
       </c>
       <c r="X115" t="n">
-        <v>5406</v>
+        <v>5414</v>
       </c>
       <c r="Y115" t="n">
         <v>1936</v>
@@ -8129,7 +8129,7 @@
         <v>3570</v>
       </c>
       <c r="AB115" t="n">
-        <v>30561</v>
+        <v>30569</v>
       </c>
     </row>
     <row r="116">
@@ -8191,7 +8191,7 @@
         <v>93</v>
       </c>
       <c r="X116" t="n">
-        <v>5408</v>
+        <v>5416</v>
       </c>
       <c r="Y116" t="n">
         <v>1936</v>
@@ -8203,7 +8203,7 @@
         <v>3572</v>
       </c>
       <c r="AB116" t="n">
-        <v>30577</v>
+        <v>30585</v>
       </c>
     </row>
     <row r="117">
@@ -8277,7 +8277,7 @@
         <v>93</v>
       </c>
       <c r="X117" t="n">
-        <v>5413</v>
+        <v>5421</v>
       </c>
       <c r="Y117" t="n">
         <v>1937</v>
@@ -8289,7 +8289,7 @@
         <v>3576</v>
       </c>
       <c r="AB117" t="n">
-        <v>30613</v>
+        <v>30621</v>
       </c>
     </row>
     <row r="118">
@@ -8361,7 +8361,7 @@
         <v>93</v>
       </c>
       <c r="X118" t="n">
-        <v>5417</v>
+        <v>5425</v>
       </c>
       <c r="Y118" t="n">
         <v>1938</v>
@@ -8373,7 +8373,7 @@
         <v>3580</v>
       </c>
       <c r="AB118" t="n">
-        <v>30637</v>
+        <v>30645</v>
       </c>
     </row>
     <row r="119">
@@ -8449,7 +8449,7 @@
         <v>93</v>
       </c>
       <c r="X119" t="n">
-        <v>5421</v>
+        <v>5429</v>
       </c>
       <c r="Y119" t="n">
         <v>1938</v>
@@ -8461,7 +8461,7 @@
         <v>3583</v>
       </c>
       <c r="AB119" t="n">
-        <v>30680</v>
+        <v>30688</v>
       </c>
     </row>
     <row r="120">
@@ -8527,7 +8527,7 @@
         <v>93</v>
       </c>
       <c r="X120" t="n">
-        <v>5421</v>
+        <v>5429</v>
       </c>
       <c r="Y120" t="n">
         <v>1939</v>
@@ -8539,7 +8539,7 @@
         <v>3584</v>
       </c>
       <c r="AB120" t="n">
-        <v>30708</v>
+        <v>30716</v>
       </c>
     </row>
     <row r="121">
@@ -8607,7 +8607,7 @@
         <v>93</v>
       </c>
       <c r="X121" t="n">
-        <v>5425</v>
+        <v>5433</v>
       </c>
       <c r="Y121" t="n">
         <v>1939</v>
@@ -8619,7 +8619,7 @@
         <v>3586</v>
       </c>
       <c r="AB121" t="n">
-        <v>30726</v>
+        <v>30734</v>
       </c>
     </row>
     <row r="122">
@@ -8679,7 +8679,7 @@
         <v>93</v>
       </c>
       <c r="X122" t="n">
-        <v>5431</v>
+        <v>5439</v>
       </c>
       <c r="Y122" t="n">
         <v>1939</v>
@@ -8691,7 +8691,7 @@
         <v>3588</v>
       </c>
       <c r="AB122" t="n">
-        <v>30746</v>
+        <v>30754</v>
       </c>
     </row>
     <row r="123">
@@ -8753,7 +8753,7 @@
         <v>93</v>
       </c>
       <c r="X123" t="n">
-        <v>5433</v>
+        <v>5441</v>
       </c>
       <c r="Y123" t="n">
         <v>1940</v>
@@ -8765,7 +8765,7 @@
         <v>3589</v>
       </c>
       <c r="AB123" t="n">
-        <v>30756</v>
+        <v>30764</v>
       </c>
     </row>
     <row r="124">
@@ -8841,7 +8841,7 @@
         <v>93</v>
       </c>
       <c r="X124" t="n">
-        <v>5433</v>
+        <v>5441</v>
       </c>
       <c r="Y124" t="n">
         <v>1942</v>
@@ -8853,7 +8853,7 @@
         <v>3591</v>
       </c>
       <c r="AB124" t="n">
-        <v>30765</v>
+        <v>30773</v>
       </c>
     </row>
     <row r="125">
@@ -8925,7 +8925,7 @@
         <v>93</v>
       </c>
       <c r="X125" t="n">
-        <v>5436</v>
+        <v>5444</v>
       </c>
       <c r="Y125" t="n">
         <v>1945</v>
@@ -8937,7 +8937,7 @@
         <v>3597</v>
       </c>
       <c r="AB125" t="n">
-        <v>30787</v>
+        <v>30795</v>
       </c>
     </row>
     <row r="126">
@@ -9013,7 +9013,7 @@
         <v>93</v>
       </c>
       <c r="X126" t="n">
-        <v>5438</v>
+        <v>5446</v>
       </c>
       <c r="Y126" t="n">
         <v>1946</v>
@@ -9025,7 +9025,7 @@
         <v>3600</v>
       </c>
       <c r="AB126" t="n">
-        <v>30801</v>
+        <v>30809</v>
       </c>
     </row>
     <row r="127">
@@ -9099,7 +9099,7 @@
         <v>93</v>
       </c>
       <c r="X127" t="n">
-        <v>5440</v>
+        <v>5448</v>
       </c>
       <c r="Y127" t="n">
         <v>1947</v>
@@ -9111,7 +9111,7 @@
         <v>3605</v>
       </c>
       <c r="AB127" t="n">
-        <v>30819</v>
+        <v>30827</v>
       </c>
     </row>
     <row r="128">
@@ -9185,7 +9185,7 @@
         <v>93</v>
       </c>
       <c r="X128" t="n">
-        <v>5443</v>
+        <v>5451</v>
       </c>
       <c r="Y128" t="n">
         <v>1947</v>
@@ -9197,7 +9197,7 @@
         <v>3611</v>
       </c>
       <c r="AB128" t="n">
-        <v>30842</v>
+        <v>30850</v>
       </c>
     </row>
     <row r="129">
@@ -9257,7 +9257,7 @@
         <v>93</v>
       </c>
       <c r="X129" t="n">
-        <v>5444</v>
+        <v>5452</v>
       </c>
       <c r="Y129" t="n">
         <v>1947</v>
@@ -9269,7 +9269,7 @@
         <v>3617</v>
       </c>
       <c r="AB129" t="n">
-        <v>30883</v>
+        <v>30891</v>
       </c>
     </row>
     <row r="130">
@@ -9329,7 +9329,7 @@
         <v>93</v>
       </c>
       <c r="X130" t="n">
-        <v>5445</v>
+        <v>5453</v>
       </c>
       <c r="Y130" t="n">
         <v>1949</v>
@@ -9341,7 +9341,7 @@
         <v>3617</v>
       </c>
       <c r="AB130" t="n">
-        <v>30890</v>
+        <v>30898</v>
       </c>
     </row>
     <row r="131">
@@ -9403,7 +9403,7 @@
         <v>93</v>
       </c>
       <c r="X131" t="n">
-        <v>5445</v>
+        <v>5453</v>
       </c>
       <c r="Y131" t="n">
         <v>1950</v>
@@ -9415,7 +9415,7 @@
         <v>3617</v>
       </c>
       <c r="AB131" t="n">
-        <v>30902</v>
+        <v>30910</v>
       </c>
     </row>
     <row r="132">
@@ -9487,7 +9487,7 @@
         <v>93</v>
       </c>
       <c r="X132" t="n">
-        <v>5449</v>
+        <v>5457</v>
       </c>
       <c r="Y132" t="n">
         <v>1951</v>
@@ -9499,7 +9499,7 @@
         <v>3619</v>
       </c>
       <c r="AB132" t="n">
-        <v>30923</v>
+        <v>30931</v>
       </c>
     </row>
     <row r="133">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="n">
-        <v>5451</v>
+        <v>5459</v>
       </c>
       <c r="Y133" t="n">
         <v>1951</v>
@@ -9585,7 +9585,7 @@
         <v>3622</v>
       </c>
       <c r="AB133" t="n">
-        <v>30940</v>
+        <v>30948</v>
       </c>
     </row>
     <row r="134">
@@ -9655,7 +9655,7 @@
       </c>
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="n">
-        <v>5454</v>
+        <v>5462</v>
       </c>
       <c r="Y134" t="n">
         <v>1953</v>
@@ -9667,7 +9667,7 @@
         <v>3630</v>
       </c>
       <c r="AB134" t="n">
-        <v>30964</v>
+        <v>30972</v>
       </c>
     </row>
     <row r="135">
@@ -9737,7 +9737,7 @@
       </c>
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="n">
-        <v>5456</v>
+        <v>5464</v>
       </c>
       <c r="Y135" t="n">
         <v>1956</v>
@@ -9749,7 +9749,7 @@
         <v>3636</v>
       </c>
       <c r="AB135" t="n">
-        <v>30985</v>
+        <v>30993</v>
       </c>
     </row>
     <row r="136">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="n">
-        <v>5458</v>
+        <v>5466</v>
       </c>
       <c r="Y136" t="n">
         <v>1956</v>
@@ -9817,7 +9817,7 @@
         <v>3640</v>
       </c>
       <c r="AB136" t="n">
-        <v>30997</v>
+        <v>31005</v>
       </c>
     </row>
     <row r="137">
@@ -9875,7 +9875,7 @@
       </c>
       <c r="W137" t="inlineStr"/>
       <c r="X137" t="n">
-        <v>5459</v>
+        <v>5467</v>
       </c>
       <c r="Y137" t="n">
         <v>1959</v>
@@ -9887,7 +9887,7 @@
         <v>3640</v>
       </c>
       <c r="AB137" t="n">
-        <v>31004</v>
+        <v>31012</v>
       </c>
     </row>
     <row r="138">
@@ -9957,7 +9957,7 @@
       </c>
       <c r="W138" t="inlineStr"/>
       <c r="X138" t="n">
-        <v>5460</v>
+        <v>5468</v>
       </c>
       <c r="Y138" t="n">
         <v>1964</v>
@@ -9969,7 +9969,7 @@
         <v>3640</v>
       </c>
       <c r="AB138" t="n">
-        <v>31022</v>
+        <v>31030</v>
       </c>
     </row>
     <row r="139">
@@ -10039,7 +10039,7 @@
       </c>
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="n">
-        <v>5463</v>
+        <v>5471</v>
       </c>
       <c r="Y139" t="n">
         <v>1965</v>
@@ -10051,7 +10051,7 @@
         <v>3640</v>
       </c>
       <c r="AB139" t="n">
-        <v>31032</v>
+        <v>31040</v>
       </c>
     </row>
     <row r="140">
@@ -10121,7 +10121,7 @@
       </c>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="n">
-        <v>5464</v>
+        <v>5472</v>
       </c>
       <c r="Y140" t="n">
         <v>1969</v>
@@ -10133,7 +10133,7 @@
         <v>3643</v>
       </c>
       <c r="AB140" t="n">
-        <v>31048</v>
+        <v>31056</v>
       </c>
     </row>
     <row r="141">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="n">
-        <v>5468</v>
+        <v>5476</v>
       </c>
       <c r="Y141" t="n">
         <v>1973</v>
@@ -10209,7 +10209,7 @@
         <v>3645</v>
       </c>
       <c r="AB141" t="n">
-        <v>31069</v>
+        <v>31077</v>
       </c>
     </row>
     <row r="142">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="n">
-        <v>5475</v>
+        <v>5483</v>
       </c>
       <c r="Y142" t="n">
         <v>1977</v>
@@ -10285,7 +10285,7 @@
         <v>3647</v>
       </c>
       <c r="AB142" t="n">
-        <v>31094</v>
+        <v>31102</v>
       </c>
     </row>
     <row r="143">
@@ -10343,7 +10343,7 @@
       </c>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="n">
-        <v>5475</v>
+        <v>5483</v>
       </c>
       <c r="Y143" t="n">
         <v>1977</v>
@@ -10355,7 +10355,7 @@
         <v>3650</v>
       </c>
       <c r="AB143" t="n">
-        <v>31114</v>
+        <v>31122</v>
       </c>
     </row>
     <row r="144">
@@ -10417,7 +10417,7 @@
       </c>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="n">
-        <v>5476</v>
+        <v>5484</v>
       </c>
       <c r="Y144" t="n">
         <v>1977</v>
@@ -10429,7 +10429,7 @@
         <v>3655</v>
       </c>
       <c r="AB144" t="n">
-        <v>31130</v>
+        <v>31138</v>
       </c>
     </row>
     <row r="145">
@@ -10497,7 +10497,7 @@
       </c>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="n">
-        <v>5479</v>
+        <v>5487</v>
       </c>
       <c r="Y145" t="n">
         <v>1981</v>
@@ -10509,7 +10509,7 @@
         <v>3662</v>
       </c>
       <c r="AB145" t="n">
-        <v>31153</v>
+        <v>31161</v>
       </c>
     </row>
     <row r="146">
@@ -10579,7 +10579,7 @@
       </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="n">
-        <v>5487</v>
+        <v>5495</v>
       </c>
       <c r="Y146" t="n">
         <v>1985</v>
@@ -10591,7 +10591,7 @@
         <v>3669</v>
       </c>
       <c r="AB146" t="n">
-        <v>31180</v>
+        <v>31188</v>
       </c>
     </row>
     <row r="147">
@@ -10661,7 +10661,7 @@
       </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="n">
-        <v>5490</v>
+        <v>5500</v>
       </c>
       <c r="Y147" t="n">
         <v>1987</v>
@@ -10673,7 +10673,7 @@
         <v>3679</v>
       </c>
       <c r="AB147" t="n">
-        <v>31213</v>
+        <v>31223</v>
       </c>
     </row>
     <row r="148">
@@ -10738,7 +10738,9 @@
         <v>3324</v>
       </c>
       <c r="W148" t="inlineStr"/>
-      <c r="X148" t="inlineStr"/>
+      <c r="X148" t="n">
+        <v>5502</v>
+      </c>
       <c r="Y148" t="n">
         <v>1988</v>
       </c>
@@ -10749,7 +10751,7 @@
         <v>3684</v>
       </c>
       <c r="AB148" t="n">
-        <v>31224</v>
+        <v>31236</v>
       </c>
     </row>
     <row r="149">
@@ -10816,7 +10818,9 @@
         <v>3324</v>
       </c>
       <c r="W149" t="inlineStr"/>
-      <c r="X149" t="inlineStr"/>
+      <c r="X149" t="n">
+        <v>5508</v>
+      </c>
       <c r="Y149" t="n">
         <v>1997</v>
       </c>
@@ -10827,7 +10831,7 @@
         <v>3685</v>
       </c>
       <c r="AB149" t="n">
-        <v>31248</v>
+        <v>31266</v>
       </c>
     </row>
     <row r="150">
@@ -10878,7 +10882,9 @@
         <v>3325</v>
       </c>
       <c r="W150" t="inlineStr"/>
-      <c r="X150" t="inlineStr"/>
+      <c r="X150" t="n">
+        <v>5509</v>
+      </c>
       <c r="Y150" t="n">
         <v>2000</v>
       </c>
@@ -10889,7 +10895,7 @@
         <v>3692</v>
       </c>
       <c r="AB150" t="n">
-        <v>31265</v>
+        <v>31284</v>
       </c>
     </row>
     <row r="151">
@@ -10940,7 +10946,9 @@
         <v>3325</v>
       </c>
       <c r="W151" t="inlineStr"/>
-      <c r="X151" t="inlineStr"/>
+      <c r="X151" t="n">
+        <v>5511</v>
+      </c>
       <c r="Y151" t="n">
         <v>2001</v>
       </c>
@@ -10951,7 +10959,7 @@
         <v>3698</v>
       </c>
       <c r="AB151" t="n">
-        <v>31277</v>
+        <v>31298</v>
       </c>
     </row>
     <row r="152">
@@ -11014,7 +11022,9 @@
         <v>3326</v>
       </c>
       <c r="W152" t="inlineStr"/>
-      <c r="X152" t="inlineStr"/>
+      <c r="X152" t="n">
+        <v>5514</v>
+      </c>
       <c r="Y152" t="n">
         <v>2002</v>
       </c>
@@ -11025,7 +11035,7 @@
         <v>3701</v>
       </c>
       <c r="AB152" t="n">
-        <v>31301</v>
+        <v>31325</v>
       </c>
     </row>
     <row r="153">
@@ -11045,13 +11055,19 @@
         <v>1946</v>
       </c>
       <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
+      <c r="G153" t="n">
+        <v>985</v>
+      </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>128</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>746</v>
+      </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
@@ -11065,7 +11081,9 @@
       <c r="T153" t="n">
         <v>313</v>
       </c>
-      <c r="U153" t="inlineStr"/>
+      <c r="U153" t="n">
+        <v>386</v>
+      </c>
       <c r="V153" t="n">
         <v>3327</v>
       </c>
@@ -11077,7 +11095,7 @@
       </c>
       <c r="AA153" t="inlineStr"/>
       <c r="AB153" t="n">
-        <v>31305</v>
+        <v>31331</v>
       </c>
     </row>
   </sheetData>
@@ -21069,7 +21087,9 @@
         <v>350</v>
       </c>
       <c r="W148" t="inlineStr"/>
-      <c r="X148" t="inlineStr"/>
+      <c r="X148" t="n">
+        <v>420</v>
+      </c>
       <c r="Y148" t="n">
         <v>153</v>
       </c>
@@ -21145,7 +21165,9 @@
         <v>350</v>
       </c>
       <c r="W149" t="inlineStr"/>
-      <c r="X149" t="inlineStr"/>
+      <c r="X149" t="n">
+        <v>420</v>
+      </c>
       <c r="Y149" t="n">
         <v>153</v>
       </c>
@@ -21207,7 +21229,9 @@
         <v>350</v>
       </c>
       <c r="W150" t="inlineStr"/>
-      <c r="X150" t="inlineStr"/>
+      <c r="X150" t="n">
+        <v>420</v>
+      </c>
       <c r="Y150" t="n">
         <v>153</v>
       </c>
@@ -21269,7 +21293,9 @@
         <v>350</v>
       </c>
       <c r="W151" t="inlineStr"/>
-      <c r="X151" t="inlineStr"/>
+      <c r="X151" t="n">
+        <v>420</v>
+      </c>
       <c r="Y151" t="n">
         <v>153</v>
       </c>
@@ -21343,7 +21369,9 @@
         <v>350</v>
       </c>
       <c r="W152" t="inlineStr"/>
-      <c r="X152" t="inlineStr"/>
+      <c r="X152" t="n">
+        <v>420</v>
+      </c>
       <c r="Y152" t="n">
         <v>153</v>
       </c>
@@ -21374,13 +21402,19 @@
         <v>97</v>
       </c>
       <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
+      <c r="G153" t="n">
+        <v>50</v>
+      </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>13</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>20</v>
+      </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
@@ -21394,7 +21428,9 @@
       <c r="T153" t="n">
         <v>23</v>
       </c>
-      <c r="U153" t="inlineStr"/>
+      <c r="U153" t="n">
+        <v>18</v>
+      </c>
       <c r="V153" t="n">
         <v>350</v>
       </c>
@@ -26525,7 +26561,7 @@
         <v>2</v>
       </c>
       <c r="X90" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y90" t="n">
         <v>74</v>
@@ -26537,7 +26573,7 @@
         <v>110</v>
       </c>
       <c r="AB90" t="n">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="91">
@@ -26605,7 +26641,7 @@
         <v>3</v>
       </c>
       <c r="X91" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y91" t="n">
         <v>75</v>
@@ -26617,7 +26653,7 @@
         <v>110</v>
       </c>
       <c r="AB91" t="n">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="92">
@@ -26689,7 +26725,7 @@
         <v>4</v>
       </c>
       <c r="X92" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y92" t="n">
         <v>71</v>
@@ -26701,7 +26737,7 @@
         <v>96</v>
       </c>
       <c r="AB92" t="n">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="93">
@@ -26771,7 +26807,7 @@
         <v>3</v>
       </c>
       <c r="X93" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y93" t="n">
         <v>68</v>
@@ -26783,7 +26819,7 @@
         <v>83</v>
       </c>
       <c r="AB93" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="94">
@@ -26847,7 +26883,7 @@
         <v>3</v>
       </c>
       <c r="X94" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y94" t="n">
         <v>70</v>
@@ -26859,7 +26895,7 @@
         <v>77</v>
       </c>
       <c r="AB94" t="n">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="95">
@@ -26925,7 +26961,7 @@
         <v>3</v>
       </c>
       <c r="X95" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y95" t="n">
         <v>72</v>
@@ -26937,7 +26973,7 @@
         <v>75</v>
       </c>
       <c r="AB95" t="n">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="96">
@@ -27009,7 +27045,7 @@
         <v>4</v>
       </c>
       <c r="X96" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y96" t="n">
         <v>63</v>
@@ -27021,7 +27057,7 @@
         <v>73</v>
       </c>
       <c r="AB96" t="n">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="97">
@@ -27093,7 +27129,7 @@
         <v>5</v>
       </c>
       <c r="X97" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y97" t="n">
         <v>59</v>
@@ -27105,7 +27141,7 @@
         <v>84</v>
       </c>
       <c r="AB97" t="n">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="98">
@@ -27177,7 +27213,7 @@
         <v>5</v>
       </c>
       <c r="X98" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y98" t="n">
         <v>58</v>
@@ -27189,7 +27225,7 @@
         <v>82</v>
       </c>
       <c r="AB98" t="n">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="99">
@@ -27261,7 +27297,7 @@
         <v>4</v>
       </c>
       <c r="X99" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y99" t="n">
         <v>58</v>
@@ -27273,7 +27309,7 @@
         <v>61</v>
       </c>
       <c r="AB99" t="n">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="100">
@@ -27345,7 +27381,7 @@
         <v>3</v>
       </c>
       <c r="X100" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y100" t="n">
         <v>56</v>
@@ -27357,7 +27393,7 @@
         <v>43</v>
       </c>
       <c r="AB100" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="101">
@@ -27423,7 +27459,7 @@
         <v>0</v>
       </c>
       <c r="X101" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y101" t="n">
         <v>56</v>
@@ -27435,7 +27471,7 @@
         <v>41</v>
       </c>
       <c r="AB101" t="n">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="102">
@@ -27501,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="X102" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y102" t="n">
         <v>57</v>
@@ -27513,7 +27549,7 @@
         <v>42</v>
       </c>
       <c r="AB102" t="n">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="103">
@@ -30223,7 +30259,7 @@
       </c>
       <c r="W138" t="inlineStr"/>
       <c r="X138" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y138" t="n">
         <v>16</v>
@@ -30235,7 +30271,7 @@
         <v>7</v>
       </c>
       <c r="AB138" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="139">
@@ -30295,7 +30331,7 @@
       </c>
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y139" t="n">
         <v>16</v>
@@ -30307,7 +30343,7 @@
         <v>6</v>
       </c>
       <c r="AB139" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="140">
@@ -30369,7 +30405,7 @@
       </c>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y140" t="n">
         <v>15</v>
@@ -30381,7 +30417,7 @@
         <v>7</v>
       </c>
       <c r="AB140" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="141">
@@ -30441,7 +30477,7 @@
       </c>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y141" t="n">
         <v>15</v>
@@ -30453,7 +30489,7 @@
         <v>8</v>
       </c>
       <c r="AB141" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="142">
@@ -30513,7 +30549,7 @@
       </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y142" t="n">
         <v>15</v>
@@ -30525,7 +30561,7 @@
         <v>9</v>
       </c>
       <c r="AB142" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="143">
@@ -30577,7 +30613,7 @@
       </c>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y143" t="n">
         <v>13</v>
@@ -30589,7 +30625,7 @@
         <v>8</v>
       </c>
       <c r="AB143" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="144">
@@ -30643,7 +30679,7 @@
       </c>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y144" t="n">
         <v>13</v>
@@ -30655,7 +30691,7 @@
         <v>9</v>
       </c>
       <c r="AB144" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="145">
@@ -30719,7 +30755,7 @@
       </c>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y145" t="n">
         <v>13</v>
@@ -30731,7 +30767,7 @@
         <v>9</v>
       </c>
       <c r="AB145" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="146">
@@ -30791,7 +30827,7 @@
       </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y146" t="n">
         <v>13</v>
@@ -30803,7 +30839,7 @@
         <v>8</v>
       </c>
       <c r="AB146" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="147">
@@ -30863,7 +30899,7 @@
       </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y147" t="n">
         <v>14</v>
@@ -30875,7 +30911,7 @@
         <v>8</v>
       </c>
       <c r="AB147" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="148">
@@ -30934,7 +30970,9 @@
         <v>6</v>
       </c>
       <c r="W148" t="inlineStr"/>
-      <c r="X148" t="inlineStr"/>
+      <c r="X148" t="n">
+        <v>29</v>
+      </c>
       <c r="Y148" t="n">
         <v>14</v>
       </c>
@@ -31004,7 +31042,9 @@
         <v>6</v>
       </c>
       <c r="W149" t="inlineStr"/>
-      <c r="X149" t="inlineStr"/>
+      <c r="X149" t="n">
+        <v>29</v>
+      </c>
       <c r="Y149" t="n">
         <v>13</v>
       </c>
@@ -31062,7 +31102,9 @@
         <v>6</v>
       </c>
       <c r="W150" t="inlineStr"/>
-      <c r="X150" t="inlineStr"/>
+      <c r="X150" t="n">
+        <v>30</v>
+      </c>
       <c r="Y150" t="n">
         <v>14</v>
       </c>
@@ -31073,7 +31115,7 @@
         <v>10</v>
       </c>
       <c r="AB150" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="151">
@@ -31122,7 +31164,9 @@
         <v>6</v>
       </c>
       <c r="W151" t="inlineStr"/>
-      <c r="X151" t="inlineStr"/>
+      <c r="X151" t="n">
+        <v>31</v>
+      </c>
       <c r="Y151" t="n">
         <v>15</v>
       </c>
@@ -31133,7 +31177,7 @@
         <v>10</v>
       </c>
       <c r="AB151" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="152">
@@ -31188,7 +31232,9 @@
         <v>6</v>
       </c>
       <c r="W152" t="inlineStr"/>
-      <c r="X152" t="inlineStr"/>
+      <c r="X152" t="n">
+        <v>30</v>
+      </c>
       <c r="Y152" t="n">
         <v>15</v>
       </c>
@@ -31199,7 +31245,7 @@
         <v>11</v>
       </c>
       <c r="AB152" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="153">
@@ -31218,7 +31264,9 @@
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
@@ -31231,7 +31279,9 @@
       </c>
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
-      <c r="U153" t="inlineStr"/>
+      <c r="U153" t="n">
+        <v>0</v>
+      </c>
       <c r="V153" t="n">
         <v>6</v>
       </c>
@@ -31243,7 +31293,7 @@
       </c>
       <c r="AA153" t="inlineStr"/>
       <c r="AB153" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -39955,7 +40005,9 @@
         <v>0</v>
       </c>
       <c r="W148" t="inlineStr"/>
-      <c r="X148" t="inlineStr"/>
+      <c r="X148" t="n">
+        <v>3</v>
+      </c>
       <c r="Y148" t="n">
         <v>2</v>
       </c>
@@ -40019,7 +40071,9 @@
         <v>0</v>
       </c>
       <c r="W149" t="inlineStr"/>
-      <c r="X149" t="inlineStr"/>
+      <c r="X149" t="n">
+        <v>3</v>
+      </c>
       <c r="Y149" t="n">
         <v>2</v>
       </c>
@@ -40075,7 +40129,9 @@
         <v>0</v>
       </c>
       <c r="W150" t="inlineStr"/>
-      <c r="X150" t="inlineStr"/>
+      <c r="X150" t="n">
+        <v>3</v>
+      </c>
       <c r="Y150" t="n">
         <v>2</v>
       </c>
@@ -40133,7 +40189,9 @@
         <v>0</v>
       </c>
       <c r="W151" t="inlineStr"/>
-      <c r="X151" t="inlineStr"/>
+      <c r="X151" t="n">
+        <v>3</v>
+      </c>
       <c r="Y151" t="n">
         <v>2</v>
       </c>
@@ -40193,7 +40251,9 @@
         <v>0</v>
       </c>
       <c r="W152" t="inlineStr"/>
-      <c r="X152" t="inlineStr"/>
+      <c r="X152" t="n">
+        <v>3</v>
+      </c>
       <c r="Y152" t="n">
         <v>2</v>
       </c>
@@ -40234,7 +40294,9 @@
       </c>
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
-      <c r="U153" t="inlineStr"/>
+      <c r="U153" t="n">
+        <v>0</v>
+      </c>
       <c r="V153" t="n">
         <v>0</v>
       </c>
@@ -55198,7 +55260,9 @@
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
+      <c r="G153" t="n">
+        <v>934</v>
+      </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -11070,7 +11070,9 @@
       </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
+      <c r="P153" t="n">
+        <v>82</v>
+      </c>
       <c r="Q153" t="n">
         <v>823</v>
       </c>
@@ -21417,7 +21419,9 @@
       </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
+      <c r="P153" t="n">
+        <v>0</v>
+      </c>
       <c r="Q153" t="n">
         <v>38</v>
       </c>
@@ -31272,7 +31276,9 @@
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
+      <c r="P153" t="n">
+        <v>0</v>
+      </c>
       <c r="Q153" t="inlineStr"/>
       <c r="R153" t="n">
         <v>2</v>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -2269,7 +2269,9 @@
       <c r="T44" t="n">
         <v>6</v>
       </c>
-      <c r="U44" t="inlineStr"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
       <c r="V44" t="n">
         <v>28</v>
       </c>
@@ -2287,7 +2289,7 @@
         <v>29</v>
       </c>
       <c r="AB44" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45">
@@ -2329,7 +2331,9 @@
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
       <c r="V45" t="n">
         <v>41</v>
       </c>
@@ -2347,7 +2351,7 @@
         <v>34</v>
       </c>
       <c r="AB45" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46">
@@ -2391,7 +2395,9 @@
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
       <c r="V46" t="n">
         <v>49</v>
       </c>
@@ -2409,7 +2415,7 @@
         <v>40</v>
       </c>
       <c r="AB46" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47">
@@ -2457,7 +2463,9 @@
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
       <c r="V47" t="n">
         <v>61</v>
       </c>
@@ -2475,7 +2483,7 @@
         <v>49</v>
       </c>
       <c r="AB47" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="48">
@@ -2519,7 +2527,9 @@
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
       <c r="V48" t="n">
         <v>75</v>
       </c>
@@ -2537,7 +2547,7 @@
         <v>62</v>
       </c>
       <c r="AB48" t="n">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="49">
@@ -2587,7 +2597,9 @@
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
       <c r="V49" t="n">
         <v>108</v>
       </c>
@@ -2605,7 +2617,7 @@
         <v>101</v>
       </c>
       <c r="AB49" t="n">
-        <v>809</v>
+        <v>814</v>
       </c>
     </row>
     <row r="50">
@@ -2659,7 +2671,9 @@
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
       <c r="V50" t="n">
         <v>163</v>
       </c>
@@ -2679,7 +2693,7 @@
         <v>140</v>
       </c>
       <c r="AB50" t="n">
-        <v>1123</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="51">
@@ -2733,7 +2747,9 @@
       <c r="T51" t="n">
         <v>9</v>
       </c>
-      <c r="U51" t="inlineStr"/>
+      <c r="U51" t="n">
+        <v>7</v>
+      </c>
       <c r="V51" t="n">
         <v>206</v>
       </c>
@@ -2751,7 +2767,7 @@
         <v>163</v>
       </c>
       <c r="AB51" t="n">
-        <v>1462</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="52">
@@ -2801,7 +2817,9 @@
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
+      <c r="U52" t="n">
+        <v>8</v>
+      </c>
       <c r="V52" t="n">
         <v>265</v>
       </c>
@@ -2819,7 +2837,7 @@
         <v>218</v>
       </c>
       <c r="AB52" t="n">
-        <v>1868</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="53">
@@ -2867,7 +2885,9 @@
       <c r="T53" t="n">
         <v>13</v>
       </c>
-      <c r="U53" t="inlineStr"/>
+      <c r="U53" t="n">
+        <v>11</v>
+      </c>
       <c r="V53" t="n">
         <v>293</v>
       </c>
@@ -2885,7 +2905,7 @@
         <v>250</v>
       </c>
       <c r="AB53" t="n">
-        <v>2164</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="54">
@@ -11095,9 +11115,11 @@
       <c r="Z153" t="n">
         <v>216</v>
       </c>
-      <c r="AA153" t="inlineStr"/>
+      <c r="AA153" t="n">
+        <v>3705</v>
+      </c>
       <c r="AB153" t="n">
-        <v>31331</v>
+        <v>31335</v>
       </c>
     </row>
   </sheetData>
@@ -12904,7 +12926,9 @@
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
@@ -12954,7 +12978,9 @@
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
@@ -13006,7 +13032,9 @@
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
@@ -13058,7 +13086,9 @@
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
@@ -13112,7 +13142,9 @@
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
       <c r="V48" t="n">
         <v>1</v>
       </c>
@@ -13170,7 +13202,9 @@
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
       <c r="V49" t="n">
         <v>1</v>
       </c>
@@ -13230,7 +13264,9 @@
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
       <c r="V50" t="n">
         <v>1</v>
       </c>
@@ -13290,7 +13326,9 @@
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
       <c r="V51" t="n">
         <v>1</v>
       </c>
@@ -13352,7 +13390,9 @@
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
       <c r="V52" t="n">
         <v>3</v>
       </c>
@@ -13410,7 +13450,9 @@
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
       <c r="V53" t="n">
         <v>6</v>
       </c>
@@ -13476,7 +13518,9 @@
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
       <c r="V54" t="n">
         <v>8</v>
       </c>
@@ -13494,7 +13538,7 @@
         <v>1</v>
       </c>
       <c r="AB54" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
@@ -13542,7 +13586,9 @@
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
       <c r="V55" t="n">
         <v>10</v>
       </c>
@@ -13560,7 +13606,7 @@
         <v>1</v>
       </c>
       <c r="AB55" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56">
@@ -13608,7 +13654,9 @@
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
       <c r="V56" t="n">
         <v>12</v>
       </c>
@@ -13626,7 +13674,7 @@
         <v>2</v>
       </c>
       <c r="AB56" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57">
@@ -13676,7 +13724,9 @@
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
       <c r="V57" t="n">
         <v>13</v>
       </c>
@@ -13694,7 +13744,7 @@
         <v>3</v>
       </c>
       <c r="AB57" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58">
@@ -13744,7 +13794,9 @@
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
       <c r="V58" t="n">
         <v>22</v>
       </c>
@@ -13762,7 +13814,7 @@
         <v>4</v>
       </c>
       <c r="AB58" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59">
@@ -13814,7 +13866,9 @@
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
       <c r="V59" t="n">
         <v>28</v>
       </c>
@@ -13832,7 +13886,7 @@
         <v>5</v>
       </c>
       <c r="AB59" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60">
@@ -13882,7 +13936,9 @@
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
       <c r="V60" t="n">
         <v>37</v>
       </c>
@@ -13900,7 +13956,7 @@
         <v>6</v>
       </c>
       <c r="AB60" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61">
@@ -13958,7 +14014,9 @@
         <v>1</v>
       </c>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
       <c r="V61" t="n">
         <v>48</v>
       </c>
@@ -13976,7 +14034,7 @@
         <v>6</v>
       </c>
       <c r="AB61" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62">
@@ -14039,7 +14097,7 @@
         <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V62" t="n">
         <v>53</v>
@@ -14058,7 +14116,7 @@
         <v>8</v>
       </c>
       <c r="AB62" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63">
@@ -14121,7 +14179,7 @@
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V63" t="n">
         <v>60</v>
@@ -14140,7 +14198,7 @@
         <v>10</v>
       </c>
       <c r="AB63" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64">
@@ -14203,7 +14261,7 @@
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V64" t="n">
         <v>67</v>
@@ -14222,7 +14280,7 @@
         <v>13</v>
       </c>
       <c r="AB64" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65">
@@ -14285,7 +14343,7 @@
         <v>1</v>
       </c>
       <c r="U65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V65" t="n">
         <v>76</v>
@@ -14304,7 +14362,7 @@
         <v>15</v>
       </c>
       <c r="AB65" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66">
@@ -14365,7 +14423,7 @@
         <v>1</v>
       </c>
       <c r="U66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V66" t="n">
         <v>87</v>
@@ -14384,7 +14442,7 @@
         <v>19</v>
       </c>
       <c r="AB66" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67">
@@ -14443,7 +14501,7 @@
         <v>2</v>
       </c>
       <c r="U67" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V67" t="n">
         <v>93</v>
@@ -14462,7 +14520,7 @@
         <v>22</v>
       </c>
       <c r="AB67" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="68">
@@ -14523,7 +14581,7 @@
         <v>2</v>
       </c>
       <c r="U68" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V68" t="n">
         <v>105</v>
@@ -14542,7 +14600,7 @@
         <v>24</v>
       </c>
       <c r="AB68" t="n">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="69">
@@ -14605,7 +14663,7 @@
         <v>4</v>
       </c>
       <c r="U69" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V69" t="n">
         <v>120</v>
@@ -14624,7 +14682,7 @@
         <v>27</v>
       </c>
       <c r="AB69" t="n">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="70">
@@ -14685,7 +14743,7 @@
         <v>4</v>
       </c>
       <c r="U70" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V70" t="n">
         <v>132</v>
@@ -14706,7 +14764,7 @@
         <v>36</v>
       </c>
       <c r="AB70" t="n">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="71">
@@ -14769,7 +14827,7 @@
         <v>4</v>
       </c>
       <c r="U71" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V71" t="n">
         <v>141</v>
@@ -14790,7 +14848,7 @@
         <v>39</v>
       </c>
       <c r="AB71" t="n">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="72">
@@ -14853,7 +14911,7 @@
         <v>4</v>
       </c>
       <c r="U72" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V72" t="n">
         <v>155</v>
@@ -14874,7 +14932,7 @@
         <v>41</v>
       </c>
       <c r="AB72" t="n">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="73">
@@ -14935,7 +14993,7 @@
         <v>5</v>
       </c>
       <c r="U73" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V73" t="n">
         <v>165</v>
@@ -14956,7 +15014,7 @@
         <v>48</v>
       </c>
       <c r="AB73" t="n">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="74">
@@ -21444,7 +21502,9 @@
       <c r="Z153" t="n">
         <v>9</v>
       </c>
-      <c r="AA153" t="inlineStr"/>
+      <c r="AA153" t="n">
+        <v>130</v>
+      </c>
       <c r="AB153" t="n">
         <v>1956</v>
       </c>
@@ -26236,7 +26296,7 @@
       </c>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V86" t="n">
         <v>254</v>
@@ -26257,7 +26317,7 @@
         <v>123</v>
       </c>
       <c r="AB86" t="n">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="87">
@@ -27864,7 +27924,7 @@
       </c>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V106" t="n">
         <v>107</v>
@@ -27885,7 +27945,7 @@
         <v>50</v>
       </c>
       <c r="AB106" t="n">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="107">
@@ -30896,7 +30956,7 @@
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V147" t="n">
         <v>6</v>
@@ -30915,7 +30975,7 @@
         <v>8</v>
       </c>
       <c r="AB147" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="148">
@@ -31297,9 +31357,11 @@
       <c r="Z153" t="n">
         <v>0</v>
       </c>
-      <c r="AA153" t="inlineStr"/>
+      <c r="AA153" t="n">
+        <v>10</v>
+      </c>
       <c r="AB153" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -47737,7 +47799,9 @@
       <c r="X153" t="inlineStr"/>
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr"/>
-      <c r="AA153" t="inlineStr"/>
+      <c r="AA153" t="n">
+        <v>0</v>
+      </c>
       <c r="AB153" t="n">
         <v>2</v>
       </c>
@@ -51190,7 +51254,9 @@
       <c r="T78" t="n">
         <v>113</v>
       </c>
-      <c r="U78" t="inlineStr"/>
+      <c r="U78" t="n">
+        <v>25</v>
+      </c>
       <c r="V78" t="n">
         <v>447</v>
       </c>
@@ -51206,7 +51272,7 @@
       </c>
       <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="n">
-        <v>2760</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="79">
@@ -51246,7 +51312,9 @@
       <c r="T79" t="n">
         <v>118</v>
       </c>
-      <c r="U79" t="inlineStr"/>
+      <c r="U79" t="n">
+        <v>25</v>
+      </c>
       <c r="V79" t="n">
         <v>466</v>
       </c>
@@ -51262,7 +51330,7 @@
       </c>
       <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="n">
-        <v>2850</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="80">
@@ -51304,7 +51372,9 @@
       <c r="T80" t="n">
         <v>118</v>
       </c>
-      <c r="U80" t="inlineStr"/>
+      <c r="U80" t="n">
+        <v>25</v>
+      </c>
       <c r="V80" t="n">
         <v>493</v>
       </c>
@@ -51320,7 +51390,7 @@
       </c>
       <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="n">
-        <v>3007</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="81">
@@ -51360,7 +51430,9 @@
       <c r="T81" t="n">
         <v>119</v>
       </c>
-      <c r="U81" t="inlineStr"/>
+      <c r="U81" t="n">
+        <v>25</v>
+      </c>
       <c r="V81" t="n">
         <v>511</v>
       </c>
@@ -51376,7 +51448,7 @@
       </c>
       <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="n">
-        <v>3104</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="82">
@@ -51416,7 +51488,9 @@
       <c r="T82" t="n">
         <v>128</v>
       </c>
-      <c r="U82" t="inlineStr"/>
+      <c r="U82" t="n">
+        <v>25</v>
+      </c>
       <c r="V82" t="n">
         <v>517</v>
       </c>
@@ -51432,7 +51506,7 @@
       </c>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="n">
-        <v>3187</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="83">
@@ -51474,7 +51548,9 @@
       <c r="T83" t="n">
         <v>128</v>
       </c>
-      <c r="U83" t="inlineStr"/>
+      <c r="U83" t="n">
+        <v>27</v>
+      </c>
       <c r="V83" t="n">
         <v>524</v>
       </c>
@@ -51490,7 +51566,7 @@
       </c>
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="n">
-        <v>3352</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="84">
@@ -51532,7 +51608,9 @@
       <c r="T84" t="n">
         <v>144</v>
       </c>
-      <c r="U84" t="inlineStr"/>
+      <c r="U84" t="n">
+        <v>35</v>
+      </c>
       <c r="V84" t="n">
         <v>548</v>
       </c>
@@ -51548,7 +51626,7 @@
       </c>
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="n">
-        <v>3514</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="85">
@@ -51590,7 +51668,9 @@
       <c r="T85" t="n">
         <v>154</v>
       </c>
-      <c r="U85" t="inlineStr"/>
+      <c r="U85" t="n">
+        <v>38</v>
+      </c>
       <c r="V85" t="n">
         <v>568</v>
       </c>
@@ -51606,7 +51686,7 @@
       </c>
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="n">
-        <v>3674</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="86">
@@ -51648,7 +51728,9 @@
       <c r="T86" t="n">
         <v>161</v>
       </c>
-      <c r="U86" t="inlineStr"/>
+      <c r="U86" t="n">
+        <v>41</v>
+      </c>
       <c r="V86" t="n">
         <v>580</v>
       </c>
@@ -51664,7 +51746,7 @@
       </c>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="n">
-        <v>3782</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="87">
@@ -51704,7 +51786,9 @@
       <c r="T87" t="n">
         <v>176</v>
       </c>
-      <c r="U87" t="inlineStr"/>
+      <c r="U87" t="n">
+        <v>43</v>
+      </c>
       <c r="V87" t="n">
         <v>606</v>
       </c>
@@ -51720,7 +51804,7 @@
       </c>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="n">
-        <v>3896</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="88">
@@ -51760,7 +51844,9 @@
       <c r="T88" t="n">
         <v>180</v>
       </c>
-      <c r="U88" t="inlineStr"/>
+      <c r="U88" t="n">
+        <v>43</v>
+      </c>
       <c r="V88" t="n">
         <v>616</v>
       </c>
@@ -51776,7 +51862,7 @@
       </c>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="n">
-        <v>3948</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="89">
@@ -51818,7 +51904,9 @@
       <c r="T89" t="n">
         <v>180</v>
       </c>
-      <c r="U89" t="inlineStr"/>
+      <c r="U89" t="n">
+        <v>43</v>
+      </c>
       <c r="V89" t="n">
         <v>621</v>
       </c>
@@ -51834,7 +51922,7 @@
       </c>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="n">
-        <v>4088</v>
+        <v>4131</v>
       </c>
     </row>
     <row r="90">
@@ -51876,7 +51964,9 @@
       <c r="T90" t="n">
         <v>192</v>
       </c>
-      <c r="U90" t="inlineStr"/>
+      <c r="U90" t="n">
+        <v>43</v>
+      </c>
       <c r="V90" t="n">
         <v>639</v>
       </c>
@@ -51892,7 +51982,7 @@
       </c>
       <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="n">
-        <v>4208</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="91">
@@ -51934,7 +52024,9 @@
       <c r="T91" t="n">
         <v>194</v>
       </c>
-      <c r="U91" t="inlineStr"/>
+      <c r="U91" t="n">
+        <v>44</v>
+      </c>
       <c r="V91" t="n">
         <v>661</v>
       </c>
@@ -51950,7 +52042,7 @@
       </c>
       <c r="AA91" t="inlineStr"/>
       <c r="AB91" t="n">
-        <v>4318</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="92">
@@ -51992,7 +52084,9 @@
       <c r="T92" t="n">
         <v>198</v>
       </c>
-      <c r="U92" t="inlineStr"/>
+      <c r="U92" t="n">
+        <v>46</v>
+      </c>
       <c r="V92" t="n">
         <v>676</v>
       </c>
@@ -52008,7 +52102,7 @@
       </c>
       <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="n">
-        <v>4411</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="93">
@@ -52050,7 +52144,9 @@
       <c r="T93" t="n">
         <v>206</v>
       </c>
-      <c r="U93" t="inlineStr"/>
+      <c r="U93" t="n">
+        <v>46</v>
+      </c>
       <c r="V93" t="n">
         <v>682</v>
       </c>
@@ -52066,7 +52162,7 @@
       </c>
       <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="n">
-        <v>4486</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="94">
@@ -52102,7 +52198,9 @@
       <c r="T94" t="n">
         <v>215</v>
       </c>
-      <c r="U94" t="inlineStr"/>
+      <c r="U94" t="n">
+        <v>46</v>
+      </c>
       <c r="V94" t="n">
         <v>698</v>
       </c>
@@ -52118,7 +52216,7 @@
       </c>
       <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="n">
-        <v>4533</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="95">
@@ -52156,7 +52254,9 @@
       <c r="T95" t="n">
         <v>216</v>
       </c>
-      <c r="U95" t="inlineStr"/>
+      <c r="U95" t="n">
+        <v>49</v>
+      </c>
       <c r="V95" t="n">
         <v>704</v>
       </c>
@@ -52172,7 +52272,7 @@
       </c>
       <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="n">
-        <v>4557</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="96">
@@ -52212,7 +52312,9 @@
       <c r="T96" t="n">
         <v>216</v>
       </c>
-      <c r="U96" t="inlineStr"/>
+      <c r="U96" t="n">
+        <v>49</v>
+      </c>
       <c r="V96" t="n">
         <v>709</v>
       </c>
@@ -52228,7 +52330,7 @@
       </c>
       <c r="AA96" t="inlineStr"/>
       <c r="AB96" t="n">
-        <v>4635</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="97">
@@ -52268,7 +52370,9 @@
       <c r="T97" t="n">
         <v>223</v>
       </c>
-      <c r="U97" t="inlineStr"/>
+      <c r="U97" t="n">
+        <v>49</v>
+      </c>
       <c r="V97" t="n">
         <v>712</v>
       </c>
@@ -52284,7 +52388,7 @@
       </c>
       <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="n">
-        <v>4678</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="98">
@@ -52326,7 +52430,9 @@
       <c r="T98" t="n">
         <v>224</v>
       </c>
-      <c r="U98" t="inlineStr"/>
+      <c r="U98" t="n">
+        <v>55</v>
+      </c>
       <c r="V98" t="n">
         <v>728</v>
       </c>
@@ -52342,7 +52448,7 @@
       </c>
       <c r="AA98" t="inlineStr"/>
       <c r="AB98" t="n">
-        <v>4742</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="99">
@@ -52384,7 +52490,9 @@
       <c r="T99" t="n">
         <v>239</v>
       </c>
-      <c r="U99" t="inlineStr"/>
+      <c r="U99" t="n">
+        <v>57</v>
+      </c>
       <c r="V99" t="n">
         <v>739</v>
       </c>
@@ -52400,7 +52508,7 @@
       </c>
       <c r="AA99" t="inlineStr"/>
       <c r="AB99" t="n">
-        <v>4825</v>
+        <v>4882</v>
       </c>
     </row>
     <row r="100">
@@ -52442,7 +52550,9 @@
       <c r="T100" t="n">
         <v>242</v>
       </c>
-      <c r="U100" t="inlineStr"/>
+      <c r="U100" t="n">
+        <v>57</v>
+      </c>
       <c r="V100" t="n">
         <v>764</v>
       </c>
@@ -52458,7 +52568,7 @@
       </c>
       <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="n">
-        <v>4905</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="101">
@@ -52496,7 +52606,9 @@
       <c r="T101" t="n">
         <v>246</v>
       </c>
-      <c r="U101" t="inlineStr"/>
+      <c r="U101" t="n">
+        <v>57</v>
+      </c>
       <c r="V101" t="n">
         <v>774</v>
       </c>
@@ -52512,7 +52624,7 @@
       </c>
       <c r="AA101" t="inlineStr"/>
       <c r="AB101" t="n">
-        <v>4933</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="102">
@@ -52550,7 +52662,9 @@
       <c r="T102" t="n">
         <v>248</v>
       </c>
-      <c r="U102" t="inlineStr"/>
+      <c r="U102" t="n">
+        <v>57</v>
+      </c>
       <c r="V102" t="n">
         <v>779</v>
       </c>
@@ -52566,7 +52680,7 @@
       </c>
       <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="n">
-        <v>4951</v>
+        <v>5008</v>
       </c>
     </row>
     <row r="103">
@@ -52608,7 +52722,9 @@
       <c r="T103" t="n">
         <v>248</v>
       </c>
-      <c r="U103" t="inlineStr"/>
+      <c r="U103" t="n">
+        <v>57</v>
+      </c>
       <c r="V103" t="n">
         <v>782</v>
       </c>
@@ -52624,7 +52740,7 @@
       </c>
       <c r="AA103" t="inlineStr"/>
       <c r="AB103" t="n">
-        <v>5016</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="104">
@@ -52664,7 +52780,9 @@
       <c r="T104" t="n">
         <v>252</v>
       </c>
-      <c r="U104" t="inlineStr"/>
+      <c r="U104" t="n">
+        <v>57</v>
+      </c>
       <c r="V104" t="n">
         <v>794</v>
       </c>
@@ -52680,7 +52798,7 @@
       </c>
       <c r="AA104" t="inlineStr"/>
       <c r="AB104" t="n">
-        <v>5046</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="105">
@@ -52722,7 +52840,9 @@
       <c r="T105" t="n">
         <v>258</v>
       </c>
-      <c r="U105" t="inlineStr"/>
+      <c r="U105" t="n">
+        <v>58</v>
+      </c>
       <c r="V105" t="n">
         <v>802</v>
       </c>
@@ -52738,7 +52858,7 @@
       </c>
       <c r="AA105" t="inlineStr"/>
       <c r="AB105" t="n">
-        <v>5135</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="106">
@@ -52778,7 +52898,9 @@
       <c r="T106" t="n">
         <v>264</v>
       </c>
-      <c r="U106" t="inlineStr"/>
+      <c r="U106" t="n">
+        <v>58</v>
+      </c>
       <c r="V106" t="n">
         <v>809</v>
       </c>
@@ -52794,7 +52916,7 @@
       </c>
       <c r="AA106" t="inlineStr"/>
       <c r="AB106" t="n">
-        <v>5186</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="107">
@@ -52834,7 +52956,9 @@
       <c r="T107" t="n">
         <v>267</v>
       </c>
-      <c r="U107" t="inlineStr"/>
+      <c r="U107" t="n">
+        <v>59</v>
+      </c>
       <c r="V107" t="n">
         <v>829</v>
       </c>
@@ -52850,7 +52974,7 @@
       </c>
       <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="n">
-        <v>5247</v>
+        <v>5306</v>
       </c>
     </row>
     <row r="108">
@@ -52888,7 +53012,9 @@
       <c r="T108" t="n">
         <v>268</v>
       </c>
-      <c r="U108" t="inlineStr"/>
+      <c r="U108" t="n">
+        <v>60</v>
+      </c>
       <c r="V108" t="n">
         <v>843</v>
       </c>
@@ -52904,7 +53030,7 @@
       </c>
       <c r="AA108" t="inlineStr"/>
       <c r="AB108" t="n">
-        <v>5289</v>
+        <v>5349</v>
       </c>
     </row>
     <row r="109">
@@ -52940,7 +53066,9 @@
       <c r="R109" t="inlineStr"/>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr"/>
+      <c r="U109" t="n">
+        <v>60</v>
+      </c>
       <c r="V109" t="n">
         <v>847</v>
       </c>
@@ -52956,7 +53084,7 @@
       </c>
       <c r="AA109" t="inlineStr"/>
       <c r="AB109" t="n">
-        <v>5306</v>
+        <v>5366</v>
       </c>
     </row>
     <row r="110">
@@ -52998,7 +53126,9 @@
       <c r="T110" t="n">
         <v>272</v>
       </c>
-      <c r="U110" t="inlineStr"/>
+      <c r="U110" t="n">
+        <v>60</v>
+      </c>
       <c r="V110" t="n">
         <v>847</v>
       </c>
@@ -53014,7 +53144,7 @@
       </c>
       <c r="AA110" t="inlineStr"/>
       <c r="AB110" t="n">
-        <v>5361</v>
+        <v>5421</v>
       </c>
     </row>
     <row r="111">
@@ -53054,7 +53184,9 @@
       <c r="T111" t="n">
         <v>277</v>
       </c>
-      <c r="U111" t="inlineStr"/>
+      <c r="U111" t="n">
+        <v>60</v>
+      </c>
       <c r="V111" t="n">
         <v>849</v>
       </c>
@@ -53070,7 +53202,7 @@
       </c>
       <c r="AA111" t="inlineStr"/>
       <c r="AB111" t="n">
-        <v>5403</v>
+        <v>5463</v>
       </c>
     </row>
     <row r="112">
@@ -53112,7 +53244,9 @@
       <c r="T112" t="n">
         <v>277</v>
       </c>
-      <c r="U112" t="inlineStr"/>
+      <c r="U112" t="n">
+        <v>62</v>
+      </c>
       <c r="V112" t="n">
         <v>851</v>
       </c>
@@ -53128,7 +53262,7 @@
       </c>
       <c r="AA112" t="inlineStr"/>
       <c r="AB112" t="n">
-        <v>5437</v>
+        <v>5499</v>
       </c>
     </row>
     <row r="113">
@@ -53168,7 +53302,9 @@
       <c r="T113" t="n">
         <v>280</v>
       </c>
-      <c r="U113" t="inlineStr"/>
+      <c r="U113" t="n">
+        <v>62</v>
+      </c>
       <c r="V113" t="n">
         <v>857</v>
       </c>
@@ -53184,7 +53320,7 @@
       </c>
       <c r="AA113" t="inlineStr"/>
       <c r="AB113" t="n">
-        <v>5480</v>
+        <v>5542</v>
       </c>
     </row>
     <row r="114">
@@ -53226,7 +53362,9 @@
       <c r="T114" t="n">
         <v>280</v>
       </c>
-      <c r="U114" t="inlineStr"/>
+      <c r="U114" t="n">
+        <v>62</v>
+      </c>
       <c r="V114" t="n">
         <v>864</v>
       </c>
@@ -53240,7 +53378,7 @@
       </c>
       <c r="AA114" t="inlineStr"/>
       <c r="AB114" t="n">
-        <v>5499</v>
+        <v>5561</v>
       </c>
     </row>
     <row r="115">
@@ -53278,7 +53416,9 @@
       <c r="T115" t="n">
         <v>281</v>
       </c>
-      <c r="U115" t="inlineStr"/>
+      <c r="U115" t="n">
+        <v>62</v>
+      </c>
       <c r="V115" t="n">
         <v>870</v>
       </c>
@@ -53294,7 +53434,7 @@
       </c>
       <c r="AA115" t="inlineStr"/>
       <c r="AB115" t="n">
-        <v>5520</v>
+        <v>5582</v>
       </c>
     </row>
     <row r="116">
@@ -53332,7 +53472,9 @@
       <c r="T116" t="n">
         <v>281</v>
       </c>
-      <c r="U116" t="inlineStr"/>
+      <c r="U116" t="n">
+        <v>62</v>
+      </c>
       <c r="V116" t="n">
         <v>873</v>
       </c>
@@ -53348,7 +53490,7 @@
       </c>
       <c r="AA116" t="inlineStr"/>
       <c r="AB116" t="n">
-        <v>5529</v>
+        <v>5591</v>
       </c>
     </row>
     <row r="117">
@@ -53390,7 +53532,9 @@
       <c r="T117" t="n">
         <v>281</v>
       </c>
-      <c r="U117" t="inlineStr"/>
+      <c r="U117" t="n">
+        <v>63</v>
+      </c>
       <c r="V117" t="n">
         <v>874</v>
       </c>
@@ -53406,7 +53550,7 @@
       </c>
       <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="n">
-        <v>5550</v>
+        <v>5613</v>
       </c>
     </row>
     <row r="118">
@@ -53446,7 +53590,9 @@
       <c r="T118" t="n">
         <v>281</v>
       </c>
-      <c r="U118" t="inlineStr"/>
+      <c r="U118" t="n">
+        <v>63</v>
+      </c>
       <c r="V118" t="n">
         <v>877</v>
       </c>
@@ -53462,7 +53608,7 @@
       </c>
       <c r="AA118" t="inlineStr"/>
       <c r="AB118" t="n">
-        <v>5585</v>
+        <v>5648</v>
       </c>
     </row>
     <row r="119">
@@ -53504,7 +53650,9 @@
       <c r="T119" t="n">
         <v>282</v>
       </c>
-      <c r="U119" t="inlineStr"/>
+      <c r="U119" t="n">
+        <v>63</v>
+      </c>
       <c r="V119" t="n">
         <v>881</v>
       </c>
@@ -53520,7 +53668,7 @@
       </c>
       <c r="AA119" t="inlineStr"/>
       <c r="AB119" t="n">
-        <v>5604</v>
+        <v>5667</v>
       </c>
     </row>
     <row r="120">
@@ -53558,7 +53706,9 @@
       <c r="T120" t="n">
         <v>283</v>
       </c>
-      <c r="U120" t="inlineStr"/>
+      <c r="U120" t="n">
+        <v>63</v>
+      </c>
       <c r="V120" t="n">
         <v>885</v>
       </c>
@@ -53574,7 +53724,7 @@
       </c>
       <c r="AA120" t="inlineStr"/>
       <c r="AB120" t="n">
-        <v>5630</v>
+        <v>5693</v>
       </c>
     </row>
     <row r="121">
@@ -53612,7 +53762,9 @@
       <c r="T121" t="n">
         <v>284</v>
       </c>
-      <c r="U121" t="inlineStr"/>
+      <c r="U121" t="n">
+        <v>63</v>
+      </c>
       <c r="V121" t="n">
         <v>887</v>
       </c>
@@ -53628,7 +53780,7 @@
       </c>
       <c r="AA121" t="inlineStr"/>
       <c r="AB121" t="n">
-        <v>5639</v>
+        <v>5702</v>
       </c>
     </row>
     <row r="122">
@@ -53666,7 +53818,9 @@
       <c r="T122" t="n">
         <v>284</v>
       </c>
-      <c r="U122" t="inlineStr"/>
+      <c r="U122" t="n">
+        <v>63</v>
+      </c>
       <c r="V122" t="n">
         <v>888</v>
       </c>
@@ -53682,7 +53836,7 @@
       </c>
       <c r="AA122" t="inlineStr"/>
       <c r="AB122" t="n">
-        <v>5650</v>
+        <v>5713</v>
       </c>
     </row>
     <row r="123">
@@ -53720,7 +53874,9 @@
       <c r="T123" t="n">
         <v>284</v>
       </c>
-      <c r="U123" t="inlineStr"/>
+      <c r="U123" t="n">
+        <v>64</v>
+      </c>
       <c r="V123" t="n">
         <v>888</v>
       </c>
@@ -53736,7 +53892,7 @@
       </c>
       <c r="AA123" t="inlineStr"/>
       <c r="AB123" t="n">
-        <v>5652</v>
+        <v>5716</v>
       </c>
     </row>
     <row r="124">
@@ -53776,7 +53932,9 @@
       <c r="T124" t="n">
         <v>284</v>
       </c>
-      <c r="U124" t="inlineStr"/>
+      <c r="U124" t="n">
+        <v>64</v>
+      </c>
       <c r="V124" t="n">
         <v>888</v>
       </c>
@@ -53792,7 +53950,7 @@
       </c>
       <c r="AA124" t="inlineStr"/>
       <c r="AB124" t="n">
-        <v>5681</v>
+        <v>5745</v>
       </c>
     </row>
     <row r="125">
@@ -53830,7 +53988,9 @@
       <c r="T125" t="n">
         <v>284</v>
       </c>
-      <c r="U125" t="inlineStr"/>
+      <c r="U125" t="n">
+        <v>64</v>
+      </c>
       <c r="V125" t="n">
         <v>888</v>
       </c>
@@ -53846,7 +54006,7 @@
       </c>
       <c r="AA125" t="inlineStr"/>
       <c r="AB125" t="n">
-        <v>5693</v>
+        <v>5757</v>
       </c>
     </row>
     <row r="126">
@@ -53884,7 +54044,9 @@
       <c r="T126" t="n">
         <v>284</v>
       </c>
-      <c r="U126" t="inlineStr"/>
+      <c r="U126" t="n">
+        <v>65</v>
+      </c>
       <c r="V126" t="n">
         <v>889</v>
       </c>
@@ -53900,7 +54062,7 @@
       </c>
       <c r="AA126" t="inlineStr"/>
       <c r="AB126" t="n">
-        <v>5707</v>
+        <v>5772</v>
       </c>
     </row>
     <row r="127">
@@ -53940,7 +54102,9 @@
       <c r="T127" t="n">
         <v>284</v>
       </c>
-      <c r="U127" t="inlineStr"/>
+      <c r="U127" t="n">
+        <v>65</v>
+      </c>
       <c r="V127" t="n">
         <v>891</v>
       </c>
@@ -53956,7 +54120,7 @@
       </c>
       <c r="AA127" t="inlineStr"/>
       <c r="AB127" t="n">
-        <v>5726</v>
+        <v>5791</v>
       </c>
     </row>
     <row r="128">
@@ -53994,7 +54158,9 @@
       <c r="T128" t="n">
         <v>284</v>
       </c>
-      <c r="U128" t="inlineStr"/>
+      <c r="U128" t="n">
+        <v>66</v>
+      </c>
       <c r="V128" t="n">
         <v>892</v>
       </c>
@@ -54010,7 +54176,7 @@
       </c>
       <c r="AA128" t="inlineStr"/>
       <c r="AB128" t="n">
-        <v>5733</v>
+        <v>5799</v>
       </c>
     </row>
     <row r="129">
@@ -54046,7 +54212,9 @@
       <c r="T129" t="n">
         <v>284</v>
       </c>
-      <c r="U129" t="inlineStr"/>
+      <c r="U129" t="n">
+        <v>68</v>
+      </c>
       <c r="V129" t="n">
         <v>894</v>
       </c>
@@ -54062,7 +54230,7 @@
       </c>
       <c r="AA129" t="inlineStr"/>
       <c r="AB129" t="n">
-        <v>5737</v>
+        <v>5805</v>
       </c>
     </row>
     <row r="130">
@@ -54098,7 +54266,9 @@
       <c r="T130" t="n">
         <v>284</v>
       </c>
-      <c r="U130" t="inlineStr"/>
+      <c r="U130" t="n">
+        <v>68</v>
+      </c>
       <c r="V130" t="n">
         <v>895</v>
       </c>
@@ -54114,7 +54284,7 @@
       </c>
       <c r="AA130" t="inlineStr"/>
       <c r="AB130" t="n">
-        <v>5739</v>
+        <v>5807</v>
       </c>
     </row>
     <row r="131">
@@ -54150,7 +54320,9 @@
       <c r="T131" t="n">
         <v>284</v>
       </c>
-      <c r="U131" t="inlineStr"/>
+      <c r="U131" t="n">
+        <v>68</v>
+      </c>
       <c r="V131" t="n">
         <v>895</v>
       </c>
@@ -54166,7 +54338,7 @@
       </c>
       <c r="AA131" t="inlineStr"/>
       <c r="AB131" t="n">
-        <v>5740</v>
+        <v>5808</v>
       </c>
     </row>
     <row r="132">
@@ -54206,7 +54378,9 @@
       <c r="T132" t="n">
         <v>284</v>
       </c>
-      <c r="U132" t="inlineStr"/>
+      <c r="U132" t="n">
+        <v>68</v>
+      </c>
       <c r="V132" t="n">
         <v>897</v>
       </c>
@@ -54222,7 +54396,7 @@
       </c>
       <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="n">
-        <v>5777</v>
+        <v>5845</v>
       </c>
     </row>
     <row r="133">
@@ -54262,7 +54436,9 @@
       <c r="T133" t="n">
         <v>284</v>
       </c>
-      <c r="U133" t="inlineStr"/>
+      <c r="U133" t="n">
+        <v>68</v>
+      </c>
       <c r="V133" t="n">
         <v>899</v>
       </c>
@@ -54276,7 +54452,7 @@
       </c>
       <c r="AA133" t="inlineStr"/>
       <c r="AB133" t="n">
-        <v>5790</v>
+        <v>5858</v>
       </c>
     </row>
     <row r="134">
@@ -54316,7 +54492,9 @@
       <c r="T134" t="n">
         <v>284</v>
       </c>
-      <c r="U134" t="inlineStr"/>
+      <c r="U134" t="n">
+        <v>68</v>
+      </c>
       <c r="V134" t="n">
         <v>902</v>
       </c>
@@ -54330,7 +54508,7 @@
       </c>
       <c r="AA134" t="inlineStr"/>
       <c r="AB134" t="n">
-        <v>5805</v>
+        <v>5873</v>
       </c>
     </row>
     <row r="135">
@@ -54368,7 +54546,9 @@
       <c r="T135" t="n">
         <v>284</v>
       </c>
-      <c r="U135" t="inlineStr"/>
+      <c r="U135" t="n">
+        <v>68</v>
+      </c>
       <c r="V135" t="n">
         <v>902</v>
       </c>
@@ -54382,7 +54562,7 @@
       </c>
       <c r="AA135" t="inlineStr"/>
       <c r="AB135" t="n">
-        <v>5809</v>
+        <v>5877</v>
       </c>
     </row>
     <row r="136">
@@ -54418,7 +54598,9 @@
       <c r="T136" t="n">
         <v>284</v>
       </c>
-      <c r="U136" t="inlineStr"/>
+      <c r="U136" t="n">
+        <v>68</v>
+      </c>
       <c r="V136" t="n">
         <v>903</v>
       </c>
@@ -54432,7 +54614,7 @@
       </c>
       <c r="AA136" t="inlineStr"/>
       <c r="AB136" t="n">
-        <v>5813</v>
+        <v>5881</v>
       </c>
     </row>
     <row r="137">
@@ -54468,7 +54650,9 @@
       <c r="T137" t="n">
         <v>284</v>
       </c>
-      <c r="U137" t="inlineStr"/>
+      <c r="U137" t="n">
+        <v>68</v>
+      </c>
       <c r="V137" t="n">
         <v>904</v>
       </c>
@@ -54482,7 +54666,7 @@
       </c>
       <c r="AA137" t="inlineStr"/>
       <c r="AB137" t="n">
-        <v>5815</v>
+        <v>5883</v>
       </c>
     </row>
     <row r="138">
@@ -54522,7 +54706,9 @@
       <c r="T138" t="n">
         <v>284</v>
       </c>
-      <c r="U138" t="inlineStr"/>
+      <c r="U138" t="n">
+        <v>68</v>
+      </c>
       <c r="V138" t="n">
         <v>905</v>
       </c>
@@ -54536,7 +54722,7 @@
       </c>
       <c r="AA138" t="inlineStr"/>
       <c r="AB138" t="n">
-        <v>5823</v>
+        <v>5891</v>
       </c>
     </row>
     <row r="139">
@@ -54574,7 +54760,9 @@
       <c r="T139" t="n">
         <v>284</v>
       </c>
-      <c r="U139" t="inlineStr"/>
+      <c r="U139" t="n">
+        <v>68</v>
+      </c>
       <c r="V139" t="n">
         <v>906</v>
       </c>
@@ -54588,7 +54776,7 @@
       </c>
       <c r="AA139" t="inlineStr"/>
       <c r="AB139" t="n">
-        <v>5830</v>
+        <v>5898</v>
       </c>
     </row>
     <row r="140">
@@ -54626,7 +54814,9 @@
       <c r="T140" t="n">
         <v>284</v>
       </c>
-      <c r="U140" t="inlineStr"/>
+      <c r="U140" t="n">
+        <v>68</v>
+      </c>
       <c r="V140" t="n">
         <v>907</v>
       </c>
@@ -54640,7 +54830,7 @@
       </c>
       <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="n">
-        <v>5839</v>
+        <v>5907</v>
       </c>
     </row>
     <row r="141">
@@ -54680,7 +54870,9 @@
       <c r="T141" t="n">
         <v>284</v>
       </c>
-      <c r="U141" t="inlineStr"/>
+      <c r="U141" t="n">
+        <v>68</v>
+      </c>
       <c r="V141" t="n">
         <v>907</v>
       </c>
@@ -54694,7 +54886,7 @@
       </c>
       <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="n">
-        <v>5850</v>
+        <v>5918</v>
       </c>
     </row>
     <row r="142">
@@ -54732,7 +54924,9 @@
       <c r="T142" t="n">
         <v>284</v>
       </c>
-      <c r="U142" t="inlineStr"/>
+      <c r="U142" t="n">
+        <v>68</v>
+      </c>
       <c r="V142" t="n">
         <v>907</v>
       </c>
@@ -54746,7 +54940,7 @@
       </c>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="n">
-        <v>5852</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="143">
@@ -54782,7 +54976,9 @@
       <c r="T143" t="n">
         <v>284</v>
       </c>
-      <c r="U143" t="inlineStr"/>
+      <c r="U143" t="n">
+        <v>68</v>
+      </c>
       <c r="V143" t="n">
         <v>907</v>
       </c>
@@ -54796,7 +54992,7 @@
       </c>
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="n">
-        <v>5856</v>
+        <v>5924</v>
       </c>
     </row>
     <row r="144">
@@ -54832,7 +55028,9 @@
       <c r="T144" t="n">
         <v>284</v>
       </c>
-      <c r="U144" t="inlineStr"/>
+      <c r="U144" t="n">
+        <v>68</v>
+      </c>
       <c r="V144" t="n">
         <v>908</v>
       </c>
@@ -54846,7 +55044,7 @@
       </c>
       <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="n">
-        <v>5858</v>
+        <v>5926</v>
       </c>
     </row>
     <row r="145">
@@ -54886,7 +55084,9 @@
       <c r="T145" t="n">
         <v>284</v>
       </c>
-      <c r="U145" t="inlineStr"/>
+      <c r="U145" t="n">
+        <v>68</v>
+      </c>
       <c r="V145" t="n">
         <v>908</v>
       </c>
@@ -54900,7 +55100,7 @@
       </c>
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="n">
-        <v>5870</v>
+        <v>5938</v>
       </c>
     </row>
     <row r="146">
@@ -54938,7 +55138,9 @@
       <c r="T146" t="n">
         <v>284</v>
       </c>
-      <c r="U146" t="inlineStr"/>
+      <c r="U146" t="n">
+        <v>68</v>
+      </c>
       <c r="V146" t="n">
         <v>908</v>
       </c>
@@ -54952,7 +55154,7 @@
       </c>
       <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="n">
-        <v>5873</v>
+        <v>5941</v>
       </c>
     </row>
     <row r="147">
@@ -54988,7 +55190,9 @@
       <c r="T147" t="n">
         <v>284</v>
       </c>
-      <c r="U147" t="inlineStr"/>
+      <c r="U147" t="n">
+        <v>69</v>
+      </c>
       <c r="V147" t="n">
         <v>908</v>
       </c>
@@ -55002,7 +55206,7 @@
       </c>
       <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="n">
-        <v>5874</v>
+        <v>5943</v>
       </c>
     </row>
     <row r="148">
@@ -55040,7 +55244,9 @@
       <c r="T148" t="n">
         <v>284</v>
       </c>
-      <c r="U148" t="inlineStr"/>
+      <c r="U148" t="n">
+        <v>69</v>
+      </c>
       <c r="V148" t="n">
         <v>909</v>
       </c>
@@ -55054,7 +55260,7 @@
       </c>
       <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="n">
-        <v>5892</v>
+        <v>5961</v>
       </c>
     </row>
     <row r="149">
@@ -55090,7 +55296,9 @@
       <c r="T149" t="n">
         <v>285</v>
       </c>
-      <c r="U149" t="inlineStr"/>
+      <c r="U149" t="n">
+        <v>69</v>
+      </c>
       <c r="V149" t="n">
         <v>909</v>
       </c>
@@ -55104,7 +55312,7 @@
       </c>
       <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="n">
-        <v>5895</v>
+        <v>5964</v>
       </c>
     </row>
     <row r="150">
@@ -55140,7 +55348,9 @@
       <c r="T150" t="n">
         <v>285</v>
       </c>
-      <c r="U150" t="inlineStr"/>
+      <c r="U150" t="n">
+        <v>69</v>
+      </c>
       <c r="V150" t="n">
         <v>909</v>
       </c>
@@ -55154,7 +55364,7 @@
       </c>
       <c r="AA150" t="inlineStr"/>
       <c r="AB150" t="n">
-        <v>5895</v>
+        <v>5964</v>
       </c>
     </row>
     <row r="151">
@@ -55190,7 +55400,9 @@
       <c r="T151" t="n">
         <v>285</v>
       </c>
-      <c r="U151" t="inlineStr"/>
+      <c r="U151" t="n">
+        <v>69</v>
+      </c>
       <c r="V151" t="n">
         <v>909</v>
       </c>
@@ -55204,7 +55416,7 @@
       </c>
       <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="n">
-        <v>5896</v>
+        <v>5965</v>
       </c>
     </row>
     <row r="152">
@@ -55238,7 +55450,9 @@
       <c r="T152" t="n">
         <v>285</v>
       </c>
-      <c r="U152" t="inlineStr"/>
+      <c r="U152" t="n">
+        <v>69</v>
+      </c>
       <c r="V152" t="n">
         <v>909</v>
       </c>
@@ -55252,7 +55466,7 @@
       </c>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="n">
-        <v>5897</v>
+        <v>5966</v>
       </c>
     </row>
     <row r="153">
@@ -55284,7 +55498,9 @@
       <c r="T153" t="n">
         <v>285</v>
       </c>
-      <c r="U153" t="inlineStr"/>
+      <c r="U153" t="n">
+        <v>69</v>
+      </c>
       <c r="V153" t="n">
         <v>909</v>
       </c>
@@ -55296,7 +55512,7 @@
       </c>
       <c r="AA153" t="inlineStr"/>
       <c r="AB153" t="n">
-        <v>5897</v>
+        <v>5966</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -11074,7 +11074,9 @@
       <c r="E153" t="n">
         <v>1946</v>
       </c>
-      <c r="F153" t="inlineStr"/>
+      <c r="F153" t="n">
+        <v>849</v>
+      </c>
       <c r="G153" t="n">
         <v>985</v>
       </c>
@@ -11089,7 +11091,9 @@
         <v>746</v>
       </c>
       <c r="N153" t="inlineStr"/>
-      <c r="O153" t="inlineStr"/>
+      <c r="O153" t="n">
+        <v>124</v>
+      </c>
       <c r="P153" t="n">
         <v>82</v>
       </c>
@@ -21461,7 +21465,9 @@
       <c r="E153" t="n">
         <v>97</v>
       </c>
-      <c r="F153" t="inlineStr"/>
+      <c r="F153" t="n">
+        <v>35</v>
+      </c>
       <c r="G153" t="n">
         <v>50</v>
       </c>
@@ -21476,7 +21482,9 @@
         <v>20</v>
       </c>
       <c r="N153" t="inlineStr"/>
-      <c r="O153" t="inlineStr"/>
+      <c r="O153" t="n">
+        <v>3</v>
+      </c>
       <c r="P153" t="n">
         <v>0</v>
       </c>
@@ -31324,7 +31332,9 @@
       <c r="E153" t="n">
         <v>2</v>
       </c>
-      <c r="F153" t="inlineStr"/>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
@@ -31335,7 +31345,9 @@
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr"/>
-      <c r="O153" t="inlineStr"/>
+      <c r="O153" t="n">
+        <v>0</v>
+      </c>
       <c r="P153" t="n">
         <v>0</v>
       </c>
@@ -40345,7 +40357,9 @@
       <c r="E153" t="n">
         <v>0</v>
       </c>
-      <c r="F153" t="inlineStr"/>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
@@ -40354,7 +40368,9 @@
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr"/>
-      <c r="O153" t="inlineStr"/>
+      <c r="O153" t="n">
+        <v>0</v>
+      </c>
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr"/>
       <c r="R153" t="n">
@@ -47776,7 +47792,9 @@
       <c r="E153" t="n">
         <v>0</v>
       </c>
-      <c r="F153" t="inlineStr"/>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
@@ -55479,7 +55497,9 @@
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
+      <c r="F153" t="n">
+        <v>811</v>
+      </c>
       <c r="G153" t="n">
         <v>934</v>
       </c>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10884,7 +10884,9 @@
       <c r="M150" t="n">
         <v>741</v>
       </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="N150" t="n">
+        <v>742</v>
+      </c>
       <c r="O150" t="n">
         <v>124</v>
       </c>
@@ -10915,7 +10917,7 @@
         <v>3692</v>
       </c>
       <c r="AB150" t="n">
-        <v>31284</v>
+        <v>31285</v>
       </c>
     </row>
     <row r="151">
@@ -10948,7 +10950,9 @@
       <c r="M151" t="n">
         <v>744</v>
       </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>743</v>
+      </c>
       <c r="O151" t="n">
         <v>124</v>
       </c>
@@ -10979,7 +10983,7 @@
         <v>3698</v>
       </c>
       <c r="AB151" t="n">
-        <v>31298</v>
+        <v>31300</v>
       </c>
     </row>
     <row r="152">
@@ -11055,7 +11059,7 @@
         <v>3701</v>
       </c>
       <c r="AB152" t="n">
-        <v>31325</v>
+        <v>31327</v>
       </c>
     </row>
     <row r="153">
@@ -11123,7 +11127,7 @@
         <v>3705</v>
       </c>
       <c r="AB153" t="n">
-        <v>31335</v>
+        <v>31337</v>
       </c>
     </row>
   </sheetData>
@@ -31344,7 +31348,9 @@
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
-      <c r="N153" t="inlineStr"/>
+      <c r="N153" t="n">
+        <v>2</v>
+      </c>
       <c r="O153" t="n">
         <v>0</v>
       </c>
@@ -40367,7 +40373,9 @@
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
-      <c r="N153" t="inlineStr"/>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
       <c r="O153" t="n">
         <v>0</v>
       </c>
@@ -47802,7 +47810,9 @@
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
-      <c r="N153" t="inlineStr"/>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB153"/>
+  <dimension ref="A1:AB154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11107,7 +11107,9 @@
       <c r="R153" t="n">
         <v>81</v>
       </c>
-      <c r="S153" t="inlineStr"/>
+      <c r="S153" t="n">
+        <v>451</v>
+      </c>
       <c r="T153" t="n">
         <v>313</v>
       </c>
@@ -11128,6 +11130,50 @@
       </c>
       <c r="AB153" t="n">
         <v>31337</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1241</v>
+      </c>
+      <c r="C154" t="n">
+        <v>25</v>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="n">
+        <v>825</v>
+      </c>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="n">
+        <v>452</v>
+      </c>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr"/>
+      <c r="AA154" t="inlineStr"/>
+      <c r="AB154" t="n">
+        <v>31340</v>
       </c>
     </row>
   </sheetData>
@@ -11141,7 +11187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB153"/>
+  <dimension ref="A1:AB154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21498,7 +21544,9 @@
       <c r="R153" t="n">
         <v>7</v>
       </c>
-      <c r="S153" t="inlineStr"/>
+      <c r="S153" t="n">
+        <v>17</v>
+      </c>
       <c r="T153" t="n">
         <v>23</v>
       </c>
@@ -21519,6 +21567,50 @@
       </c>
       <c r="AB153" t="n">
         <v>1956</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>47</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="n">
+        <v>38</v>
+      </c>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="n">
+        <v>17</v>
+      </c>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr"/>
+      <c r="AA154" t="inlineStr"/>
+      <c r="AB154" t="n">
+        <v>1957</v>
       </c>
     </row>
   </sheetData>
@@ -21532,7 +21624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB153"/>
+  <dimension ref="A1:AB154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31382,6 +31474,42 @@
         <v>203</v>
       </c>
     </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr"/>
+      <c r="AA154" t="inlineStr"/>
+      <c r="AB154" t="n">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -31393,7 +31521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB153"/>
+  <dimension ref="A1:AB154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40403,6 +40531,42 @@
         <v>12</v>
       </c>
     </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr"/>
+      <c r="AA154" t="inlineStr"/>
+      <c r="AB154" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -40414,7 +40578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB153"/>
+  <dimension ref="A1:AB154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47834,6 +47998,42 @@
         <v>2</v>
       </c>
     </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr"/>
+      <c r="AA154" t="inlineStr"/>
+      <c r="AB154" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -47845,7 +48045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB153"/>
+  <dimension ref="A1:AB154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55545,6 +55745,42 @@
         <v>5966</v>
       </c>
     </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr"/>
+      <c r="AA154" t="inlineStr"/>
+      <c r="AB154" t="n">
+        <v>5966</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -55556,7 +55792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB153"/>
+  <dimension ref="A1:AB154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61462,6 +61698,42 @@
         <v>37875</v>
       </c>
     </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr"/>
+      <c r="AA154" t="inlineStr"/>
+      <c r="AB154" t="n">
+        <v>37875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -8822,7 +8822,7 @@
         <v>128</v>
       </c>
       <c r="K124" t="n">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="L124" t="n">
         <v>204</v>
@@ -8873,7 +8873,7 @@
         <v>3591</v>
       </c>
       <c r="AB124" t="n">
-        <v>30773</v>
+        <v>30774</v>
       </c>
     </row>
     <row r="125">
@@ -11089,7 +11089,9 @@
       <c r="J153" t="n">
         <v>128</v>
       </c>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>831</v>
+      </c>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>746</v>
@@ -11147,7 +11149,9 @@
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
+      <c r="G154" t="n">
+        <v>985</v>
+      </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -11164,16 +11168,22 @@
       <c r="S154" t="n">
         <v>452</v>
       </c>
-      <c r="T154" t="inlineStr"/>
-      <c r="U154" t="inlineStr"/>
-      <c r="V154" t="inlineStr"/>
+      <c r="T154" t="n">
+        <v>316</v>
+      </c>
+      <c r="U154" t="n">
+        <v>387</v>
+      </c>
+      <c r="V154" t="n">
+        <v>3327</v>
+      </c>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr"/>
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr"/>
       <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="n">
-        <v>31340</v>
+        <v>31344</v>
       </c>
     </row>
   </sheetData>
@@ -21526,7 +21536,9 @@
       <c r="J153" t="n">
         <v>13</v>
       </c>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>50</v>
+      </c>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>20</v>
@@ -21584,7 +21596,9 @@
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
+      <c r="G154" t="n">
+        <v>50</v>
+      </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -21601,9 +21615,15 @@
       <c r="S154" t="n">
         <v>17</v>
       </c>
-      <c r="T154" t="inlineStr"/>
-      <c r="U154" t="inlineStr"/>
-      <c r="V154" t="inlineStr"/>
+      <c r="T154" t="n">
+        <v>23</v>
+      </c>
+      <c r="U154" t="n">
+        <v>18</v>
+      </c>
+      <c r="V154" t="n">
+        <v>350</v>
+      </c>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr"/>
       <c r="Y154" t="inlineStr"/>
@@ -31437,7 +31457,9 @@
       <c r="J153" t="n">
         <v>0</v>
       </c>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="n">
@@ -31499,8 +31521,12 @@
       <c r="R154" t="inlineStr"/>
       <c r="S154" t="inlineStr"/>
       <c r="T154" t="inlineStr"/>
-      <c r="U154" t="inlineStr"/>
-      <c r="V154" t="inlineStr"/>
+      <c r="U154" t="n">
+        <v>0</v>
+      </c>
+      <c r="V154" t="n">
+        <v>6</v>
+      </c>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr"/>
       <c r="Y154" t="inlineStr"/>
@@ -40498,7 +40524,9 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="n">
@@ -40556,8 +40584,12 @@
       <c r="R154" t="inlineStr"/>
       <c r="S154" t="inlineStr"/>
       <c r="T154" t="inlineStr"/>
-      <c r="U154" t="inlineStr"/>
-      <c r="V154" t="inlineStr"/>
+      <c r="U154" t="n">
+        <v>0</v>
+      </c>
+      <c r="V154" t="n">
+        <v>0</v>
+      </c>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr"/>
       <c r="Y154" t="inlineStr"/>
@@ -47971,7 +48003,9 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="n">
@@ -48024,7 +48058,9 @@
       <c r="S154" t="inlineStr"/>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="inlineStr"/>
-      <c r="V154" t="inlineStr"/>
+      <c r="V154" t="n">
+        <v>0</v>
+      </c>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr"/>
       <c r="Y154" t="inlineStr"/>
@@ -55756,7 +55792,9 @@
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
+      <c r="G154" t="n">
+        <v>934</v>
+      </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -55769,9 +55807,15 @@
       <c r="Q154" t="inlineStr"/>
       <c r="R154" t="inlineStr"/>
       <c r="S154" t="inlineStr"/>
-      <c r="T154" t="inlineStr"/>
-      <c r="U154" t="inlineStr"/>
-      <c r="V154" t="inlineStr"/>
+      <c r="T154" t="n">
+        <v>285</v>
+      </c>
+      <c r="U154" t="n">
+        <v>69</v>
+      </c>
+      <c r="V154" t="n">
+        <v>909</v>
+      </c>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr"/>
       <c r="Y154" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -11154,7 +11154,9 @@
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>128</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
@@ -21601,7 +21603,9 @@
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>13</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
@@ -31510,7 +31514,9 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -11008,7 +11008,9 @@
       <c r="G152" t="n">
         <v>985</v>
       </c>
-      <c r="H152" t="inlineStr"/>
+      <c r="H152" t="n">
+        <v>1191</v>
+      </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
         <v>128</v>
@@ -11084,7 +11086,9 @@
       <c r="G153" t="n">
         <v>985</v>
       </c>
-      <c r="H153" t="inlineStr"/>
+      <c r="H153" t="n">
+        <v>1195</v>
+      </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
         <v>128</v>
@@ -11131,7 +11135,7 @@
         <v>3705</v>
       </c>
       <c r="AB153" t="n">
-        <v>31337</v>
+        <v>31341</v>
       </c>
     </row>
     <row r="154">
@@ -11152,10 +11156,12 @@
       <c r="G154" t="n">
         <v>985</v>
       </c>
-      <c r="H154" t="inlineStr"/>
+      <c r="H154" t="n">
+        <v>1203</v>
+      </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
@@ -11185,7 +11191,7 @@
       <c r="Z154" t="inlineStr"/>
       <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="n">
-        <v>31344</v>
+        <v>31357</v>
       </c>
     </row>
   </sheetData>
@@ -21533,7 +21539,9 @@
       <c r="G153" t="n">
         <v>50</v>
       </c>
-      <c r="H153" t="inlineStr"/>
+      <c r="H153" t="n">
+        <v>85</v>
+      </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
         <v>13</v>
@@ -21580,7 +21588,7 @@
         <v>130</v>
       </c>
       <c r="AB153" t="n">
-        <v>1956</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="154">
@@ -21601,7 +21609,9 @@
       <c r="G154" t="n">
         <v>50</v>
       </c>
-      <c r="H154" t="inlineStr"/>
+      <c r="H154" t="n">
+        <v>85</v>
+      </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
         <v>13</v>
@@ -21634,7 +21644,7 @@
       <c r="Z154" t="inlineStr"/>
       <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="n">
-        <v>1957</v>
+        <v>1958</v>
       </c>
     </row>
   </sheetData>
@@ -31390,7 +31400,9 @@
         <v>0</v>
       </c>
       <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
         <v>0</v>
@@ -31456,7 +31468,9 @@
         <v>0</v>
       </c>
       <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
         <v>0</v>
@@ -31497,7 +31511,7 @@
         <v>10</v>
       </c>
       <c r="AB153" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="154">
@@ -31512,7 +31526,9 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
         <v>0</v>
@@ -31539,7 +31555,7 @@
       <c r="Z154" t="inlineStr"/>
       <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -40467,7 +40483,9 @@
         <v>0</v>
       </c>
       <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
@@ -40527,7 +40545,9 @@
         <v>0</v>
       </c>
       <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
@@ -40577,7 +40597,9 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -55705,7 +55727,9 @@
       <c r="G152" t="n">
         <v>934</v>
       </c>
-      <c r="H152" t="inlineStr"/>
+      <c r="H152" t="n">
+        <v>151</v>
+      </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -55755,7 +55779,9 @@
       <c r="G153" t="n">
         <v>934</v>
       </c>
-      <c r="H153" t="inlineStr"/>
+      <c r="H153" t="n">
+        <v>152</v>
+      </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -55784,7 +55810,7 @@
       </c>
       <c r="AA153" t="inlineStr"/>
       <c r="AB153" t="n">
-        <v>5966</v>
+        <v>5967</v>
       </c>
     </row>
     <row r="154">
@@ -55801,7 +55827,9 @@
       <c r="G154" t="n">
         <v>934</v>
       </c>
-      <c r="H154" t="inlineStr"/>
+      <c r="H154" t="n">
+        <v>152</v>
+      </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -55828,7 +55856,7 @@
       <c r="Z154" t="inlineStr"/>
       <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="n">
-        <v>5966</v>
+        <v>5967</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -11151,8 +11151,12 @@
         <v>25</v>
       </c>
       <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
+      <c r="E154" t="n">
+        <v>1948</v>
+      </c>
+      <c r="F154" t="n">
+        <v>851</v>
+      </c>
       <c r="G154" t="n">
         <v>985</v>
       </c>
@@ -11188,10 +11192,12 @@
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr"/>
       <c r="Y154" t="inlineStr"/>
-      <c r="Z154" t="inlineStr"/>
+      <c r="Z154" t="n">
+        <v>218</v>
+      </c>
       <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="n">
-        <v>31357</v>
+        <v>31363</v>
       </c>
     </row>
   </sheetData>
@@ -21604,8 +21610,12 @@
         <v>0</v>
       </c>
       <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
+      <c r="E154" t="n">
+        <v>97</v>
+      </c>
+      <c r="F154" t="n">
+        <v>35</v>
+      </c>
       <c r="G154" t="n">
         <v>50</v>
       </c>
@@ -21641,7 +21651,9 @@
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr"/>
       <c r="Y154" t="inlineStr"/>
-      <c r="Z154" t="inlineStr"/>
+      <c r="Z154" t="n">
+        <v>9</v>
+      </c>
       <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="n">
         <v>1958</v>
@@ -31523,8 +31535,12 @@
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
+      <c r="E154" t="n">
+        <v>1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
         <v>2</v>
@@ -31552,10 +31568,12 @@
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr"/>
       <c r="Y154" t="inlineStr"/>
-      <c r="Z154" t="inlineStr"/>
+      <c r="Z154" t="n">
+        <v>0</v>
+      </c>
       <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -40594,8 +40612,12 @@
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
         <v>0</v>
@@ -40621,7 +40643,9 @@
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr"/>
       <c r="Y154" t="inlineStr"/>
-      <c r="Z154" t="inlineStr"/>
+      <c r="Z154" t="n">
+        <v>0</v>
+      </c>
       <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="n">
         <v>12</v>
@@ -48069,8 +48093,12 @@
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
@@ -55823,7 +55851,9 @@
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
+      <c r="F154" t="n">
+        <v>811</v>
+      </c>
       <c r="G154" t="n">
         <v>934</v>
       </c>
@@ -55853,10 +55883,12 @@
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr"/>
       <c r="Y154" t="inlineStr"/>
-      <c r="Z154" t="inlineStr"/>
+      <c r="Z154" t="n">
+        <v>196</v>
+      </c>
       <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="n">
-        <v>5967</v>
+        <v>5973</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -11195,9 +11195,11 @@
       <c r="Z154" t="n">
         <v>218</v>
       </c>
-      <c r="AA154" t="inlineStr"/>
+      <c r="AA154" t="n">
+        <v>3721</v>
+      </c>
       <c r="AB154" t="n">
-        <v>31363</v>
+        <v>31379</v>
       </c>
     </row>
   </sheetData>
@@ -21654,7 +21656,9 @@
       <c r="Z154" t="n">
         <v>9</v>
       </c>
-      <c r="AA154" t="inlineStr"/>
+      <c r="AA154" t="n">
+        <v>130</v>
+      </c>
       <c r="AB154" t="n">
         <v>1958</v>
       </c>
@@ -31555,7 +31559,9 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
+      <c r="Q154" t="n">
+        <v>12</v>
+      </c>
       <c r="R154" t="inlineStr"/>
       <c r="S154" t="inlineStr"/>
       <c r="T154" t="inlineStr"/>
@@ -31571,9 +31577,11 @@
       <c r="Z154" t="n">
         <v>0</v>
       </c>
-      <c r="AA154" t="inlineStr"/>
+      <c r="AA154" t="n">
+        <v>8</v>
+      </c>
       <c r="AB154" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -40630,7 +40638,9 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
+      <c r="Q154" t="n">
+        <v>3</v>
+      </c>
       <c r="R154" t="inlineStr"/>
       <c r="S154" t="inlineStr"/>
       <c r="T154" t="inlineStr"/>
@@ -40648,7 +40658,7 @@
       </c>
       <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -48121,7 +48131,9 @@
       <c r="X154" t="inlineStr"/>
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr"/>
-      <c r="AA154" t="inlineStr"/>
+      <c r="AA154" t="n">
+        <v>0</v>
+      </c>
       <c r="AB154" t="n">
         <v>2</v>
       </c>
@@ -55868,7 +55880,9 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
+      <c r="Q154" t="n">
+        <v>226</v>
+      </c>
       <c r="R154" t="inlineStr"/>
       <c r="S154" t="inlineStr"/>
       <c r="T154" t="n">
@@ -55888,7 +55902,7 @@
       </c>
       <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="n">
-        <v>5973</v>
+        <v>5976</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10808,7 +10808,9 @@
       <c r="K149" t="n">
         <v>830</v>
       </c>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>206</v>
+      </c>
       <c r="M149" t="n">
         <v>741</v>
       </c>
@@ -10880,7 +10882,9 @@
       <c r="K150" t="n">
         <v>830</v>
       </c>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>206</v>
+      </c>
       <c r="M150" t="n">
         <v>741</v>
       </c>
@@ -10946,7 +10950,9 @@
       <c r="K151" t="n">
         <v>830</v>
       </c>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>208</v>
+      </c>
       <c r="M151" t="n">
         <v>744</v>
       </c>
@@ -10983,7 +10989,7 @@
         <v>3698</v>
       </c>
       <c r="AB151" t="n">
-        <v>31300</v>
+        <v>31302</v>
       </c>
     </row>
     <row r="152">
@@ -11018,7 +11024,9 @@
       <c r="K152" t="n">
         <v>831</v>
       </c>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>208</v>
+      </c>
       <c r="M152" t="n">
         <v>745</v>
       </c>
@@ -11061,7 +11069,7 @@
         <v>3701</v>
       </c>
       <c r="AB152" t="n">
-        <v>31327</v>
+        <v>31329</v>
       </c>
     </row>
     <row r="153">
@@ -11096,7 +11104,9 @@
       <c r="K153" t="n">
         <v>831</v>
       </c>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>208</v>
+      </c>
       <c r="M153" t="n">
         <v>746</v>
       </c>
@@ -11135,7 +11145,7 @@
         <v>3705</v>
       </c>
       <c r="AB153" t="n">
-        <v>31341</v>
+        <v>31343</v>
       </c>
     </row>
     <row r="154">
@@ -11168,11 +11178,19 @@
         <v>129</v>
       </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>208</v>
+      </c>
+      <c r="M154" t="n">
+        <v>747</v>
+      </c>
       <c r="N154" t="inlineStr"/>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
+      <c r="O154" t="n">
+        <v>124</v>
+      </c>
+      <c r="P154" t="n">
+        <v>82</v>
+      </c>
       <c r="Q154" t="n">
         <v>825</v>
       </c>
@@ -11199,7 +11217,7 @@
         <v>3721</v>
       </c>
       <c r="AB154" t="n">
-        <v>31379</v>
+        <v>31382</v>
       </c>
     </row>
   </sheetData>
@@ -21277,7 +21295,9 @@
       <c r="K149" t="n">
         <v>50</v>
       </c>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>7</v>
+      </c>
       <c r="M149" t="n">
         <v>20</v>
       </c>
@@ -21347,7 +21367,9 @@
       <c r="K150" t="n">
         <v>50</v>
       </c>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>7</v>
+      </c>
       <c r="M150" t="n">
         <v>20</v>
       </c>
@@ -21411,7 +21433,9 @@
       <c r="K151" t="n">
         <v>50</v>
       </c>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>7</v>
+      </c>
       <c r="M151" t="n">
         <v>20</v>
       </c>
@@ -21479,7 +21503,9 @@
       <c r="K152" t="n">
         <v>50</v>
       </c>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>7</v>
+      </c>
       <c r="M152" t="n">
         <v>20</v>
       </c>
@@ -21557,7 +21583,9 @@
       <c r="K153" t="n">
         <v>50</v>
       </c>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>7</v>
+      </c>
       <c r="M153" t="n">
         <v>20</v>
       </c>
@@ -21629,11 +21657,19 @@
         <v>13</v>
       </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>7</v>
+      </c>
+      <c r="M154" t="n">
+        <v>20</v>
+      </c>
       <c r="N154" t="inlineStr"/>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
+      <c r="O154" t="n">
+        <v>3</v>
+      </c>
+      <c r="P154" t="n">
+        <v>0</v>
+      </c>
       <c r="Q154" t="n">
         <v>38</v>
       </c>
@@ -31234,7 +31270,9 @@
       <c r="K149" t="n">
         <v>0</v>
       </c>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
       <c r="M149" t="n">
         <v>9</v>
       </c>
@@ -31273,7 +31311,7 @@
         <v>9</v>
       </c>
       <c r="AB149" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="150">
@@ -31300,7 +31338,9 @@
       <c r="K150" t="n">
         <v>0</v>
       </c>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="n">
         <v>2</v>
@@ -31333,7 +31373,7 @@
         <v>10</v>
       </c>
       <c r="AB150" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="151">
@@ -31362,7 +31402,9 @@
       <c r="K151" t="n">
         <v>0</v>
       </c>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="n">
         <v>2</v>
@@ -31395,7 +31437,7 @@
         <v>10</v>
       </c>
       <c r="AB151" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="152">
@@ -31426,7 +31468,9 @@
       <c r="K152" t="n">
         <v>1</v>
       </c>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
       <c r="M152" t="n">
         <v>9</v>
       </c>
@@ -31465,7 +31509,7 @@
         <v>11</v>
       </c>
       <c r="AB152" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="153">
@@ -31494,7 +31538,9 @@
       <c r="K153" t="n">
         <v>1</v>
       </c>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="n">
         <v>2</v>
@@ -31527,7 +31573,7 @@
         <v>10</v>
       </c>
       <c r="AB153" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="154">
@@ -31554,11 +31600,19 @@
         <v>0</v>
       </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>10</v>
+      </c>
       <c r="N154" t="inlineStr"/>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P154" t="n">
+        <v>0</v>
+      </c>
       <c r="Q154" t="n">
         <v>12</v>
       </c>
@@ -40335,7 +40389,9 @@
       <c r="K149" t="n">
         <v>0</v>
       </c>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
       <c r="M149" t="n">
         <v>2</v>
       </c>
@@ -40397,7 +40453,9 @@
       <c r="K150" t="n">
         <v>0</v>
       </c>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="n">
         <v>0</v>
@@ -40457,7 +40515,9 @@
       <c r="K151" t="n">
         <v>0</v>
       </c>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="n">
         <v>0</v>
@@ -40517,7 +40577,9 @@
       <c r="K152" t="n">
         <v>0</v>
       </c>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
       <c r="M152" t="n">
         <v>2</v>
       </c>
@@ -40579,7 +40641,9 @@
       <c r="K153" t="n">
         <v>0</v>
       </c>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="n">
         <v>0</v>
@@ -40633,10 +40697,16 @@
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
       <c r="N154" t="inlineStr"/>
-      <c r="O154" t="inlineStr"/>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
       <c r="P154" t="inlineStr"/>
       <c r="Q154" t="n">
         <v>3</v>
@@ -40658,7 +40728,7 @@
       </c>
       <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10844,7 +10844,7 @@
         <v>5508</v>
       </c>
       <c r="Y149" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="Z149" t="n">
         <v>215</v>
@@ -10853,7 +10853,7 @@
         <v>3685</v>
       </c>
       <c r="AB149" t="n">
-        <v>31266</v>
+        <v>31265</v>
       </c>
     </row>
     <row r="150">
@@ -11060,7 +11060,7 @@
         <v>5514</v>
       </c>
       <c r="Y152" t="n">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="Z152" t="n">
         <v>216</v>
@@ -11069,7 +11069,7 @@
         <v>3701</v>
       </c>
       <c r="AB152" t="n">
-        <v>31329</v>
+        <v>31332</v>
       </c>
     </row>
     <row r="153">
@@ -11137,7 +11137,9 @@
       </c>
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr"/>
-      <c r="Y153" t="inlineStr"/>
+      <c r="Y153" t="n">
+        <v>2009</v>
+      </c>
       <c r="Z153" t="n">
         <v>216</v>
       </c>
@@ -11145,7 +11147,7 @@
         <v>3705</v>
       </c>
       <c r="AB153" t="n">
-        <v>31343</v>
+        <v>31350</v>
       </c>
     </row>
     <row r="154">
@@ -11209,7 +11211,9 @@
       </c>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr"/>
-      <c r="Y154" t="inlineStr"/>
+      <c r="Y154" t="n">
+        <v>2009</v>
+      </c>
       <c r="Z154" t="n">
         <v>218</v>
       </c>
@@ -11217,7 +11221,7 @@
         <v>3721</v>
       </c>
       <c r="AB154" t="n">
-        <v>31382</v>
+        <v>31389</v>
       </c>
     </row>
   </sheetData>
@@ -21616,7 +21620,9 @@
       </c>
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr"/>
-      <c r="Y153" t="inlineStr"/>
+      <c r="Y153" t="n">
+        <v>153</v>
+      </c>
       <c r="Z153" t="n">
         <v>9</v>
       </c>
@@ -21688,7 +21694,9 @@
       </c>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr"/>
-      <c r="Y154" t="inlineStr"/>
+      <c r="Y154" t="n">
+        <v>153</v>
+      </c>
       <c r="Z154" t="n">
         <v>9</v>
       </c>
@@ -31084,7 +31092,7 @@
         <v>28</v>
       </c>
       <c r="Y146" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z146" t="n">
         <v>0</v>
@@ -31093,7 +31101,7 @@
         <v>8</v>
       </c>
       <c r="AB146" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="147">
@@ -31156,7 +31164,7 @@
         <v>28</v>
       </c>
       <c r="Y147" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z147" t="n">
         <v>0</v>
@@ -31165,7 +31173,7 @@
         <v>8</v>
       </c>
       <c r="AB147" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="148">
@@ -31228,7 +31236,7 @@
         <v>29</v>
       </c>
       <c r="Y148" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z148" t="n">
         <v>0</v>
@@ -31237,7 +31245,7 @@
         <v>10</v>
       </c>
       <c r="AB148" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="149">
@@ -31302,7 +31310,7 @@
         <v>29</v>
       </c>
       <c r="Y149" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z149" t="n">
         <v>0</v>
@@ -31311,7 +31319,7 @@
         <v>9</v>
       </c>
       <c r="AB149" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="150">
@@ -31364,7 +31372,7 @@
         <v>30</v>
       </c>
       <c r="Y150" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z150" t="n">
         <v>0</v>
@@ -31373,7 +31381,7 @@
         <v>10</v>
       </c>
       <c r="AB150" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="151">
@@ -31428,7 +31436,7 @@
         <v>31</v>
       </c>
       <c r="Y151" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z151" t="n">
         <v>0</v>
@@ -31437,7 +31445,7 @@
         <v>10</v>
       </c>
       <c r="AB151" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="152">
@@ -31500,7 +31508,7 @@
         <v>30</v>
       </c>
       <c r="Y152" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z152" t="n">
         <v>0</v>
@@ -31509,7 +31517,7 @@
         <v>11</v>
       </c>
       <c r="AB152" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="153">
@@ -31565,7 +31573,9 @@
       </c>
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr"/>
-      <c r="Y153" t="inlineStr"/>
+      <c r="Y153" t="n">
+        <v>13</v>
+      </c>
       <c r="Z153" t="n">
         <v>0</v>
       </c>
@@ -31573,7 +31583,7 @@
         <v>10</v>
       </c>
       <c r="AB153" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="154">
@@ -31627,7 +31637,9 @@
       </c>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr"/>
-      <c r="Y154" t="inlineStr"/>
+      <c r="Y154" t="n">
+        <v>12</v>
+      </c>
       <c r="Z154" t="n">
         <v>0</v>
       </c>
@@ -31635,7 +31647,7 @@
         <v>8</v>
       </c>
       <c r="AB154" t="n">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -40666,7 +40678,9 @@
       </c>
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr"/>
-      <c r="Y153" t="inlineStr"/>
+      <c r="Y153" t="n">
+        <v>2</v>
+      </c>
       <c r="Z153" t="n">
         <v>0</v>
       </c>
@@ -40722,7 +40736,9 @@
       </c>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr"/>
-      <c r="Y154" t="inlineStr"/>
+      <c r="Y154" t="n">
+        <v>2</v>
+      </c>
       <c r="Z154" t="n">
         <v>0</v>
       </c>
@@ -48155,7 +48171,9 @@
       </c>
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr"/>
-      <c r="Y153" t="inlineStr"/>
+      <c r="Y153" t="n">
+        <v>1</v>
+      </c>
       <c r="Z153" t="inlineStr"/>
       <c r="AA153" t="n">
         <v>0</v>
@@ -48199,7 +48217,9 @@
       </c>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr"/>
-      <c r="Y154" t="inlineStr"/>
+      <c r="Y154" t="n">
+        <v>1</v>
+      </c>
       <c r="Z154" t="inlineStr"/>
       <c r="AA154" t="n">
         <v>0</v>
@@ -55549,14 +55569,14 @@
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z146" t="n">
         <v>189</v>
       </c>
       <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="n">
-        <v>5941</v>
+        <v>5942</v>
       </c>
     </row>
     <row r="147">
@@ -55601,14 +55621,14 @@
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z147" t="n">
         <v>189</v>
       </c>
       <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="n">
-        <v>5943</v>
+        <v>5944</v>
       </c>
     </row>
     <row r="148">
@@ -55655,14 +55675,14 @@
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z148" t="n">
         <v>190</v>
       </c>
       <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="n">
-        <v>5961</v>
+        <v>5962</v>
       </c>
     </row>
     <row r="149">
@@ -55707,14 +55727,14 @@
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Z149" t="n">
         <v>190</v>
       </c>
       <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="n">
-        <v>5964</v>
+        <v>5965</v>
       </c>
     </row>
     <row r="150">
@@ -55759,14 +55779,14 @@
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr"/>
       <c r="Y150" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Z150" t="n">
         <v>190</v>
       </c>
       <c r="AA150" t="inlineStr"/>
       <c r="AB150" t="n">
-        <v>5964</v>
+        <v>5965</v>
       </c>
     </row>
     <row r="151">
@@ -55811,14 +55831,14 @@
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr"/>
       <c r="Y151" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Z151" t="n">
         <v>190</v>
       </c>
       <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="n">
-        <v>5965</v>
+        <v>5966</v>
       </c>
     </row>
     <row r="152">
@@ -55863,14 +55883,14 @@
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr"/>
       <c r="Y152" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Z152" t="n">
         <v>190</v>
       </c>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="n">
-        <v>5966</v>
+        <v>5968</v>
       </c>
     </row>
     <row r="153">
@@ -55914,13 +55934,15 @@
       </c>
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr"/>
-      <c r="Y153" t="inlineStr"/>
+      <c r="Y153" t="n">
+        <v>292</v>
+      </c>
       <c r="Z153" t="n">
         <v>190</v>
       </c>
       <c r="AA153" t="inlineStr"/>
       <c r="AB153" t="n">
-        <v>5967</v>
+        <v>5969</v>
       </c>
     </row>
     <row r="154">
@@ -55966,13 +55988,15 @@
       </c>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr"/>
-      <c r="Y154" t="inlineStr"/>
+      <c r="Y154" t="n">
+        <v>293</v>
+      </c>
       <c r="Z154" t="n">
         <v>196</v>
       </c>
       <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="n">
-        <v>5976</v>
+        <v>5979</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB154"/>
+  <dimension ref="A1:AB155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11224,6 +11224,52 @@
         <v>31389</v>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>101</v>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="n">
+        <v>828</v>
+      </c>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="n">
+        <v>453</v>
+      </c>
+      <c r="T155" t="n">
+        <v>317</v>
+      </c>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="n">
+        <v>219</v>
+      </c>
+      <c r="AA155" t="inlineStr"/>
+      <c r="AB155" t="n">
+        <v>31396</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -11235,7 +11281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB154"/>
+  <dimension ref="A1:AB155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21707,6 +21753,52 @@
         <v>1958</v>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>3</v>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="n">
+        <v>38</v>
+      </c>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="n">
+        <v>17</v>
+      </c>
+      <c r="T155" t="n">
+        <v>23</v>
+      </c>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA155" t="inlineStr"/>
+      <c r="AB155" t="n">
+        <v>1958</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -21718,7 +21810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB154"/>
+  <dimension ref="A1:AB155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31650,6 +31742,46 @@
         <v>201</v>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA155" t="inlineStr"/>
+      <c r="AB155" t="n">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -31661,7 +31793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB154"/>
+  <dimension ref="A1:AB155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40747,6 +40879,46 @@
         <v>12</v>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA155" t="inlineStr"/>
+      <c r="AB155" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -40758,7 +40930,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB154"/>
+  <dimension ref="A1:AB155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48228,6 +48400,42 @@
         <v>2</v>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="inlineStr"/>
+      <c r="AA155" t="inlineStr"/>
+      <c r="AB155" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -48239,7 +48447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB154"/>
+  <dimension ref="A1:AB155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55999,6 +56207,46 @@
         <v>5979</v>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+      <c r="T155" t="n">
+        <v>285</v>
+      </c>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="n">
+        <v>196</v>
+      </c>
+      <c r="AA155" t="inlineStr"/>
+      <c r="AB155" t="n">
+        <v>5979</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -56010,7 +56258,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB154"/>
+  <dimension ref="A1:AB155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61952,6 +62200,42 @@
         <v>37875</v>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="inlineStr"/>
+      <c r="AA155" t="inlineStr"/>
+      <c r="AB155" t="n">
+        <v>37875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -11179,7 +11179,9 @@
       <c r="J154" t="n">
         <v>129</v>
       </c>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>831</v>
+      </c>
       <c r="L154" t="n">
         <v>208</v>
       </c>
@@ -11237,7 +11239,9 @@
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
+      <c r="G155" t="n">
+        <v>985</v>
+      </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -11258,7 +11262,9 @@
         <v>317</v>
       </c>
       <c r="U155" t="inlineStr"/>
-      <c r="V155" t="inlineStr"/>
+      <c r="V155" t="n">
+        <v>3327</v>
+      </c>
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr"/>
       <c r="Y155" t="inlineStr"/>
@@ -21708,7 +21714,9 @@
       <c r="J154" t="n">
         <v>13</v>
       </c>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>50</v>
+      </c>
       <c r="L154" t="n">
         <v>7</v>
       </c>
@@ -21766,7 +21774,9 @@
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
+      <c r="G155" t="n">
+        <v>50</v>
+      </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -21787,7 +21797,9 @@
         <v>23</v>
       </c>
       <c r="U155" t="inlineStr"/>
-      <c r="V155" t="inlineStr"/>
+      <c r="V155" t="n">
+        <v>350</v>
+      </c>
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr"/>
       <c r="Y155" t="inlineStr"/>
@@ -31701,7 +31713,9 @@
       <c r="J154" t="n">
         <v>0</v>
       </c>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
       <c r="L154" t="n">
         <v>0</v>
       </c>
@@ -31770,7 +31784,9 @@
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="inlineStr"/>
-      <c r="V155" t="inlineStr"/>
+      <c r="V155" t="n">
+        <v>5</v>
+      </c>
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr"/>
       <c r="Y155" t="inlineStr"/>
@@ -31779,7 +31795,7 @@
       </c>
       <c r="AA155" t="inlineStr"/>
       <c r="AB155" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -40842,7 +40858,9 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
       <c r="L154" t="n">
         <v>0</v>
       </c>
@@ -40907,7 +40925,9 @@
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="inlineStr"/>
-      <c r="V155" t="inlineStr"/>
+      <c r="V155" t="n">
+        <v>0</v>
+      </c>
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr"/>
       <c r="Y155" t="inlineStr"/>
@@ -48373,7 +48393,9 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr"/>
@@ -48426,7 +48448,9 @@
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="inlineStr"/>
-      <c r="V155" t="inlineStr"/>
+      <c r="V155" t="n">
+        <v>0</v>
+      </c>
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr"/>
       <c r="Y155" t="inlineStr"/>
@@ -56218,7 +56242,9 @@
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
+      <c r="G155" t="n">
+        <v>934</v>
+      </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -56235,7 +56261,9 @@
         <v>285</v>
       </c>
       <c r="U155" t="inlineStr"/>
-      <c r="V155" t="inlineStr"/>
+      <c r="V155" t="n">
+        <v>910</v>
+      </c>
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr"/>
       <c r="Y155" t="inlineStr"/>
@@ -56244,7 +56272,7 @@
       </c>
       <c r="AA155" t="inlineStr"/>
       <c r="AB155" t="n">
-        <v>5979</v>
+        <v>5980</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -11244,7 +11244,9 @@
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>129</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
@@ -21779,7 +21781,9 @@
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>13</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
@@ -31772,7 +31776,9 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -11232,7 +11232,9 @@
           <t>2020-06-25</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr"/>
+      <c r="B155" t="n">
+        <v>1248</v>
+      </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
         <v>101</v>
@@ -11263,7 +11265,9 @@
       <c r="T155" t="n">
         <v>317</v>
       </c>
-      <c r="U155" t="inlineStr"/>
+      <c r="U155" t="n">
+        <v>389</v>
+      </c>
       <c r="V155" t="n">
         <v>3327</v>
       </c>
@@ -11275,7 +11279,7 @@
       </c>
       <c r="AA155" t="inlineStr"/>
       <c r="AB155" t="n">
-        <v>31396</v>
+        <v>31405</v>
       </c>
     </row>
   </sheetData>
@@ -21769,7 +21773,9 @@
           <t>2020-06-25</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr"/>
+      <c r="B155" t="n">
+        <v>47</v>
+      </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
         <v>3</v>
@@ -21800,7 +21806,9 @@
       <c r="T155" t="n">
         <v>23</v>
       </c>
-      <c r="U155" t="inlineStr"/>
+      <c r="U155" t="n">
+        <v>18</v>
+      </c>
       <c r="V155" t="n">
         <v>350</v>
       </c>
@@ -31789,7 +31797,9 @@
       <c r="R155" t="inlineStr"/>
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr"/>
-      <c r="U155" t="inlineStr"/>
+      <c r="U155" t="n">
+        <v>2</v>
+      </c>
       <c r="V155" t="n">
         <v>5</v>
       </c>
@@ -31801,7 +31811,7 @@
       </c>
       <c r="AA155" t="inlineStr"/>
       <c r="AB155" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -40930,7 +40940,9 @@
       <c r="R155" t="inlineStr"/>
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr"/>
-      <c r="U155" t="inlineStr"/>
+      <c r="U155" t="n">
+        <v>0</v>
+      </c>
       <c r="V155" t="n">
         <v>0</v>
       </c>
@@ -56266,7 +56278,9 @@
       <c r="T155" t="n">
         <v>285</v>
       </c>
-      <c r="U155" t="inlineStr"/>
+      <c r="U155" t="n">
+        <v>69</v>
+      </c>
       <c r="V155" t="n">
         <v>910</v>
       </c>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -11239,7 +11239,9 @@
       <c r="D155" t="n">
         <v>101</v>
       </c>
-      <c r="E155" t="inlineStr"/>
+      <c r="E155" t="n">
+        <v>1951</v>
+      </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="n">
         <v>985</v>
@@ -11279,7 +11281,7 @@
       </c>
       <c r="AA155" t="inlineStr"/>
       <c r="AB155" t="n">
-        <v>31405</v>
+        <v>31408</v>
       </c>
     </row>
   </sheetData>
@@ -21780,7 +21782,9 @@
       <c r="D155" t="n">
         <v>3</v>
       </c>
-      <c r="E155" t="inlineStr"/>
+      <c r="E155" t="n">
+        <v>97</v>
+      </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="n">
         <v>50</v>
@@ -31581,7 +31585,9 @@
       <c r="F152" t="n">
         <v>0</v>
       </c>
-      <c r="G152" t="inlineStr"/>
+      <c r="G152" t="n">
+        <v>2</v>
+      </c>
       <c r="H152" t="n">
         <v>3</v>
       </c>
@@ -31651,7 +31657,9 @@
       <c r="F153" t="n">
         <v>0</v>
       </c>
-      <c r="G153" t="inlineStr"/>
+      <c r="G153" t="n">
+        <v>2</v>
+      </c>
       <c r="H153" t="n">
         <v>2</v>
       </c>
@@ -31717,7 +31725,9 @@
       <c r="F154" t="n">
         <v>0</v>
       </c>
-      <c r="G154" t="inlineStr"/>
+      <c r="G154" t="n">
+        <v>2</v>
+      </c>
       <c r="H154" t="n">
         <v>2</v>
       </c>
@@ -31779,9 +31789,13 @@
       <c r="D155" t="n">
         <v>0</v>
       </c>
-      <c r="E155" t="inlineStr"/>
+      <c r="E155" t="n">
+        <v>1</v>
+      </c>
       <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
+      <c r="G155" t="n">
+        <v>2</v>
+      </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
@@ -40744,7 +40758,9 @@
       <c r="F152" t="n">
         <v>0</v>
       </c>
-      <c r="G152" t="inlineStr"/>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
@@ -40808,7 +40824,9 @@
       <c r="F153" t="n">
         <v>0</v>
       </c>
-      <c r="G153" t="inlineStr"/>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
@@ -40868,7 +40886,9 @@
       <c r="F154" t="n">
         <v>0</v>
       </c>
-      <c r="G154" t="inlineStr"/>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
@@ -40924,9 +40944,13 @@
       <c r="D155" t="n">
         <v>0</v>
       </c>
-      <c r="E155" t="inlineStr"/>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
       <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -40954,7 +40978,7 @@
       </c>
       <c r="AA155" t="inlineStr"/>
       <c r="AB155" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -48449,7 +48473,9 @@
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr"/>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10986,10 +10986,10 @@
         <v>215</v>
       </c>
       <c r="AA151" t="n">
-        <v>3698</v>
+        <v>3697</v>
       </c>
       <c r="AB151" t="n">
-        <v>31302</v>
+        <v>31301</v>
       </c>
     </row>
     <row r="152">
@@ -11057,7 +11057,7 @@
       </c>
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="n">
-        <v>5514</v>
+        <v>5522</v>
       </c>
       <c r="Y152" t="n">
         <v>2005</v>
@@ -11066,10 +11066,10 @@
         <v>216</v>
       </c>
       <c r="AA152" t="n">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="AB152" t="n">
-        <v>31332</v>
+        <v>31339</v>
       </c>
     </row>
     <row r="153">
@@ -11136,7 +11136,9 @@
         <v>3327</v>
       </c>
       <c r="W153" t="inlineStr"/>
-      <c r="X153" t="inlineStr"/>
+      <c r="X153" t="n">
+        <v>5528</v>
+      </c>
       <c r="Y153" t="n">
         <v>2009</v>
       </c>
@@ -11144,10 +11146,10 @@
         <v>216</v>
       </c>
       <c r="AA153" t="n">
-        <v>3705</v>
+        <v>3704</v>
       </c>
       <c r="AB153" t="n">
-        <v>31350</v>
+        <v>31363</v>
       </c>
     </row>
     <row r="154">
@@ -11212,7 +11214,9 @@
         <v>3327</v>
       </c>
       <c r="W154" t="inlineStr"/>
-      <c r="X154" t="inlineStr"/>
+      <c r="X154" t="n">
+        <v>5534</v>
+      </c>
       <c r="Y154" t="n">
         <v>2009</v>
       </c>
@@ -11220,10 +11224,10 @@
         <v>218</v>
       </c>
       <c r="AA154" t="n">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="AB154" t="n">
-        <v>31389</v>
+        <v>31408</v>
       </c>
     </row>
     <row r="155">
@@ -11242,7 +11246,9 @@
       <c r="E155" t="n">
         <v>1951</v>
       </c>
-      <c r="F155" t="inlineStr"/>
+      <c r="F155" t="n">
+        <v>852</v>
+      </c>
       <c r="G155" t="n">
         <v>985</v>
       </c>
@@ -11253,7 +11259,9 @@
       </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>747</v>
+      </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
@@ -11279,9 +11287,11 @@
       <c r="Z155" t="n">
         <v>219</v>
       </c>
-      <c r="AA155" t="inlineStr"/>
+      <c r="AA155" t="n">
+        <v>3727</v>
+      </c>
       <c r="AB155" t="n">
-        <v>31408</v>
+        <v>31435</v>
       </c>
     </row>
   </sheetData>
@@ -13688,7 +13698,7 @@
       </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y54" t="n">
         <v>3</v>
@@ -13700,7 +13710,7 @@
         <v>1</v>
       </c>
       <c r="AB54" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
@@ -13756,7 +13766,7 @@
       </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y55" t="n">
         <v>3</v>
@@ -13768,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="AB55" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56">
@@ -13824,7 +13834,7 @@
       </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y56" t="n">
         <v>4</v>
@@ -13836,7 +13846,7 @@
         <v>2</v>
       </c>
       <c r="AB56" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57">
@@ -13894,7 +13904,7 @@
       </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y57" t="n">
         <v>6</v>
@@ -13906,7 +13916,7 @@
         <v>3</v>
       </c>
       <c r="AB57" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58">
@@ -13964,7 +13974,7 @@
       </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y58" t="n">
         <v>7</v>
@@ -13976,7 +13986,7 @@
         <v>4</v>
       </c>
       <c r="AB58" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59">
@@ -14036,7 +14046,7 @@
       </c>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y59" t="n">
         <v>10</v>
@@ -14048,7 +14058,7 @@
         <v>5</v>
       </c>
       <c r="AB59" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60">
@@ -14106,7 +14116,7 @@
       </c>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y60" t="n">
         <v>11</v>
@@ -14118,7 +14128,7 @@
         <v>6</v>
       </c>
       <c r="AB60" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61">
@@ -14184,7 +14194,7 @@
       </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y61" t="n">
         <v>13</v>
@@ -14196,7 +14206,7 @@
         <v>6</v>
       </c>
       <c r="AB61" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62">
@@ -14266,7 +14276,7 @@
       </c>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y62" t="n">
         <v>14</v>
@@ -14278,7 +14288,7 @@
         <v>8</v>
       </c>
       <c r="AB62" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63">
@@ -14348,7 +14358,7 @@
       </c>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y63" t="n">
         <v>15</v>
@@ -14360,7 +14370,7 @@
         <v>10</v>
       </c>
       <c r="AB63" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64">
@@ -14430,7 +14440,7 @@
       </c>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y64" t="n">
         <v>17</v>
@@ -14442,7 +14452,7 @@
         <v>13</v>
       </c>
       <c r="AB64" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65">
@@ -14512,7 +14522,7 @@
       </c>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y65" t="n">
         <v>21</v>
@@ -14524,7 +14534,7 @@
         <v>15</v>
       </c>
       <c r="AB65" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="66">
@@ -14592,7 +14602,7 @@
       </c>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y66" t="n">
         <v>25</v>
@@ -14604,7 +14614,7 @@
         <v>19</v>
       </c>
       <c r="AB66" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="67">
@@ -14670,7 +14680,7 @@
       </c>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y67" t="n">
         <v>31</v>
@@ -14682,7 +14692,7 @@
         <v>22</v>
       </c>
       <c r="AB67" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="68">
@@ -14750,7 +14760,7 @@
       </c>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y68" t="n">
         <v>35</v>
@@ -14762,7 +14772,7 @@
         <v>24</v>
       </c>
       <c r="AB68" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="69">
@@ -14832,7 +14842,7 @@
       </c>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y69" t="n">
         <v>37</v>
@@ -14844,7 +14854,7 @@
         <v>27</v>
       </c>
       <c r="AB69" t="n">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="70">
@@ -14914,7 +14924,7 @@
         <v>1</v>
       </c>
       <c r="X70" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y70" t="n">
         <v>40</v>
@@ -14926,7 +14936,7 @@
         <v>36</v>
       </c>
       <c r="AB70" t="n">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="71">
@@ -15082,7 +15092,7 @@
         <v>1</v>
       </c>
       <c r="X72" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y72" t="n">
         <v>51</v>
@@ -15094,7 +15104,7 @@
         <v>41</v>
       </c>
       <c r="AB72" t="n">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="73">
@@ -15164,7 +15174,7 @@
         <v>1</v>
       </c>
       <c r="X73" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y73" t="n">
         <v>53</v>
@@ -15176,7 +15186,7 @@
         <v>48</v>
       </c>
       <c r="AB73" t="n">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="74">
@@ -15244,7 +15254,7 @@
         <v>2</v>
       </c>
       <c r="X74" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y74" t="n">
         <v>57</v>
@@ -15256,7 +15266,7 @@
         <v>52</v>
       </c>
       <c r="AB74" t="n">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="75">
@@ -15330,7 +15340,7 @@
         <v>2</v>
       </c>
       <c r="X75" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y75" t="n">
         <v>60</v>
@@ -15342,7 +15352,7 @@
         <v>54</v>
       </c>
       <c r="AB75" t="n">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="76">
@@ -15416,7 +15426,7 @@
         <v>2</v>
       </c>
       <c r="X76" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y76" t="n">
         <v>68</v>
@@ -15428,7 +15438,7 @@
         <v>56</v>
       </c>
       <c r="AB76" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="77">
@@ -15502,7 +15512,7 @@
         <v>4</v>
       </c>
       <c r="X77" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y77" t="n">
         <v>71</v>
@@ -15514,7 +15524,7 @@
         <v>64</v>
       </c>
       <c r="AB77" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="78">
@@ -15588,7 +15598,7 @@
         <v>4</v>
       </c>
       <c r="X78" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Y78" t="n">
         <v>77</v>
@@ -15600,7 +15610,7 @@
         <v>66</v>
       </c>
       <c r="AB78" t="n">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="79">
@@ -15670,7 +15680,7 @@
         <v>4</v>
       </c>
       <c r="X79" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y79" t="n">
         <v>83</v>
@@ -15682,7 +15692,7 @@
         <v>71</v>
       </c>
       <c r="AB79" t="n">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="80">
@@ -15756,7 +15766,7 @@
         <v>4</v>
       </c>
       <c r="X80" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y80" t="n">
         <v>85</v>
@@ -15768,7 +15778,7 @@
         <v>77</v>
       </c>
       <c r="AB80" t="n">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="81">
@@ -15838,7 +15848,7 @@
         <v>4</v>
       </c>
       <c r="X81" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y81" t="n">
         <v>91</v>
@@ -15850,7 +15860,7 @@
         <v>79</v>
       </c>
       <c r="AB81" t="n">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="82">
@@ -15924,7 +15934,7 @@
         <v>4</v>
       </c>
       <c r="X82" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Y82" t="n">
         <v>93</v>
@@ -15936,7 +15946,7 @@
         <v>83</v>
       </c>
       <c r="AB82" t="n">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="83">
@@ -16012,7 +16022,7 @@
         <v>4</v>
       </c>
       <c r="X83" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Y83" t="n">
         <v>94</v>
@@ -16024,7 +16034,7 @@
         <v>87</v>
       </c>
       <c r="AB83" t="n">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="84">
@@ -16100,7 +16110,7 @@
         <v>4</v>
       </c>
       <c r="X84" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Y84" t="n">
         <v>94</v>
@@ -16112,7 +16122,7 @@
         <v>91</v>
       </c>
       <c r="AB84" t="n">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="85">
@@ -16188,7 +16198,7 @@
         <v>5</v>
       </c>
       <c r="X85" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Y85" t="n">
         <v>95</v>
@@ -16200,7 +16210,7 @@
         <v>95</v>
       </c>
       <c r="AB85" t="n">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="86">
@@ -16276,7 +16286,7 @@
         <v>5</v>
       </c>
       <c r="X86" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y86" t="n">
         <v>99</v>
@@ -16288,7 +16298,7 @@
         <v>100</v>
       </c>
       <c r="AB86" t="n">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="87">
@@ -16358,7 +16368,7 @@
         <v>5</v>
       </c>
       <c r="X87" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y87" t="n">
         <v>104</v>
@@ -16370,7 +16380,7 @@
         <v>105</v>
       </c>
       <c r="AB87" t="n">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="88">
@@ -16442,7 +16452,7 @@
         <v>5</v>
       </c>
       <c r="X88" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y88" t="n">
         <v>107</v>
@@ -16454,7 +16464,7 @@
         <v>105</v>
       </c>
       <c r="AB88" t="n">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="89">
@@ -16530,7 +16540,7 @@
         <v>5</v>
       </c>
       <c r="X89" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Y89" t="n">
         <v>110</v>
@@ -16542,7 +16552,7 @@
         <v>107</v>
       </c>
       <c r="AB89" t="n">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="90">
@@ -16618,7 +16628,7 @@
         <v>5</v>
       </c>
       <c r="X90" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Y90" t="n">
         <v>115</v>
@@ -16630,7 +16640,7 @@
         <v>109</v>
       </c>
       <c r="AB90" t="n">
-        <v>1581</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="91">
@@ -16706,7 +16716,7 @@
         <v>5</v>
       </c>
       <c r="X91" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Y91" t="n">
         <v>118</v>
@@ -16718,7 +16728,7 @@
         <v>110</v>
       </c>
       <c r="AB91" t="n">
-        <v>1611</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="92">
@@ -16794,7 +16804,7 @@
         <v>5</v>
       </c>
       <c r="X92" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Y92" t="n">
         <v>123</v>
@@ -16806,7 +16816,7 @@
         <v>113</v>
       </c>
       <c r="AB92" t="n">
-        <v>1642</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="93">
@@ -16882,7 +16892,7 @@
         <v>5</v>
       </c>
       <c r="X93" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Y93" t="n">
         <v>127</v>
@@ -16894,7 +16904,7 @@
         <v>114</v>
       </c>
       <c r="AB93" t="n">
-        <v>1672</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="94">
@@ -16964,7 +16974,7 @@
         <v>5</v>
       </c>
       <c r="X94" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Y94" t="n">
         <v>129</v>
@@ -16976,7 +16986,7 @@
         <v>115</v>
       </c>
       <c r="AB94" t="n">
-        <v>1697</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="95">
@@ -17044,7 +17054,7 @@
         <v>5</v>
       </c>
       <c r="X95" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Y95" t="n">
         <v>131</v>
@@ -17056,7 +17066,7 @@
         <v>115</v>
       </c>
       <c r="AB95" t="n">
-        <v>1715</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="96">
@@ -17132,7 +17142,7 @@
         <v>5</v>
       </c>
       <c r="X96" t="n">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Y96" t="n">
         <v>132</v>
@@ -17144,7 +17154,7 @@
         <v>119</v>
       </c>
       <c r="AB96" t="n">
-        <v>1737</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="97">
@@ -17220,7 +17230,7 @@
         <v>5</v>
       </c>
       <c r="X97" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Y97" t="n">
         <v>135</v>
@@ -17232,7 +17242,7 @@
         <v>119</v>
       </c>
       <c r="AB97" t="n">
-        <v>1765</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="98">
@@ -17308,7 +17318,7 @@
         <v>5</v>
       </c>
       <c r="X98" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Y98" t="n">
         <v>136</v>
@@ -17320,7 +17330,7 @@
         <v>121</v>
       </c>
       <c r="AB98" t="n">
-        <v>1773</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="99">
@@ -17396,7 +17406,7 @@
         <v>5</v>
       </c>
       <c r="X99" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Y99" t="n">
         <v>138</v>
@@ -17408,7 +17418,7 @@
         <v>123</v>
       </c>
       <c r="AB99" t="n">
-        <v>1791</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="100">
@@ -17484,7 +17494,7 @@
         <v>6</v>
       </c>
       <c r="X100" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Y100" t="n">
         <v>138</v>
@@ -17496,7 +17506,7 @@
         <v>123</v>
       </c>
       <c r="AB100" t="n">
-        <v>1807</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="101">
@@ -17564,7 +17574,7 @@
         <v>6</v>
       </c>
       <c r="X101" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Y101" t="n">
         <v>140</v>
@@ -17576,7 +17586,7 @@
         <v>123</v>
       </c>
       <c r="AB101" t="n">
-        <v>1822</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="102">
@@ -17644,7 +17654,7 @@
         <v>6</v>
       </c>
       <c r="X102" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Y102" t="n">
         <v>142</v>
@@ -17656,7 +17666,7 @@
         <v>123</v>
       </c>
       <c r="AB102" t="n">
-        <v>1830</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="103">
@@ -17732,7 +17742,7 @@
         <v>6</v>
       </c>
       <c r="X103" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Y103" t="n">
         <v>142</v>
@@ -17744,7 +17754,7 @@
         <v>123</v>
       </c>
       <c r="AB103" t="n">
-        <v>1837</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="104">
@@ -17820,7 +17830,7 @@
         <v>7</v>
       </c>
       <c r="X104" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Y104" t="n">
         <v>146</v>
@@ -17832,7 +17842,7 @@
         <v>124</v>
       </c>
       <c r="AB104" t="n">
-        <v>1850</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="105">
@@ -17908,7 +17918,7 @@
         <v>7</v>
       </c>
       <c r="X105" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Y105" t="n">
         <v>146</v>
@@ -17920,7 +17930,7 @@
         <v>125</v>
       </c>
       <c r="AB105" t="n">
-        <v>1856</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="106">
@@ -17994,7 +18004,7 @@
         <v>7</v>
       </c>
       <c r="X106" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Y106" t="n">
         <v>146</v>
@@ -18006,7 +18016,7 @@
         <v>125</v>
       </c>
       <c r="AB106" t="n">
-        <v>1867</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="107">
@@ -18080,7 +18090,7 @@
         <v>7</v>
       </c>
       <c r="X107" t="n">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Y107" t="n">
         <v>148</v>
@@ -18092,7 +18102,7 @@
         <v>125</v>
       </c>
       <c r="AB107" t="n">
-        <v>1876</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="108">
@@ -18158,7 +18168,7 @@
         <v>7</v>
       </c>
       <c r="X108" t="n">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Y108" t="n">
         <v>148</v>
@@ -18170,7 +18180,7 @@
         <v>126</v>
       </c>
       <c r="AB108" t="n">
-        <v>1886</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="109">
@@ -18232,7 +18242,7 @@
         <v>7</v>
       </c>
       <c r="X109" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Y109" t="n">
         <v>148</v>
@@ -18244,7 +18254,7 @@
         <v>126</v>
       </c>
       <c r="AB109" t="n">
-        <v>1895</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="110">
@@ -18320,7 +18330,7 @@
         <v>7</v>
       </c>
       <c r="X110" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Y110" t="n">
         <v>150</v>
@@ -18332,7 +18342,7 @@
         <v>126</v>
       </c>
       <c r="AB110" t="n">
-        <v>1899</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="111">
@@ -18408,7 +18418,7 @@
         <v>7</v>
       </c>
       <c r="X111" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Y111" t="n">
         <v>150</v>
@@ -18420,7 +18430,7 @@
         <v>126</v>
       </c>
       <c r="AB111" t="n">
-        <v>1905</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="112">
@@ -18492,7 +18502,7 @@
         <v>7</v>
       </c>
       <c r="X112" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Y112" t="n">
         <v>150</v>
@@ -18504,7 +18514,7 @@
         <v>126</v>
       </c>
       <c r="AB112" t="n">
-        <v>1909</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="113">
@@ -18578,7 +18588,7 @@
         <v>7</v>
       </c>
       <c r="X113" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y113" t="n">
         <v>150</v>
@@ -18590,7 +18600,7 @@
         <v>126</v>
       </c>
       <c r="AB113" t="n">
-        <v>1913</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="114">
@@ -18662,7 +18672,7 @@
       </c>
       <c r="W114" t="inlineStr"/>
       <c r="X114" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y114" t="n">
         <v>150</v>
@@ -18674,7 +18684,7 @@
         <v>127</v>
       </c>
       <c r="AB114" t="n">
-        <v>1918</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="115">
@@ -18736,7 +18746,7 @@
         <v>7</v>
       </c>
       <c r="X115" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y115" t="n">
         <v>150</v>
@@ -18748,7 +18758,7 @@
         <v>127</v>
       </c>
       <c r="AB115" t="n">
-        <v>1918</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="116">
@@ -18808,7 +18818,7 @@
         <v>7</v>
       </c>
       <c r="X116" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y116" t="n">
         <v>150</v>
@@ -18820,7 +18830,7 @@
         <v>127</v>
       </c>
       <c r="AB116" t="n">
-        <v>1923</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="117">
@@ -18894,7 +18904,7 @@
         <v>7</v>
       </c>
       <c r="X117" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y117" t="n">
         <v>152</v>
@@ -18906,7 +18916,7 @@
         <v>127</v>
       </c>
       <c r="AB117" t="n">
-        <v>1929</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="118">
@@ -18978,7 +18988,7 @@
         <v>7</v>
       </c>
       <c r="X118" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y118" t="n">
         <v>152</v>
@@ -18990,7 +19000,7 @@
         <v>128</v>
       </c>
       <c r="AB118" t="n">
-        <v>1931</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="119">
@@ -19066,7 +19076,7 @@
         <v>7</v>
       </c>
       <c r="X119" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y119" t="n">
         <v>152</v>
@@ -19078,7 +19088,7 @@
         <v>128</v>
       </c>
       <c r="AB119" t="n">
-        <v>1932</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="120">
@@ -19140,7 +19150,7 @@
         <v>7</v>
       </c>
       <c r="X120" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y120" t="n">
         <v>152</v>
@@ -19152,7 +19162,7 @@
         <v>129</v>
       </c>
       <c r="AB120" t="n">
-        <v>1936</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="121">
@@ -19218,7 +19228,7 @@
         <v>7</v>
       </c>
       <c r="X121" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y121" t="n">
         <v>152</v>
@@ -19230,7 +19240,7 @@
         <v>130</v>
       </c>
       <c r="AB121" t="n">
-        <v>1938</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="122">
@@ -19290,7 +19300,7 @@
         <v>7</v>
       </c>
       <c r="X122" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y122" t="n">
         <v>152</v>
@@ -19302,7 +19312,7 @@
         <v>130</v>
       </c>
       <c r="AB122" t="n">
-        <v>1939</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="123">
@@ -19364,7 +19374,7 @@
         <v>7</v>
       </c>
       <c r="X123" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y123" t="n">
         <v>152</v>
@@ -19376,7 +19386,7 @@
         <v>130</v>
       </c>
       <c r="AB123" t="n">
-        <v>1940</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="124">
@@ -19452,7 +19462,7 @@
         <v>7</v>
       </c>
       <c r="X124" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y124" t="n">
         <v>152</v>
@@ -19464,7 +19474,7 @@
         <v>130</v>
       </c>
       <c r="AB124" t="n">
-        <v>1944</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="125">
@@ -19534,7 +19544,7 @@
         <v>7</v>
       </c>
       <c r="X125" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y125" t="n">
         <v>152</v>
@@ -19546,7 +19556,7 @@
         <v>130</v>
       </c>
       <c r="AB125" t="n">
-        <v>1944</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="126">
@@ -19620,7 +19630,7 @@
         <v>7</v>
       </c>
       <c r="X126" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y126" t="n">
         <v>152</v>
@@ -19632,7 +19642,7 @@
         <v>130</v>
       </c>
       <c r="AB126" t="n">
-        <v>1946</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="127">
@@ -19706,7 +19716,7 @@
         <v>7</v>
       </c>
       <c r="X127" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y127" t="n">
         <v>152</v>
@@ -19718,7 +19728,7 @@
         <v>130</v>
       </c>
       <c r="AB127" t="n">
-        <v>1947</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="128">
@@ -19792,7 +19802,7 @@
         <v>7</v>
       </c>
       <c r="X128" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y128" t="n">
         <v>152</v>
@@ -19804,7 +19814,7 @@
         <v>130</v>
       </c>
       <c r="AB128" t="n">
-        <v>1947</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="129">
@@ -19864,7 +19874,7 @@
         <v>7</v>
       </c>
       <c r="X129" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y129" t="n">
         <v>152</v>
@@ -19876,7 +19886,7 @@
         <v>130</v>
       </c>
       <c r="AB129" t="n">
-        <v>1948</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="130">
@@ -19936,7 +19946,7 @@
         <v>7</v>
       </c>
       <c r="X130" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y130" t="n">
         <v>152</v>
@@ -19948,7 +19958,7 @@
         <v>130</v>
       </c>
       <c r="AB130" t="n">
-        <v>1948</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="131">
@@ -20008,7 +20018,7 @@
         <v>7</v>
       </c>
       <c r="X131" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y131" t="n">
         <v>152</v>
@@ -20020,7 +20030,7 @@
         <v>130</v>
       </c>
       <c r="AB131" t="n">
-        <v>1948</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="132">
@@ -20092,7 +20102,7 @@
         <v>7</v>
       </c>
       <c r="X132" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y132" t="n">
         <v>152</v>
@@ -20104,7 +20114,7 @@
         <v>130</v>
       </c>
       <c r="AB132" t="n">
-        <v>1948</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="133">
@@ -20176,7 +20186,7 @@
       </c>
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y133" t="n">
         <v>152</v>
@@ -20188,7 +20198,7 @@
         <v>130</v>
       </c>
       <c r="AB133" t="n">
-        <v>1948</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="134">
@@ -20258,7 +20268,7 @@
       </c>
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y134" t="n">
         <v>152</v>
@@ -20270,7 +20280,7 @@
         <v>130</v>
       </c>
       <c r="AB134" t="n">
-        <v>1948</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="135">
@@ -20340,7 +20350,7 @@
       </c>
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y135" t="n">
         <v>152</v>
@@ -20352,7 +20362,7 @@
         <v>130</v>
       </c>
       <c r="AB135" t="n">
-        <v>1948</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="136">
@@ -20408,7 +20418,7 @@
       </c>
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y136" t="n">
         <v>152</v>
@@ -20420,7 +20430,7 @@
         <v>130</v>
       </c>
       <c r="AB136" t="n">
-        <v>1948</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="137">
@@ -20478,7 +20488,7 @@
       </c>
       <c r="W137" t="inlineStr"/>
       <c r="X137" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y137" t="n">
         <v>152</v>
@@ -20490,7 +20500,7 @@
         <v>130</v>
       </c>
       <c r="AB137" t="n">
-        <v>1949</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="138">
@@ -20560,7 +20570,7 @@
       </c>
       <c r="W138" t="inlineStr"/>
       <c r="X138" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y138" t="n">
         <v>152</v>
@@ -20572,7 +20582,7 @@
         <v>130</v>
       </c>
       <c r="AB138" t="n">
-        <v>1951</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="139">
@@ -20640,7 +20650,7 @@
       </c>
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y139" t="n">
         <v>152</v>
@@ -20652,7 +20662,7 @@
         <v>130</v>
       </c>
       <c r="AB139" t="n">
-        <v>1951</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="140">
@@ -20720,7 +20730,7 @@
       </c>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y140" t="n">
         <v>152</v>
@@ -20732,7 +20742,7 @@
         <v>130</v>
       </c>
       <c r="AB140" t="n">
-        <v>1952</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="141">
@@ -20794,7 +20804,7 @@
       </c>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y141" t="n">
         <v>152</v>
@@ -20806,7 +20816,7 @@
         <v>130</v>
       </c>
       <c r="AB141" t="n">
-        <v>1952</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="142">
@@ -20868,7 +20878,7 @@
       </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y142" t="n">
         <v>153</v>
@@ -20880,7 +20890,7 @@
         <v>130</v>
       </c>
       <c r="AB142" t="n">
-        <v>1954</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="143">
@@ -20934,7 +20944,7 @@
       </c>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y143" t="n">
         <v>153</v>
@@ -20946,7 +20956,7 @@
         <v>130</v>
       </c>
       <c r="AB143" t="n">
-        <v>1954</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="144">
@@ -21004,7 +21014,7 @@
       </c>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y144" t="n">
         <v>153</v>
@@ -21016,7 +21026,7 @@
         <v>130</v>
       </c>
       <c r="AB144" t="n">
-        <v>1954</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="145">
@@ -21080,7 +21090,7 @@
       </c>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y145" t="n">
         <v>153</v>
@@ -21092,7 +21102,7 @@
         <v>130</v>
       </c>
       <c r="AB145" t="n">
-        <v>1954</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="146">
@@ -21156,7 +21166,7 @@
       </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Y146" t="n">
         <v>153</v>
@@ -21168,7 +21178,7 @@
         <v>130</v>
       </c>
       <c r="AB146" t="n">
-        <v>1954</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="147">
@@ -21234,7 +21244,7 @@
       </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Y147" t="n">
         <v>153</v>
@@ -21246,7 +21256,7 @@
         <v>130</v>
       </c>
       <c r="AB147" t="n">
-        <v>1956</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="148">
@@ -21310,7 +21320,7 @@
       </c>
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Y148" t="n">
         <v>153</v>
@@ -21322,7 +21332,7 @@
         <v>130</v>
       </c>
       <c r="AB148" t="n">
-        <v>1956</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="149">
@@ -21390,7 +21400,7 @@
       </c>
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Y149" t="n">
         <v>153</v>
@@ -21402,7 +21412,7 @@
         <v>130</v>
       </c>
       <c r="AB149" t="n">
-        <v>1956</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="150">
@@ -21456,7 +21466,7 @@
       </c>
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Y150" t="n">
         <v>153</v>
@@ -21468,7 +21478,7 @@
         <v>130</v>
       </c>
       <c r="AB150" t="n">
-        <v>1956</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="151">
@@ -21522,7 +21532,7 @@
       </c>
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Y151" t="n">
         <v>153</v>
@@ -21534,7 +21544,7 @@
         <v>130</v>
       </c>
       <c r="AB151" t="n">
-        <v>1956</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="152">
@@ -21600,7 +21610,7 @@
       </c>
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="n">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Y152" t="n">
         <v>153</v>
@@ -21612,7 +21622,7 @@
         <v>130</v>
       </c>
       <c r="AB152" t="n">
-        <v>1956</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="153">
@@ -21679,7 +21689,9 @@
         <v>350</v>
       </c>
       <c r="W153" t="inlineStr"/>
-      <c r="X153" t="inlineStr"/>
+      <c r="X153" t="n">
+        <v>424</v>
+      </c>
       <c r="Y153" t="n">
         <v>153</v>
       </c>
@@ -21690,7 +21702,7 @@
         <v>130</v>
       </c>
       <c r="AB153" t="n">
-        <v>1957</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="154">
@@ -21755,7 +21767,9 @@
         <v>350</v>
       </c>
       <c r="W154" t="inlineStr"/>
-      <c r="X154" t="inlineStr"/>
+      <c r="X154" t="n">
+        <v>424</v>
+      </c>
       <c r="Y154" t="n">
         <v>153</v>
       </c>
@@ -21766,7 +21780,7 @@
         <v>130</v>
       </c>
       <c r="AB154" t="n">
-        <v>1958</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="155">
@@ -21785,7 +21799,9 @@
       <c r="E155" t="n">
         <v>97</v>
       </c>
-      <c r="F155" t="inlineStr"/>
+      <c r="F155" t="n">
+        <v>35</v>
+      </c>
       <c r="G155" t="n">
         <v>50</v>
       </c>
@@ -21796,7 +21812,9 @@
       </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>20</v>
+      </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
@@ -21822,9 +21840,11 @@
       <c r="Z155" t="n">
         <v>9</v>
       </c>
-      <c r="AA155" t="inlineStr"/>
+      <c r="AA155" t="n">
+        <v>130</v>
+      </c>
       <c r="AB155" t="n">
-        <v>1958</v>
+        <v>1962</v>
       </c>
     </row>
   </sheetData>
@@ -31696,7 +31716,9 @@
         <v>6</v>
       </c>
       <c r="W153" t="inlineStr"/>
-      <c r="X153" t="inlineStr"/>
+      <c r="X153" t="n">
+        <v>29</v>
+      </c>
       <c r="Y153" t="n">
         <v>13</v>
       </c>
@@ -31707,7 +31729,7 @@
         <v>10</v>
       </c>
       <c r="AB153" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="154">
@@ -31764,7 +31786,9 @@
         <v>6</v>
       </c>
       <c r="W154" t="inlineStr"/>
-      <c r="X154" t="inlineStr"/>
+      <c r="X154" t="n">
+        <v>29</v>
+      </c>
       <c r="Y154" t="n">
         <v>12</v>
       </c>
@@ -31775,7 +31799,7 @@
         <v>8</v>
       </c>
       <c r="AB154" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155">
@@ -31792,7 +31816,9 @@
       <c r="E155" t="n">
         <v>1</v>
       </c>
-      <c r="F155" t="inlineStr"/>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
       <c r="G155" t="n">
         <v>2</v>
       </c>
@@ -31803,7 +31829,9 @@
       </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>10</v>
+      </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
@@ -31823,9 +31851,11 @@
       <c r="Z155" t="n">
         <v>0</v>
       </c>
-      <c r="AA155" t="inlineStr"/>
+      <c r="AA155" t="n">
+        <v>7</v>
+      </c>
       <c r="AB155" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -40859,7 +40889,9 @@
         <v>0</v>
       </c>
       <c r="W153" t="inlineStr"/>
-      <c r="X153" t="inlineStr"/>
+      <c r="X153" t="n">
+        <v>3</v>
+      </c>
       <c r="Y153" t="n">
         <v>2</v>
       </c>
@@ -40921,7 +40953,9 @@
         <v>0</v>
       </c>
       <c r="W154" t="inlineStr"/>
-      <c r="X154" t="inlineStr"/>
+      <c r="X154" t="n">
+        <v>3</v>
+      </c>
       <c r="Y154" t="n">
         <v>2</v>
       </c>
@@ -40947,7 +40981,9 @@
       <c r="E155" t="n">
         <v>0</v>
       </c>
-      <c r="F155" t="inlineStr"/>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
       <c r="G155" t="n">
         <v>0</v>
       </c>
@@ -40956,7 +40992,9 @@
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
@@ -48476,7 +48514,9 @@
       <c r="E155" t="n">
         <v>0</v>
       </c>
-      <c r="F155" t="inlineStr"/>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
@@ -48499,9 +48539,11 @@
       <c r="X155" t="inlineStr"/>
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr"/>
-      <c r="AA155" t="inlineStr"/>
+      <c r="AA155" t="n">
+        <v>1</v>
+      </c>
       <c r="AB155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -56285,7 +56327,9 @@
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
+      <c r="F155" t="n">
+        <v>811</v>
+      </c>
       <c r="G155" t="n">
         <v>934</v>
       </c>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -11258,13 +11258,19 @@
         <v>129</v>
       </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>210</v>
+      </c>
       <c r="M155" t="n">
         <v>747</v>
       </c>
       <c r="N155" t="inlineStr"/>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
+      <c r="O155" t="n">
+        <v>124</v>
+      </c>
+      <c r="P155" t="n">
+        <v>82</v>
+      </c>
       <c r="Q155" t="n">
         <v>828</v>
       </c>
@@ -11291,7 +11297,7 @@
         <v>3727</v>
       </c>
       <c r="AB155" t="n">
-        <v>31435</v>
+        <v>31437</v>
       </c>
     </row>
   </sheetData>
@@ -21811,13 +21817,19 @@
         <v>13</v>
       </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>7</v>
+      </c>
       <c r="M155" t="n">
         <v>20</v>
       </c>
       <c r="N155" t="inlineStr"/>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
+      <c r="O155" t="n">
+        <v>3</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0</v>
+      </c>
       <c r="Q155" t="n">
         <v>38</v>
       </c>
@@ -31828,13 +31840,19 @@
         <v>0</v>
       </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
       <c r="M155" t="n">
         <v>10</v>
       </c>
       <c r="N155" t="inlineStr"/>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0</v>
+      </c>
       <c r="Q155" t="inlineStr"/>
       <c r="R155" t="inlineStr"/>
       <c r="S155" t="inlineStr"/>
@@ -40985,18 +41003,22 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
       <c r="N155" t="inlineStr"/>
-      <c r="O155" t="inlineStr"/>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
       <c r="P155" t="inlineStr"/>
       <c r="Q155" t="inlineStr"/>
       <c r="R155" t="inlineStr"/>
@@ -41016,7 +41038,7 @@
       </c>
       <c r="AA155" t="inlineStr"/>
       <c r="AB155" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -11030,7 +11030,9 @@
       <c r="M152" t="n">
         <v>745</v>
       </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>743</v>
+      </c>
       <c r="O152" t="n">
         <v>124</v>
       </c>
@@ -11110,7 +11112,9 @@
       <c r="M153" t="n">
         <v>746</v>
       </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="N153" t="n">
+        <v>744</v>
+      </c>
       <c r="O153" t="n">
         <v>124</v>
       </c>
@@ -11149,7 +11153,7 @@
         <v>3704</v>
       </c>
       <c r="AB153" t="n">
-        <v>31363</v>
+        <v>31364</v>
       </c>
     </row>
     <row r="154">
@@ -11227,7 +11231,7 @@
         <v>3720</v>
       </c>
       <c r="AB154" t="n">
-        <v>31408</v>
+        <v>31409</v>
       </c>
     </row>
     <row r="155">
@@ -11297,7 +11301,7 @@
         <v>3727</v>
       </c>
       <c r="AB155" t="n">
-        <v>31437</v>
+        <v>31438</v>
       </c>
     </row>
   </sheetData>
@@ -31778,7 +31782,9 @@
       <c r="M154" t="n">
         <v>10</v>
       </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
       <c r="O154" t="n">
         <v>0</v>
       </c>
@@ -31811,7 +31817,7 @@
         <v>8</v>
       </c>
       <c r="AB154" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="155">
@@ -31846,7 +31852,9 @@
       <c r="M155" t="n">
         <v>10</v>
       </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
       <c r="O155" t="n">
         <v>0</v>
       </c>
@@ -31873,7 +31881,7 @@
         <v>7</v>
       </c>
       <c r="AB155" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -40953,7 +40961,9 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
       <c r="O154" t="n">
         <v>0</v>
       </c>
@@ -41015,7 +41025,9 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
       <c r="O155" t="n">
         <v>0</v>
       </c>
@@ -48500,7 +48512,9 @@
       </c>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
-      <c r="N154" t="inlineStr"/>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
       <c r="Q154" t="inlineStr"/>
@@ -48546,7 +48560,9 @@
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
-      <c r="N155" t="inlineStr"/>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
       <c r="Q155" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -11062,7 +11062,7 @@
         <v>5522</v>
       </c>
       <c r="Y152" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="Z152" t="n">
         <v>216</v>
@@ -11071,7 +11071,7 @@
         <v>3700</v>
       </c>
       <c r="AB152" t="n">
-        <v>31339</v>
+        <v>31340</v>
       </c>
     </row>
     <row r="153">
@@ -11144,7 +11144,7 @@
         <v>5528</v>
       </c>
       <c r="Y153" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="Z153" t="n">
         <v>216</v>
@@ -11153,7 +11153,7 @@
         <v>3704</v>
       </c>
       <c r="AB153" t="n">
-        <v>31364</v>
+        <v>31366</v>
       </c>
     </row>
     <row r="154">
@@ -11222,7 +11222,7 @@
         <v>5534</v>
       </c>
       <c r="Y154" t="n">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="Z154" t="n">
         <v>218</v>
@@ -11231,7 +11231,7 @@
         <v>3720</v>
       </c>
       <c r="AB154" t="n">
-        <v>31409</v>
+        <v>31419</v>
       </c>
     </row>
     <row r="155">
@@ -11293,7 +11293,9 @@
       </c>
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr"/>
-      <c r="Y155" t="inlineStr"/>
+      <c r="Y155" t="n">
+        <v>2020</v>
+      </c>
       <c r="Z155" t="n">
         <v>219</v>
       </c>
@@ -11301,7 +11303,7 @@
         <v>3727</v>
       </c>
       <c r="AB155" t="n">
-        <v>31438</v>
+        <v>31449</v>
       </c>
     </row>
   </sheetData>
@@ -21852,7 +21854,9 @@
       </c>
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr"/>
-      <c r="Y155" t="inlineStr"/>
+      <c r="Y155" t="n">
+        <v>153</v>
+      </c>
       <c r="Z155" t="n">
         <v>9</v>
       </c>
@@ -31808,7 +31812,7 @@
         <v>29</v>
       </c>
       <c r="Y154" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z154" t="n">
         <v>0</v>
@@ -31817,7 +31821,7 @@
         <v>8</v>
       </c>
       <c r="AB154" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155">
@@ -31873,7 +31877,9 @@
       </c>
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr"/>
-      <c r="Y155" t="inlineStr"/>
+      <c r="Y155" t="n">
+        <v>13</v>
+      </c>
       <c r="Z155" t="n">
         <v>0</v>
       </c>
@@ -31881,7 +31887,7 @@
         <v>7</v>
       </c>
       <c r="AB155" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -41044,7 +41050,9 @@
       </c>
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr"/>
-      <c r="Y155" t="inlineStr"/>
+      <c r="Y155" t="n">
+        <v>2</v>
+      </c>
       <c r="Z155" t="n">
         <v>0</v>
       </c>
@@ -48575,7 +48583,9 @@
       </c>
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr"/>
-      <c r="Y155" t="inlineStr"/>
+      <c r="Y155" t="n">
+        <v>1</v>
+      </c>
       <c r="Z155" t="inlineStr"/>
       <c r="AA155" t="n">
         <v>1</v>
@@ -56394,7 +56404,9 @@
       </c>
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr"/>
-      <c r="Y155" t="inlineStr"/>
+      <c r="Y155" t="n">
+        <v>293</v>
+      </c>
       <c r="Z155" t="n">
         <v>196</v>
       </c>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB155"/>
+  <dimension ref="A1:AB156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11261,7 +11261,9 @@
       <c r="J155" t="n">
         <v>129</v>
       </c>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>831</v>
+      </c>
       <c r="L155" t="n">
         <v>210</v>
       </c>
@@ -11304,6 +11306,52 @@
       </c>
       <c r="AB155" t="n">
         <v>31449</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="n">
+        <v>25</v>
+      </c>
+      <c r="D156" t="n">
+        <v>101</v>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="n">
+        <v>831</v>
+      </c>
+      <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="n">
+        <v>320</v>
+      </c>
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="n">
+        <v>3327</v>
+      </c>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr"/>
+      <c r="AA156" t="inlineStr"/>
+      <c r="AB156" t="n">
+        <v>31455</v>
       </c>
     </row>
   </sheetData>
@@ -11317,7 +11365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB155"/>
+  <dimension ref="A1:AB156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21822,7 +21870,9 @@
       <c r="J155" t="n">
         <v>13</v>
       </c>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>50</v>
+      </c>
       <c r="L155" t="n">
         <v>7</v>
       </c>
@@ -21864,6 +21914,52 @@
         <v>130</v>
       </c>
       <c r="AB155" t="n">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>3</v>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="n">
+        <v>38</v>
+      </c>
+      <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="n">
+        <v>23</v>
+      </c>
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="n">
+        <v>350</v>
+      </c>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr"/>
+      <c r="AA156" t="inlineStr"/>
+      <c r="AB156" t="n">
         <v>1962</v>
       </c>
     </row>
@@ -21878,7 +21974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB155"/>
+  <dimension ref="A1:AB156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31849,7 +31945,9 @@
       <c r="J155" t="n">
         <v>0</v>
       </c>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
       <c r="L155" t="n">
         <v>0</v>
       </c>
@@ -31887,6 +31985,46 @@
         <v>7</v>
       </c>
       <c r="AB155" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="n">
+        <v>5</v>
+      </c>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr"/>
+      <c r="AA156" t="inlineStr"/>
+      <c r="AB156" t="n">
         <v>200</v>
       </c>
     </row>
@@ -31901,7 +32039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB155"/>
+  <dimension ref="A1:AB156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41024,7 +41162,9 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
       <c r="L155" t="n">
         <v>0</v>
       </c>
@@ -41058,6 +41198,46 @@
       </c>
       <c r="AA155" t="inlineStr"/>
       <c r="AB155" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="n">
+        <v>0</v>
+      </c>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr"/>
+      <c r="AA156" t="inlineStr"/>
+      <c r="AB156" t="n">
         <v>12</v>
       </c>
     </row>
@@ -41072,7 +41252,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB155"/>
+  <dimension ref="A1:AB156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48565,7 +48745,9 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="n">
@@ -48591,6 +48773,44 @@
         <v>1</v>
       </c>
       <c r="AB155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="n">
+        <v>0</v>
+      </c>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr"/>
+      <c r="AA156" t="inlineStr"/>
+      <c r="AB156" t="n">
         <v>3</v>
       </c>
     </row>
@@ -48605,7 +48825,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB155"/>
+  <dimension ref="A1:AB156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56415,6 +56635,46 @@
         <v>5980</v>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="n">
+        <v>285</v>
+      </c>
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="n">
+        <v>910</v>
+      </c>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr"/>
+      <c r="AA156" t="inlineStr"/>
+      <c r="AB156" t="n">
+        <v>5980</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -56426,7 +56686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB155"/>
+  <dimension ref="A1:AB156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62404,6 +62664,42 @@
         <v>37875</v>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-26</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr"/>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr"/>
+      <c r="AA156" t="inlineStr"/>
+      <c r="AB156" t="n">
+        <v>37875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -11323,7 +11323,9 @@
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
+      <c r="G156" t="n">
+        <v>985</v>
+      </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -21932,7 +21934,9 @@
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
+      <c r="G156" t="n">
+        <v>50</v>
+      </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -56646,7 +56650,9 @@
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
+      <c r="G156" t="n">
+        <v>934</v>
+      </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -11314,7 +11314,9 @@
           <t>2020-06-26</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr"/>
+      <c r="B156" t="n">
+        <v>1254</v>
+      </c>
       <c r="C156" t="n">
         <v>25</v>
       </c>
@@ -11328,7 +11330,9 @@
       </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>129</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
@@ -11339,11 +11343,15 @@
         <v>831</v>
       </c>
       <c r="R156" t="inlineStr"/>
-      <c r="S156" t="inlineStr"/>
+      <c r="S156" t="n">
+        <v>453</v>
+      </c>
       <c r="T156" t="n">
         <v>320</v>
       </c>
-      <c r="U156" t="inlineStr"/>
+      <c r="U156" t="n">
+        <v>389</v>
+      </c>
       <c r="V156" t="n">
         <v>3327</v>
       </c>
@@ -11353,7 +11361,7 @@
       <c r="Z156" t="inlineStr"/>
       <c r="AA156" t="inlineStr"/>
       <c r="AB156" t="n">
-        <v>31455</v>
+        <v>31461</v>
       </c>
     </row>
   </sheetData>
@@ -21925,7 +21933,9 @@
           <t>2020-06-26</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr"/>
+      <c r="B156" t="n">
+        <v>47</v>
+      </c>
       <c r="C156" t="n">
         <v>0</v>
       </c>
@@ -21939,7 +21949,9 @@
       </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>13</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
@@ -21950,11 +21962,15 @@
         <v>38</v>
       </c>
       <c r="R156" t="inlineStr"/>
-      <c r="S156" t="inlineStr"/>
+      <c r="S156" t="n">
+        <v>17</v>
+      </c>
       <c r="T156" t="n">
         <v>23</v>
       </c>
-      <c r="U156" t="inlineStr"/>
+      <c r="U156" t="n">
+        <v>18</v>
+      </c>
       <c r="V156" t="n">
         <v>350</v>
       </c>
@@ -32008,7 +32024,9 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
@@ -32019,7 +32037,9 @@
       <c r="R156" t="inlineStr"/>
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr"/>
-      <c r="U156" t="inlineStr"/>
+      <c r="U156" t="n">
+        <v>2</v>
+      </c>
       <c r="V156" t="n">
         <v>5</v>
       </c>
@@ -41232,7 +41252,9 @@
       <c r="R156" t="inlineStr"/>
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr"/>
-      <c r="U156" t="inlineStr"/>
+      <c r="U156" t="n">
+        <v>0</v>
+      </c>
       <c r="V156" t="n">
         <v>0</v>
       </c>
@@ -56668,7 +56690,9 @@
       <c r="T156" t="n">
         <v>285</v>
       </c>
-      <c r="U156" t="inlineStr"/>
+      <c r="U156" t="n">
+        <v>69</v>
+      </c>
       <c r="V156" t="n">
         <v>910</v>
       </c>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -11256,7 +11256,9 @@
       <c r="G155" t="n">
         <v>985</v>
       </c>
-      <c r="H155" t="inlineStr"/>
+      <c r="H155" t="n">
+        <v>1206</v>
+      </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
         <v>129</v>
@@ -11305,7 +11307,7 @@
         <v>3727</v>
       </c>
       <c r="AB155" t="n">
-        <v>31449</v>
+        <v>31452</v>
       </c>
     </row>
     <row r="156">
@@ -11328,14 +11330,18 @@
       <c r="G156" t="n">
         <v>985</v>
       </c>
-      <c r="H156" t="inlineStr"/>
+      <c r="H156" t="n">
+        <v>1211</v>
+      </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
         <v>129</v>
       </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>749</v>
+      </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr"/>
@@ -11355,13 +11361,15 @@
       <c r="V156" t="n">
         <v>3327</v>
       </c>
-      <c r="W156" t="inlineStr"/>
+      <c r="W156" t="n">
+        <v>94</v>
+      </c>
       <c r="X156" t="inlineStr"/>
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr"/>
       <c r="AA156" t="inlineStr"/>
       <c r="AB156" t="n">
-        <v>31461</v>
+        <v>31472</v>
       </c>
     </row>
   </sheetData>
@@ -21875,7 +21883,9 @@
       <c r="G155" t="n">
         <v>50</v>
       </c>
-      <c r="H155" t="inlineStr"/>
+      <c r="H155" t="n">
+        <v>85</v>
+      </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
         <v>13</v>
@@ -21947,14 +21957,18 @@
       <c r="G156" t="n">
         <v>50</v>
       </c>
-      <c r="H156" t="inlineStr"/>
+      <c r="H156" t="n">
+        <v>85</v>
+      </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
         <v>13</v>
       </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>20</v>
+      </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr"/>
@@ -21974,7 +21988,9 @@
       <c r="V156" t="n">
         <v>350</v>
       </c>
-      <c r="W156" t="inlineStr"/>
+      <c r="W156" t="n">
+        <v>7</v>
+      </c>
       <c r="X156" t="inlineStr"/>
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr"/>
@@ -31960,7 +31976,9 @@
       <c r="G155" t="n">
         <v>2</v>
       </c>
-      <c r="H155" t="inlineStr"/>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
         <v>0</v>
@@ -32022,7 +32040,9 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
+      <c r="H156" t="n">
+        <v>2</v>
+      </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
         <v>0</v>
@@ -32043,7 +32063,9 @@
       <c r="V156" t="n">
         <v>5</v>
       </c>
-      <c r="W156" t="inlineStr"/>
+      <c r="W156" t="n">
+        <v>0</v>
+      </c>
       <c r="X156" t="inlineStr"/>
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr"/>
@@ -41183,7 +41205,9 @@
       <c r="G155" t="n">
         <v>1</v>
       </c>
-      <c r="H155" t="inlineStr"/>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
@@ -41239,7 +41263,9 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -56627,7 +56653,9 @@
       <c r="G155" t="n">
         <v>934</v>
       </c>
-      <c r="H155" t="inlineStr"/>
+      <c r="H155" t="n">
+        <v>152</v>
+      </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -56675,7 +56703,9 @@
       <c r="G156" t="n">
         <v>934</v>
       </c>
-      <c r="H156" t="inlineStr"/>
+      <c r="H156" t="n">
+        <v>152</v>
+      </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -56696,7 +56726,9 @@
       <c r="V156" t="n">
         <v>910</v>
       </c>
-      <c r="W156" t="inlineStr"/>
+      <c r="W156" t="n">
+        <v>86</v>
+      </c>
       <c r="X156" t="inlineStr"/>
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -11325,7 +11325,9 @@
       <c r="D156" t="n">
         <v>101</v>
       </c>
-      <c r="E156" t="inlineStr"/>
+      <c r="E156" t="n">
+        <v>1952</v>
+      </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="n">
         <v>985</v>
@@ -11369,7 +11371,7 @@
       <c r="Z156" t="inlineStr"/>
       <c r="AA156" t="inlineStr"/>
       <c r="AB156" t="n">
-        <v>31472</v>
+        <v>31473</v>
       </c>
     </row>
   </sheetData>
@@ -21952,7 +21954,9 @@
       <c r="D156" t="n">
         <v>3</v>
       </c>
-      <c r="E156" t="inlineStr"/>
+      <c r="E156" t="n">
+        <v>97</v>
+      </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="n">
         <v>50</v>
@@ -32037,7 +32041,9 @@
       <c r="D156" t="n">
         <v>1</v>
       </c>
-      <c r="E156" t="inlineStr"/>
+      <c r="E156" t="n">
+        <v>1</v>
+      </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
@@ -41260,7 +41266,9 @@
       <c r="D156" t="n">
         <v>0</v>
       </c>
-      <c r="E156" t="inlineStr"/>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
@@ -48837,7 +48845,9 @@
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr"/>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -11328,7 +11328,9 @@
       <c r="E156" t="n">
         <v>1952</v>
       </c>
-      <c r="F156" t="inlineStr"/>
+      <c r="F156" t="n">
+        <v>854</v>
+      </c>
       <c r="G156" t="n">
         <v>985</v>
       </c>
@@ -11371,7 +11373,7 @@
       <c r="Z156" t="inlineStr"/>
       <c r="AA156" t="inlineStr"/>
       <c r="AB156" t="n">
-        <v>31473</v>
+        <v>31475</v>
       </c>
     </row>
   </sheetData>
@@ -21957,7 +21959,9 @@
       <c r="E156" t="n">
         <v>97</v>
       </c>
-      <c r="F156" t="inlineStr"/>
+      <c r="F156" t="n">
+        <v>35</v>
+      </c>
       <c r="G156" t="n">
         <v>50</v>
       </c>
@@ -32044,7 +32048,9 @@
       <c r="E156" t="n">
         <v>1</v>
       </c>
-      <c r="F156" t="inlineStr"/>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
         <v>2</v>
@@ -41269,7 +41275,9 @@
       <c r="E156" t="n">
         <v>0</v>
       </c>
-      <c r="F156" t="inlineStr"/>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
         <v>0</v>
@@ -48848,7 +48856,9 @@
       <c r="E156" t="n">
         <v>0</v>
       </c>
-      <c r="F156" t="inlineStr"/>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
@@ -56709,7 +56719,9 @@
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
+      <c r="F156" t="n">
+        <v>811</v>
+      </c>
       <c r="G156" t="n">
         <v>934</v>
       </c>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -11371,9 +11371,11 @@
       <c r="X156" t="inlineStr"/>
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr"/>
-      <c r="AA156" t="inlineStr"/>
+      <c r="AA156" t="n">
+        <v>3746</v>
+      </c>
       <c r="AB156" t="n">
-        <v>31475</v>
+        <v>31494</v>
       </c>
     </row>
   </sheetData>
@@ -22002,7 +22004,9 @@
       <c r="X156" t="inlineStr"/>
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr"/>
-      <c r="AA156" t="inlineStr"/>
+      <c r="AA156" t="n">
+        <v>130</v>
+      </c>
       <c r="AB156" t="n">
         <v>1962</v>
       </c>
@@ -32081,7 +32085,9 @@
       <c r="X156" t="inlineStr"/>
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr"/>
-      <c r="AA156" t="inlineStr"/>
+      <c r="AA156" t="n">
+        <v>7</v>
+      </c>
       <c r="AB156" t="n">
         <v>200</v>
       </c>
@@ -48881,7 +48887,9 @@
       <c r="X156" t="inlineStr"/>
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr"/>
-      <c r="AA156" t="inlineStr"/>
+      <c r="AA156" t="n">
+        <v>1</v>
+      </c>
       <c r="AB156" t="n">
         <v>3</v>
       </c>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -11348,7 +11348,9 @@
       </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
+      <c r="P156" t="n">
+        <v>82</v>
+      </c>
       <c r="Q156" t="n">
         <v>831</v>
       </c>
@@ -21981,7 +21983,9 @@
       </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
+      <c r="P156" t="n">
+        <v>0</v>
+      </c>
       <c r="Q156" t="n">
         <v>38</v>
       </c>
@@ -32068,7 +32072,9 @@
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
+      <c r="P156" t="n">
+        <v>0</v>
+      </c>
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="inlineStr"/>
       <c r="S156" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB156"/>
+  <dimension ref="A1:AB157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11380,6 +11380,42 @@
         <v>31494</v>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr"/>
+      <c r="AA157" t="inlineStr"/>
+      <c r="AB157" t="n">
+        <v>31494</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -11391,7 +11427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB156"/>
+  <dimension ref="A1:AB157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22015,6 +22051,42 @@
         <v>1962</v>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr"/>
+      <c r="AA157" t="inlineStr"/>
+      <c r="AB157" t="n">
+        <v>1962</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -22026,7 +22098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB156"/>
+  <dimension ref="A1:AB157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32098,6 +32170,42 @@
         <v>200</v>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr"/>
+      <c r="AA157" t="inlineStr"/>
+      <c r="AB157" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -32109,7 +32217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB156"/>
+  <dimension ref="A1:AB157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41321,6 +41429,42 @@
         <v>12</v>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr"/>
+      <c r="AA157" t="inlineStr"/>
+      <c r="AB157" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -41332,7 +41476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB156"/>
+  <dimension ref="A1:AB157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48900,6 +49044,42 @@
         <v>3</v>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr"/>
+      <c r="AA157" t="inlineStr"/>
+      <c r="AB157" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -48911,7 +49091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB156"/>
+  <dimension ref="A1:AB157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56773,6 +56953,42 @@
         <v>5980</v>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr"/>
+      <c r="AA157" t="inlineStr"/>
+      <c r="AB157" t="n">
+        <v>5980</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -56784,7 +57000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB156"/>
+  <dimension ref="A1:AB157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62798,6 +63014,42 @@
         <v>37875</v>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-27</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr"/>
+      <c r="AA157" t="inlineStr"/>
+      <c r="AB157" t="n">
+        <v>37875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -11391,7 +11391,9 @@
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
+      <c r="G157" t="n">
+        <v>985</v>
+      </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -22062,7 +22064,9 @@
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
+      <c r="G157" t="n">
+        <v>50</v>
+      </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -56964,7 +56968,9 @@
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
+      <c r="G157" t="n">
+        <v>934</v>
+      </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -11144,7 +11144,7 @@
         <v>5528</v>
       </c>
       <c r="Y153" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="Z153" t="n">
         <v>216</v>
@@ -11153,7 +11153,7 @@
         <v>3704</v>
       </c>
       <c r="AB153" t="n">
-        <v>31366</v>
+        <v>31367</v>
       </c>
     </row>
     <row r="154">
@@ -11222,7 +11222,7 @@
         <v>5534</v>
       </c>
       <c r="Y154" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="Z154" t="n">
         <v>218</v>
@@ -11231,7 +11231,7 @@
         <v>3720</v>
       </c>
       <c r="AB154" t="n">
-        <v>31419</v>
+        <v>31422</v>
       </c>
     </row>
     <row r="155">
@@ -11298,7 +11298,7 @@
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr"/>
       <c r="Y155" t="n">
-        <v>2020</v>
+        <v>2029</v>
       </c>
       <c r="Z155" t="n">
         <v>219</v>
@@ -11307,7 +11307,7 @@
         <v>3727</v>
       </c>
       <c r="AB155" t="n">
-        <v>31452</v>
+        <v>31461</v>
       </c>
     </row>
     <row r="156">
@@ -11371,13 +11371,15 @@
         <v>94</v>
       </c>
       <c r="X156" t="inlineStr"/>
-      <c r="Y156" t="inlineStr"/>
+      <c r="Y156" t="n">
+        <v>2029</v>
+      </c>
       <c r="Z156" t="inlineStr"/>
       <c r="AA156" t="n">
         <v>3746</v>
       </c>
       <c r="AB156" t="n">
-        <v>31494</v>
+        <v>31503</v>
       </c>
     </row>
     <row r="157">
@@ -11415,7 +11417,7 @@
       <c r="Z157" t="inlineStr"/>
       <c r="AA157" t="inlineStr"/>
       <c r="AB157" t="n">
-        <v>31494</v>
+        <v>31503</v>
       </c>
     </row>
   </sheetData>
@@ -22044,7 +22046,9 @@
         <v>7</v>
       </c>
       <c r="X156" t="inlineStr"/>
-      <c r="Y156" t="inlineStr"/>
+      <c r="Y156" t="n">
+        <v>153</v>
+      </c>
       <c r="Z156" t="inlineStr"/>
       <c r="AA156" t="n">
         <v>130</v>
@@ -31620,7 +31624,7 @@
         <v>29</v>
       </c>
       <c r="Y148" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z148" t="n">
         <v>0</v>
@@ -31629,7 +31633,7 @@
         <v>10</v>
       </c>
       <c r="AB148" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="149">
@@ -31694,7 +31698,7 @@
         <v>29</v>
       </c>
       <c r="Y149" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z149" t="n">
         <v>0</v>
@@ -31703,7 +31707,7 @@
         <v>9</v>
       </c>
       <c r="AB149" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="150">
@@ -31756,7 +31760,7 @@
         <v>30</v>
       </c>
       <c r="Y150" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z150" t="n">
         <v>0</v>
@@ -31765,7 +31769,7 @@
         <v>10</v>
       </c>
       <c r="AB150" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="151">
@@ -31820,7 +31824,7 @@
         <v>31</v>
       </c>
       <c r="Y151" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z151" t="n">
         <v>0</v>
@@ -31829,7 +31833,7 @@
         <v>10</v>
       </c>
       <c r="AB151" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="152">
@@ -31894,7 +31898,7 @@
         <v>30</v>
       </c>
       <c r="Y152" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z152" t="n">
         <v>0</v>
@@ -31903,7 +31907,7 @@
         <v>11</v>
       </c>
       <c r="AB152" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="153">
@@ -31964,7 +31968,7 @@
         <v>29</v>
       </c>
       <c r="Y153" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z153" t="n">
         <v>0</v>
@@ -31973,7 +31977,7 @@
         <v>10</v>
       </c>
       <c r="AB153" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="154">
@@ -32036,7 +32040,7 @@
         <v>29</v>
       </c>
       <c r="Y154" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z154" t="n">
         <v>0</v>
@@ -32045,7 +32049,7 @@
         <v>8</v>
       </c>
       <c r="AB154" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="155">
@@ -32106,7 +32110,7 @@
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr"/>
       <c r="Y155" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z155" t="n">
         <v>0</v>
@@ -32115,7 +32119,7 @@
         <v>7</v>
       </c>
       <c r="AB155" t="n">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="156">
@@ -32165,13 +32169,15 @@
         <v>0</v>
       </c>
       <c r="X156" t="inlineStr"/>
-      <c r="Y156" t="inlineStr"/>
+      <c r="Y156" t="n">
+        <v>10</v>
+      </c>
       <c r="Z156" t="inlineStr"/>
       <c r="AA156" t="n">
         <v>7</v>
       </c>
       <c r="AB156" t="n">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="157">
@@ -32207,7 +32213,7 @@
       <c r="Z157" t="inlineStr"/>
       <c r="AA157" t="inlineStr"/>
       <c r="AB157" t="n">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -39781,14 +39787,14 @@
         <v>10</v>
       </c>
       <c r="Y131" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z131" t="n">
         <v>0</v>
       </c>
       <c r="AA131" t="inlineStr"/>
       <c r="AB131" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132">
@@ -39851,14 +39857,14 @@
         <v>9</v>
       </c>
       <c r="Y132" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z132" t="n">
         <v>0</v>
       </c>
       <c r="AA132" t="inlineStr"/>
       <c r="AB132" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133">
@@ -39923,14 +39929,14 @@
         <v>9</v>
       </c>
       <c r="Y133" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z133" t="n">
         <v>0</v>
       </c>
       <c r="AA133" t="inlineStr"/>
       <c r="AB133" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134">
@@ -39993,14 +39999,14 @@
         <v>9</v>
       </c>
       <c r="Y134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z134" t="n">
         <v>0</v>
       </c>
       <c r="AA134" t="inlineStr"/>
       <c r="AB134" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135">
@@ -40061,14 +40067,14 @@
         <v>8</v>
       </c>
       <c r="Y135" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z135" t="n">
         <v>0</v>
       </c>
       <c r="AA135" t="inlineStr"/>
       <c r="AB135" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136">
@@ -40123,14 +40129,14 @@
         <v>8</v>
       </c>
       <c r="Y136" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z136" t="n">
         <v>0</v>
       </c>
       <c r="AA136" t="inlineStr"/>
       <c r="AB136" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137">
@@ -40185,14 +40191,14 @@
         <v>8</v>
       </c>
       <c r="Y137" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z137" t="n">
         <v>0</v>
       </c>
       <c r="AA137" t="inlineStr"/>
       <c r="AB137" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138">
@@ -40259,14 +40265,14 @@
         <v>7</v>
       </c>
       <c r="Y138" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z138" t="n">
         <v>0</v>
       </c>
       <c r="AA138" t="inlineStr"/>
       <c r="AB138" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139">
@@ -40325,14 +40331,14 @@
         <v>7</v>
       </c>
       <c r="Y139" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z139" t="n">
         <v>0</v>
       </c>
       <c r="AA139" t="inlineStr"/>
       <c r="AB139" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140">
@@ -40393,14 +40399,14 @@
         <v>6</v>
       </c>
       <c r="Y140" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z140" t="n">
         <v>0</v>
       </c>
       <c r="AA140" t="inlineStr"/>
       <c r="AB140" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141">
@@ -40461,14 +40467,14 @@
         <v>3</v>
       </c>
       <c r="Y141" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z141" t="n">
         <v>0</v>
       </c>
       <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142">
@@ -40529,14 +40535,14 @@
         <v>3</v>
       </c>
       <c r="Y142" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z142" t="n">
         <v>0</v>
       </c>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143">
@@ -40591,14 +40597,14 @@
         <v>3</v>
       </c>
       <c r="Y143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z143" t="n">
         <v>0</v>
       </c>
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144">
@@ -40655,14 +40661,14 @@
         <v>3</v>
       </c>
       <c r="Y144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z144" t="n">
         <v>0</v>
       </c>
       <c r="AA144" t="inlineStr"/>
       <c r="AB144" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145">
@@ -40725,14 +40731,14 @@
         <v>3</v>
       </c>
       <c r="Y145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z145" t="n">
         <v>0</v>
       </c>
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146">
@@ -40791,14 +40797,14 @@
         <v>3</v>
       </c>
       <c r="Y146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z146" t="n">
         <v>0</v>
       </c>
       <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147">
@@ -40857,14 +40863,14 @@
         <v>3</v>
       </c>
       <c r="Y147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z147" t="n">
         <v>0</v>
       </c>
       <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148">
@@ -40923,14 +40929,14 @@
         <v>3</v>
       </c>
       <c r="Y148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z148" t="n">
         <v>0</v>
       </c>
       <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149">
@@ -40991,14 +40997,14 @@
         <v>3</v>
       </c>
       <c r="Y149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z149" t="n">
         <v>0</v>
       </c>
       <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150">
@@ -41051,14 +41057,14 @@
         <v>3</v>
       </c>
       <c r="Y150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z150" t="n">
         <v>0</v>
       </c>
       <c r="AA150" t="inlineStr"/>
       <c r="AB150" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151">
@@ -41113,14 +41119,14 @@
         <v>3</v>
       </c>
       <c r="Y151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z151" t="n">
         <v>0</v>
       </c>
       <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152">
@@ -41181,14 +41187,14 @@
         <v>3</v>
       </c>
       <c r="Y152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z152" t="n">
         <v>0</v>
       </c>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153">
@@ -41245,14 +41251,14 @@
         <v>3</v>
       </c>
       <c r="Y153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z153" t="n">
         <v>0</v>
       </c>
       <c r="AA153" t="inlineStr"/>
       <c r="AB153" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154">
@@ -41311,14 +41317,14 @@
         <v>3</v>
       </c>
       <c r="Y154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z154" t="n">
         <v>0</v>
       </c>
       <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155">
@@ -41375,14 +41381,14 @@
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr"/>
       <c r="Y155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z155" t="n">
         <v>0</v>
       </c>
       <c r="AA155" t="inlineStr"/>
       <c r="AB155" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156">
@@ -41426,11 +41432,13 @@
       </c>
       <c r="W156" t="inlineStr"/>
       <c r="X156" t="inlineStr"/>
-      <c r="Y156" t="inlineStr"/>
+      <c r="Y156" t="n">
+        <v>1</v>
+      </c>
       <c r="Z156" t="inlineStr"/>
       <c r="AA156" t="inlineStr"/>
       <c r="AB156" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157">
@@ -41466,7 +41474,7 @@
       <c r="Z157" t="inlineStr"/>
       <c r="AA157" t="inlineStr"/>
       <c r="AB157" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -49039,7 +49047,9 @@
       </c>
       <c r="W156" t="inlineStr"/>
       <c r="X156" t="inlineStr"/>
-      <c r="Y156" t="inlineStr"/>
+      <c r="Y156" t="n">
+        <v>1</v>
+      </c>
       <c r="Z156" t="inlineStr"/>
       <c r="AA156" t="n">
         <v>1</v>
@@ -56531,14 +56541,14 @@
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Z148" t="n">
         <v>190</v>
       </c>
       <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="n">
-        <v>5962</v>
+        <v>5963</v>
       </c>
     </row>
     <row r="149">
@@ -56583,14 +56593,14 @@
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Z149" t="n">
         <v>190</v>
       </c>
       <c r="AA149" t="inlineStr"/>
       <c r="AB149" t="n">
-        <v>5965</v>
+        <v>5966</v>
       </c>
     </row>
     <row r="150">
@@ -56635,14 +56645,14 @@
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr"/>
       <c r="Y150" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Z150" t="n">
         <v>190</v>
       </c>
       <c r="AA150" t="inlineStr"/>
       <c r="AB150" t="n">
-        <v>5965</v>
+        <v>5966</v>
       </c>
     </row>
     <row r="151">
@@ -56687,14 +56697,14 @@
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr"/>
       <c r="Y151" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Z151" t="n">
         <v>190</v>
       </c>
       <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="n">
-        <v>5966</v>
+        <v>5967</v>
       </c>
     </row>
     <row r="152">
@@ -56739,14 +56749,14 @@
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr"/>
       <c r="Y152" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z152" t="n">
         <v>190</v>
       </c>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="n">
-        <v>5968</v>
+        <v>5969</v>
       </c>
     </row>
     <row r="153">
@@ -56791,14 +56801,14 @@
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr"/>
       <c r="Y153" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z153" t="n">
         <v>190</v>
       </c>
       <c r="AA153" t="inlineStr"/>
       <c r="AB153" t="n">
-        <v>5969</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="154">
@@ -56845,14 +56855,14 @@
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr"/>
       <c r="Y154" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Z154" t="n">
         <v>196</v>
       </c>
       <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="n">
-        <v>5979</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="155">
@@ -56897,14 +56907,14 @@
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr"/>
       <c r="Y155" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Z155" t="n">
         <v>196</v>
       </c>
       <c r="AA155" t="inlineStr"/>
       <c r="AB155" t="n">
-        <v>5980</v>
+        <v>5983</v>
       </c>
     </row>
     <row r="156">
@@ -56950,11 +56960,13 @@
         <v>86</v>
       </c>
       <c r="X156" t="inlineStr"/>
-      <c r="Y156" t="inlineStr"/>
+      <c r="Y156" t="n">
+        <v>296</v>
+      </c>
       <c r="Z156" t="inlineStr"/>
       <c r="AA156" t="inlineStr"/>
       <c r="AB156" t="n">
-        <v>5980</v>
+        <v>5983</v>
       </c>
     </row>
     <row r="157">
@@ -56992,7 +57004,7 @@
       <c r="Z157" t="inlineStr"/>
       <c r="AA157" t="inlineStr"/>
       <c r="AB157" t="n">
-        <v>5980</v>
+        <v>5983</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -11401,7 +11401,9 @@
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>749</v>
+      </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr"/>
@@ -22076,7 +22078,9 @@
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>20</v>
+      </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -11410,7 +11410,9 @@
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="inlineStr"/>
       <c r="S157" t="inlineStr"/>
-      <c r="T157" t="inlineStr"/>
+      <c r="T157" t="n">
+        <v>323</v>
+      </c>
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr"/>
       <c r="W157" t="inlineStr"/>
@@ -11419,7 +11421,7 @@
       <c r="Z157" t="inlineStr"/>
       <c r="AA157" t="inlineStr"/>
       <c r="AB157" t="n">
-        <v>31503</v>
+        <v>31506</v>
       </c>
     </row>
   </sheetData>
@@ -22087,7 +22089,9 @@
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="inlineStr"/>
       <c r="S157" t="inlineStr"/>
-      <c r="T157" t="inlineStr"/>
+      <c r="T157" t="n">
+        <v>23</v>
+      </c>
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr"/>
       <c r="W157" t="inlineStr"/>
@@ -56999,7 +57003,9 @@
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="inlineStr"/>
       <c r="S157" t="inlineStr"/>
-      <c r="T157" t="inlineStr"/>
+      <c r="T157" t="n">
+        <v>285</v>
+      </c>
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr"/>
       <c r="W157" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -10319,9 +10319,7 @@
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
-      <c r="E143" t="n">
-        <v>1933</v>
-      </c>
+      <c r="E143" t="inlineStr"/>
       <c r="F143" t="n">
         <v>846</v>
       </c>
@@ -10375,7 +10373,7 @@
         <v>3650</v>
       </c>
       <c r="AB143" t="n">
-        <v>31122</v>
+        <v>31116</v>
       </c>
     </row>
     <row r="144">
@@ -10389,9 +10387,7 @@
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
-      <c r="E144" t="n">
-        <v>1933</v>
-      </c>
+      <c r="E144" t="inlineStr"/>
       <c r="F144" t="n">
         <v>846</v>
       </c>
@@ -10449,7 +10445,7 @@
         <v>3655</v>
       </c>
       <c r="AB144" t="n">
-        <v>31138</v>
+        <v>31132</v>
       </c>
     </row>
     <row r="145">
@@ -10465,9 +10461,7 @@
       <c r="D145" t="n">
         <v>100</v>
       </c>
-      <c r="E145" t="n">
-        <v>1934</v>
-      </c>
+      <c r="E145" t="inlineStr"/>
       <c r="F145" t="n">
         <v>846</v>
       </c>
@@ -10529,7 +10523,7 @@
         <v>3662</v>
       </c>
       <c r="AB145" t="n">
-        <v>31161</v>
+        <v>31154</v>
       </c>
     </row>
     <row r="146">
@@ -10545,9 +10539,7 @@
         <v>25</v>
       </c>
       <c r="D146" t="inlineStr"/>
-      <c r="E146" t="n">
-        <v>1935</v>
-      </c>
+      <c r="E146" t="inlineStr"/>
       <c r="F146" t="n">
         <v>847</v>
       </c>
@@ -10611,7 +10603,7 @@
         <v>3669</v>
       </c>
       <c r="AB146" t="n">
-        <v>31188</v>
+        <v>31180</v>
       </c>
     </row>
     <row r="147">
@@ -10627,9 +10619,7 @@
         <v>25</v>
       </c>
       <c r="D147" t="inlineStr"/>
-      <c r="E147" t="n">
-        <v>1935</v>
-      </c>
+      <c r="E147" t="inlineStr"/>
       <c r="F147" t="n">
         <v>847</v>
       </c>
@@ -10693,7 +10683,7 @@
         <v>3679</v>
       </c>
       <c r="AB147" t="n">
-        <v>31223</v>
+        <v>31215</v>
       </c>
     </row>
     <row r="148">
@@ -10707,9 +10697,7 @@
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
-      <c r="E148" t="n">
-        <v>1937</v>
-      </c>
+      <c r="E148" t="inlineStr"/>
       <c r="F148" t="n">
         <v>847</v>
       </c>
@@ -10771,7 +10759,7 @@
         <v>3684</v>
       </c>
       <c r="AB148" t="n">
-        <v>31236</v>
+        <v>31226</v>
       </c>
     </row>
     <row r="149">
@@ -10789,9 +10777,7 @@
       <c r="D149" t="n">
         <v>100</v>
       </c>
-      <c r="E149" t="n">
-        <v>1939</v>
-      </c>
+      <c r="E149" t="inlineStr"/>
       <c r="F149" t="n">
         <v>847</v>
       </c>
@@ -10853,7 +10839,7 @@
         <v>3685</v>
       </c>
       <c r="AB149" t="n">
-        <v>31265</v>
+        <v>31253</v>
       </c>
     </row>
     <row r="150">
@@ -10865,9 +10851,7 @@
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
-      <c r="E150" t="n">
-        <v>1939</v>
-      </c>
+      <c r="E150" t="inlineStr"/>
       <c r="F150" t="n">
         <v>848</v>
       </c>
@@ -10921,7 +10905,7 @@
         <v>3692</v>
       </c>
       <c r="AB150" t="n">
-        <v>31285</v>
+        <v>31273</v>
       </c>
     </row>
     <row r="151">
@@ -10933,9 +10917,7 @@
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
-      <c r="E151" t="n">
-        <v>1940</v>
-      </c>
+      <c r="E151" t="inlineStr"/>
       <c r="F151" t="n">
         <v>849</v>
       </c>
@@ -10989,7 +10971,7 @@
         <v>3697</v>
       </c>
       <c r="AB151" t="n">
-        <v>31301</v>
+        <v>31288</v>
       </c>
     </row>
     <row r="152">
@@ -11005,9 +10987,7 @@
       <c r="D152" t="n">
         <v>100</v>
       </c>
-      <c r="E152" t="n">
-        <v>1946</v>
-      </c>
+      <c r="E152" t="inlineStr"/>
       <c r="F152" t="n">
         <v>849</v>
       </c>
@@ -11071,7 +11051,7 @@
         <v>3700</v>
       </c>
       <c r="AB152" t="n">
-        <v>31340</v>
+        <v>31321</v>
       </c>
     </row>
     <row r="153">
@@ -11087,9 +11067,7 @@
         <v>25</v>
       </c>
       <c r="D153" t="inlineStr"/>
-      <c r="E153" t="n">
-        <v>1946</v>
-      </c>
+      <c r="E153" t="inlineStr"/>
       <c r="F153" t="n">
         <v>849</v>
       </c>
@@ -11153,7 +11131,7 @@
         <v>3704</v>
       </c>
       <c r="AB153" t="n">
-        <v>31367</v>
+        <v>31348</v>
       </c>
     </row>
     <row r="154">
@@ -11169,9 +11147,7 @@
         <v>25</v>
       </c>
       <c r="D154" t="inlineStr"/>
-      <c r="E154" t="n">
-        <v>1948</v>
-      </c>
+      <c r="E154" t="inlineStr"/>
       <c r="F154" t="n">
         <v>851</v>
       </c>
@@ -11231,7 +11207,7 @@
         <v>3720</v>
       </c>
       <c r="AB154" t="n">
-        <v>31422</v>
+        <v>31401</v>
       </c>
     </row>
     <row r="155">
@@ -11247,9 +11223,7 @@
       <c r="D155" t="n">
         <v>101</v>
       </c>
-      <c r="E155" t="n">
-        <v>1951</v>
-      </c>
+      <c r="E155" t="inlineStr"/>
       <c r="F155" t="n">
         <v>852</v>
       </c>
@@ -11307,7 +11281,7 @@
         <v>3727</v>
       </c>
       <c r="AB155" t="n">
-        <v>31461</v>
+        <v>31437</v>
       </c>
     </row>
     <row r="156">
@@ -11326,7 +11300,7 @@
         <v>101</v>
       </c>
       <c r="E156" t="n">
-        <v>1952</v>
+        <v>1928</v>
       </c>
       <c r="F156" t="n">
         <v>854</v>
@@ -11379,7 +11353,7 @@
         <v>3746</v>
       </c>
       <c r="AB156" t="n">
-        <v>31503</v>
+        <v>31479</v>
       </c>
     </row>
     <row r="157">
@@ -11391,7 +11365,9 @@
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr"/>
+      <c r="E157" t="n">
+        <v>1929</v>
+      </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="n">
         <v>985</v>
@@ -11421,7 +11397,7 @@
       <c r="Z157" t="inlineStr"/>
       <c r="AA157" t="inlineStr"/>
       <c r="AB157" t="n">
-        <v>31506</v>
+        <v>31483</v>
       </c>
     </row>
   </sheetData>
@@ -22070,7 +22046,9 @@
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr"/>
+      <c r="E157" t="n">
+        <v>97</v>
+      </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="n">
         <v>50</v>
@@ -32197,7 +32175,9 @@
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr"/>
+      <c r="E157" t="n">
+        <v>1</v>
+      </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
@@ -41458,7 +41438,9 @@
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr"/>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
@@ -49075,7 +49057,9 @@
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr"/>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>

--- a/cache/daily/ch/202002210000..xlsx
+++ b/cache/daily/ch/202002210000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB157"/>
+  <dimension ref="A1:AB158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11400,6 +11400,42 @@
         <v>31483</v>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr"/>
+      <c r="AA158" t="inlineStr"/>
+      <c r="AB158" t="n">
+        <v>31483</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -11411,7 +11447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB157"/>
+  <dimension ref="A1:AB158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22081,6 +22117,42 @@
         <v>1962</v>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr"/>
+      <c r="AA158" t="inlineStr"/>
+      <c r="AB158" t="n">
+        <v>1962</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -22092,7 +22164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB157"/>
+  <dimension ref="A1:AB158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32204,6 +32276,42 @@
         <v>197</v>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr"/>
+      <c r="AA158" t="inlineStr"/>
+      <c r="AB158" t="n">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -32215,7 +32323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB157"/>
+  <dimension ref="A1:AB158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41467,6 +41575,42 @@
         <v>11</v>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr"/>
+      <c r="AA158" t="inlineStr"/>
+      <c r="AB158" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -41478,7 +41622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB157"/>
+  <dimension ref="A1:AB158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49086,6 +49230,42 @@
         <v>3</v>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr"/>
+      <c r="AA158" t="inlineStr"/>
+      <c r="AB158" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -49097,7 +49277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB157"/>
+  <dimension ref="A1:AB158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57001,6 +57181,42 @@
         <v>5983</v>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr"/>
+      <c r="AA158" t="inlineStr"/>
+      <c r="AB158" t="n">
+        <v>5983</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -57012,7 +57228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB157"/>
+  <dimension ref="A1:AB158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63062,6 +63278,42 @@
         <v>37875</v>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>2020-06-28</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr"/>
+      <c r="AA158" t="inlineStr"/>
+      <c r="AB158" t="n">
+        <v>37875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
